--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report2.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0317376B-F38C-4582-AB96-725BDEC433AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D4EEEC-4CF8-484C-9647-0C9EB4169B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="155">
   <si>
     <t xml:space="preserve">التقرير المالي  التفصيلي </t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>إجمالي الصادر</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -1236,6 +1239,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1280,30 +1307,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1704,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI103"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView rightToLeft="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -2931,29 +2934,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
       <c r="U1" s="34"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -2971,15 +2974,15 @@
       <c r="AI1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="60"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="107"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="1"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -3035,10 +3038,10 @@
         <v>6</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="102"/>
+      <c r="L3" s="110"/>
       <c r="M3" s="61"/>
       <c r="N3" s="61"/>
       <c r="O3" s="61"/>
@@ -3063,17 +3066,17 @@
       <c r="AI3" s="4"/>
     </row>
     <row r="4" spans="1:35" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="113"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9" t="s">
         <v>9</v>
@@ -7686,14 +7689,14 @@
       <c r="K94" s="29"/>
     </row>
     <row r="95" spans="1:22" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A95" s="113"/>
-      <c r="B95" s="114" t="s">
+      <c r="A95" s="98"/>
+      <c r="B95" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="C95" s="114" t="s">
+      <c r="C95" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="D95" s="115" t="s">
+      <c r="D95" s="100" t="s">
         <v>56</v>
       </c>
       <c r="E95" s="46"/>
@@ -7702,16 +7705,16 @@
       <c r="K95" s="29"/>
     </row>
     <row r="96" spans="1:22" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A96" s="116"/>
-      <c r="B96" s="112">
+      <c r="A96" s="101"/>
+      <c r="B96" s="97">
         <f>SUMIF(C5:C90,A96,A5:A90)</f>
         <v>0</v>
       </c>
-      <c r="C96" s="112">
+      <c r="C96" s="97">
         <f>SUMIF(C5:C90,A96,B5:B90)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="117">
+      <c r="D96" s="102">
         <f>B96-C96</f>
         <v>0</v>
       </c>
@@ -7721,16 +7724,16 @@
       <c r="K96" s="29"/>
     </row>
     <row r="97" spans="1:11" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A97" s="116"/>
-      <c r="B97" s="112">
+      <c r="A97" s="101"/>
+      <c r="B97" s="97">
         <f t="shared" ref="B97:B103" si="41">SUMIF(C6:C91,A97,A6:A91)</f>
         <v>0</v>
       </c>
-      <c r="C97" s="112">
+      <c r="C97" s="97">
         <f t="shared" ref="C97:C103" si="42">SUMIF(C6:C91,A97,B6:B91)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="117">
+      <c r="D97" s="102">
         <f t="shared" ref="D97:D103" si="43">B97-C97</f>
         <v>0</v>
       </c>
@@ -7740,16 +7743,16 @@
       <c r="K97" s="29"/>
     </row>
     <row r="98" spans="1:11" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A98" s="116"/>
-      <c r="B98" s="112">
+      <c r="A98" s="101"/>
+      <c r="B98" s="97">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="C98" s="112">
+      <c r="C98" s="97">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="D98" s="117">
+      <c r="D98" s="102">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -7757,16 +7760,16 @@
       <c r="F98" s="49"/>
     </row>
     <row r="99" spans="1:11" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A99" s="116"/>
-      <c r="B99" s="112">
+      <c r="A99" s="101"/>
+      <c r="B99" s="97">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="C99" s="112">
+      <c r="C99" s="97">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="D99" s="117">
+      <c r="D99" s="102">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -7775,16 +7778,16 @@
       <c r="G99" s="52"/>
     </row>
     <row r="100" spans="1:11" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A100" s="116"/>
-      <c r="B100" s="112">
+      <c r="A100" s="101"/>
+      <c r="B100" s="97">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="C100" s="112">
+      <c r="C100" s="97">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="D100" s="117">
+      <c r="D100" s="102">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -7792,46 +7795,46 @@
       <c r="F100" s="48"/>
     </row>
     <row r="101" spans="1:11" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A101" s="116"/>
-      <c r="B101" s="112">
+      <c r="A101" s="101"/>
+      <c r="B101" s="97">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="C101" s="112">
+      <c r="C101" s="97">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="D101" s="117">
+      <c r="D101" s="102">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A102" s="116"/>
-      <c r="B102" s="112">
+      <c r="A102" s="101"/>
+      <c r="B102" s="97">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="C102" s="112">
+      <c r="C102" s="97">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="D102" s="117">
+      <c r="D102" s="102">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="22.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="116"/>
-      <c r="B103" s="118">
+      <c r="A103" s="101"/>
+      <c r="B103" s="103">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="C103" s="118">
+      <c r="C103" s="103">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="D103" s="119">
+      <c r="D103" s="104">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -7873,13 +7876,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B0A71AE8-8979-4381-AE63-0CA5DB03260B}">
           <x14:formula1>
-            <xm:f>Lists!$C$3:$C$417</xm:f>
+            <xm:f>OFFSET(Lists!$C$3,0,0,COUNTA(Lists!$C:$C)-1,1)</xm:f>
           </x14:formula1>
           <xm:sqref>I5:I90</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6225FA5A-FA66-44B5-83C2-DCD736E4BF2E}">
           <x14:formula1>
-            <xm:f>Lists!$I$3:$I$12</xm:f>
+            <xm:f>OFFSET(Lists!$I$3,0,0,COUNTA(Lists!$I:$I)-1,1)</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C90</xm:sqref>
         </x14:dataValidation>
@@ -7893,8 +7896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9BEFC6-FCAB-4E38-9530-385CE131BB4B}">
   <dimension ref="B2:I417"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8131,7 +8134,9 @@
         <v>20</v>
       </c>
       <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
+      <c r="D22" s="76" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="76">

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report2.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD01A84-E6EE-43EF-8C45-FED46869131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0A8481-2C4E-4ACC-B844-8B1D43924CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,12 +565,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Sakkal Majalla"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF7D7547"/>
       <name val="Sakkal Majalla"/>
     </font>
     <font>
@@ -926,10 +920,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1007,16 +1001,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1026,13 +1020,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1046,7 +1040,7 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1073,7 +1067,7 @@
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,16 +1091,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1157,22 +1151,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1190,18 +1173,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1213,16 +1184,16 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1679,7 +1650,7 @@
   <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -2905,28 +2876,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="98"/>
-      <c r="K1" s="108" t="s">
+      <c r="A1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92"/>
+      <c r="K1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
       <c r="U1" s="26"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -2943,15 +2914,15 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" s="1" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="51"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -3004,10 +2975,10 @@
         <v>6</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="99" t="s">
+      <c r="K3" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="100"/>
+      <c r="L3" s="94"/>
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
@@ -3031,17 +3002,17 @@
       <c r="AH3" s="2"/>
     </row>
     <row r="4" spans="1:34" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="103"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6" t="s">
         <v>9</v>
@@ -3593,13 +3564,34 @@
         <f>SUM(L5:L12)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
+      <c r="M13" s="58">
+        <f t="shared" ref="M13:S13" si="8">SUM(M5:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="U13" s="26"/>
       <c r="V13" s="2"/>
       <c r="W13" s="8"/>
@@ -3634,31 +3626,31 @@
         <v>دولار</v>
       </c>
       <c r="M14" s="57">
-        <f t="shared" ref="M14:S14" si="8">M4</f>
+        <f t="shared" ref="M14:S14" si="9">M4</f>
         <v>0</v>
       </c>
       <c r="N14" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O14" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P14" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q14" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R14" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S14" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U14" s="26"/>
@@ -3691,35 +3683,35 @@
         <v>50</v>
       </c>
       <c r="L15" s="65">
-        <f t="shared" ref="L15:L59" si="9">SUMIFS(B:B,I:I,K15,C:C,$L$4)</f>
+        <f t="shared" ref="L15:L59" si="10">SUMIFS(B:B,I:I,K15,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M15" s="65">
-        <f t="shared" ref="M15:M59" si="10">SUMIFS(B:B,I:I,K15,C:C,$M$4)</f>
+        <f t="shared" ref="M15:M59" si="11">SUMIFS(B:B,I:I,K15,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N15" s="65">
-        <f t="shared" ref="N15:N59" si="11">SUMIFS(B:B,I:I,K15,C:C,$N$4)</f>
+        <f t="shared" ref="N15:N59" si="12">SUMIFS(B:B,I:I,K15,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O15" s="65">
-        <f t="shared" ref="O15:O59" si="12">SUMIFS(B:B,I:I,K15,C:C,$O$4)</f>
+        <f t="shared" ref="O15:O59" si="13">SUMIFS(B:B,I:I,K15,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P15" s="65">
-        <f t="shared" ref="P15:P59" si="13">SUMIFS(B:B,I:I,K15,C:C,$P$4)</f>
+        <f t="shared" ref="P15:P59" si="14">SUMIFS(B:B,I:I,K15,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="65">
-        <f t="shared" ref="Q15:Q59" si="14">SUMIFS(B:B,I:I,K15,C:C,$Q$4)</f>
+        <f t="shared" ref="Q15:Q59" si="15">SUMIFS(B:B,I:I,K15,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R15" s="65">
-        <f t="shared" ref="R15:R59" si="15">SUMIFS(B:B,I:I,K15,C:C,$R$4)</f>
+        <f t="shared" ref="R15:R59" si="16">SUMIFS(B:B,I:I,K15,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S15" s="65">
-        <f t="shared" ref="S15:S59" si="16">SUMIFS(B:B,I:I,K15,C:C,$S$4)</f>
+        <f t="shared" ref="S15:S59" si="17">SUMIFS(B:B,I:I,K15,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U15" s="26" t="s">
@@ -3754,35 +3746,35 @@
         <v>19</v>
       </c>
       <c r="L16" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M16" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N16" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O16" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P16" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q16" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R16" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S16" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U16" s="26" t="s">
@@ -3804,11 +3796,11 @@
     </row>
     <row r="17" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="29"/>
       <c r="H17" s="32"/>
       <c r="I17" s="9"/>
@@ -3817,35 +3809,35 @@
         <v>66</v>
       </c>
       <c r="L17" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M17" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N17" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O17" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P17" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q17" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R17" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S17" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U17" s="26" t="s">
@@ -3872,7 +3864,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="86"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="32"/>
       <c r="I18" s="13"/>
       <c r="J18" s="10"/>
@@ -3880,35 +3872,35 @@
         <v>20</v>
       </c>
       <c r="L18" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M18" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N18" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O18" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P18" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q18" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R18" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S18" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U18" s="26" t="s">
@@ -3943,35 +3935,35 @@
         <v>22</v>
       </c>
       <c r="L19" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M19" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N19" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O19" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P19" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q19" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R19" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S19" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U19" s="26" t="s">
@@ -3992,8 +3984,8 @@
       <c r="AH19" s="8"/>
     </row>
     <row r="20" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -4006,35 +3998,35 @@
         <v>24</v>
       </c>
       <c r="L20" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M20" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N20" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O20" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P20" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q20" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R20" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S20" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U20" s="26" t="s">
@@ -4055,8 +4047,8 @@
       <c r="AH20" s="8"/>
     </row>
     <row r="21" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -4069,35 +4061,35 @@
         <v>83</v>
       </c>
       <c r="L21" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M21" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N21" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O21" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P21" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q21" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R21" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S21" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U21" s="26" t="s">
@@ -4118,8 +4110,8 @@
       <c r="AH21" s="8"/>
     </row>
     <row r="22" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -4132,35 +4124,35 @@
         <v>58</v>
       </c>
       <c r="L22" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M22" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N22" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O22" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P22" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q22" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R22" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S22" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U22" s="26" t="s">
@@ -4181,8 +4173,8 @@
       <c r="AH22" s="8"/>
     </row>
     <row r="23" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -4195,35 +4187,35 @@
         <v>25</v>
       </c>
       <c r="L23" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M23" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N23" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O23" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P23" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q23" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R23" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S23" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U23" s="26" t="s">
@@ -4244,8 +4236,8 @@
       <c r="AH23" s="8"/>
     </row>
     <row r="24" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -4258,35 +4250,35 @@
         <v>114</v>
       </c>
       <c r="L24" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M24" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N24" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O24" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P24" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q24" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R24" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S24" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U24" s="26" t="s">
@@ -4307,8 +4299,8 @@
       <c r="AH24" s="8"/>
     </row>
     <row r="25" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -4321,35 +4313,35 @@
         <v>142</v>
       </c>
       <c r="L25" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M25" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O25" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P25" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q25" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R25" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S25" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U25" s="26" t="s">
@@ -4370,8 +4362,8 @@
       <c r="AH25" s="8"/>
     </row>
     <row r="26" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -4384,35 +4376,35 @@
         <v>26</v>
       </c>
       <c r="L26" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M26" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N26" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O26" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P26" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q26" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R26" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S26" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U26" s="26" t="s">
@@ -4421,8 +4413,8 @@
       <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="75"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
@@ -4435,35 +4427,35 @@
         <v>27</v>
       </c>
       <c r="L27" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M27" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N27" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O27" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P27" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q27" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R27" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S27" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U27" s="26" t="s">
@@ -4472,8 +4464,8 @@
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
@@ -4486,35 +4478,35 @@
         <v>141</v>
       </c>
       <c r="L28" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M28" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N28" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O28" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P28" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q28" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R28" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S28" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U28" s="26" t="s">
@@ -4523,8 +4515,8 @@
       <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A29" s="75"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
@@ -4537,35 +4529,35 @@
         <v>61</v>
       </c>
       <c r="L29" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M29" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N29" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O29" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P29" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q29" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R29" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S29" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U29" s="26" t="s">
@@ -4574,8 +4566,8 @@
       <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
@@ -4588,35 +4580,35 @@
         <v>29</v>
       </c>
       <c r="L30" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M30" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N30" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O30" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P30" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q30" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R30" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S30" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U30" s="26" t="s">
@@ -4625,8 +4617,8 @@
       <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="77"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
@@ -4639,35 +4631,35 @@
         <v>130</v>
       </c>
       <c r="L31" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M31" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N31" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O31" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P31" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q31" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R31" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S31" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U31" s="26" t="s">
@@ -4676,8 +4668,8 @@
       <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="77"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
@@ -4690,35 +4682,35 @@
         <v>129</v>
       </c>
       <c r="L32" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M32" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N32" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O32" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P32" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q32" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R32" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S32" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U32" s="26" t="s">
@@ -4727,8 +4719,8 @@
       <c r="V32" s="2"/>
     </row>
     <row r="33" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A33" s="77"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
@@ -4741,35 +4733,35 @@
         <v>30</v>
       </c>
       <c r="L33" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M33" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N33" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O33" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P33" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q33" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R33" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S33" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T33" s="18"/>
@@ -4779,8 +4771,8 @@
       <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A34" s="77"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
@@ -4793,35 +4785,35 @@
         <v>31</v>
       </c>
       <c r="L34" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M34" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N34" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O34" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P34" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q34" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R34" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S34" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U34" s="26" t="s">
@@ -4830,8 +4822,8 @@
       <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A35" s="78"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
@@ -4844,35 +4836,35 @@
         <v>32</v>
       </c>
       <c r="L35" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M35" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N35" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O35" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P35" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q35" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R35" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S35" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U35" s="26" t="s">
@@ -4881,8 +4873,8 @@
       <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A36" s="78"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
@@ -4895,35 +4887,35 @@
         <v>33</v>
       </c>
       <c r="L36" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M36" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N36" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O36" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P36" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q36" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R36" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S36" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U36" s="26" t="s">
@@ -4932,8 +4924,8 @@
       <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A37" s="78"/>
-      <c r="B37" s="76"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
@@ -4945,35 +4937,35 @@
         <v>34</v>
       </c>
       <c r="L37" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M37" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N37" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O37" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P37" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q37" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R37" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S37" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U37" s="26" t="s">
@@ -4982,8 +4974,8 @@
       <c r="V37" s="2"/>
     </row>
     <row r="38" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A38" s="78"/>
-      <c r="B38" s="76"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
@@ -4995,35 +4987,35 @@
         <v>102</v>
       </c>
       <c r="L38" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M38" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N38" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O38" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P38" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q38" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R38" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S38" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U38" s="26" t="s">
@@ -5032,8 +5024,8 @@
       <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A39" s="79"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
@@ -5045,35 +5037,35 @@
         <v>35</v>
       </c>
       <c r="L39" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M39" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N39" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O39" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P39" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q39" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R39" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S39" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U39" s="26" t="s">
@@ -5082,8 +5074,8 @@
       <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A40" s="79"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
@@ -5095,35 +5087,35 @@
         <v>36</v>
       </c>
       <c r="L40" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M40" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N40" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O40" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P40" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q40" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R40" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S40" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U40" s="26" t="s">
@@ -5132,8 +5124,8 @@
       <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A41" s="79"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
@@ -5145,35 +5137,35 @@
         <v>106</v>
       </c>
       <c r="L41" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M41" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N41" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O41" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P41" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q41" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R41" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S41" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U41" s="26" t="s">
@@ -5182,8 +5174,8 @@
       <c r="V41" s="2"/>
     </row>
     <row r="42" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A42" s="79"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
@@ -5195,35 +5187,35 @@
         <v>39</v>
       </c>
       <c r="L42" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M42" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N42" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O42" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P42" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q42" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R42" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S42" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U42" s="26" t="s">
@@ -5232,8 +5224,8 @@
       <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A43" s="80"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
@@ -5245,35 +5237,35 @@
         <v>40</v>
       </c>
       <c r="L43" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M43" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N43" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O43" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P43" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q43" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R43" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S43" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U43" s="26" t="s">
@@ -5283,8 +5275,8 @@
       <c r="W43" s="18"/>
     </row>
     <row r="44" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A44" s="80"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
@@ -5296,35 +5288,35 @@
         <v>41</v>
       </c>
       <c r="L44" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M44" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N44" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O44" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P44" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q44" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R44" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S44" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U44" s="26" t="s">
@@ -5333,8 +5325,8 @@
       <c r="V44" s="2"/>
     </row>
     <row r="45" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A45" s="80"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="45"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
@@ -5346,35 +5338,35 @@
         <v>62</v>
       </c>
       <c r="L45" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M45" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N45" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O45" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P45" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q45" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R45" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S45" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U45" s="26" t="s">
@@ -5383,8 +5375,8 @@
       <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A46" s="81"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
@@ -5396,35 +5388,35 @@
         <v>42</v>
       </c>
       <c r="L46" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M46" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N46" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O46" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P46" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q46" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R46" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S46" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U46" s="26" t="s">
@@ -5433,8 +5425,8 @@
       <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A47" s="80"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
@@ -5446,35 +5438,35 @@
         <v>63</v>
       </c>
       <c r="L47" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M47" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N47" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O47" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P47" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q47" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R47" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S47" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U47" s="26" t="s">
@@ -5483,8 +5475,8 @@
       <c r="V47" s="2"/>
     </row>
     <row r="48" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A48" s="80"/>
-      <c r="B48" s="76"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
@@ -5496,35 +5488,35 @@
         <v>64</v>
       </c>
       <c r="L48" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M48" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N48" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O48" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P48" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q48" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R48" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S48" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U48" s="26" t="s">
@@ -5533,8 +5525,8 @@
       <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A49" s="80"/>
-      <c r="B49" s="76"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -5546,35 +5538,35 @@
         <v>43</v>
       </c>
       <c r="L49" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M49" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N49" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O49" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P49" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q49" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R49" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S49" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U49" s="26" t="s">
@@ -5583,8 +5575,8 @@
       <c r="V49" s="2"/>
     </row>
     <row r="50" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A50" s="80"/>
-      <c r="B50" s="76"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
@@ -5596,35 +5588,35 @@
         <v>44</v>
       </c>
       <c r="L50" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M50" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N50" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O50" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P50" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q50" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R50" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S50" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U50" s="26" t="s">
@@ -5633,8 +5625,8 @@
       <c r="V50" s="2"/>
     </row>
     <row r="51" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A51" s="80"/>
-      <c r="B51" s="76"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="45"/>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
@@ -5646,35 +5638,35 @@
         <v>45</v>
       </c>
       <c r="L51" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M51" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N51" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O51" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P51" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q51" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R51" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S51" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U51" s="26" t="s">
@@ -5683,8 +5675,8 @@
       <c r="V51" s="2"/>
     </row>
     <row r="52" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A52" s="80"/>
-      <c r="B52" s="76"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
@@ -5696,35 +5688,35 @@
         <v>46</v>
       </c>
       <c r="L52" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M52" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N52" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O52" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P52" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q52" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R52" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S52" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U52" s="26" t="s">
@@ -5733,8 +5725,8 @@
       <c r="V52" s="2"/>
     </row>
     <row r="53" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A53" s="80"/>
-      <c r="B53" s="76"/>
+      <c r="A53" s="77"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="45"/>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
@@ -5746,35 +5738,35 @@
         <v>131</v>
       </c>
       <c r="L53" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M53" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N53" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O53" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P53" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q53" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R53" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S53" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U53" s="26" t="s">
@@ -5783,8 +5775,8 @@
       <c r="V53" s="2"/>
     </row>
     <row r="54" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A54" s="80"/>
-      <c r="B54" s="76"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
@@ -5796,35 +5788,35 @@
         <v>47</v>
       </c>
       <c r="L54" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M54" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N54" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O54" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P54" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q54" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R54" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S54" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U54" s="26" t="s">
@@ -5833,8 +5825,8 @@
       <c r="V54" s="2"/>
     </row>
     <row r="55" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A55" s="81"/>
-      <c r="B55" s="76"/>
+      <c r="A55" s="78"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="45"/>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
@@ -5846,35 +5838,35 @@
         <v>48</v>
       </c>
       <c r="L55" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M55" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N55" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O55" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P55" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q55" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R55" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S55" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U55" s="26" t="s">
@@ -5883,8 +5875,8 @@
       <c r="V55" s="2"/>
     </row>
     <row r="56" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A56" s="80"/>
-      <c r="B56" s="82"/>
+      <c r="A56" s="77"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
@@ -5896,35 +5888,35 @@
         <v>49</v>
       </c>
       <c r="L56" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M56" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N56" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O56" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P56" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q56" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R56" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S56" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U56" s="26" t="s">
@@ -5933,8 +5925,8 @@
       <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A57" s="80"/>
-      <c r="B57" s="82"/>
+      <c r="A57" s="77"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
@@ -5946,35 +5938,35 @@
         <v>14</v>
       </c>
       <c r="L57" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M57" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N57" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O57" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P57" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q57" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R57" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S57" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U57" s="26" t="s">
@@ -5983,8 +5975,8 @@
       <c r="V57" s="2"/>
     </row>
     <row r="58" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A58" s="81"/>
-      <c r="B58" s="82"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="70"/>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
@@ -5996,35 +5988,35 @@
         <v>65</v>
       </c>
       <c r="L58" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M58" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N58" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O58" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P58" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q58" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R58" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S58" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U58" s="26" t="s">
@@ -6033,8 +6025,8 @@
       <c r="V58" s="2"/>
     </row>
     <row r="59" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A59" s="81"/>
-      <c r="B59" s="82"/>
+      <c r="A59" s="78"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
@@ -6047,35 +6039,35 @@
         <v>16</v>
       </c>
       <c r="L59" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M59" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N59" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O59" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P59" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q59" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R59" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S59" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U59" s="26" t="s">
@@ -6084,8 +6076,8 @@
       <c r="V59" s="2"/>
     </row>
     <row r="60" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A60" s="81"/>
-      <c r="B60" s="82"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
@@ -6101,39 +6093,39 @@
         <v>دولار</v>
       </c>
       <c r="M60" s="57">
-        <f t="shared" ref="M60:S60" si="17">M4</f>
+        <f t="shared" ref="M60:S60" si="18">M4</f>
         <v>0</v>
       </c>
       <c r="N60" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O60" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P60" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q60" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R60" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S60" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U60" s="26"/>
       <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A61" s="81"/>
-      <c r="B61" s="82"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
@@ -6145,35 +6137,35 @@
         <v>22</v>
       </c>
       <c r="L61" s="65">
-        <f t="shared" ref="L61:L67" si="18">SUMIFS(B:B,I:I,K61,C:C,$L$4)</f>
+        <f t="shared" ref="L61:L67" si="19">SUMIFS(B:B,I:I,K61,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M61" s="65">
-        <f t="shared" ref="M61:M67" si="19">SUMIFS(B:B,I:I,K61,C:C,$M$4)</f>
+        <f t="shared" ref="M61:M67" si="20">SUMIFS(B:B,I:I,K61,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N61" s="65">
-        <f t="shared" ref="N61:N67" si="20">SUMIFS(B:B,I:I,K61,C:C,$N$4)</f>
+        <f t="shared" ref="N61:N67" si="21">SUMIFS(B:B,I:I,K61,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O61" s="65">
-        <f t="shared" ref="O61:O67" si="21">SUMIFS(B:B,I:I,K61,C:C,$O$4)</f>
+        <f t="shared" ref="O61:O67" si="22">SUMIFS(B:B,I:I,K61,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P61" s="65">
-        <f t="shared" ref="P61:P67" si="22">SUMIFS(B:B,I:I,K61,C:C,$P$4)</f>
+        <f t="shared" ref="P61:P67" si="23">SUMIFS(B:B,I:I,K61,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q61" s="65">
-        <f t="shared" ref="Q61:Q67" si="23">SUMIFS(B:B,I:I,K61,C:C,$Q$4)</f>
+        <f t="shared" ref="Q61:Q67" si="24">SUMIFS(B:B,I:I,K61,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R61" s="65">
-        <f t="shared" ref="R61:R67" si="24">SUMIFS(B:B,I:I,K61,C:C,$R$4)</f>
+        <f t="shared" ref="R61:R67" si="25">SUMIFS(B:B,I:I,K61,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S61" s="65">
-        <f t="shared" ref="S61:S67" si="25">SUMIFS(B:B,I:I,K61,C:C,$S$4)</f>
+        <f t="shared" ref="S61:S67" si="26">SUMIFS(B:B,I:I,K61,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U61" s="26" t="s">
@@ -6182,8 +6174,8 @@
       <c r="V61" s="2"/>
     </row>
     <row r="62" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A62" s="81"/>
-      <c r="B62" s="82"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="70"/>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
@@ -6195,35 +6187,35 @@
         <v>38</v>
       </c>
       <c r="L62" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M62" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N62" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O62" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P62" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q62" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R62" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S62" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U62" s="26" t="s">
@@ -6232,8 +6224,8 @@
       <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A63" s="81"/>
-      <c r="B63" s="82"/>
+      <c r="A63" s="78"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
@@ -6245,35 +6237,35 @@
         <v>21</v>
       </c>
       <c r="L63" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M63" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N63" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O63" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P63" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q63" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R63" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S63" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U63" s="26" t="s">
@@ -6282,8 +6274,8 @@
       <c r="V63" s="2"/>
     </row>
     <row r="64" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A64" s="81"/>
-      <c r="B64" s="82"/>
+      <c r="A64" s="78"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
@@ -6295,35 +6287,35 @@
         <v>23</v>
       </c>
       <c r="L64" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M64" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N64" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O64" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P64" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q64" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R64" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S64" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U64" s="26" t="s">
@@ -6332,8 +6324,8 @@
       <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A65" s="81"/>
-      <c r="B65" s="82"/>
+      <c r="A65" s="78"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
@@ -6345,35 +6337,35 @@
         <v>28</v>
       </c>
       <c r="L65" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M65" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N65" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O65" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P65" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q65" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R65" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S65" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U65" s="26" t="s">
@@ -6382,8 +6374,8 @@
       <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A66" s="81"/>
-      <c r="B66" s="82"/>
+      <c r="A66" s="78"/>
+      <c r="B66" s="70"/>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
@@ -6395,35 +6387,35 @@
         <v>132</v>
       </c>
       <c r="L66" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M66" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N66" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O66" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P66" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q66" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R66" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S66" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U66" s="26" t="s">
@@ -6432,8 +6424,8 @@
       <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A67" s="81"/>
-      <c r="B67" s="82"/>
+      <c r="A67" s="78"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
@@ -6445,35 +6437,35 @@
         <v>51</v>
       </c>
       <c r="L67" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M67" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N67" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O67" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P67" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q67" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R67" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S67" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U67" s="26" t="s">
@@ -6482,8 +6474,8 @@
       <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A68" s="81"/>
-      <c r="B68" s="82"/>
+      <c r="A68" s="78"/>
+      <c r="B68" s="70"/>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
@@ -6503,35 +6495,35 @@
         <v>0</v>
       </c>
       <c r="N68" s="57">
-        <f t="shared" ref="N68:S68" si="26">N4</f>
+        <f t="shared" ref="N68:S68" si="27">N4</f>
         <v>0</v>
       </c>
       <c r="O68" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P68" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q68" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R68" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S68" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U68" s="26"/>
       <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A69" s="81"/>
-      <c r="B69" s="82"/>
+      <c r="A69" s="78"/>
+      <c r="B69" s="70"/>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
@@ -6543,35 +6535,35 @@
         <v>37</v>
       </c>
       <c r="L69" s="65">
-        <f t="shared" ref="L69:L78" si="27">SUMIFS(B:B,I:I,K69,C:C,$L$4)</f>
+        <f t="shared" ref="L69:L78" si="28">SUMIFS(B:B,I:I,K69,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M69" s="65">
-        <f t="shared" ref="M69:M78" si="28">SUMIFS(B:B,I:I,K69,C:C,$M$4)</f>
+        <f t="shared" ref="M69:M78" si="29">SUMIFS(B:B,I:I,K69,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N69" s="65">
-        <f t="shared" ref="N69:N78" si="29">SUMIFS(B:B,I:I,K69,C:C,$N$4)</f>
+        <f t="shared" ref="N69:N78" si="30">SUMIFS(B:B,I:I,K69,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O69" s="65">
-        <f t="shared" ref="O69:O78" si="30">SUMIFS(B:B,I:I,K69,C:C,$O$4)</f>
+        <f t="shared" ref="O69:O78" si="31">SUMIFS(B:B,I:I,K69,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P69" s="65">
-        <f t="shared" ref="P69:P78" si="31">SUMIFS(B:B,I:I,K69,C:C,$P$4)</f>
+        <f t="shared" ref="P69:P78" si="32">SUMIFS(B:B,I:I,K69,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q69" s="65">
-        <f t="shared" ref="Q69:Q78" si="32">SUMIFS(B:B,I:I,K69,C:C,$Q$4)</f>
+        <f t="shared" ref="Q69:Q78" si="33">SUMIFS(B:B,I:I,K69,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R69" s="65">
-        <f t="shared" ref="R69:R78" si="33">SUMIFS(B:B,I:I,K69,C:C,$R$4)</f>
+        <f t="shared" ref="R69:R78" si="34">SUMIFS(B:B,I:I,K69,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S69" s="65">
-        <f t="shared" ref="S69:S78" si="34">SUMIFS(B:B,I:I,K69,C:C,$S$4)</f>
+        <f t="shared" ref="S69:S78" si="35">SUMIFS(B:B,I:I,K69,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U69" s="26" t="s">
@@ -6580,8 +6572,8 @@
       <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A70" s="81"/>
-      <c r="B70" s="82"/>
+      <c r="A70" s="78"/>
+      <c r="B70" s="70"/>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
@@ -6591,43 +6583,43 @@
       <c r="I70" s="13"/>
       <c r="K70" s="11"/>
       <c r="L70" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M70" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N70" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O70" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P70" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q70" s="65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R70" s="65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S70" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U70" s="26"/>
       <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A71" s="81"/>
-      <c r="B71" s="82"/>
+      <c r="A71" s="78"/>
+      <c r="B71" s="70"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
@@ -6637,43 +6629,43 @@
       <c r="I71" s="13"/>
       <c r="K71" s="11"/>
       <c r="L71" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M71" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N71" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O71" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P71" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q71" s="65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R71" s="65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S71" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U71" s="26"/>
       <c r="V71" s="2"/>
     </row>
     <row r="72" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A72" s="81"/>
-      <c r="B72" s="82"/>
+      <c r="A72" s="78"/>
+      <c r="B72" s="70"/>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
@@ -6683,43 +6675,43 @@
       <c r="I72" s="13"/>
       <c r="K72" s="11"/>
       <c r="L72" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M72" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N72" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O72" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P72" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q72" s="65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R72" s="65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S72" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U72" s="26"/>
       <c r="V72" s="2"/>
     </row>
     <row r="73" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A73" s="81"/>
-      <c r="B73" s="82"/>
+      <c r="A73" s="78"/>
+      <c r="B73" s="70"/>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
@@ -6729,43 +6721,43 @@
       <c r="I73" s="13"/>
       <c r="K73" s="11"/>
       <c r="L73" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M73" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N73" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O73" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P73" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q73" s="65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R73" s="65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S73" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U73" s="26"/>
       <c r="V73" s="2"/>
     </row>
     <row r="74" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A74" s="81"/>
-      <c r="B74" s="82"/>
+      <c r="A74" s="78"/>
+      <c r="B74" s="70"/>
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
@@ -6775,43 +6767,43 @@
       <c r="I74" s="13"/>
       <c r="K74" s="11"/>
       <c r="L74" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M74" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N74" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O74" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P74" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q74" s="65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R74" s="65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S74" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U74" s="26"/>
       <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A75" s="81"/>
-      <c r="B75" s="82"/>
+      <c r="A75" s="78"/>
+      <c r="B75" s="70"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
@@ -6821,43 +6813,43 @@
       <c r="I75" s="13"/>
       <c r="K75" s="11"/>
       <c r="L75" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M75" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N75" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O75" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P75" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q75" s="65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R75" s="65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S75" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U75" s="26"/>
       <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A76" s="81"/>
-      <c r="B76" s="82"/>
+      <c r="A76" s="78"/>
+      <c r="B76" s="70"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33"/>
@@ -6867,43 +6859,43 @@
       <c r="I76" s="13"/>
       <c r="K76" s="11"/>
       <c r="L76" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M76" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N76" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O76" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P76" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q76" s="65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R76" s="65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S76" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U76" s="26"/>
       <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A77" s="81"/>
-      <c r="B77" s="82"/>
+      <c r="A77" s="78"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33"/>
@@ -6913,43 +6905,43 @@
       <c r="I77" s="13"/>
       <c r="K77" s="11"/>
       <c r="L77" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M77" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N77" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O77" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P77" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q77" s="65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R77" s="65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S77" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U77" s="26"/>
       <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A78" s="81"/>
-      <c r="B78" s="82"/>
+      <c r="A78" s="78"/>
+      <c r="B78" s="70"/>
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
       <c r="E78" s="33"/>
@@ -6959,43 +6951,43 @@
       <c r="I78" s="13"/>
       <c r="K78" s="11"/>
       <c r="L78" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M78" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N78" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O78" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P78" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q78" s="65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R78" s="65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S78" s="65">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U78" s="26"/>
       <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A79" s="81"/>
-      <c r="B79" s="82"/>
+      <c r="A79" s="78"/>
+      <c r="B79" s="70"/>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
@@ -7010,19 +7002,40 @@
         <f>SUM(L15:L78)</f>
         <v>0</v>
       </c>
-      <c r="M79" s="58"/>
-      <c r="N79" s="58"/>
-      <c r="O79" s="58"/>
-      <c r="P79" s="58"/>
-      <c r="Q79" s="58"/>
-      <c r="R79" s="58"/>
-      <c r="S79" s="58"/>
+      <c r="M79" s="58">
+        <f t="shared" ref="M79:S79" si="36">SUM(M15:M78)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="58">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="58">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="58">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="58">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="58">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="58">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
       <c r="U79" s="26"/>
       <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A80" s="81"/>
-      <c r="B80" s="82"/>
+      <c r="A80" s="78"/>
+      <c r="B80" s="70"/>
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33"/>
@@ -7042,8 +7055,8 @@
       <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A81" s="81"/>
-      <c r="B81" s="82"/>
+      <c r="A81" s="78"/>
+      <c r="B81" s="70"/>
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
@@ -7059,39 +7072,39 @@
         <v>دولار</v>
       </c>
       <c r="M81" s="57">
-        <f t="shared" ref="M81:S81" si="35">M4</f>
+        <f t="shared" ref="M81:S81" si="37">M4</f>
         <v>0</v>
       </c>
       <c r="N81" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O81" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P81" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q81" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R81" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S81" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U81" s="26"/>
       <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A82" s="81"/>
-      <c r="B82" s="82"/>
+      <c r="A82" s="78"/>
+      <c r="B82" s="70"/>
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
@@ -7138,8 +7151,8 @@
       <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A83" s="81"/>
-      <c r="B83" s="82"/>
+      <c r="A83" s="78"/>
+      <c r="B83" s="70"/>
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
@@ -7186,8 +7199,8 @@
       <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A84" s="81"/>
-      <c r="B84" s="82"/>
+      <c r="A84" s="78"/>
+      <c r="B84" s="70"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="33"/>
@@ -7234,8 +7247,8 @@
       <c r="V84" s="2"/>
     </row>
     <row r="85" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A85" s="81"/>
-      <c r="B85" s="82"/>
+      <c r="A85" s="78"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
@@ -7283,8 +7296,8 @@
       <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A86" s="81"/>
-      <c r="B86" s="82"/>
+      <c r="A86" s="78"/>
+      <c r="B86" s="70"/>
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
@@ -7304,8 +7317,8 @@
       <c r="V86" s="2"/>
     </row>
     <row r="87" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A87" s="81"/>
-      <c r="B87" s="82"/>
+      <c r="A87" s="78"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
@@ -7325,8 +7338,8 @@
       <c r="V87" s="2"/>
     </row>
     <row r="88" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A88" s="81"/>
-      <c r="B88" s="82"/>
+      <c r="A88" s="78"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
       <c r="E88" s="33"/>
@@ -7342,39 +7355,39 @@
         <v>دولار</v>
       </c>
       <c r="M88" s="57">
-        <f t="shared" ref="M88:S88" si="36">M4</f>
+        <f t="shared" ref="M88:S88" si="38">M4</f>
         <v>0</v>
       </c>
       <c r="N88" s="57">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O88" s="57">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P88" s="57">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q88" s="57">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R88" s="57">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S88" s="57">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="U88" s="26"/>
       <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A89" s="80"/>
-      <c r="B89" s="83"/>
+      <c r="A89" s="77"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
@@ -7390,11 +7403,11 @@
         <v>0</v>
       </c>
       <c r="M89" s="61">
-        <f t="shared" ref="M89:N89" si="37">SUM(M15:M59)</f>
+        <f t="shared" ref="M89:N89" si="39">SUM(M15:M59)</f>
         <v>0</v>
       </c>
       <c r="N89" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O89" s="61">
@@ -7421,8 +7434,8 @@
       <c r="V89" s="2"/>
     </row>
     <row r="90" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A90" s="80"/>
-      <c r="B90" s="84"/>
+      <c r="A90" s="77"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34"/>
@@ -7438,31 +7451,31 @@
         <v>0</v>
       </c>
       <c r="M90" s="62">
-        <f t="shared" ref="M90:S90" si="38">SUM(M61:M67)</f>
+        <f t="shared" ref="M90:S90" si="40">SUM(M61:M67)</f>
         <v>0</v>
       </c>
       <c r="N90" s="62">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O90" s="62">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P90" s="62">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q90" s="62">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R90" s="62">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S90" s="62">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U90" s="26"/>
@@ -7488,31 +7501,31 @@
         <v>0</v>
       </c>
       <c r="M91" s="63">
-        <f t="shared" ref="M91:S91" si="39">SUM(M69:M78)</f>
+        <f t="shared" ref="M91:S91" si="41">SUM(M69:M78)</f>
         <v>0</v>
       </c>
       <c r="N91" s="63">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O91" s="63">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P91" s="63">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q91" s="63">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R91" s="63">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S91" s="63">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="U91" s="26"/>
@@ -7533,31 +7546,31 @@
         <v>0</v>
       </c>
       <c r="M92" s="64">
-        <f t="shared" ref="M92:S92" si="40">SUM(M89:M91)</f>
+        <f t="shared" ref="M92:S92" si="42">SUM(M89:M91)</f>
         <v>0</v>
       </c>
       <c r="N92" s="64">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O92" s="64">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P92" s="64">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q92" s="64">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R92" s="64">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S92" s="64">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="U92" s="26"/>
@@ -7572,14 +7585,14 @@
       <c r="G94" s="38"/>
     </row>
     <row r="95" spans="1:22" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A95" s="88"/>
-      <c r="B95" s="89" t="s">
+      <c r="A95" s="82"/>
+      <c r="B95" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="C95" s="89" t="s">
+      <c r="C95" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="D95" s="90" t="s">
+      <c r="D95" s="84" t="s">
         <v>56</v>
       </c>
       <c r="E95" s="37"/>
@@ -7587,16 +7600,16 @@
       <c r="G95" s="41"/>
     </row>
     <row r="96" spans="1:22" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A96" s="91"/>
-      <c r="B96" s="87">
+      <c r="A96" s="85"/>
+      <c r="B96" s="81">
         <f>SUMIF(C5:C90,A96,A5:A90)</f>
         <v>0</v>
       </c>
-      <c r="C96" s="87">
+      <c r="C96" s="81">
         <f>SUMIF(C5:C90,A96,B5:B90)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="92">
+      <c r="D96" s="86">
         <f>B96-C96</f>
         <v>0</v>
       </c>
@@ -7605,17 +7618,17 @@
       <c r="G96" s="42"/>
     </row>
     <row r="97" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A97" s="91"/>
-      <c r="B97" s="87">
-        <f t="shared" ref="B97:B103" si="41">SUMIF(C6:C91,A97,A6:A91)</f>
-        <v>0</v>
-      </c>
-      <c r="C97" s="87">
-        <f t="shared" ref="C97:C103" si="42">SUMIF(C6:C91,A97,B6:B91)</f>
-        <v>0</v>
-      </c>
-      <c r="D97" s="92">
-        <f t="shared" ref="D97:D103" si="43">B97-C97</f>
+      <c r="A97" s="85"/>
+      <c r="B97" s="81">
+        <f t="shared" ref="B97:B103" si="43">SUMIF(C6:C91,A97,A6:A91)</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="81">
+        <f t="shared" ref="C97:C103" si="44">SUMIF(C6:C91,A97,B6:B91)</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="86">
+        <f t="shared" ref="D97:D103" si="45">B97-C97</f>
         <v>0</v>
       </c>
       <c r="E97" s="44"/>
@@ -7623,34 +7636,34 @@
       <c r="G97" s="43"/>
     </row>
     <row r="98" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A98" s="91"/>
-      <c r="B98" s="87">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="C98" s="87">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="D98" s="92">
+      <c r="A98" s="85"/>
+      <c r="B98" s="81">
         <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="81">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="86">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E98" s="40"/>
       <c r="F98" s="40"/>
     </row>
     <row r="99" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A99" s="91"/>
-      <c r="B99" s="87">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="C99" s="87">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="D99" s="92">
+      <c r="A99" s="85"/>
+      <c r="B99" s="81">
         <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="81">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="D99" s="86">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E99" s="39"/>
@@ -7658,64 +7671,64 @@
       <c r="G99" s="43"/>
     </row>
     <row r="100" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A100" s="91"/>
-      <c r="B100" s="87">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="C100" s="87">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="D100" s="92">
+      <c r="A100" s="85"/>
+      <c r="B100" s="81">
         <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="81">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="D100" s="86">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E100" s="39"/>
       <c r="F100" s="39"/>
     </row>
     <row r="101" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A101" s="91"/>
-      <c r="B101" s="87">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="C101" s="87">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="D101" s="92">
+      <c r="A101" s="85"/>
+      <c r="B101" s="81">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
+      <c r="C101" s="81">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="86">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A102" s="91"/>
-      <c r="B102" s="87">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="C102" s="87">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="D102" s="92">
+      <c r="A102" s="85"/>
+      <c r="B102" s="81">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
+      <c r="C102" s="81">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="86">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="91"/>
-      <c r="B103" s="93">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="C103" s="93">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="D103" s="94">
+      <c r="A103" s="85"/>
+      <c r="B103" s="87">
         <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="C103" s="87">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="D103" s="88">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report2.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0A8481-2C4E-4ACC-B844-8B1D43924CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E19382D-B542-4870-8930-3194CB35CCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$K$4:$AA$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$K$4:$AA$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="156">
   <si>
     <t xml:space="preserve">التقرير المالي  التفصيلي </t>
   </si>
@@ -67,9 +67,6 @@
     <t>دولار</t>
   </si>
   <si>
-    <t>موازنات</t>
-  </si>
-  <si>
     <t>تبرعات</t>
   </si>
   <si>
@@ -497,6 +494,12 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>موازنات واردة</t>
+  </si>
+  <si>
+    <t>موازنات صادرة</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1248,6 +1251,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1647,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
@@ -2954,16 +2960,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>149</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>150</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>4</v>
@@ -3028,7 +3034,7 @@
       <c r="R4" s="57"/>
       <c r="S4" s="57"/>
       <c r="U4" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -3056,42 +3062,42 @@
       <c r="I5" s="11"/>
       <c r="J5" s="10"/>
       <c r="K5" s="11" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="L5" s="65">
-        <f t="shared" ref="L5:L12" si="0">SUMIFS(A:A,I:I,K5,C:C,$L$4)</f>
+        <f>SUMIFS(A:A,I:I,K5,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M5" s="65">
-        <f t="shared" ref="M5:M12" si="1">SUMIFS(A:A,I:I,K5,C:C,$M$4)</f>
+        <f>SUMIFS(A:A,I:I,K5,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N5" s="65">
-        <f t="shared" ref="N5:N12" si="2">SUMIFS(A:A,I:I,K5,C:C,$N$4)</f>
+        <f>SUMIFS(A:A,I:I,K5,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O5" s="65">
-        <f t="shared" ref="O5:O12" si="3">SUMIFS(A:A,I:I,K5,C:C,$O$4)</f>
+        <f>SUMIFS(A:A,I:I,K5,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P5" s="65">
-        <f t="shared" ref="P5:P12" si="4">SUMIFS(A:A,I:I,K5,C:C,$P$4)</f>
+        <f>SUMIFS(A:A,I:I,K5,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="65">
-        <f t="shared" ref="Q5:Q12" si="5">SUMIFS(A:A,I:I,K5,C:C,$Q$4)</f>
+        <f>SUMIFS(A:A,I:I,K5,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R5" s="65">
-        <f t="shared" ref="R5:R12" si="6">SUMIFS(A:A,I:I,K5,C:C,$R$4)</f>
+        <f>SUMIFS(A:A,I:I,K5,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S5" s="65">
-        <f t="shared" ref="S5:S12" si="7">SUMIFS(A:A,I:I,K5,C:C,$S$4)</f>
+        <f>SUMIFS(A:A,I:I,K5,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U5" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="8"/>
@@ -3119,42 +3125,42 @@
       <c r="I6" s="11"/>
       <c r="J6" s="10"/>
       <c r="K6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="65">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(A:A,I:I,K6,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M6" s="65">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(A:A,I:I,K6,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N6" s="65">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(A:A,I:I,K6,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O6" s="65">
-        <f t="shared" si="3"/>
+        <f>SUMIFS(A:A,I:I,K6,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P6" s="65">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(A:A,I:I,K6,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="65">
-        <f t="shared" si="5"/>
+        <f>SUMIFS(A:A,I:I,K6,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R6" s="65">
-        <f t="shared" si="6"/>
+        <f>SUMIFS(A:A,I:I,K6,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S6" s="65">
-        <f t="shared" si="7"/>
+        <f>SUMIFS(A:A,I:I,K6,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U6" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="8"/>
@@ -3182,42 +3188,42 @@
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
       <c r="K7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" s="65">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(A:A,I:I,K7,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M7" s="65">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(A:A,I:I,K7,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N7" s="65">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(A:A,I:I,K7,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O7" s="65">
-        <f t="shared" si="3"/>
+        <f>SUMIFS(A:A,I:I,K7,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P7" s="65">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(A:A,I:I,K7,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="65">
-        <f t="shared" si="5"/>
+        <f>SUMIFS(A:A,I:I,K7,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R7" s="65">
-        <f t="shared" si="6"/>
+        <f>SUMIFS(A:A,I:I,K7,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S7" s="65">
-        <f t="shared" si="7"/>
+        <f>SUMIFS(A:A,I:I,K7,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U7" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="8"/>
@@ -3245,42 +3251,42 @@
       <c r="I8" s="11"/>
       <c r="J8" s="10"/>
       <c r="K8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" s="65">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(A:A,I:I,K8,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M8" s="65">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(A:A,I:I,K8,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N8" s="65">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(A:A,I:I,K8,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O8" s="65">
-        <f t="shared" si="3"/>
+        <f>SUMIFS(A:A,I:I,K8,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P8" s="65">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(A:A,I:I,K8,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="65">
-        <f t="shared" si="5"/>
+        <f>SUMIFS(A:A,I:I,K8,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R8" s="65">
-        <f t="shared" si="6"/>
+        <f>SUMIFS(A:A,I:I,K8,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S8" s="65">
-        <f t="shared" si="7"/>
+        <f>SUMIFS(A:A,I:I,K8,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="8"/>
@@ -3308,42 +3314,42 @@
       <c r="I9" s="11"/>
       <c r="J9" s="10"/>
       <c r="K9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="65">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(A:A,I:I,K9,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M9" s="65">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(A:A,I:I,K9,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N9" s="65">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(A:A,I:I,K9,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O9" s="65">
-        <f t="shared" si="3"/>
+        <f>SUMIFS(A:A,I:I,K9,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P9" s="65">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(A:A,I:I,K9,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="65">
-        <f t="shared" si="5"/>
+        <f>SUMIFS(A:A,I:I,K9,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R9" s="65">
-        <f t="shared" si="6"/>
+        <f>SUMIFS(A:A,I:I,K9,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S9" s="65">
-        <f t="shared" si="7"/>
+        <f>SUMIFS(A:A,I:I,K9,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="8"/>
@@ -3371,42 +3377,42 @@
       <c r="I10" s="11"/>
       <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L10" s="65">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(A:A,I:I,K10,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M10" s="65">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(A:A,I:I,K10,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N10" s="65">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(A:A,I:I,K10,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O10" s="65">
-        <f t="shared" si="3"/>
+        <f>SUMIFS(A:A,I:I,K10,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P10" s="65">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(A:A,I:I,K10,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="65">
-        <f t="shared" si="5"/>
+        <f>SUMIFS(A:A,I:I,K10,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R10" s="65">
-        <f t="shared" si="6"/>
+        <f>SUMIFS(A:A,I:I,K10,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S10" s="65">
-        <f t="shared" si="7"/>
+        <f>SUMIFS(A:A,I:I,K10,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="8"/>
@@ -3434,42 +3440,42 @@
       <c r="I11" s="11"/>
       <c r="J11" s="10"/>
       <c r="K11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" s="65">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(A:A,I:I,K11,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M11" s="65">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(A:A,I:I,K11,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N11" s="65">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(A:A,I:I,K11,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O11" s="65">
-        <f t="shared" si="3"/>
+        <f>SUMIFS(A:A,I:I,K11,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P11" s="65">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(A:A,I:I,K11,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="65">
-        <f t="shared" si="5"/>
+        <f>SUMIFS(A:A,I:I,K11,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R11" s="65">
-        <f t="shared" si="6"/>
+        <f>SUMIFS(A:A,I:I,K11,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S11" s="65">
-        <f t="shared" si="7"/>
+        <f>SUMIFS(A:A,I:I,K11,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U11" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="8"/>
@@ -3497,38 +3503,38 @@
       <c r="I12" s="11"/>
       <c r="J12" s="10"/>
       <c r="K12" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L12" s="65">
-        <f t="shared" si="0"/>
+        <f>SUMIFS(A:A,I:I,K12,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M12" s="65">
-        <f t="shared" si="1"/>
+        <f>SUMIFS(A:A,I:I,K12,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N12" s="65">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(A:A,I:I,K12,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O12" s="65">
-        <f t="shared" si="3"/>
+        <f>SUMIFS(A:A,I:I,K12,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P12" s="65">
-        <f t="shared" si="4"/>
+        <f>SUMIFS(A:A,I:I,K12,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="65">
-        <f t="shared" si="5"/>
+        <f>SUMIFS(A:A,I:I,K12,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R12" s="65">
-        <f t="shared" si="6"/>
+        <f>SUMIFS(A:A,I:I,K12,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S12" s="65">
-        <f t="shared" si="7"/>
+        <f>SUMIFS(A:A,I:I,K12,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U12" s="26"/>
@@ -3558,38 +3564,38 @@
       <c r="I13" s="11"/>
       <c r="J13" s="10"/>
       <c r="K13" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="58">
         <f>SUM(L5:L12)</f>
         <v>0</v>
       </c>
       <c r="M13" s="58">
-        <f t="shared" ref="M13:S13" si="8">SUM(M5:M12)</f>
+        <f t="shared" ref="M13:S13" si="0">SUM(M5:M12)</f>
         <v>0</v>
       </c>
       <c r="N13" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O13" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P13" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S13" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U13" s="26"/>
@@ -3619,38 +3625,38 @@
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="K14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L14" s="57" t="str">
         <f>L4</f>
         <v>دولار</v>
       </c>
       <c r="M14" s="57">
-        <f t="shared" ref="M14:S14" si="9">M4</f>
+        <f t="shared" ref="M14:S14" si="1">M4</f>
         <v>0</v>
       </c>
       <c r="N14" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P14" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q14" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R14" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S14" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U14" s="26"/>
@@ -3680,42 +3686,42 @@
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
       <c r="K15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="65">
-        <f t="shared" ref="L15:L59" si="10">SUMIFS(B:B,I:I,K15,C:C,$L$4)</f>
+        <f>SUMIFS(B:B,I:I,K15,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M15" s="65">
-        <f t="shared" ref="M15:M59" si="11">SUMIFS(B:B,I:I,K15,C:C,$M$4)</f>
+        <f>SUMIFS(B:B,I:I,K15,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N15" s="65">
-        <f t="shared" ref="N15:N59" si="12">SUMIFS(B:B,I:I,K15,C:C,$N$4)</f>
+        <f>SUMIFS(B:B,I:I,K15,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O15" s="65">
-        <f t="shared" ref="O15:O59" si="13">SUMIFS(B:B,I:I,K15,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,I:I,K15,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P15" s="65">
-        <f t="shared" ref="P15:P59" si="14">SUMIFS(B:B,I:I,K15,C:C,$P$4)</f>
+        <f>SUMIFS(B:B,I:I,K15,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="65">
-        <f t="shared" ref="Q15:Q59" si="15">SUMIFS(B:B,I:I,K15,C:C,$Q$4)</f>
+        <f>SUMIFS(B:B,I:I,K15,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R15" s="65">
-        <f t="shared" ref="R15:R59" si="16">SUMIFS(B:B,I:I,K15,C:C,$R$4)</f>
+        <f>SUMIFS(B:B,I:I,K15,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S15" s="65">
-        <f t="shared" ref="S15:S59" si="17">SUMIFS(B:B,I:I,K15,C:C,$S$4)</f>
+        <f>SUMIFS(B:B,I:I,K15,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U15" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="8"/>
@@ -3743,42 +3749,42 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L16" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K16,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M16" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K16,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N16" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K16,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O16" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K16,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P16" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K16,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K16,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R16" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K16,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S16" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K16,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U16" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="8"/>
@@ -3806,42 +3812,42 @@
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K17,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M17" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K17,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N17" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K17,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O17" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K17,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P17" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K17,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K17,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R17" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K17,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S17" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K17,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U17" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="8"/>
@@ -3869,42 +3875,42 @@
       <c r="I18" s="13"/>
       <c r="J18" s="10"/>
       <c r="K18" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K18,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M18" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K18,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N18" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K18,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O18" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K18,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P18" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K18,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K18,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R18" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K18,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S18" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K18,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U18" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="8"/>
@@ -3932,42 +3938,42 @@
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K19,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M19" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K19,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N19" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K19,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O19" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K19,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P19" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K19,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K19,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R19" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K19,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S19" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K19,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U19" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="8"/>
@@ -3995,42 +4001,42 @@
       <c r="I20" s="13"/>
       <c r="J20" s="16"/>
       <c r="K20" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L20" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K20,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M20" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K20,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N20" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K20,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O20" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K20,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P20" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K20,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K20,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R20" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K20,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S20" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K20,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="8"/>
@@ -4058,42 +4064,42 @@
       <c r="I21" s="13"/>
       <c r="J21" s="16"/>
       <c r="K21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="65">
+        <f>SUMIFS(B:B,I:I,K21,C:C,$L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="65">
+        <f>SUMIFS(B:B,I:I,K21,C:C,$M$4)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="65">
+        <f>SUMIFS(B:B,I:I,K21,C:C,$N$4)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="65">
+        <f>SUMIFS(B:B,I:I,K21,C:C,$O$4)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="65">
+        <f>SUMIFS(B:B,I:I,K21,C:C,$P$4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="65">
+        <f>SUMIFS(B:B,I:I,K21,C:C,$Q$4)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="65">
+        <f>SUMIFS(B:B,I:I,K21,C:C,$R$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="65">
+        <f>SUMIFS(B:B,I:I,K21,C:C,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="L21" s="65">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="65">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="65">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="65">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="65">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="65">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="65">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="65">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="26" t="s">
-        <v>84</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="8"/>
@@ -4121,42 +4127,42 @@
       <c r="I22" s="13"/>
       <c r="J22" s="16"/>
       <c r="K22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L22" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K22,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M22" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K22,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N22" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K22,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O22" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K22,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P22" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K22,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K22,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R22" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K22,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S22" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K22,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U22" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="8"/>
@@ -4184,42 +4190,42 @@
       <c r="I23" s="13"/>
       <c r="J23" s="16"/>
       <c r="K23" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L23" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K23,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M23" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K23,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N23" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K23,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O23" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K23,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P23" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K23,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K23,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R23" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K23,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S23" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K23,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U23" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="8"/>
@@ -4247,42 +4253,42 @@
       <c r="I24" s="13"/>
       <c r="J24" s="16"/>
       <c r="K24" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L24" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K24,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M24" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K24,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N24" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K24,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O24" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K24,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P24" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K24,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K24,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R24" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K24,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S24" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K24,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U24" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="8"/>
@@ -4310,42 +4316,42 @@
       <c r="I25" s="13"/>
       <c r="J25" s="16"/>
       <c r="K25" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L25" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K25,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M25" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K25,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N25" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K25,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O25" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K25,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P25" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K25,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K25,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R25" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K25,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S25" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K25,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U25" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="8"/>
@@ -4373,42 +4379,42 @@
       <c r="I26" s="13"/>
       <c r="J26" s="16"/>
       <c r="K26" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L26" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K26,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M26" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K26,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N26" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K26,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O26" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K26,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P26" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K26,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q26" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K26,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R26" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K26,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S26" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K26,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V26" s="2"/>
     </row>
@@ -4424,42 +4430,42 @@
       <c r="I27" s="11"/>
       <c r="J27" s="16"/>
       <c r="K27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L27" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K27,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M27" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K27,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N27" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K27,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O27" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K27,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P27" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K27,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K27,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R27" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K27,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S27" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K27,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V27" s="2"/>
     </row>
@@ -4475,42 +4481,42 @@
       <c r="I28" s="11"/>
       <c r="J28" s="16"/>
       <c r="K28" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L28" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K28,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M28" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K28,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N28" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K28,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O28" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K28,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P28" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K28,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K28,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R28" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K28,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S28" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K28,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U28" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V28" s="2"/>
     </row>
@@ -4526,42 +4532,42 @@
       <c r="I29" s="11"/>
       <c r="J29" s="16"/>
       <c r="K29" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L29" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K29,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M29" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K29,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N29" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K29,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O29" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K29,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P29" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K29,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K29,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R29" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K29,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S29" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K29,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V29" s="2"/>
     </row>
@@ -4577,42 +4583,42 @@
       <c r="I30" s="11"/>
       <c r="J30" s="16"/>
       <c r="K30" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L30" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K30,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M30" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K30,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N30" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K30,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O30" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K30,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P30" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K30,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q30" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K30,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R30" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K30,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S30" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K30,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V30" s="2"/>
     </row>
@@ -4628,42 +4634,42 @@
       <c r="I31" s="11"/>
       <c r="J31" s="16"/>
       <c r="K31" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L31" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K31,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M31" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K31,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N31" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K31,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O31" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K31,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P31" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K31,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K31,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R31" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K31,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S31" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K31,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U31" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V31" s="2"/>
     </row>
@@ -4679,42 +4685,42 @@
       <c r="I32" s="11"/>
       <c r="J32" s="16"/>
       <c r="K32" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L32" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K32,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M32" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K32,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N32" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K32,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O32" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K32,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P32" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K32,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q32" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K32,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R32" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K32,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S32" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K32,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U32" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V32" s="2"/>
     </row>
@@ -4730,43 +4736,43 @@
       <c r="I33" s="11"/>
       <c r="J33" s="16"/>
       <c r="K33" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K33,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M33" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K33,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N33" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K33,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O33" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K33,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P33" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K33,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K33,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R33" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K33,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S33" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K33,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="T33" s="18"/>
       <c r="U33" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V33" s="2"/>
     </row>
@@ -4782,42 +4788,42 @@
       <c r="I34" s="11"/>
       <c r="J34" s="19"/>
       <c r="K34" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L34" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K34,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M34" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K34,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N34" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K34,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O34" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K34,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P34" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K34,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q34" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K34,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R34" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K34,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S34" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K34,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U34" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V34" s="2"/>
     </row>
@@ -4833,42 +4839,42 @@
       <c r="I35" s="11"/>
       <c r="J35" s="16"/>
       <c r="K35" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L35" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K35,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M35" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K35,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N35" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K35,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O35" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K35,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P35" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K35,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q35" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K35,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R35" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K35,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S35" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K35,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U35" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V35" s="2"/>
     </row>
@@ -4884,42 +4890,42 @@
       <c r="I36" s="11"/>
       <c r="J36" s="16"/>
       <c r="K36" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L36" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K36,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M36" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K36,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N36" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K36,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O36" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K36,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P36" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K36,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K36,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R36" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K36,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S36" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K36,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U36" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V36" s="2"/>
     </row>
@@ -4934,42 +4940,42 @@
       <c r="H37" s="32"/>
       <c r="I37" s="11"/>
       <c r="K37" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K37,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M37" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K37,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N37" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K37,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O37" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K37,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P37" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K37,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q37" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K37,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R37" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K37,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S37" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K37,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U37" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V37" s="2"/>
     </row>
@@ -4984,42 +4990,42 @@
       <c r="H38" s="32"/>
       <c r="I38" s="11"/>
       <c r="K38" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" s="65">
+        <f>SUMIFS(B:B,I:I,K38,C:C,$L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="65">
+        <f>SUMIFS(B:B,I:I,K38,C:C,$M$4)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="65">
+        <f>SUMIFS(B:B,I:I,K38,C:C,$N$4)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="65">
+        <f>SUMIFS(B:B,I:I,K38,C:C,$O$4)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="65">
+        <f>SUMIFS(B:B,I:I,K38,C:C,$P$4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="65">
+        <f>SUMIFS(B:B,I:I,K38,C:C,$Q$4)</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="65">
+        <f>SUMIFS(B:B,I:I,K38,C:C,$R$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="65">
+        <f>SUMIFS(B:B,I:I,K38,C:C,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="L38" s="65">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="65">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="65">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="65">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="65">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="65">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="65">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="65">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="V38" s="2"/>
     </row>
@@ -5034,42 +5040,42 @@
       <c r="H39" s="32"/>
       <c r="I39" s="11"/>
       <c r="K39" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L39" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K39,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M39" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K39,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N39" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K39,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O39" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K39,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P39" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K39,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q39" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K39,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R39" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K39,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S39" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K39,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U39" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V39" s="2"/>
     </row>
@@ -5084,42 +5090,42 @@
       <c r="H40" s="32"/>
       <c r="I40" s="11"/>
       <c r="K40" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L40" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K40,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M40" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K40,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N40" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K40,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O40" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K40,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P40" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K40,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q40" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K40,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R40" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K40,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S40" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K40,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U40" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V40" s="2"/>
     </row>
@@ -5134,42 +5140,42 @@
       <c r="H41" s="32"/>
       <c r="I41" s="11"/>
       <c r="K41" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L41" s="65">
+        <f>SUMIFS(B:B,I:I,K41,C:C,$L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="65">
+        <f>SUMIFS(B:B,I:I,K41,C:C,$M$4)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="65">
+        <f>SUMIFS(B:B,I:I,K41,C:C,$N$4)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="65">
+        <f>SUMIFS(B:B,I:I,K41,C:C,$O$4)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="65">
+        <f>SUMIFS(B:B,I:I,K41,C:C,$P$4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="65">
+        <f>SUMIFS(B:B,I:I,K41,C:C,$Q$4)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="65">
+        <f>SUMIFS(B:B,I:I,K41,C:C,$R$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="65">
+        <f>SUMIFS(B:B,I:I,K41,C:C,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="26" t="s">
         <v>106</v>
-      </c>
-      <c r="L41" s="65">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="65">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="65">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="65">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="65">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="65">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="65">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="65">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="26" t="s">
-        <v>107</v>
       </c>
       <c r="V41" s="2"/>
     </row>
@@ -5184,42 +5190,42 @@
       <c r="H42" s="32"/>
       <c r="I42" s="11"/>
       <c r="K42" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L42" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K42,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M42" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K42,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N42" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K42,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O42" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K42,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P42" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K42,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q42" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K42,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R42" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K42,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S42" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K42,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U42" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V42" s="2"/>
     </row>
@@ -5234,42 +5240,42 @@
       <c r="H43" s="32"/>
       <c r="I43" s="11"/>
       <c r="K43" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L43" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K43,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M43" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K43,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N43" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K43,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O43" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K43,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P43" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K43,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q43" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K43,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R43" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K43,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S43" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K43,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U43" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="18"/>
@@ -5285,42 +5291,42 @@
       <c r="H44" s="32"/>
       <c r="I44" s="11"/>
       <c r="K44" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L44" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K44,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M44" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K44,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N44" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K44,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O44" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K44,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P44" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K44,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q44" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K44,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R44" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K44,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S44" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K44,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U44" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V44" s="2"/>
     </row>
@@ -5335,42 +5341,42 @@
       <c r="H45" s="32"/>
       <c r="I45" s="11"/>
       <c r="K45" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K45,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M45" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K45,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N45" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K45,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O45" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K45,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P45" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K45,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q45" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K45,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R45" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K45,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S45" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K45,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U45" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V45" s="2"/>
     </row>
@@ -5385,42 +5391,42 @@
       <c r="H46" s="32"/>
       <c r="I46" s="11"/>
       <c r="K46" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L46" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K46,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M46" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K46,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N46" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K46,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O46" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K46,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P46" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K46,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q46" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K46,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R46" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K46,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S46" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K46,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U46" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V46" s="2"/>
     </row>
@@ -5435,42 +5441,42 @@
       <c r="H47" s="32"/>
       <c r="I47" s="11"/>
       <c r="K47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L47" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K47,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M47" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K47,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N47" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K47,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O47" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K47,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P47" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K47,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q47" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K47,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R47" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K47,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S47" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K47,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U47" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V47" s="2"/>
     </row>
@@ -5485,42 +5491,42 @@
       <c r="H48" s="32"/>
       <c r="I48" s="11"/>
       <c r="K48" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L48" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K48,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M48" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K48,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N48" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K48,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O48" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K48,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P48" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K48,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q48" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K48,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R48" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K48,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S48" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K48,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U48" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V48" s="2"/>
     </row>
@@ -5535,42 +5541,42 @@
       <c r="H49" s="32"/>
       <c r="I49" s="11"/>
       <c r="K49" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L49" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K49,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M49" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K49,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N49" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K49,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O49" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K49,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P49" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K49,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q49" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K49,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R49" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K49,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S49" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K49,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U49" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V49" s="2"/>
     </row>
@@ -5585,42 +5591,42 @@
       <c r="H50" s="32"/>
       <c r="I50" s="11"/>
       <c r="K50" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L50" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K50,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M50" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K50,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N50" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K50,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O50" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K50,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P50" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K50,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q50" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K50,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R50" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K50,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S50" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K50,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U50" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V50" s="2"/>
     </row>
@@ -5635,42 +5641,42 @@
       <c r="H51" s="32"/>
       <c r="I51" s="11"/>
       <c r="K51" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L51" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K51,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M51" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K51,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N51" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K51,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O51" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K51,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P51" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K51,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q51" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K51,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R51" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K51,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S51" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K51,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U51" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V51" s="2"/>
     </row>
@@ -5685,42 +5691,42 @@
       <c r="H52" s="32"/>
       <c r="I52" s="11"/>
       <c r="K52" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L52" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K52,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M52" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K52,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N52" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K52,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O52" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K52,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P52" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K52,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q52" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K52,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R52" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K52,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S52" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K52,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U52" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V52" s="2"/>
     </row>
@@ -5735,42 +5741,42 @@
       <c r="H53" s="32"/>
       <c r="I53" s="11"/>
       <c r="K53" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L53" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K53,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M53" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K53,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N53" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K53,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O53" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K53,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P53" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K53,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q53" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K53,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R53" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K53,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S53" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K53,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U53" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V53" s="2"/>
     </row>
@@ -5785,42 +5791,42 @@
       <c r="H54" s="20"/>
       <c r="I54" s="13"/>
       <c r="K54" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L54" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K54,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M54" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K54,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N54" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K54,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O54" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K54,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P54" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K54,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q54" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K54,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R54" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K54,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S54" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K54,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U54" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V54" s="2"/>
     </row>
@@ -5835,42 +5841,42 @@
       <c r="H55" s="20"/>
       <c r="I55" s="13"/>
       <c r="K55" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L55" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K55,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M55" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K55,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N55" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K55,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O55" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K55,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P55" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K55,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q55" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K55,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R55" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K55,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S55" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K55,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U55" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V55" s="2"/>
     </row>
@@ -5885,42 +5891,42 @@
       <c r="H56" s="20"/>
       <c r="I56" s="13"/>
       <c r="K56" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L56" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K56,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M56" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K56,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N56" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K56,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O56" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K56,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P56" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K56,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q56" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K56,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R56" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K56,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S56" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K56,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U56" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V56" s="2"/>
     </row>
@@ -5935,42 +5941,42 @@
       <c r="H57" s="20"/>
       <c r="I57" s="13"/>
       <c r="K57" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L57" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K57,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M57" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K57,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N57" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K57,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O57" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K57,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P57" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K57,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q57" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K57,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R57" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K57,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S57" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K57,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U57" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V57" s="2"/>
     </row>
@@ -5985,42 +5991,42 @@
       <c r="H58" s="20"/>
       <c r="I58" s="13"/>
       <c r="K58" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L58" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K58,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M58" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K58,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N58" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K58,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O58" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K58,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P58" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K58,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q58" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K58,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R58" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K58,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S58" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K58,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U58" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V58" s="2"/>
     </row>
@@ -6036,42 +6042,42 @@
       <c r="I59" s="13"/>
       <c r="J59" s="22"/>
       <c r="K59" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L59" s="65">
-        <f t="shared" si="10"/>
+        <f>SUMIFS(B:B,I:I,K59,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M59" s="65">
-        <f t="shared" si="11"/>
+        <f>SUMIFS(B:B,I:I,K59,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N59" s="65">
-        <f t="shared" si="12"/>
+        <f>SUMIFS(B:B,I:I,K59,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O59" s="65">
-        <f t="shared" si="13"/>
+        <f>SUMIFS(B:B,I:I,K59,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P59" s="65">
-        <f t="shared" si="14"/>
+        <f>SUMIFS(B:B,I:I,K59,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q59" s="65">
-        <f t="shared" si="15"/>
+        <f>SUMIFS(B:B,I:I,K59,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R59" s="65">
-        <f t="shared" si="16"/>
+        <f>SUMIFS(B:B,I:I,K59,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S59" s="65">
-        <f t="shared" si="17"/>
+        <f>SUMIFS(B:B,I:I,K59,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U59" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V59" s="2"/>
     </row>
@@ -6085,39 +6091,40 @@
       <c r="G60" s="21"/>
       <c r="H60" s="20"/>
       <c r="I60" s="13"/>
-      <c r="K60" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="L60" s="57" t="str">
-        <f>L4</f>
-        <v>دولار</v>
-      </c>
-      <c r="M60" s="57">
-        <f t="shared" ref="M60:S60" si="18">M4</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="57">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="57">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="57">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="57">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="57">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="57">
-        <f t="shared" si="18"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L60" s="65">
+        <f>SUMIFS(B:B,I:I,K60,C:C,$L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="65">
+        <f>SUMIFS(B:B,I:I,K60,C:C,$M$4)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="65">
+        <f>SUMIFS(B:B,I:I,K60,C:C,$N$4)</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="65">
+        <f>SUMIFS(B:B,I:I,K60,C:C,$O$4)</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="65">
+        <f>SUMIFS(B:B,I:I,K60,C:C,$P$4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="65">
+        <f>SUMIFS(B:B,I:I,K60,C:C,$Q$4)</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="65">
+        <f>SUMIFS(B:B,I:I,K60,C:C,$R$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S60" s="65">
+        <f>SUMIFS(B:B,I:I,K60,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U60" s="26"/>
@@ -6133,44 +6140,42 @@
       <c r="G61" s="21"/>
       <c r="H61" s="20"/>
       <c r="I61" s="13"/>
-      <c r="K61" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="65">
-        <f t="shared" ref="L61:L67" si="19">SUMIFS(B:B,I:I,K61,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="65">
-        <f t="shared" ref="M61:M67" si="20">SUMIFS(B:B,I:I,K61,C:C,$M$4)</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="65">
-        <f t="shared" ref="N61:N67" si="21">SUMIFS(B:B,I:I,K61,C:C,$N$4)</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="65">
-        <f t="shared" ref="O61:O67" si="22">SUMIFS(B:B,I:I,K61,C:C,$O$4)</f>
-        <v>0</v>
-      </c>
-      <c r="P61" s="65">
-        <f t="shared" ref="P61:P67" si="23">SUMIFS(B:B,I:I,K61,C:C,$P$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="65">
-        <f t="shared" ref="Q61:Q67" si="24">SUMIFS(B:B,I:I,K61,C:C,$Q$4)</f>
-        <v>0</v>
-      </c>
-      <c r="R61" s="65">
-        <f t="shared" ref="R61:R67" si="25">SUMIFS(B:B,I:I,K61,C:C,$R$4)</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="65">
-        <f t="shared" ref="S61:S67" si="26">SUMIFS(B:B,I:I,K61,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U61" s="26" t="s">
-        <v>76</v>
-      </c>
+      <c r="K61" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L61" s="57" t="str">
+        <f>L4</f>
+        <v>دولار</v>
+      </c>
+      <c r="M61" s="57">
+        <f>M4</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="57">
+        <f>N4</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="57">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="57">
+        <f>P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="57">
+        <f>Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R61" s="57">
+        <f>R4</f>
+        <v>0</v>
+      </c>
+      <c r="S61" s="57">
+        <f>S4</f>
+        <v>0</v>
+      </c>
+      <c r="U61" s="26"/>
       <c r="V61" s="2"/>
     </row>
     <row r="62" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -6184,42 +6189,42 @@
       <c r="H62" s="20"/>
       <c r="I62" s="13"/>
       <c r="K62" s="11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="L62" s="65">
-        <f t="shared" si="19"/>
+        <f>SUMIFS(B:B,I:I,K62,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M62" s="65">
-        <f t="shared" si="20"/>
+        <f>SUMIFS(B:B,I:I,K62,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N62" s="65">
-        <f t="shared" si="21"/>
+        <f>SUMIFS(B:B,I:I,K62,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O62" s="65">
-        <f t="shared" si="22"/>
+        <f>SUMIFS(B:B,I:I,K62,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P62" s="65">
-        <f t="shared" si="23"/>
+        <f>SUMIFS(B:B,I:I,K62,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q62" s="65">
-        <f t="shared" si="24"/>
+        <f>SUMIFS(B:B,I:I,K62,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R62" s="65">
-        <f t="shared" si="25"/>
+        <f>SUMIFS(B:B,I:I,K62,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S62" s="65">
-        <f t="shared" si="26"/>
+        <f>SUMIFS(B:B,I:I,K62,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U62" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V62" s="2"/>
     </row>
@@ -6234,42 +6239,42 @@
       <c r="H63" s="20"/>
       <c r="I63" s="13"/>
       <c r="K63" s="11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L63" s="65">
-        <f t="shared" si="19"/>
+        <f>SUMIFS(B:B,I:I,K63,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M63" s="65">
-        <f t="shared" si="20"/>
+        <f>SUMIFS(B:B,I:I,K63,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N63" s="65">
-        <f t="shared" si="21"/>
+        <f>SUMIFS(B:B,I:I,K63,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O63" s="65">
-        <f t="shared" si="22"/>
+        <f>SUMIFS(B:B,I:I,K63,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P63" s="65">
-        <f t="shared" si="23"/>
+        <f>SUMIFS(B:B,I:I,K63,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q63" s="65">
-        <f t="shared" si="24"/>
+        <f>SUMIFS(B:B,I:I,K63,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R63" s="65">
-        <f t="shared" si="25"/>
+        <f>SUMIFS(B:B,I:I,K63,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S63" s="65">
-        <f t="shared" si="26"/>
+        <f>SUMIFS(B:B,I:I,K63,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U63" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="V63" s="2"/>
     </row>
@@ -6284,42 +6289,42 @@
       <c r="H64" s="20"/>
       <c r="I64" s="13"/>
       <c r="K64" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L64" s="65">
-        <f t="shared" si="19"/>
+        <f>SUMIFS(B:B,I:I,K64,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M64" s="65">
-        <f t="shared" si="20"/>
+        <f>SUMIFS(B:B,I:I,K64,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N64" s="65">
-        <f t="shared" si="21"/>
+        <f>SUMIFS(B:B,I:I,K64,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O64" s="65">
-        <f t="shared" si="22"/>
+        <f>SUMIFS(B:B,I:I,K64,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P64" s="65">
-        <f t="shared" si="23"/>
+        <f>SUMIFS(B:B,I:I,K64,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q64" s="65">
-        <f t="shared" si="24"/>
+        <f>SUMIFS(B:B,I:I,K64,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R64" s="65">
-        <f t="shared" si="25"/>
+        <f>SUMIFS(B:B,I:I,K64,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S64" s="65">
-        <f t="shared" si="26"/>
+        <f>SUMIFS(B:B,I:I,K64,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U64" s="26" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="V64" s="2"/>
     </row>
@@ -6334,42 +6339,42 @@
       <c r="H65" s="20"/>
       <c r="I65" s="13"/>
       <c r="K65" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L65" s="65">
-        <f t="shared" si="19"/>
+        <f>SUMIFS(B:B,I:I,K65,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M65" s="65">
-        <f t="shared" si="20"/>
+        <f>SUMIFS(B:B,I:I,K65,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N65" s="65">
-        <f t="shared" si="21"/>
+        <f>SUMIFS(B:B,I:I,K65,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O65" s="65">
-        <f t="shared" si="22"/>
+        <f>SUMIFS(B:B,I:I,K65,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P65" s="65">
-        <f t="shared" si="23"/>
+        <f>SUMIFS(B:B,I:I,K65,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q65" s="65">
-        <f t="shared" si="24"/>
+        <f>SUMIFS(B:B,I:I,K65,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R65" s="65">
-        <f t="shared" si="25"/>
+        <f>SUMIFS(B:B,I:I,K65,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S65" s="65">
-        <f t="shared" si="26"/>
+        <f>SUMIFS(B:B,I:I,K65,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U65" s="26" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="V65" s="2"/>
     </row>
@@ -6384,42 +6389,42 @@
       <c r="H66" s="20"/>
       <c r="I66" s="13"/>
       <c r="K66" s="11" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="L66" s="65">
-        <f t="shared" si="19"/>
+        <f>SUMIFS(B:B,I:I,K66,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M66" s="65">
-        <f t="shared" si="20"/>
+        <f>SUMIFS(B:B,I:I,K66,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N66" s="65">
-        <f t="shared" si="21"/>
+        <f>SUMIFS(B:B,I:I,K66,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O66" s="65">
-        <f t="shared" si="22"/>
+        <f>SUMIFS(B:B,I:I,K66,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P66" s="65">
-        <f t="shared" si="23"/>
+        <f>SUMIFS(B:B,I:I,K66,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q66" s="65">
-        <f t="shared" si="24"/>
+        <f>SUMIFS(B:B,I:I,K66,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R66" s="65">
-        <f t="shared" si="25"/>
+        <f>SUMIFS(B:B,I:I,K66,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S66" s="65">
-        <f t="shared" si="26"/>
+        <f>SUMIFS(B:B,I:I,K66,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U66" s="26" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="V66" s="2"/>
     </row>
@@ -6434,42 +6439,42 @@
       <c r="H67" s="20"/>
       <c r="I67" s="13"/>
       <c r="K67" s="11" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="L67" s="65">
-        <f t="shared" si="19"/>
+        <f>SUMIFS(B:B,I:I,K67,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M67" s="65">
-        <f t="shared" si="20"/>
+        <f>SUMIFS(B:B,I:I,K67,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N67" s="65">
-        <f t="shared" si="21"/>
+        <f>SUMIFS(B:B,I:I,K67,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O67" s="65">
-        <f t="shared" si="22"/>
+        <f>SUMIFS(B:B,I:I,K67,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P67" s="65">
-        <f t="shared" si="23"/>
+        <f>SUMIFS(B:B,I:I,K67,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q67" s="65">
-        <f t="shared" si="24"/>
+        <f>SUMIFS(B:B,I:I,K67,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R67" s="65">
-        <f t="shared" si="25"/>
+        <f>SUMIFS(B:B,I:I,K67,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S67" s="65">
-        <f t="shared" si="26"/>
+        <f>SUMIFS(B:B,I:I,K67,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U67" s="26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="V67" s="2"/>
     </row>
@@ -6483,42 +6488,44 @@
       <c r="G68" s="21"/>
       <c r="H68" s="20"/>
       <c r="I68" s="13"/>
-      <c r="K68" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L68" s="57" t="str">
-        <f>L4</f>
-        <v>دولار</v>
-      </c>
-      <c r="M68" s="57">
-        <f>M4</f>
-        <v>0</v>
-      </c>
-      <c r="N68" s="57">
-        <f t="shared" ref="N68:S68" si="27">N4</f>
-        <v>0</v>
-      </c>
-      <c r="O68" s="57">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="57">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="57">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R68" s="57">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S68" s="57">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="26"/>
+      <c r="K68" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" s="65">
+        <f>SUMIFS(B:B,I:I,K68,C:C,$L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="65">
+        <f>SUMIFS(B:B,I:I,K68,C:C,$M$4)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="65">
+        <f>SUMIFS(B:B,I:I,K68,C:C,$N$4)</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="65">
+        <f>SUMIFS(B:B,I:I,K68,C:C,$O$4)</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="65">
+        <f>SUMIFS(B:B,I:I,K68,C:C,$P$4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="65">
+        <f>SUMIFS(B:B,I:I,K68,C:C,$Q$4)</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="65">
+        <f>SUMIFS(B:B,I:I,K68,C:C,$R$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S68" s="65">
+        <f>SUMIFS(B:B,I:I,K68,C:C,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="26" t="s">
+        <v>127</v>
+      </c>
       <c r="V68" s="2"/>
     </row>
     <row r="69" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -6531,44 +6538,42 @@
       <c r="G69" s="21"/>
       <c r="H69" s="20"/>
       <c r="I69" s="13"/>
-      <c r="K69" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L69" s="65">
-        <f t="shared" ref="L69:L78" si="28">SUMIFS(B:B,I:I,K69,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="65">
-        <f t="shared" ref="M69:M78" si="29">SUMIFS(B:B,I:I,K69,C:C,$M$4)</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="65">
-        <f t="shared" ref="N69:N78" si="30">SUMIFS(B:B,I:I,K69,C:C,$N$4)</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="65">
-        <f t="shared" ref="O69:O78" si="31">SUMIFS(B:B,I:I,K69,C:C,$O$4)</f>
-        <v>0</v>
-      </c>
-      <c r="P69" s="65">
-        <f t="shared" ref="P69:P78" si="32">SUMIFS(B:B,I:I,K69,C:C,$P$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="65">
-        <f t="shared" ref="Q69:Q78" si="33">SUMIFS(B:B,I:I,K69,C:C,$Q$4)</f>
-        <v>0</v>
-      </c>
-      <c r="R69" s="65">
-        <f t="shared" ref="R69:R78" si="34">SUMIFS(B:B,I:I,K69,C:C,$R$4)</f>
-        <v>0</v>
-      </c>
-      <c r="S69" s="65">
-        <f t="shared" ref="S69:S78" si="35">SUMIFS(B:B,I:I,K69,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U69" s="26" t="s">
-        <v>126</v>
-      </c>
+      <c r="K69" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L69" s="57" t="str">
+        <f>L4</f>
+        <v>دولار</v>
+      </c>
+      <c r="M69" s="57">
+        <f>M4</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="57">
+        <f>N4</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="57">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="57">
+        <f>P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="57">
+        <f>Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="57">
+        <f>R4</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="57">
+        <f>S4</f>
+        <v>0</v>
+      </c>
+      <c r="U69" s="26"/>
       <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -6581,40 +6586,44 @@
       <c r="G70" s="21"/>
       <c r="H70" s="20"/>
       <c r="I70" s="13"/>
-      <c r="K70" s="11"/>
+      <c r="K70" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="L70" s="65">
-        <f t="shared" si="28"/>
+        <f>SUMIFS(B:B,I:I,K70,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M70" s="65">
-        <f t="shared" si="29"/>
+        <f>SUMIFS(B:B,I:I,K70,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N70" s="65">
-        <f t="shared" si="30"/>
+        <f>SUMIFS(B:B,I:I,K70,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O70" s="65">
-        <f t="shared" si="31"/>
+        <f>SUMIFS(B:B,I:I,K70,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P70" s="65">
-        <f t="shared" si="32"/>
+        <f>SUMIFS(B:B,I:I,K70,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q70" s="65">
-        <f t="shared" si="33"/>
+        <f>SUMIFS(B:B,I:I,K70,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R70" s="65">
-        <f t="shared" si="34"/>
+        <f>SUMIFS(B:B,I:I,K70,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S70" s="65">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="26"/>
+        <f>SUMIFS(B:B,I:I,K70,C:C,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="U70" s="26" t="s">
+        <v>125</v>
+      </c>
       <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
@@ -6629,35 +6638,35 @@
       <c r="I71" s="13"/>
       <c r="K71" s="11"/>
       <c r="L71" s="65">
-        <f t="shared" si="28"/>
+        <f>SUMIFS(B:B,I:I,K71,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M71" s="65">
-        <f t="shared" si="29"/>
+        <f>SUMIFS(B:B,I:I,K71,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N71" s="65">
-        <f t="shared" si="30"/>
+        <f>SUMIFS(B:B,I:I,K71,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O71" s="65">
-        <f t="shared" si="31"/>
+        <f>SUMIFS(B:B,I:I,K71,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P71" s="65">
-        <f t="shared" si="32"/>
+        <f>SUMIFS(B:B,I:I,K71,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q71" s="65">
-        <f t="shared" si="33"/>
+        <f>SUMIFS(B:B,I:I,K71,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R71" s="65">
-        <f t="shared" si="34"/>
+        <f>SUMIFS(B:B,I:I,K71,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S71" s="65">
-        <f t="shared" si="35"/>
+        <f>SUMIFS(B:B,I:I,K71,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U71" s="26"/>
@@ -6675,35 +6684,35 @@
       <c r="I72" s="13"/>
       <c r="K72" s="11"/>
       <c r="L72" s="65">
-        <f t="shared" si="28"/>
+        <f>SUMIFS(B:B,I:I,K72,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M72" s="65">
-        <f t="shared" si="29"/>
+        <f>SUMIFS(B:B,I:I,K72,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N72" s="65">
-        <f t="shared" si="30"/>
+        <f>SUMIFS(B:B,I:I,K72,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O72" s="65">
-        <f t="shared" si="31"/>
+        <f>SUMIFS(B:B,I:I,K72,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P72" s="65">
-        <f t="shared" si="32"/>
+        <f>SUMIFS(B:B,I:I,K72,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q72" s="65">
-        <f t="shared" si="33"/>
+        <f>SUMIFS(B:B,I:I,K72,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R72" s="65">
-        <f t="shared" si="34"/>
+        <f>SUMIFS(B:B,I:I,K72,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S72" s="65">
-        <f t="shared" si="35"/>
+        <f>SUMIFS(B:B,I:I,K72,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U72" s="26"/>
@@ -6721,35 +6730,35 @@
       <c r="I73" s="13"/>
       <c r="K73" s="11"/>
       <c r="L73" s="65">
-        <f t="shared" si="28"/>
+        <f>SUMIFS(B:B,I:I,K73,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M73" s="65">
-        <f t="shared" si="29"/>
+        <f>SUMIFS(B:B,I:I,K73,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N73" s="65">
-        <f t="shared" si="30"/>
+        <f>SUMIFS(B:B,I:I,K73,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O73" s="65">
-        <f t="shared" si="31"/>
+        <f>SUMIFS(B:B,I:I,K73,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P73" s="65">
-        <f t="shared" si="32"/>
+        <f>SUMIFS(B:B,I:I,K73,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q73" s="65">
-        <f t="shared" si="33"/>
+        <f>SUMIFS(B:B,I:I,K73,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R73" s="65">
-        <f t="shared" si="34"/>
+        <f>SUMIFS(B:B,I:I,K73,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S73" s="65">
-        <f t="shared" si="35"/>
+        <f>SUMIFS(B:B,I:I,K73,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U73" s="26"/>
@@ -6767,35 +6776,35 @@
       <c r="I74" s="13"/>
       <c r="K74" s="11"/>
       <c r="L74" s="65">
-        <f t="shared" si="28"/>
+        <f>SUMIFS(B:B,I:I,K74,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M74" s="65">
-        <f t="shared" si="29"/>
+        <f>SUMIFS(B:B,I:I,K74,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N74" s="65">
-        <f t="shared" si="30"/>
+        <f>SUMIFS(B:B,I:I,K74,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O74" s="65">
-        <f t="shared" si="31"/>
+        <f>SUMIFS(B:B,I:I,K74,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P74" s="65">
-        <f t="shared" si="32"/>
+        <f>SUMIFS(B:B,I:I,K74,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q74" s="65">
-        <f t="shared" si="33"/>
+        <f>SUMIFS(B:B,I:I,K74,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R74" s="65">
-        <f t="shared" si="34"/>
+        <f>SUMIFS(B:B,I:I,K74,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S74" s="65">
-        <f t="shared" si="35"/>
+        <f>SUMIFS(B:B,I:I,K74,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U74" s="26"/>
@@ -6813,35 +6822,35 @@
       <c r="I75" s="13"/>
       <c r="K75" s="11"/>
       <c r="L75" s="65">
-        <f t="shared" si="28"/>
+        <f>SUMIFS(B:B,I:I,K75,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M75" s="65">
-        <f t="shared" si="29"/>
+        <f>SUMIFS(B:B,I:I,K75,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N75" s="65">
-        <f t="shared" si="30"/>
+        <f>SUMIFS(B:B,I:I,K75,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O75" s="65">
-        <f t="shared" si="31"/>
+        <f>SUMIFS(B:B,I:I,K75,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P75" s="65">
-        <f t="shared" si="32"/>
+        <f>SUMIFS(B:B,I:I,K75,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q75" s="65">
-        <f t="shared" si="33"/>
+        <f>SUMIFS(B:B,I:I,K75,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R75" s="65">
-        <f t="shared" si="34"/>
+        <f>SUMIFS(B:B,I:I,K75,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S75" s="65">
-        <f t="shared" si="35"/>
+        <f>SUMIFS(B:B,I:I,K75,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U75" s="26"/>
@@ -6859,35 +6868,35 @@
       <c r="I76" s="13"/>
       <c r="K76" s="11"/>
       <c r="L76" s="65">
-        <f t="shared" si="28"/>
+        <f>SUMIFS(B:B,I:I,K76,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M76" s="65">
-        <f t="shared" si="29"/>
+        <f>SUMIFS(B:B,I:I,K76,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N76" s="65">
-        <f t="shared" si="30"/>
+        <f>SUMIFS(B:B,I:I,K76,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O76" s="65">
-        <f t="shared" si="31"/>
+        <f>SUMIFS(B:B,I:I,K76,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P76" s="65">
-        <f t="shared" si="32"/>
+        <f>SUMIFS(B:B,I:I,K76,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q76" s="65">
-        <f t="shared" si="33"/>
+        <f>SUMIFS(B:B,I:I,K76,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R76" s="65">
-        <f t="shared" si="34"/>
+        <f>SUMIFS(B:B,I:I,K76,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S76" s="65">
-        <f t="shared" si="35"/>
+        <f>SUMIFS(B:B,I:I,K76,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U76" s="26"/>
@@ -6905,35 +6914,35 @@
       <c r="I77" s="13"/>
       <c r="K77" s="11"/>
       <c r="L77" s="65">
-        <f t="shared" si="28"/>
+        <f>SUMIFS(B:B,I:I,K77,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M77" s="65">
-        <f t="shared" si="29"/>
+        <f>SUMIFS(B:B,I:I,K77,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N77" s="65">
-        <f t="shared" si="30"/>
+        <f>SUMIFS(B:B,I:I,K77,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O77" s="65">
-        <f t="shared" si="31"/>
+        <f>SUMIFS(B:B,I:I,K77,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P77" s="65">
-        <f t="shared" si="32"/>
+        <f>SUMIFS(B:B,I:I,K77,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q77" s="65">
-        <f t="shared" si="33"/>
+        <f>SUMIFS(B:B,I:I,K77,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R77" s="65">
-        <f t="shared" si="34"/>
+        <f>SUMIFS(B:B,I:I,K77,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S77" s="65">
-        <f t="shared" si="35"/>
+        <f>SUMIFS(B:B,I:I,K77,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U77" s="26"/>
@@ -6951,35 +6960,35 @@
       <c r="I78" s="13"/>
       <c r="K78" s="11"/>
       <c r="L78" s="65">
-        <f t="shared" si="28"/>
+        <f>SUMIFS(B:B,I:I,K78,C:C,$L$4)</f>
         <v>0</v>
       </c>
       <c r="M78" s="65">
-        <f t="shared" si="29"/>
+        <f>SUMIFS(B:B,I:I,K78,C:C,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N78" s="65">
-        <f t="shared" si="30"/>
+        <f>SUMIFS(B:B,I:I,K78,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O78" s="65">
-        <f t="shared" si="31"/>
+        <f>SUMIFS(B:B,I:I,K78,C:C,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P78" s="65">
-        <f t="shared" si="32"/>
+        <f>SUMIFS(B:B,I:I,K78,C:C,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q78" s="65">
-        <f t="shared" si="33"/>
+        <f>SUMIFS(B:B,I:I,K78,C:C,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R78" s="65">
-        <f t="shared" si="34"/>
+        <f>SUMIFS(B:B,I:I,K78,C:C,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S78" s="65">
-        <f t="shared" si="35"/>
+        <f>SUMIFS(B:B,I:I,K78,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U78" s="26"/>
@@ -6995,39 +7004,37 @@
       <c r="G79" s="21"/>
       <c r="H79" s="20"/>
       <c r="I79" s="13"/>
-      <c r="K79" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L79" s="58">
-        <f>SUM(L15:L78)</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="58">
-        <f t="shared" ref="M79:S79" si="36">SUM(M15:M78)</f>
-        <v>0</v>
-      </c>
-      <c r="N79" s="58">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="58">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="58">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="58">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="R79" s="58">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S79" s="58">
-        <f t="shared" si="36"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="65">
+        <f>SUMIFS(B:B,I:I,K79,C:C,$L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="65">
+        <f>SUMIFS(B:B,I:I,K79,C:C,$M$4)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="65">
+        <f>SUMIFS(B:B,I:I,K79,C:C,$N$4)</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="65">
+        <f>SUMIFS(B:B,I:I,K79,C:C,$O$4)</f>
+        <v>0</v>
+      </c>
+      <c r="P79" s="65">
+        <f>SUMIFS(B:B,I:I,K79,C:C,$P$4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="65">
+        <f>SUMIFS(B:B,I:I,K79,C:C,$Q$4)</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="65">
+        <f>SUMIFS(B:B,I:I,K79,C:C,$R$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S79" s="65">
+        <f>SUMIFS(B:B,I:I,K79,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U79" s="26"/>
@@ -7043,14 +7050,41 @@
       <c r="G80" s="21"/>
       <c r="H80" s="20"/>
       <c r="I80" s="13"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="59"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="59"/>
-      <c r="S80" s="59"/>
+      <c r="K80" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L80" s="58">
+        <f>SUM(L15:L79)</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="58">
+        <f>SUM(M15:M79)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="58">
+        <f>SUM(N15:N79)</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="58">
+        <f>SUM(O15:O79)</f>
+        <v>0</v>
+      </c>
+      <c r="P80" s="58">
+        <f>SUM(P15:P79)</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="58">
+        <f>SUM(Q15:Q79)</f>
+        <v>0</v>
+      </c>
+      <c r="R80" s="58">
+        <f>SUM(R15:R79)</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="58">
+        <f>SUM(S15:S79)</f>
+        <v>0</v>
+      </c>
       <c r="U80" s="26"/>
       <c r="V80" s="2"/>
     </row>
@@ -7064,41 +7098,14 @@
       <c r="G81" s="21"/>
       <c r="H81" s="20"/>
       <c r="I81" s="13"/>
-      <c r="K81" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L81" s="57" t="str">
-        <f>L4</f>
-        <v>دولار</v>
-      </c>
-      <c r="M81" s="57">
-        <f t="shared" ref="M81:S81" si="37">M4</f>
-        <v>0</v>
-      </c>
-      <c r="N81" s="57">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="O81" s="57">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="P81" s="57">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Q81" s="57">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R81" s="57">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="S81" s="57">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
+      <c r="L81" s="59"/>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="59"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="59"/>
+      <c r="S81" s="59"/>
       <c r="U81" s="26"/>
       <c r="V81" s="2"/>
     </row>
@@ -7112,39 +7119,39 @@
       <c r="G82" s="21"/>
       <c r="H82" s="20"/>
       <c r="I82" s="13"/>
-      <c r="K82" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="L82" s="65">
-        <f>SUMIFS(B:B,I:I,K82,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="65">
-        <f>SUMIFS(B:B,I:I,K82,C:C,$M$4)</f>
-        <v>0</v>
-      </c>
-      <c r="N82" s="65">
-        <f>SUMIFS(B:B,I:I,K82,C:C,$N$4)</f>
-        <v>0</v>
-      </c>
-      <c r="O82" s="65">
-        <f>SUMIFS(B:B,I:I,K82,C:C,$O$4)</f>
-        <v>0</v>
-      </c>
-      <c r="P82" s="65">
-        <f>SUMIFS(B:B,I:I,K82,C:C,$P$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q82" s="65">
-        <f>SUMIFS(B:B,I:I,K82,C:C,$Q$4)</f>
-        <v>0</v>
-      </c>
-      <c r="R82" s="65">
-        <f>SUMIFS(B:B,I:I,K82,C:C,$R$4)</f>
-        <v>0</v>
-      </c>
-      <c r="S82" s="65">
-        <f>SUMIFS(B:B,I:I,K82,C:C,$S$4)</f>
+      <c r="K82" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L82" s="57" t="str">
+        <f>L4</f>
+        <v>دولار</v>
+      </c>
+      <c r="M82" s="57">
+        <f>M4</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="57">
+        <f>N4</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="57">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+      <c r="P82" s="57">
+        <f>P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="57">
+        <f>Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R82" s="57">
+        <f>R4</f>
+        <v>0</v>
+      </c>
+      <c r="S82" s="57">
+        <f>S4</f>
         <v>0</v>
       </c>
       <c r="U82" s="26"/>
@@ -7161,18 +7168,18 @@
       <c r="H83" s="20"/>
       <c r="I83" s="13"/>
       <c r="K83" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="L83" s="31">
-        <f>L13-L82</f>
-        <v>0</v>
-      </c>
-      <c r="M83" s="31">
-        <f>SUMIFS(A:A,I:I,K83,C:C,$M$4)</f>
-        <v>0</v>
-      </c>
-      <c r="N83" s="31">
-        <f>SUMIFS(A:A,I:I,K83,C:C,$N$4)</f>
+        <v>16</v>
+      </c>
+      <c r="L83" s="65">
+        <f>SUMIFS(B:B,I:I,K83,C:C,$L$4)</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="65">
+        <f>SUMIFS(B:B,I:I,K83,C:C,$M$4)</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="65">
+        <f>SUMIFS(B:B,I:I,K83,C:C,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O83" s="65">
@@ -7209,10 +7216,10 @@
       <c r="H84" s="20"/>
       <c r="I84" s="13"/>
       <c r="K84" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L84" s="31">
-        <f>L79</f>
+        <f>L13-L83</f>
         <v>0</v>
       </c>
       <c r="M84" s="31">
@@ -7246,7 +7253,7 @@
       <c r="U84" s="26"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A85" s="78"/>
       <c r="B85" s="70"/>
       <c r="C85" s="33"/>
@@ -7256,12 +7263,11 @@
       <c r="G85" s="21"/>
       <c r="H85" s="20"/>
       <c r="I85" s="13"/>
-      <c r="J85" s="16"/>
       <c r="K85" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L85" s="31">
-        <f>SUM(L82+L83-L84)</f>
+        <f>L80</f>
         <v>0</v>
       </c>
       <c r="M85" s="31">
@@ -7305,14 +7311,42 @@
       <c r="G86" s="21"/>
       <c r="H86" s="20"/>
       <c r="I86" s="13"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="60"/>
-      <c r="O86" s="60"/>
-      <c r="P86" s="60"/>
-      <c r="Q86" s="60"/>
-      <c r="R86" s="60"/>
-      <c r="S86" s="60"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L86" s="31">
+        <f>SUM(L83+L84-L85)</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="31">
+        <f>SUMIFS(A:A,I:I,K86,C:C,$M$4)</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="31">
+        <f>SUMIFS(A:A,I:I,K86,C:C,$N$4)</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="65">
+        <f>SUMIFS(B:B,I:I,K86,C:C,$O$4)</f>
+        <v>0</v>
+      </c>
+      <c r="P86" s="65">
+        <f>SUMIFS(B:B,I:I,K86,C:C,$P$4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="65">
+        <f>SUMIFS(B:B,I:I,K86,C:C,$Q$4)</f>
+        <v>0</v>
+      </c>
+      <c r="R86" s="65">
+        <f>SUMIFS(B:B,I:I,K86,C:C,$R$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="65">
+        <f>SUMIFS(B:B,I:I,K86,C:C,$S$4)</f>
+        <v>0</v>
+      </c>
       <c r="U86" s="26"/>
       <c r="V86" s="2"/>
     </row>
@@ -7347,87 +7381,60 @@
       <c r="G88" s="21"/>
       <c r="H88" s="20"/>
       <c r="I88" s="13"/>
-      <c r="K88" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="L88" s="57" t="str">
-        <f>L4</f>
-        <v>دولار</v>
-      </c>
-      <c r="M88" s="57">
-        <f t="shared" ref="M88:S88" si="38">M4</f>
-        <v>0</v>
-      </c>
-      <c r="N88" s="57">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O88" s="57">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="P88" s="57">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Q88" s="57">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="R88" s="57">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="57">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="60"/>
+      <c r="R88" s="60"/>
+      <c r="S88" s="60"/>
       <c r="U88" s="26"/>
       <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A89" s="77"/>
+      <c r="A89" s="78"/>
       <c r="B89" s="70"/>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
       <c r="F89" s="33"/>
-      <c r="G89" s="17"/>
+      <c r="G89" s="21"/>
       <c r="H89" s="20"/>
       <c r="I89" s="13"/>
-      <c r="K89" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="L89" s="61">
-        <f>SUM(L15:L59)</f>
-        <v>0</v>
-      </c>
-      <c r="M89" s="61">
-        <f t="shared" ref="M89:N89" si="39">SUM(M15:M59)</f>
-        <v>0</v>
-      </c>
-      <c r="N89" s="61">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="61">
-        <f>SUMIFS(B:B,I:I,K89,C:C,$O$4)</f>
-        <v>0</v>
-      </c>
-      <c r="P89" s="61">
-        <f>SUMIFS(B:B,I:I,K89,C:C,$P$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="61">
-        <f>SUMIFS(B:B,I:I,K89,C:C,$Q$4)</f>
-        <v>0</v>
-      </c>
-      <c r="R89" s="61">
-        <f>SUMIFS(B:B,I:I,K89,C:C,$R$4)</f>
-        <v>0</v>
-      </c>
-      <c r="S89" s="61">
-        <f>SUMIFS(B:B,I:I,K89,C:C,$S$4)</f>
+      <c r="K89" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="L89" s="57" t="str">
+        <f>L4</f>
+        <v>دولار</v>
+      </c>
+      <c r="M89" s="57">
+        <f>M4</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="57">
+        <f>N4</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="57">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+      <c r="P89" s="57">
+        <f>P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="57">
+        <f>Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R89" s="57">
+        <f>R4</f>
+        <v>0</v>
+      </c>
+      <c r="S89" s="57">
+        <f>S4</f>
         <v>0</v>
       </c>
       <c r="U89" s="26"/>
@@ -7436,299 +7443,347 @@
     <row r="90" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
       <c r="A90" s="77"/>
       <c r="B90" s="70"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="21"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="17"/>
       <c r="H90" s="20"/>
       <c r="I90" s="13"/>
-      <c r="K90" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="L90" s="62">
-        <f>SUM(L61:L67)</f>
-        <v>0</v>
-      </c>
-      <c r="M90" s="62">
-        <f t="shared" ref="M90:S90" si="40">SUM(M61:M67)</f>
-        <v>0</v>
-      </c>
-      <c r="N90" s="62">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="62">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="62">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="62">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R90" s="62">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="62">
-        <f t="shared" si="40"/>
+      <c r="K90" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="L90" s="61">
+        <f>SUM(L15:L59)</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="61">
+        <f>SUM(M15:M59)</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="61">
+        <f>SUM(N15:N59)</f>
+        <v>0</v>
+      </c>
+      <c r="O90" s="61">
+        <f>SUMIFS(B:B,I:I,K90,C:C,$O$4)</f>
+        <v>0</v>
+      </c>
+      <c r="P90" s="61">
+        <f>SUMIFS(B:B,I:I,K90,C:C,$P$4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="61">
+        <f>SUMIFS(B:B,I:I,K90,C:C,$Q$4)</f>
+        <v>0</v>
+      </c>
+      <c r="R90" s="61">
+        <f>SUMIFS(B:B,I:I,K90,C:C,$R$4)</f>
+        <v>0</v>
+      </c>
+      <c r="S90" s="61">
+        <f>SUMIFS(B:B,I:I,K90,C:C,$S$4)</f>
         <v>0</v>
       </c>
       <c r="U90" s="26"/>
       <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A91" s="24"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="K91" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="L91" s="63">
-        <f>SUM(L69:L78)</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="63">
-        <f t="shared" ref="M91:S91" si="41">SUM(M69:M78)</f>
-        <v>0</v>
-      </c>
-      <c r="N91" s="63">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O91" s="63">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="P91" s="63">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Q91" s="63">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="R91" s="63">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="S91" s="63">
-        <f t="shared" si="41"/>
+      <c r="A91" s="77"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="13"/>
+      <c r="K91" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="L91" s="62">
+        <f>SUM(L62:L68)</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="62">
+        <f>SUM(M62:M68)</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="62">
+        <f>SUM(N62:N68)</f>
+        <v>0</v>
+      </c>
+      <c r="O91" s="62">
+        <f>SUM(O62:O68)</f>
+        <v>0</v>
+      </c>
+      <c r="P91" s="62">
+        <f>SUM(P62:P68)</f>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="62">
+        <f>SUM(Q62:Q68)</f>
+        <v>0</v>
+      </c>
+      <c r="R91" s="62">
+        <f>SUM(R62:R68)</f>
+        <v>0</v>
+      </c>
+      <c r="S91" s="62">
+        <f>SUM(S62:S68)</f>
         <v>0</v>
       </c>
       <c r="U91" s="26"/>
       <c r="V91" s="2"/>
     </row>
     <row r="92" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="K92" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="L92" s="64">
-        <f>SUM(L89:L91)</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="64">
-        <f t="shared" ref="M92:S92" si="42">SUM(M89:M91)</f>
-        <v>0</v>
-      </c>
-      <c r="N92" s="64">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="O92" s="64">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P92" s="64">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="Q92" s="64">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="R92" s="64">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="64">
-        <f t="shared" si="42"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="K92" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="L92" s="63">
+        <f>SUM(L70:L79)</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="63">
+        <f t="shared" ref="M92:S92" si="2">SUM(M70:M79)</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U92" s="26"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="94" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="38"/>
-    </row>
-    <row r="95" spans="1:22" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A95" s="82"/>
-      <c r="B95" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C95" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="D95" s="84" t="s">
-        <v>56</v>
-      </c>
+    <row r="93" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="K93" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="L93" s="64">
+        <f>SUM(L90:L92)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="64">
+        <f t="shared" ref="M93:S93" si="3">SUM(M90:M92)</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U93" s="26"/>
+      <c r="V93" s="2"/>
+    </row>
+    <row r="95" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
-      <c r="G95" s="41"/>
+      <c r="G95" s="38"/>
     </row>
     <row r="96" spans="1:22" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A96" s="85"/>
-      <c r="B96" s="81">
-        <f>SUMIF(C5:C90,A96,A5:A90)</f>
-        <v>0</v>
-      </c>
-      <c r="C96" s="81">
-        <f>SUMIF(C5:C90,A96,B5:B90)</f>
-        <v>0</v>
-      </c>
-      <c r="D96" s="86">
-        <f>B96-C96</f>
-        <v>0</v>
+      <c r="A96" s="82"/>
+      <c r="B96" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="84" t="s">
+        <v>55</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="37"/>
-      <c r="G96" s="42"/>
+      <c r="G96" s="41"/>
     </row>
     <row r="97" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A97" s="85"/>
       <c r="B97" s="81">
-        <f t="shared" ref="B97:B103" si="43">SUMIF(C6:C91,A97,A6:A91)</f>
+        <f>SUMIF(C5:C91,A97,A5:A91)</f>
         <v>0</v>
       </c>
       <c r="C97" s="81">
-        <f t="shared" ref="C97:C103" si="44">SUMIF(C6:C91,A97,B6:B91)</f>
+        <f>SUMIF(C5:C91,A97,B5:B91)</f>
         <v>0</v>
       </c>
       <c r="D97" s="86">
-        <f t="shared" ref="D97:D103" si="45">B97-C97</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="43"/>
+        <f>B97-C97</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="42"/>
     </row>
     <row r="98" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A98" s="85"/>
       <c r="B98" s="81">
-        <f t="shared" si="43"/>
+        <f>SUMIF(C6:C92,A98,A6:A92)</f>
         <v>0</v>
       </c>
       <c r="C98" s="81">
-        <f t="shared" si="44"/>
+        <f>SUMIF(C6:C92,A98,B6:B92)</f>
         <v>0</v>
       </c>
       <c r="D98" s="86">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
+        <f t="shared" ref="D98:D104" si="4">B98-C98</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="43"/>
     </row>
     <row r="99" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A99" s="85"/>
       <c r="B99" s="81">
-        <f t="shared" si="43"/>
+        <f>SUMIF(C7:C93,A99,A7:A93)</f>
         <v>0</v>
       </c>
       <c r="C99" s="81">
-        <f t="shared" si="44"/>
+        <f>SUMIF(C7:C93,A99,B7:B93)</f>
         <v>0</v>
       </c>
       <c r="D99" s="86">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="43"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
     </row>
     <row r="100" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A100" s="85"/>
       <c r="B100" s="81">
-        <f t="shared" si="43"/>
+        <f>SUMIF(C8:C94,A100,A8:A94)</f>
         <v>0</v>
       </c>
       <c r="C100" s="81">
-        <f t="shared" si="44"/>
+        <f>SUMIF(C8:C94,A100,B8:B94)</f>
         <v>0</v>
       </c>
       <c r="D100" s="86">
-        <f t="shared" si="45"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E100" s="39"/>
       <c r="F100" s="39"/>
+      <c r="G100" s="43"/>
     </row>
     <row r="101" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A101" s="85"/>
       <c r="B101" s="81">
-        <f t="shared" si="43"/>
+        <f>SUMIF(C9:C95,A101,A9:A95)</f>
         <v>0</v>
       </c>
       <c r="C101" s="81">
-        <f t="shared" si="44"/>
+        <f>SUMIF(C9:C95,A101,B9:B95)</f>
         <v>0</v>
       </c>
       <c r="D101" s="86">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
     </row>
     <row r="102" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A102" s="85"/>
       <c r="B102" s="81">
-        <f t="shared" si="43"/>
+        <f>SUMIF(C10:C96,A102,A10:A96)</f>
         <v>0</v>
       </c>
       <c r="C102" s="81">
-        <f t="shared" si="44"/>
+        <f>SUMIF(C10:C96,A102,B10:B96)</f>
         <v>0</v>
       </c>
       <c r="D102" s="86">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
       <c r="A103" s="85"/>
-      <c r="B103" s="87">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="C103" s="87">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="D103" s="88">
-        <f t="shared" si="45"/>
+      <c r="B103" s="81">
+        <f>SUMIF(C11:C97,A103,A11:A97)</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="81">
+        <f>SUMIF(C11:C97,A103,B11:B97)</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="85"/>
+      <c r="B104" s="87">
+        <f>SUMIF(C12:C98,A104,A12:A98)</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="87">
+        <f>SUMIF(C12:C98,A104,B12:B98)</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="88">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7742,27 +7797,24 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="K1:S1"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I65527:I65551 JL65473:JL65497 TH65473:TH65497 ADD65473:ADD65497 AMZ65473:AMZ65497 AWV65473:AWV65497 BGR65473:BGR65497 BQN65473:BQN65497 CAJ65473:CAJ65497 CKF65473:CKF65497 CUB65473:CUB65497 DDX65473:DDX65497 DNT65473:DNT65497 DXP65473:DXP65497 EHL65473:EHL65497 ERH65473:ERH65497 FBD65473:FBD65497 FKZ65473:FKZ65497 FUV65473:FUV65497 GER65473:GER65497 GON65473:GON65497 GYJ65473:GYJ65497 HIF65473:HIF65497 HSB65473:HSB65497 IBX65473:IBX65497 ILT65473:ILT65497 IVP65473:IVP65497 JFL65473:JFL65497 JPH65473:JPH65497 JZD65473:JZD65497 KIZ65473:KIZ65497 KSV65473:KSV65497 LCR65473:LCR65497 LMN65473:LMN65497 LWJ65473:LWJ65497 MGF65473:MGF65497 MQB65473:MQB65497 MZX65473:MZX65497 NJT65473:NJT65497 NTP65473:NTP65497 ODL65473:ODL65497 ONH65473:ONH65497 OXD65473:OXD65497 PGZ65473:PGZ65497 PQV65473:PQV65497 QAR65473:QAR65497 QKN65473:QKN65497 QUJ65473:QUJ65497 REF65473:REF65497 ROB65473:ROB65497 RXX65473:RXX65497 SHT65473:SHT65497 SRP65473:SRP65497 TBL65473:TBL65497 TLH65473:TLH65497 TVD65473:TVD65497 UEZ65473:UEZ65497 UOV65473:UOV65497 UYR65473:UYR65497 VIN65473:VIN65497 VSJ65473:VSJ65497 WCF65473:WCF65497 WMB65473:WMB65497 WVX65473:WVX65497 I131063:I131087 JL131009:JL131033 TH131009:TH131033 ADD131009:ADD131033 AMZ131009:AMZ131033 AWV131009:AWV131033 BGR131009:BGR131033 BQN131009:BQN131033 CAJ131009:CAJ131033 CKF131009:CKF131033 CUB131009:CUB131033 DDX131009:DDX131033 DNT131009:DNT131033 DXP131009:DXP131033 EHL131009:EHL131033 ERH131009:ERH131033 FBD131009:FBD131033 FKZ131009:FKZ131033 FUV131009:FUV131033 GER131009:GER131033 GON131009:GON131033 GYJ131009:GYJ131033 HIF131009:HIF131033 HSB131009:HSB131033 IBX131009:IBX131033 ILT131009:ILT131033 IVP131009:IVP131033 JFL131009:JFL131033 JPH131009:JPH131033 JZD131009:JZD131033 KIZ131009:KIZ131033 KSV131009:KSV131033 LCR131009:LCR131033 LMN131009:LMN131033 LWJ131009:LWJ131033 MGF131009:MGF131033 MQB131009:MQB131033 MZX131009:MZX131033 NJT131009:NJT131033 NTP131009:NTP131033 ODL131009:ODL131033 ONH131009:ONH131033 OXD131009:OXD131033 PGZ131009:PGZ131033 PQV131009:PQV131033 QAR131009:QAR131033 QKN131009:QKN131033 QUJ131009:QUJ131033 REF131009:REF131033 ROB131009:ROB131033 RXX131009:RXX131033 SHT131009:SHT131033 SRP131009:SRP131033 TBL131009:TBL131033 TLH131009:TLH131033 TVD131009:TVD131033 UEZ131009:UEZ131033 UOV131009:UOV131033 UYR131009:UYR131033 VIN131009:VIN131033 VSJ131009:VSJ131033 WCF131009:WCF131033 WMB131009:WMB131033 WVX131009:WVX131033 I196599:I196623 JL196545:JL196569 TH196545:TH196569 ADD196545:ADD196569 AMZ196545:AMZ196569 AWV196545:AWV196569 BGR196545:BGR196569 BQN196545:BQN196569 CAJ196545:CAJ196569 CKF196545:CKF196569 CUB196545:CUB196569 DDX196545:DDX196569 DNT196545:DNT196569 DXP196545:DXP196569 EHL196545:EHL196569 ERH196545:ERH196569 FBD196545:FBD196569 FKZ196545:FKZ196569 FUV196545:FUV196569 GER196545:GER196569 GON196545:GON196569 GYJ196545:GYJ196569 HIF196545:HIF196569 HSB196545:HSB196569 IBX196545:IBX196569 ILT196545:ILT196569 IVP196545:IVP196569 JFL196545:JFL196569 JPH196545:JPH196569 JZD196545:JZD196569 KIZ196545:KIZ196569 KSV196545:KSV196569 LCR196545:LCR196569 LMN196545:LMN196569 LWJ196545:LWJ196569 MGF196545:MGF196569 MQB196545:MQB196569 MZX196545:MZX196569 NJT196545:NJT196569 NTP196545:NTP196569 ODL196545:ODL196569 ONH196545:ONH196569 OXD196545:OXD196569 PGZ196545:PGZ196569 PQV196545:PQV196569 QAR196545:QAR196569 QKN196545:QKN196569 QUJ196545:QUJ196569 REF196545:REF196569 ROB196545:ROB196569 RXX196545:RXX196569 SHT196545:SHT196569 SRP196545:SRP196569 TBL196545:TBL196569 TLH196545:TLH196569 TVD196545:TVD196569 UEZ196545:UEZ196569 UOV196545:UOV196569 UYR196545:UYR196569 VIN196545:VIN196569 VSJ196545:VSJ196569 WCF196545:WCF196569 WMB196545:WMB196569 WVX196545:WVX196569 I262135:I262159 JL262081:JL262105 TH262081:TH262105 ADD262081:ADD262105 AMZ262081:AMZ262105 AWV262081:AWV262105 BGR262081:BGR262105 BQN262081:BQN262105 CAJ262081:CAJ262105 CKF262081:CKF262105 CUB262081:CUB262105 DDX262081:DDX262105 DNT262081:DNT262105 DXP262081:DXP262105 EHL262081:EHL262105 ERH262081:ERH262105 FBD262081:FBD262105 FKZ262081:FKZ262105 FUV262081:FUV262105 GER262081:GER262105 GON262081:GON262105 GYJ262081:GYJ262105 HIF262081:HIF262105 HSB262081:HSB262105 IBX262081:IBX262105 ILT262081:ILT262105 IVP262081:IVP262105 JFL262081:JFL262105 JPH262081:JPH262105 JZD262081:JZD262105 KIZ262081:KIZ262105 KSV262081:KSV262105 LCR262081:LCR262105 LMN262081:LMN262105 LWJ262081:LWJ262105 MGF262081:MGF262105 MQB262081:MQB262105 MZX262081:MZX262105 NJT262081:NJT262105 NTP262081:NTP262105 ODL262081:ODL262105 ONH262081:ONH262105 OXD262081:OXD262105 PGZ262081:PGZ262105 PQV262081:PQV262105 QAR262081:QAR262105 QKN262081:QKN262105 QUJ262081:QUJ262105 REF262081:REF262105 ROB262081:ROB262105 RXX262081:RXX262105 SHT262081:SHT262105 SRP262081:SRP262105 TBL262081:TBL262105 TLH262081:TLH262105 TVD262081:TVD262105 UEZ262081:UEZ262105 UOV262081:UOV262105 UYR262081:UYR262105 VIN262081:VIN262105 VSJ262081:VSJ262105 WCF262081:WCF262105 WMB262081:WMB262105 WVX262081:WVX262105 I327671:I327695 JL327617:JL327641 TH327617:TH327641 ADD327617:ADD327641 AMZ327617:AMZ327641 AWV327617:AWV327641 BGR327617:BGR327641 BQN327617:BQN327641 CAJ327617:CAJ327641 CKF327617:CKF327641 CUB327617:CUB327641 DDX327617:DDX327641 DNT327617:DNT327641 DXP327617:DXP327641 EHL327617:EHL327641 ERH327617:ERH327641 FBD327617:FBD327641 FKZ327617:FKZ327641 FUV327617:FUV327641 GER327617:GER327641 GON327617:GON327641 GYJ327617:GYJ327641 HIF327617:HIF327641 HSB327617:HSB327641 IBX327617:IBX327641 ILT327617:ILT327641 IVP327617:IVP327641 JFL327617:JFL327641 JPH327617:JPH327641 JZD327617:JZD327641 KIZ327617:KIZ327641 KSV327617:KSV327641 LCR327617:LCR327641 LMN327617:LMN327641 LWJ327617:LWJ327641 MGF327617:MGF327641 MQB327617:MQB327641 MZX327617:MZX327641 NJT327617:NJT327641 NTP327617:NTP327641 ODL327617:ODL327641 ONH327617:ONH327641 OXD327617:OXD327641 PGZ327617:PGZ327641 PQV327617:PQV327641 QAR327617:QAR327641 QKN327617:QKN327641 QUJ327617:QUJ327641 REF327617:REF327641 ROB327617:ROB327641 RXX327617:RXX327641 SHT327617:SHT327641 SRP327617:SRP327641 TBL327617:TBL327641 TLH327617:TLH327641 TVD327617:TVD327641 UEZ327617:UEZ327641 UOV327617:UOV327641 UYR327617:UYR327641 VIN327617:VIN327641 VSJ327617:VSJ327641 WCF327617:WCF327641 WMB327617:WMB327641 WVX327617:WVX327641 I393207:I393231 JL393153:JL393177 TH393153:TH393177 ADD393153:ADD393177 AMZ393153:AMZ393177 AWV393153:AWV393177 BGR393153:BGR393177 BQN393153:BQN393177 CAJ393153:CAJ393177 CKF393153:CKF393177 CUB393153:CUB393177 DDX393153:DDX393177 DNT393153:DNT393177 DXP393153:DXP393177 EHL393153:EHL393177 ERH393153:ERH393177 FBD393153:FBD393177 FKZ393153:FKZ393177 FUV393153:FUV393177 GER393153:GER393177 GON393153:GON393177 GYJ393153:GYJ393177 HIF393153:HIF393177 HSB393153:HSB393177 IBX393153:IBX393177 ILT393153:ILT393177 IVP393153:IVP393177 JFL393153:JFL393177 JPH393153:JPH393177 JZD393153:JZD393177 KIZ393153:KIZ393177 KSV393153:KSV393177 LCR393153:LCR393177 LMN393153:LMN393177 LWJ393153:LWJ393177 MGF393153:MGF393177 MQB393153:MQB393177 MZX393153:MZX393177 NJT393153:NJT393177 NTP393153:NTP393177 ODL393153:ODL393177 ONH393153:ONH393177 OXD393153:OXD393177 PGZ393153:PGZ393177 PQV393153:PQV393177 QAR393153:QAR393177 QKN393153:QKN393177 QUJ393153:QUJ393177 REF393153:REF393177 ROB393153:ROB393177 RXX393153:RXX393177 SHT393153:SHT393177 SRP393153:SRP393177 TBL393153:TBL393177 TLH393153:TLH393177 TVD393153:TVD393177 UEZ393153:UEZ393177 UOV393153:UOV393177 UYR393153:UYR393177 VIN393153:VIN393177 VSJ393153:VSJ393177 WCF393153:WCF393177 WMB393153:WMB393177 WVX393153:WVX393177 I458743:I458767 JL458689:JL458713 TH458689:TH458713 ADD458689:ADD458713 AMZ458689:AMZ458713 AWV458689:AWV458713 BGR458689:BGR458713 BQN458689:BQN458713 CAJ458689:CAJ458713 CKF458689:CKF458713 CUB458689:CUB458713 DDX458689:DDX458713 DNT458689:DNT458713 DXP458689:DXP458713 EHL458689:EHL458713 ERH458689:ERH458713 FBD458689:FBD458713 FKZ458689:FKZ458713 FUV458689:FUV458713 GER458689:GER458713 GON458689:GON458713 GYJ458689:GYJ458713 HIF458689:HIF458713 HSB458689:HSB458713 IBX458689:IBX458713 ILT458689:ILT458713 IVP458689:IVP458713 JFL458689:JFL458713 JPH458689:JPH458713 JZD458689:JZD458713 KIZ458689:KIZ458713 KSV458689:KSV458713 LCR458689:LCR458713 LMN458689:LMN458713 LWJ458689:LWJ458713 MGF458689:MGF458713 MQB458689:MQB458713 MZX458689:MZX458713 NJT458689:NJT458713 NTP458689:NTP458713 ODL458689:ODL458713 ONH458689:ONH458713 OXD458689:OXD458713 PGZ458689:PGZ458713 PQV458689:PQV458713 QAR458689:QAR458713 QKN458689:QKN458713 QUJ458689:QUJ458713 REF458689:REF458713 ROB458689:ROB458713 RXX458689:RXX458713 SHT458689:SHT458713 SRP458689:SRP458713 TBL458689:TBL458713 TLH458689:TLH458713 TVD458689:TVD458713 UEZ458689:UEZ458713 UOV458689:UOV458713 UYR458689:UYR458713 VIN458689:VIN458713 VSJ458689:VSJ458713 WCF458689:WCF458713 WMB458689:WMB458713 WVX458689:WVX458713 I524279:I524303 JL524225:JL524249 TH524225:TH524249 ADD524225:ADD524249 AMZ524225:AMZ524249 AWV524225:AWV524249 BGR524225:BGR524249 BQN524225:BQN524249 CAJ524225:CAJ524249 CKF524225:CKF524249 CUB524225:CUB524249 DDX524225:DDX524249 DNT524225:DNT524249 DXP524225:DXP524249 EHL524225:EHL524249 ERH524225:ERH524249 FBD524225:FBD524249 FKZ524225:FKZ524249 FUV524225:FUV524249 GER524225:GER524249 GON524225:GON524249 GYJ524225:GYJ524249 HIF524225:HIF524249 HSB524225:HSB524249 IBX524225:IBX524249 ILT524225:ILT524249 IVP524225:IVP524249 JFL524225:JFL524249 JPH524225:JPH524249 JZD524225:JZD524249 KIZ524225:KIZ524249 KSV524225:KSV524249 LCR524225:LCR524249 LMN524225:LMN524249 LWJ524225:LWJ524249 MGF524225:MGF524249 MQB524225:MQB524249 MZX524225:MZX524249 NJT524225:NJT524249 NTP524225:NTP524249 ODL524225:ODL524249 ONH524225:ONH524249 OXD524225:OXD524249 PGZ524225:PGZ524249 PQV524225:PQV524249 QAR524225:QAR524249 QKN524225:QKN524249 QUJ524225:QUJ524249 REF524225:REF524249 ROB524225:ROB524249 RXX524225:RXX524249 SHT524225:SHT524249 SRP524225:SRP524249 TBL524225:TBL524249 TLH524225:TLH524249 TVD524225:TVD524249 UEZ524225:UEZ524249 UOV524225:UOV524249 UYR524225:UYR524249 VIN524225:VIN524249 VSJ524225:VSJ524249 WCF524225:WCF524249 WMB524225:WMB524249 WVX524225:WVX524249 I589815:I589839 JL589761:JL589785 TH589761:TH589785 ADD589761:ADD589785 AMZ589761:AMZ589785 AWV589761:AWV589785 BGR589761:BGR589785 BQN589761:BQN589785 CAJ589761:CAJ589785 CKF589761:CKF589785 CUB589761:CUB589785 DDX589761:DDX589785 DNT589761:DNT589785 DXP589761:DXP589785 EHL589761:EHL589785 ERH589761:ERH589785 FBD589761:FBD589785 FKZ589761:FKZ589785 FUV589761:FUV589785 GER589761:GER589785 GON589761:GON589785 GYJ589761:GYJ589785 HIF589761:HIF589785 HSB589761:HSB589785 IBX589761:IBX589785 ILT589761:ILT589785 IVP589761:IVP589785 JFL589761:JFL589785 JPH589761:JPH589785 JZD589761:JZD589785 KIZ589761:KIZ589785 KSV589761:KSV589785 LCR589761:LCR589785 LMN589761:LMN589785 LWJ589761:LWJ589785 MGF589761:MGF589785 MQB589761:MQB589785 MZX589761:MZX589785 NJT589761:NJT589785 NTP589761:NTP589785 ODL589761:ODL589785 ONH589761:ONH589785 OXD589761:OXD589785 PGZ589761:PGZ589785 PQV589761:PQV589785 QAR589761:QAR589785 QKN589761:QKN589785 QUJ589761:QUJ589785 REF589761:REF589785 ROB589761:ROB589785 RXX589761:RXX589785 SHT589761:SHT589785 SRP589761:SRP589785 TBL589761:TBL589785 TLH589761:TLH589785 TVD589761:TVD589785 UEZ589761:UEZ589785 UOV589761:UOV589785 UYR589761:UYR589785 VIN589761:VIN589785 VSJ589761:VSJ589785 WCF589761:WCF589785 WMB589761:WMB589785 WVX589761:WVX589785 I655351:I655375 JL655297:JL655321 TH655297:TH655321 ADD655297:ADD655321 AMZ655297:AMZ655321 AWV655297:AWV655321 BGR655297:BGR655321 BQN655297:BQN655321 CAJ655297:CAJ655321 CKF655297:CKF655321 CUB655297:CUB655321 DDX655297:DDX655321 DNT655297:DNT655321 DXP655297:DXP655321 EHL655297:EHL655321 ERH655297:ERH655321 FBD655297:FBD655321 FKZ655297:FKZ655321 FUV655297:FUV655321 GER655297:GER655321 GON655297:GON655321 GYJ655297:GYJ655321 HIF655297:HIF655321 HSB655297:HSB655321 IBX655297:IBX655321 ILT655297:ILT655321 IVP655297:IVP655321 JFL655297:JFL655321 JPH655297:JPH655321 JZD655297:JZD655321 KIZ655297:KIZ655321 KSV655297:KSV655321 LCR655297:LCR655321 LMN655297:LMN655321 LWJ655297:LWJ655321 MGF655297:MGF655321 MQB655297:MQB655321 MZX655297:MZX655321 NJT655297:NJT655321 NTP655297:NTP655321 ODL655297:ODL655321 ONH655297:ONH655321 OXD655297:OXD655321 PGZ655297:PGZ655321 PQV655297:PQV655321 QAR655297:QAR655321 QKN655297:QKN655321 QUJ655297:QUJ655321 REF655297:REF655321 ROB655297:ROB655321 RXX655297:RXX655321 SHT655297:SHT655321 SRP655297:SRP655321 TBL655297:TBL655321 TLH655297:TLH655321 TVD655297:TVD655321 UEZ655297:UEZ655321 UOV655297:UOV655321 UYR655297:UYR655321 VIN655297:VIN655321 VSJ655297:VSJ655321 WCF655297:WCF655321 WMB655297:WMB655321 WVX655297:WVX655321 I720887:I720911 JL720833:JL720857 TH720833:TH720857 ADD720833:ADD720857 AMZ720833:AMZ720857 AWV720833:AWV720857 BGR720833:BGR720857 BQN720833:BQN720857 CAJ720833:CAJ720857 CKF720833:CKF720857 CUB720833:CUB720857 DDX720833:DDX720857 DNT720833:DNT720857 DXP720833:DXP720857 EHL720833:EHL720857 ERH720833:ERH720857 FBD720833:FBD720857 FKZ720833:FKZ720857 FUV720833:FUV720857 GER720833:GER720857 GON720833:GON720857 GYJ720833:GYJ720857 HIF720833:HIF720857 HSB720833:HSB720857 IBX720833:IBX720857 ILT720833:ILT720857 IVP720833:IVP720857 JFL720833:JFL720857 JPH720833:JPH720857 JZD720833:JZD720857 KIZ720833:KIZ720857 KSV720833:KSV720857 LCR720833:LCR720857 LMN720833:LMN720857 LWJ720833:LWJ720857 MGF720833:MGF720857 MQB720833:MQB720857 MZX720833:MZX720857 NJT720833:NJT720857 NTP720833:NTP720857 ODL720833:ODL720857 ONH720833:ONH720857 OXD720833:OXD720857 PGZ720833:PGZ720857 PQV720833:PQV720857 QAR720833:QAR720857 QKN720833:QKN720857 QUJ720833:QUJ720857 REF720833:REF720857 ROB720833:ROB720857 RXX720833:RXX720857 SHT720833:SHT720857 SRP720833:SRP720857 TBL720833:TBL720857 TLH720833:TLH720857 TVD720833:TVD720857 UEZ720833:UEZ720857 UOV720833:UOV720857 UYR720833:UYR720857 VIN720833:VIN720857 VSJ720833:VSJ720857 WCF720833:WCF720857 WMB720833:WMB720857 WVX720833:WVX720857 I786423:I786447 JL786369:JL786393 TH786369:TH786393 ADD786369:ADD786393 AMZ786369:AMZ786393 AWV786369:AWV786393 BGR786369:BGR786393 BQN786369:BQN786393 CAJ786369:CAJ786393 CKF786369:CKF786393 CUB786369:CUB786393 DDX786369:DDX786393 DNT786369:DNT786393 DXP786369:DXP786393 EHL786369:EHL786393 ERH786369:ERH786393 FBD786369:FBD786393 FKZ786369:FKZ786393 FUV786369:FUV786393 GER786369:GER786393 GON786369:GON786393 GYJ786369:GYJ786393 HIF786369:HIF786393 HSB786369:HSB786393 IBX786369:IBX786393 ILT786369:ILT786393 IVP786369:IVP786393 JFL786369:JFL786393 JPH786369:JPH786393 JZD786369:JZD786393 KIZ786369:KIZ786393 KSV786369:KSV786393 LCR786369:LCR786393 LMN786369:LMN786393 LWJ786369:LWJ786393 MGF786369:MGF786393 MQB786369:MQB786393 MZX786369:MZX786393 NJT786369:NJT786393 NTP786369:NTP786393 ODL786369:ODL786393 ONH786369:ONH786393 OXD786369:OXD786393 PGZ786369:PGZ786393 PQV786369:PQV786393 QAR786369:QAR786393 QKN786369:QKN786393 QUJ786369:QUJ786393 REF786369:REF786393 ROB786369:ROB786393 RXX786369:RXX786393 SHT786369:SHT786393 SRP786369:SRP786393 TBL786369:TBL786393 TLH786369:TLH786393 TVD786369:TVD786393 UEZ786369:UEZ786393 UOV786369:UOV786393 UYR786369:UYR786393 VIN786369:VIN786393 VSJ786369:VSJ786393 WCF786369:WCF786393 WMB786369:WMB786393 WVX786369:WVX786393 I851959:I851983 JL851905:JL851929 TH851905:TH851929 ADD851905:ADD851929 AMZ851905:AMZ851929 AWV851905:AWV851929 BGR851905:BGR851929 BQN851905:BQN851929 CAJ851905:CAJ851929 CKF851905:CKF851929 CUB851905:CUB851929 DDX851905:DDX851929 DNT851905:DNT851929 DXP851905:DXP851929 EHL851905:EHL851929 ERH851905:ERH851929 FBD851905:FBD851929 FKZ851905:FKZ851929 FUV851905:FUV851929 GER851905:GER851929 GON851905:GON851929 GYJ851905:GYJ851929 HIF851905:HIF851929 HSB851905:HSB851929 IBX851905:IBX851929 ILT851905:ILT851929 IVP851905:IVP851929 JFL851905:JFL851929 JPH851905:JPH851929 JZD851905:JZD851929 KIZ851905:KIZ851929 KSV851905:KSV851929 LCR851905:LCR851929 LMN851905:LMN851929 LWJ851905:LWJ851929 MGF851905:MGF851929 MQB851905:MQB851929 MZX851905:MZX851929 NJT851905:NJT851929 NTP851905:NTP851929 ODL851905:ODL851929 ONH851905:ONH851929 OXD851905:OXD851929 PGZ851905:PGZ851929 PQV851905:PQV851929 QAR851905:QAR851929 QKN851905:QKN851929 QUJ851905:QUJ851929 REF851905:REF851929 ROB851905:ROB851929 RXX851905:RXX851929 SHT851905:SHT851929 SRP851905:SRP851929 TBL851905:TBL851929 TLH851905:TLH851929 TVD851905:TVD851929 UEZ851905:UEZ851929 UOV851905:UOV851929 UYR851905:UYR851929 VIN851905:VIN851929 VSJ851905:VSJ851929 WCF851905:WCF851929 WMB851905:WMB851929 WVX851905:WVX851929 I917495:I917519 JL917441:JL917465 TH917441:TH917465 ADD917441:ADD917465 AMZ917441:AMZ917465 AWV917441:AWV917465 BGR917441:BGR917465 BQN917441:BQN917465 CAJ917441:CAJ917465 CKF917441:CKF917465 CUB917441:CUB917465 DDX917441:DDX917465 DNT917441:DNT917465 DXP917441:DXP917465 EHL917441:EHL917465 ERH917441:ERH917465 FBD917441:FBD917465 FKZ917441:FKZ917465 FUV917441:FUV917465 GER917441:GER917465 GON917441:GON917465 GYJ917441:GYJ917465 HIF917441:HIF917465 HSB917441:HSB917465 IBX917441:IBX917465 ILT917441:ILT917465 IVP917441:IVP917465 JFL917441:JFL917465 JPH917441:JPH917465 JZD917441:JZD917465 KIZ917441:KIZ917465 KSV917441:KSV917465 LCR917441:LCR917465 LMN917441:LMN917465 LWJ917441:LWJ917465 MGF917441:MGF917465 MQB917441:MQB917465 MZX917441:MZX917465 NJT917441:NJT917465 NTP917441:NTP917465 ODL917441:ODL917465 ONH917441:ONH917465 OXD917441:OXD917465 PGZ917441:PGZ917465 PQV917441:PQV917465 QAR917441:QAR917465 QKN917441:QKN917465 QUJ917441:QUJ917465 REF917441:REF917465 ROB917441:ROB917465 RXX917441:RXX917465 SHT917441:SHT917465 SRP917441:SRP917465 TBL917441:TBL917465 TLH917441:TLH917465 TVD917441:TVD917465 UEZ917441:UEZ917465 UOV917441:UOV917465 UYR917441:UYR917465 VIN917441:VIN917465 VSJ917441:VSJ917465 WCF917441:WCF917465 WMB917441:WMB917465 WVX917441:WVX917465 I983031:I983055 JL982977:JL983001 TH982977:TH983001 ADD982977:ADD983001 AMZ982977:AMZ983001 AWV982977:AWV983001 BGR982977:BGR983001 BQN982977:BQN983001 CAJ982977:CAJ983001 CKF982977:CKF983001 CUB982977:CUB983001 DDX982977:DDX983001 DNT982977:DNT983001 DXP982977:DXP983001 EHL982977:EHL983001 ERH982977:ERH983001 FBD982977:FBD983001 FKZ982977:FKZ983001 FUV982977:FUV983001 GER982977:GER983001 GON982977:GON983001 GYJ982977:GYJ983001 HIF982977:HIF983001 HSB982977:HSB983001 IBX982977:IBX983001 ILT982977:ILT983001 IVP982977:IVP983001 JFL982977:JFL983001 JPH982977:JPH983001 JZD982977:JZD983001 KIZ982977:KIZ983001 KSV982977:KSV983001 LCR982977:LCR983001 LMN982977:LMN983001 LWJ982977:LWJ983001 MGF982977:MGF983001 MQB982977:MQB983001 MZX982977:MZX983001 NJT982977:NJT983001 NTP982977:NTP983001 ODL982977:ODL983001 ONH982977:ONH983001 OXD982977:OXD983001 PGZ982977:PGZ983001 PQV982977:PQV983001 QAR982977:QAR983001 QKN982977:QKN983001 QUJ982977:QUJ983001 REF982977:REF983001 ROB982977:ROB983001 RXX982977:RXX983001 SHT982977:SHT983001 SRP982977:SRP983001 TBL982977:TBL983001 TLH982977:TLH983001 TVD982977:TVD983001 UEZ982977:UEZ983001 UOV982977:UOV983001 UYR982977:UYR983001 VIN982977:VIN983001 VSJ982977:VSJ983001 WCF982977:WCF983001 WMB982977:WMB983001 WVX982977:WVX983001 WVX5:WVX25 JL5:JL25 TH5:TH25 ADD5:ADD25 AMZ5:AMZ25 AWV5:AWV25 BGR5:BGR25 BQN5:BQN25 CAJ5:CAJ25 CKF5:CKF25 CUB5:CUB25 DDX5:DDX25 DNT5:DNT25 DXP5:DXP25 EHL5:EHL25 ERH5:ERH25 FBD5:FBD25 FKZ5:FKZ25 FUV5:FUV25 GER5:GER25 GON5:GON25 GYJ5:GYJ25 HIF5:HIF25 HSB5:HSB25 IBX5:IBX25 ILT5:ILT25 IVP5:IVP25 JFL5:JFL25 JPH5:JPH25 JZD5:JZD25 KIZ5:KIZ25 KSV5:KSV25 LCR5:LCR25 LMN5:LMN25 LWJ5:LWJ25 MGF5:MGF25 MQB5:MQB25 MZX5:MZX25 NJT5:NJT25 NTP5:NTP25 ODL5:ODL25 ONH5:ONH25 OXD5:OXD25 PGZ5:PGZ25 PQV5:PQV25 QAR5:QAR25 QKN5:QKN25 QUJ5:QUJ25 REF5:REF25 ROB5:ROB25 RXX5:RXX25 SHT5:SHT25 SRP5:SRP25 TBL5:TBL25 TLH5:TLH25 TVD5:TVD25 UEZ5:UEZ25 UOV5:UOV25 UYR5:UYR25 VIN5:VIN25 VSJ5:VSJ25 WCF5:WCF25 WMB5:WMB25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I65528:I65552 JL65474:JL65498 TH65474:TH65498 ADD65474:ADD65498 AMZ65474:AMZ65498 AWV65474:AWV65498 BGR65474:BGR65498 BQN65474:BQN65498 CAJ65474:CAJ65498 CKF65474:CKF65498 CUB65474:CUB65498 DDX65474:DDX65498 DNT65474:DNT65498 DXP65474:DXP65498 EHL65474:EHL65498 ERH65474:ERH65498 FBD65474:FBD65498 FKZ65474:FKZ65498 FUV65474:FUV65498 GER65474:GER65498 GON65474:GON65498 GYJ65474:GYJ65498 HIF65474:HIF65498 HSB65474:HSB65498 IBX65474:IBX65498 ILT65474:ILT65498 IVP65474:IVP65498 JFL65474:JFL65498 JPH65474:JPH65498 JZD65474:JZD65498 KIZ65474:KIZ65498 KSV65474:KSV65498 LCR65474:LCR65498 LMN65474:LMN65498 LWJ65474:LWJ65498 MGF65474:MGF65498 MQB65474:MQB65498 MZX65474:MZX65498 NJT65474:NJT65498 NTP65474:NTP65498 ODL65474:ODL65498 ONH65474:ONH65498 OXD65474:OXD65498 PGZ65474:PGZ65498 PQV65474:PQV65498 QAR65474:QAR65498 QKN65474:QKN65498 QUJ65474:QUJ65498 REF65474:REF65498 ROB65474:ROB65498 RXX65474:RXX65498 SHT65474:SHT65498 SRP65474:SRP65498 TBL65474:TBL65498 TLH65474:TLH65498 TVD65474:TVD65498 UEZ65474:UEZ65498 UOV65474:UOV65498 UYR65474:UYR65498 VIN65474:VIN65498 VSJ65474:VSJ65498 WCF65474:WCF65498 WMB65474:WMB65498 WVX65474:WVX65498 I131064:I131088 JL131010:JL131034 TH131010:TH131034 ADD131010:ADD131034 AMZ131010:AMZ131034 AWV131010:AWV131034 BGR131010:BGR131034 BQN131010:BQN131034 CAJ131010:CAJ131034 CKF131010:CKF131034 CUB131010:CUB131034 DDX131010:DDX131034 DNT131010:DNT131034 DXP131010:DXP131034 EHL131010:EHL131034 ERH131010:ERH131034 FBD131010:FBD131034 FKZ131010:FKZ131034 FUV131010:FUV131034 GER131010:GER131034 GON131010:GON131034 GYJ131010:GYJ131034 HIF131010:HIF131034 HSB131010:HSB131034 IBX131010:IBX131034 ILT131010:ILT131034 IVP131010:IVP131034 JFL131010:JFL131034 JPH131010:JPH131034 JZD131010:JZD131034 KIZ131010:KIZ131034 KSV131010:KSV131034 LCR131010:LCR131034 LMN131010:LMN131034 LWJ131010:LWJ131034 MGF131010:MGF131034 MQB131010:MQB131034 MZX131010:MZX131034 NJT131010:NJT131034 NTP131010:NTP131034 ODL131010:ODL131034 ONH131010:ONH131034 OXD131010:OXD131034 PGZ131010:PGZ131034 PQV131010:PQV131034 QAR131010:QAR131034 QKN131010:QKN131034 QUJ131010:QUJ131034 REF131010:REF131034 ROB131010:ROB131034 RXX131010:RXX131034 SHT131010:SHT131034 SRP131010:SRP131034 TBL131010:TBL131034 TLH131010:TLH131034 TVD131010:TVD131034 UEZ131010:UEZ131034 UOV131010:UOV131034 UYR131010:UYR131034 VIN131010:VIN131034 VSJ131010:VSJ131034 WCF131010:WCF131034 WMB131010:WMB131034 WVX131010:WVX131034 I196600:I196624 JL196546:JL196570 TH196546:TH196570 ADD196546:ADD196570 AMZ196546:AMZ196570 AWV196546:AWV196570 BGR196546:BGR196570 BQN196546:BQN196570 CAJ196546:CAJ196570 CKF196546:CKF196570 CUB196546:CUB196570 DDX196546:DDX196570 DNT196546:DNT196570 DXP196546:DXP196570 EHL196546:EHL196570 ERH196546:ERH196570 FBD196546:FBD196570 FKZ196546:FKZ196570 FUV196546:FUV196570 GER196546:GER196570 GON196546:GON196570 GYJ196546:GYJ196570 HIF196546:HIF196570 HSB196546:HSB196570 IBX196546:IBX196570 ILT196546:ILT196570 IVP196546:IVP196570 JFL196546:JFL196570 JPH196546:JPH196570 JZD196546:JZD196570 KIZ196546:KIZ196570 KSV196546:KSV196570 LCR196546:LCR196570 LMN196546:LMN196570 LWJ196546:LWJ196570 MGF196546:MGF196570 MQB196546:MQB196570 MZX196546:MZX196570 NJT196546:NJT196570 NTP196546:NTP196570 ODL196546:ODL196570 ONH196546:ONH196570 OXD196546:OXD196570 PGZ196546:PGZ196570 PQV196546:PQV196570 QAR196546:QAR196570 QKN196546:QKN196570 QUJ196546:QUJ196570 REF196546:REF196570 ROB196546:ROB196570 RXX196546:RXX196570 SHT196546:SHT196570 SRP196546:SRP196570 TBL196546:TBL196570 TLH196546:TLH196570 TVD196546:TVD196570 UEZ196546:UEZ196570 UOV196546:UOV196570 UYR196546:UYR196570 VIN196546:VIN196570 VSJ196546:VSJ196570 WCF196546:WCF196570 WMB196546:WMB196570 WVX196546:WVX196570 I262136:I262160 JL262082:JL262106 TH262082:TH262106 ADD262082:ADD262106 AMZ262082:AMZ262106 AWV262082:AWV262106 BGR262082:BGR262106 BQN262082:BQN262106 CAJ262082:CAJ262106 CKF262082:CKF262106 CUB262082:CUB262106 DDX262082:DDX262106 DNT262082:DNT262106 DXP262082:DXP262106 EHL262082:EHL262106 ERH262082:ERH262106 FBD262082:FBD262106 FKZ262082:FKZ262106 FUV262082:FUV262106 GER262082:GER262106 GON262082:GON262106 GYJ262082:GYJ262106 HIF262082:HIF262106 HSB262082:HSB262106 IBX262082:IBX262106 ILT262082:ILT262106 IVP262082:IVP262106 JFL262082:JFL262106 JPH262082:JPH262106 JZD262082:JZD262106 KIZ262082:KIZ262106 KSV262082:KSV262106 LCR262082:LCR262106 LMN262082:LMN262106 LWJ262082:LWJ262106 MGF262082:MGF262106 MQB262082:MQB262106 MZX262082:MZX262106 NJT262082:NJT262106 NTP262082:NTP262106 ODL262082:ODL262106 ONH262082:ONH262106 OXD262082:OXD262106 PGZ262082:PGZ262106 PQV262082:PQV262106 QAR262082:QAR262106 QKN262082:QKN262106 QUJ262082:QUJ262106 REF262082:REF262106 ROB262082:ROB262106 RXX262082:RXX262106 SHT262082:SHT262106 SRP262082:SRP262106 TBL262082:TBL262106 TLH262082:TLH262106 TVD262082:TVD262106 UEZ262082:UEZ262106 UOV262082:UOV262106 UYR262082:UYR262106 VIN262082:VIN262106 VSJ262082:VSJ262106 WCF262082:WCF262106 WMB262082:WMB262106 WVX262082:WVX262106 I327672:I327696 JL327618:JL327642 TH327618:TH327642 ADD327618:ADD327642 AMZ327618:AMZ327642 AWV327618:AWV327642 BGR327618:BGR327642 BQN327618:BQN327642 CAJ327618:CAJ327642 CKF327618:CKF327642 CUB327618:CUB327642 DDX327618:DDX327642 DNT327618:DNT327642 DXP327618:DXP327642 EHL327618:EHL327642 ERH327618:ERH327642 FBD327618:FBD327642 FKZ327618:FKZ327642 FUV327618:FUV327642 GER327618:GER327642 GON327618:GON327642 GYJ327618:GYJ327642 HIF327618:HIF327642 HSB327618:HSB327642 IBX327618:IBX327642 ILT327618:ILT327642 IVP327618:IVP327642 JFL327618:JFL327642 JPH327618:JPH327642 JZD327618:JZD327642 KIZ327618:KIZ327642 KSV327618:KSV327642 LCR327618:LCR327642 LMN327618:LMN327642 LWJ327618:LWJ327642 MGF327618:MGF327642 MQB327618:MQB327642 MZX327618:MZX327642 NJT327618:NJT327642 NTP327618:NTP327642 ODL327618:ODL327642 ONH327618:ONH327642 OXD327618:OXD327642 PGZ327618:PGZ327642 PQV327618:PQV327642 QAR327618:QAR327642 QKN327618:QKN327642 QUJ327618:QUJ327642 REF327618:REF327642 ROB327618:ROB327642 RXX327618:RXX327642 SHT327618:SHT327642 SRP327618:SRP327642 TBL327618:TBL327642 TLH327618:TLH327642 TVD327618:TVD327642 UEZ327618:UEZ327642 UOV327618:UOV327642 UYR327618:UYR327642 VIN327618:VIN327642 VSJ327618:VSJ327642 WCF327618:WCF327642 WMB327618:WMB327642 WVX327618:WVX327642 I393208:I393232 JL393154:JL393178 TH393154:TH393178 ADD393154:ADD393178 AMZ393154:AMZ393178 AWV393154:AWV393178 BGR393154:BGR393178 BQN393154:BQN393178 CAJ393154:CAJ393178 CKF393154:CKF393178 CUB393154:CUB393178 DDX393154:DDX393178 DNT393154:DNT393178 DXP393154:DXP393178 EHL393154:EHL393178 ERH393154:ERH393178 FBD393154:FBD393178 FKZ393154:FKZ393178 FUV393154:FUV393178 GER393154:GER393178 GON393154:GON393178 GYJ393154:GYJ393178 HIF393154:HIF393178 HSB393154:HSB393178 IBX393154:IBX393178 ILT393154:ILT393178 IVP393154:IVP393178 JFL393154:JFL393178 JPH393154:JPH393178 JZD393154:JZD393178 KIZ393154:KIZ393178 KSV393154:KSV393178 LCR393154:LCR393178 LMN393154:LMN393178 LWJ393154:LWJ393178 MGF393154:MGF393178 MQB393154:MQB393178 MZX393154:MZX393178 NJT393154:NJT393178 NTP393154:NTP393178 ODL393154:ODL393178 ONH393154:ONH393178 OXD393154:OXD393178 PGZ393154:PGZ393178 PQV393154:PQV393178 QAR393154:QAR393178 QKN393154:QKN393178 QUJ393154:QUJ393178 REF393154:REF393178 ROB393154:ROB393178 RXX393154:RXX393178 SHT393154:SHT393178 SRP393154:SRP393178 TBL393154:TBL393178 TLH393154:TLH393178 TVD393154:TVD393178 UEZ393154:UEZ393178 UOV393154:UOV393178 UYR393154:UYR393178 VIN393154:VIN393178 VSJ393154:VSJ393178 WCF393154:WCF393178 WMB393154:WMB393178 WVX393154:WVX393178 I458744:I458768 JL458690:JL458714 TH458690:TH458714 ADD458690:ADD458714 AMZ458690:AMZ458714 AWV458690:AWV458714 BGR458690:BGR458714 BQN458690:BQN458714 CAJ458690:CAJ458714 CKF458690:CKF458714 CUB458690:CUB458714 DDX458690:DDX458714 DNT458690:DNT458714 DXP458690:DXP458714 EHL458690:EHL458714 ERH458690:ERH458714 FBD458690:FBD458714 FKZ458690:FKZ458714 FUV458690:FUV458714 GER458690:GER458714 GON458690:GON458714 GYJ458690:GYJ458714 HIF458690:HIF458714 HSB458690:HSB458714 IBX458690:IBX458714 ILT458690:ILT458714 IVP458690:IVP458714 JFL458690:JFL458714 JPH458690:JPH458714 JZD458690:JZD458714 KIZ458690:KIZ458714 KSV458690:KSV458714 LCR458690:LCR458714 LMN458690:LMN458714 LWJ458690:LWJ458714 MGF458690:MGF458714 MQB458690:MQB458714 MZX458690:MZX458714 NJT458690:NJT458714 NTP458690:NTP458714 ODL458690:ODL458714 ONH458690:ONH458714 OXD458690:OXD458714 PGZ458690:PGZ458714 PQV458690:PQV458714 QAR458690:QAR458714 QKN458690:QKN458714 QUJ458690:QUJ458714 REF458690:REF458714 ROB458690:ROB458714 RXX458690:RXX458714 SHT458690:SHT458714 SRP458690:SRP458714 TBL458690:TBL458714 TLH458690:TLH458714 TVD458690:TVD458714 UEZ458690:UEZ458714 UOV458690:UOV458714 UYR458690:UYR458714 VIN458690:VIN458714 VSJ458690:VSJ458714 WCF458690:WCF458714 WMB458690:WMB458714 WVX458690:WVX458714 I524280:I524304 JL524226:JL524250 TH524226:TH524250 ADD524226:ADD524250 AMZ524226:AMZ524250 AWV524226:AWV524250 BGR524226:BGR524250 BQN524226:BQN524250 CAJ524226:CAJ524250 CKF524226:CKF524250 CUB524226:CUB524250 DDX524226:DDX524250 DNT524226:DNT524250 DXP524226:DXP524250 EHL524226:EHL524250 ERH524226:ERH524250 FBD524226:FBD524250 FKZ524226:FKZ524250 FUV524226:FUV524250 GER524226:GER524250 GON524226:GON524250 GYJ524226:GYJ524250 HIF524226:HIF524250 HSB524226:HSB524250 IBX524226:IBX524250 ILT524226:ILT524250 IVP524226:IVP524250 JFL524226:JFL524250 JPH524226:JPH524250 JZD524226:JZD524250 KIZ524226:KIZ524250 KSV524226:KSV524250 LCR524226:LCR524250 LMN524226:LMN524250 LWJ524226:LWJ524250 MGF524226:MGF524250 MQB524226:MQB524250 MZX524226:MZX524250 NJT524226:NJT524250 NTP524226:NTP524250 ODL524226:ODL524250 ONH524226:ONH524250 OXD524226:OXD524250 PGZ524226:PGZ524250 PQV524226:PQV524250 QAR524226:QAR524250 QKN524226:QKN524250 QUJ524226:QUJ524250 REF524226:REF524250 ROB524226:ROB524250 RXX524226:RXX524250 SHT524226:SHT524250 SRP524226:SRP524250 TBL524226:TBL524250 TLH524226:TLH524250 TVD524226:TVD524250 UEZ524226:UEZ524250 UOV524226:UOV524250 UYR524226:UYR524250 VIN524226:VIN524250 VSJ524226:VSJ524250 WCF524226:WCF524250 WMB524226:WMB524250 WVX524226:WVX524250 I589816:I589840 JL589762:JL589786 TH589762:TH589786 ADD589762:ADD589786 AMZ589762:AMZ589786 AWV589762:AWV589786 BGR589762:BGR589786 BQN589762:BQN589786 CAJ589762:CAJ589786 CKF589762:CKF589786 CUB589762:CUB589786 DDX589762:DDX589786 DNT589762:DNT589786 DXP589762:DXP589786 EHL589762:EHL589786 ERH589762:ERH589786 FBD589762:FBD589786 FKZ589762:FKZ589786 FUV589762:FUV589786 GER589762:GER589786 GON589762:GON589786 GYJ589762:GYJ589786 HIF589762:HIF589786 HSB589762:HSB589786 IBX589762:IBX589786 ILT589762:ILT589786 IVP589762:IVP589786 JFL589762:JFL589786 JPH589762:JPH589786 JZD589762:JZD589786 KIZ589762:KIZ589786 KSV589762:KSV589786 LCR589762:LCR589786 LMN589762:LMN589786 LWJ589762:LWJ589786 MGF589762:MGF589786 MQB589762:MQB589786 MZX589762:MZX589786 NJT589762:NJT589786 NTP589762:NTP589786 ODL589762:ODL589786 ONH589762:ONH589786 OXD589762:OXD589786 PGZ589762:PGZ589786 PQV589762:PQV589786 QAR589762:QAR589786 QKN589762:QKN589786 QUJ589762:QUJ589786 REF589762:REF589786 ROB589762:ROB589786 RXX589762:RXX589786 SHT589762:SHT589786 SRP589762:SRP589786 TBL589762:TBL589786 TLH589762:TLH589786 TVD589762:TVD589786 UEZ589762:UEZ589786 UOV589762:UOV589786 UYR589762:UYR589786 VIN589762:VIN589786 VSJ589762:VSJ589786 WCF589762:WCF589786 WMB589762:WMB589786 WVX589762:WVX589786 I655352:I655376 JL655298:JL655322 TH655298:TH655322 ADD655298:ADD655322 AMZ655298:AMZ655322 AWV655298:AWV655322 BGR655298:BGR655322 BQN655298:BQN655322 CAJ655298:CAJ655322 CKF655298:CKF655322 CUB655298:CUB655322 DDX655298:DDX655322 DNT655298:DNT655322 DXP655298:DXP655322 EHL655298:EHL655322 ERH655298:ERH655322 FBD655298:FBD655322 FKZ655298:FKZ655322 FUV655298:FUV655322 GER655298:GER655322 GON655298:GON655322 GYJ655298:GYJ655322 HIF655298:HIF655322 HSB655298:HSB655322 IBX655298:IBX655322 ILT655298:ILT655322 IVP655298:IVP655322 JFL655298:JFL655322 JPH655298:JPH655322 JZD655298:JZD655322 KIZ655298:KIZ655322 KSV655298:KSV655322 LCR655298:LCR655322 LMN655298:LMN655322 LWJ655298:LWJ655322 MGF655298:MGF655322 MQB655298:MQB655322 MZX655298:MZX655322 NJT655298:NJT655322 NTP655298:NTP655322 ODL655298:ODL655322 ONH655298:ONH655322 OXD655298:OXD655322 PGZ655298:PGZ655322 PQV655298:PQV655322 QAR655298:QAR655322 QKN655298:QKN655322 QUJ655298:QUJ655322 REF655298:REF655322 ROB655298:ROB655322 RXX655298:RXX655322 SHT655298:SHT655322 SRP655298:SRP655322 TBL655298:TBL655322 TLH655298:TLH655322 TVD655298:TVD655322 UEZ655298:UEZ655322 UOV655298:UOV655322 UYR655298:UYR655322 VIN655298:VIN655322 VSJ655298:VSJ655322 WCF655298:WCF655322 WMB655298:WMB655322 WVX655298:WVX655322 I720888:I720912 JL720834:JL720858 TH720834:TH720858 ADD720834:ADD720858 AMZ720834:AMZ720858 AWV720834:AWV720858 BGR720834:BGR720858 BQN720834:BQN720858 CAJ720834:CAJ720858 CKF720834:CKF720858 CUB720834:CUB720858 DDX720834:DDX720858 DNT720834:DNT720858 DXP720834:DXP720858 EHL720834:EHL720858 ERH720834:ERH720858 FBD720834:FBD720858 FKZ720834:FKZ720858 FUV720834:FUV720858 GER720834:GER720858 GON720834:GON720858 GYJ720834:GYJ720858 HIF720834:HIF720858 HSB720834:HSB720858 IBX720834:IBX720858 ILT720834:ILT720858 IVP720834:IVP720858 JFL720834:JFL720858 JPH720834:JPH720858 JZD720834:JZD720858 KIZ720834:KIZ720858 KSV720834:KSV720858 LCR720834:LCR720858 LMN720834:LMN720858 LWJ720834:LWJ720858 MGF720834:MGF720858 MQB720834:MQB720858 MZX720834:MZX720858 NJT720834:NJT720858 NTP720834:NTP720858 ODL720834:ODL720858 ONH720834:ONH720858 OXD720834:OXD720858 PGZ720834:PGZ720858 PQV720834:PQV720858 QAR720834:QAR720858 QKN720834:QKN720858 QUJ720834:QUJ720858 REF720834:REF720858 ROB720834:ROB720858 RXX720834:RXX720858 SHT720834:SHT720858 SRP720834:SRP720858 TBL720834:TBL720858 TLH720834:TLH720858 TVD720834:TVD720858 UEZ720834:UEZ720858 UOV720834:UOV720858 UYR720834:UYR720858 VIN720834:VIN720858 VSJ720834:VSJ720858 WCF720834:WCF720858 WMB720834:WMB720858 WVX720834:WVX720858 I786424:I786448 JL786370:JL786394 TH786370:TH786394 ADD786370:ADD786394 AMZ786370:AMZ786394 AWV786370:AWV786394 BGR786370:BGR786394 BQN786370:BQN786394 CAJ786370:CAJ786394 CKF786370:CKF786394 CUB786370:CUB786394 DDX786370:DDX786394 DNT786370:DNT786394 DXP786370:DXP786394 EHL786370:EHL786394 ERH786370:ERH786394 FBD786370:FBD786394 FKZ786370:FKZ786394 FUV786370:FUV786394 GER786370:GER786394 GON786370:GON786394 GYJ786370:GYJ786394 HIF786370:HIF786394 HSB786370:HSB786394 IBX786370:IBX786394 ILT786370:ILT786394 IVP786370:IVP786394 JFL786370:JFL786394 JPH786370:JPH786394 JZD786370:JZD786394 KIZ786370:KIZ786394 KSV786370:KSV786394 LCR786370:LCR786394 LMN786370:LMN786394 LWJ786370:LWJ786394 MGF786370:MGF786394 MQB786370:MQB786394 MZX786370:MZX786394 NJT786370:NJT786394 NTP786370:NTP786394 ODL786370:ODL786394 ONH786370:ONH786394 OXD786370:OXD786394 PGZ786370:PGZ786394 PQV786370:PQV786394 QAR786370:QAR786394 QKN786370:QKN786394 QUJ786370:QUJ786394 REF786370:REF786394 ROB786370:ROB786394 RXX786370:RXX786394 SHT786370:SHT786394 SRP786370:SRP786394 TBL786370:TBL786394 TLH786370:TLH786394 TVD786370:TVD786394 UEZ786370:UEZ786394 UOV786370:UOV786394 UYR786370:UYR786394 VIN786370:VIN786394 VSJ786370:VSJ786394 WCF786370:WCF786394 WMB786370:WMB786394 WVX786370:WVX786394 I851960:I851984 JL851906:JL851930 TH851906:TH851930 ADD851906:ADD851930 AMZ851906:AMZ851930 AWV851906:AWV851930 BGR851906:BGR851930 BQN851906:BQN851930 CAJ851906:CAJ851930 CKF851906:CKF851930 CUB851906:CUB851930 DDX851906:DDX851930 DNT851906:DNT851930 DXP851906:DXP851930 EHL851906:EHL851930 ERH851906:ERH851930 FBD851906:FBD851930 FKZ851906:FKZ851930 FUV851906:FUV851930 GER851906:GER851930 GON851906:GON851930 GYJ851906:GYJ851930 HIF851906:HIF851930 HSB851906:HSB851930 IBX851906:IBX851930 ILT851906:ILT851930 IVP851906:IVP851930 JFL851906:JFL851930 JPH851906:JPH851930 JZD851906:JZD851930 KIZ851906:KIZ851930 KSV851906:KSV851930 LCR851906:LCR851930 LMN851906:LMN851930 LWJ851906:LWJ851930 MGF851906:MGF851930 MQB851906:MQB851930 MZX851906:MZX851930 NJT851906:NJT851930 NTP851906:NTP851930 ODL851906:ODL851930 ONH851906:ONH851930 OXD851906:OXD851930 PGZ851906:PGZ851930 PQV851906:PQV851930 QAR851906:QAR851930 QKN851906:QKN851930 QUJ851906:QUJ851930 REF851906:REF851930 ROB851906:ROB851930 RXX851906:RXX851930 SHT851906:SHT851930 SRP851906:SRP851930 TBL851906:TBL851930 TLH851906:TLH851930 TVD851906:TVD851930 UEZ851906:UEZ851930 UOV851906:UOV851930 UYR851906:UYR851930 VIN851906:VIN851930 VSJ851906:VSJ851930 WCF851906:WCF851930 WMB851906:WMB851930 WVX851906:WVX851930 I917496:I917520 JL917442:JL917466 TH917442:TH917466 ADD917442:ADD917466 AMZ917442:AMZ917466 AWV917442:AWV917466 BGR917442:BGR917466 BQN917442:BQN917466 CAJ917442:CAJ917466 CKF917442:CKF917466 CUB917442:CUB917466 DDX917442:DDX917466 DNT917442:DNT917466 DXP917442:DXP917466 EHL917442:EHL917466 ERH917442:ERH917466 FBD917442:FBD917466 FKZ917442:FKZ917466 FUV917442:FUV917466 GER917442:GER917466 GON917442:GON917466 GYJ917442:GYJ917466 HIF917442:HIF917466 HSB917442:HSB917466 IBX917442:IBX917466 ILT917442:ILT917466 IVP917442:IVP917466 JFL917442:JFL917466 JPH917442:JPH917466 JZD917442:JZD917466 KIZ917442:KIZ917466 KSV917442:KSV917466 LCR917442:LCR917466 LMN917442:LMN917466 LWJ917442:LWJ917466 MGF917442:MGF917466 MQB917442:MQB917466 MZX917442:MZX917466 NJT917442:NJT917466 NTP917442:NTP917466 ODL917442:ODL917466 ONH917442:ONH917466 OXD917442:OXD917466 PGZ917442:PGZ917466 PQV917442:PQV917466 QAR917442:QAR917466 QKN917442:QKN917466 QUJ917442:QUJ917466 REF917442:REF917466 ROB917442:ROB917466 RXX917442:RXX917466 SHT917442:SHT917466 SRP917442:SRP917466 TBL917442:TBL917466 TLH917442:TLH917466 TVD917442:TVD917466 UEZ917442:UEZ917466 UOV917442:UOV917466 UYR917442:UYR917466 VIN917442:VIN917466 VSJ917442:VSJ917466 WCF917442:WCF917466 WMB917442:WMB917466 WVX917442:WVX917466 I983032:I983056 JL982978:JL983002 TH982978:TH983002 ADD982978:ADD983002 AMZ982978:AMZ983002 AWV982978:AWV983002 BGR982978:BGR983002 BQN982978:BQN983002 CAJ982978:CAJ983002 CKF982978:CKF983002 CUB982978:CUB983002 DDX982978:DDX983002 DNT982978:DNT983002 DXP982978:DXP983002 EHL982978:EHL983002 ERH982978:ERH983002 FBD982978:FBD983002 FKZ982978:FKZ983002 FUV982978:FUV983002 GER982978:GER983002 GON982978:GON983002 GYJ982978:GYJ983002 HIF982978:HIF983002 HSB982978:HSB983002 IBX982978:IBX983002 ILT982978:ILT983002 IVP982978:IVP983002 JFL982978:JFL983002 JPH982978:JPH983002 JZD982978:JZD983002 KIZ982978:KIZ983002 KSV982978:KSV983002 LCR982978:LCR983002 LMN982978:LMN983002 LWJ982978:LWJ983002 MGF982978:MGF983002 MQB982978:MQB983002 MZX982978:MZX983002 NJT982978:NJT983002 NTP982978:NTP983002 ODL982978:ODL983002 ONH982978:ONH983002 OXD982978:OXD983002 PGZ982978:PGZ983002 PQV982978:PQV983002 QAR982978:QAR983002 QKN982978:QKN983002 QUJ982978:QUJ983002 REF982978:REF983002 ROB982978:ROB983002 RXX982978:RXX983002 SHT982978:SHT983002 SRP982978:SRP983002 TBL982978:TBL983002 TLH982978:TLH983002 TVD982978:TVD983002 UEZ982978:UEZ983002 UOV982978:UOV983002 UYR982978:UYR983002 VIN982978:VIN983002 VSJ982978:VSJ983002 WCF982978:WCF983002 WMB982978:WMB983002 WVX982978:WVX983002 WVX5:WVX25 JL5:JL25 TH5:TH25 ADD5:ADD25 AMZ5:AMZ25 AWV5:AWV25 BGR5:BGR25 BQN5:BQN25 CAJ5:CAJ25 CKF5:CKF25 CUB5:CUB25 DDX5:DDX25 DNT5:DNT25 DXP5:DXP25 EHL5:EHL25 ERH5:ERH25 FBD5:FBD25 FKZ5:FKZ25 FUV5:FUV25 GER5:GER25 GON5:GON25 GYJ5:GYJ25 HIF5:HIF25 HSB5:HSB25 IBX5:IBX25 ILT5:ILT25 IVP5:IVP25 JFL5:JFL25 JPH5:JPH25 JZD5:JZD25 KIZ5:KIZ25 KSV5:KSV25 LCR5:LCR25 LMN5:LMN25 LWJ5:LWJ25 MGF5:MGF25 MQB5:MQB25 MZX5:MZX25 NJT5:NJT25 NTP5:NTP25 ODL5:ODL25 ONH5:ONH25 OXD5:OXD25 PGZ5:PGZ25 PQV5:PQV25 QAR5:QAR25 QKN5:QKN25 QUJ5:QUJ25 REF5:REF25 ROB5:ROB25 RXX5:RXX25 SHT5:SHT25 SRP5:SRP25 TBL5:TBL25 TLH5:TLH25 TVD5:TVD25 UEZ5:UEZ25 UOV5:UOV25 UYR5:UYR25 VIN5:VIN25 VSJ5:VSJ25 WCF5:WCF25 WMB5:WMB25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$5:$K$11</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVX983003:WVX983070 JL27:JL84 WMB983003:WMB983070 WCF983003:WCF983070 VSJ983003:VSJ983070 VIN983003:VIN983070 UYR983003:UYR983070 UOV983003:UOV983070 UEZ983003:UEZ983070 TVD983003:TVD983070 TLH983003:TLH983070 TBL983003:TBL983070 SRP983003:SRP983070 SHT983003:SHT983070 RXX983003:RXX983070 ROB983003:ROB983070 REF983003:REF983070 QUJ983003:QUJ983070 QKN983003:QKN983070 QAR983003:QAR983070 PQV983003:PQV983070 PGZ983003:PGZ983070 OXD983003:OXD983070 ONH983003:ONH983070 ODL983003:ODL983070 NTP983003:NTP983070 NJT983003:NJT983070 MZX983003:MZX983070 MQB983003:MQB983070 MGF983003:MGF983070 LWJ983003:LWJ983070 LMN983003:LMN983070 LCR983003:LCR983070 KSV983003:KSV983070 KIZ983003:KIZ983070 JZD983003:JZD983070 JPH983003:JPH983070 JFL983003:JFL983070 IVP983003:IVP983070 ILT983003:ILT983070 IBX983003:IBX983070 HSB983003:HSB983070 HIF983003:HIF983070 GYJ983003:GYJ983070 GON983003:GON983070 GER983003:GER983070 FUV983003:FUV983070 FKZ983003:FKZ983070 FBD983003:FBD983070 ERH983003:ERH983070 EHL983003:EHL983070 DXP983003:DXP983070 DNT983003:DNT983070 DDX983003:DDX983070 CUB983003:CUB983070 CKF983003:CKF983070 CAJ983003:CAJ983070 BQN983003:BQN983070 BGR983003:BGR983070 AWV983003:AWV983070 AMZ983003:AMZ983070 ADD983003:ADD983070 TH983003:TH983070 JL983003:JL983070 I983057:I983124 WVX917467:WVX917534 WMB917467:WMB917534 WCF917467:WCF917534 VSJ917467:VSJ917534 VIN917467:VIN917534 UYR917467:UYR917534 UOV917467:UOV917534 UEZ917467:UEZ917534 TVD917467:TVD917534 TLH917467:TLH917534 TBL917467:TBL917534 SRP917467:SRP917534 SHT917467:SHT917534 RXX917467:RXX917534 ROB917467:ROB917534 REF917467:REF917534 QUJ917467:QUJ917534 QKN917467:QKN917534 QAR917467:QAR917534 PQV917467:PQV917534 PGZ917467:PGZ917534 OXD917467:OXD917534 ONH917467:ONH917534 ODL917467:ODL917534 NTP917467:NTP917534 NJT917467:NJT917534 MZX917467:MZX917534 MQB917467:MQB917534 MGF917467:MGF917534 LWJ917467:LWJ917534 LMN917467:LMN917534 LCR917467:LCR917534 KSV917467:KSV917534 KIZ917467:KIZ917534 JZD917467:JZD917534 JPH917467:JPH917534 JFL917467:JFL917534 IVP917467:IVP917534 ILT917467:ILT917534 IBX917467:IBX917534 HSB917467:HSB917534 HIF917467:HIF917534 GYJ917467:GYJ917534 GON917467:GON917534 GER917467:GER917534 FUV917467:FUV917534 FKZ917467:FKZ917534 FBD917467:FBD917534 ERH917467:ERH917534 EHL917467:EHL917534 DXP917467:DXP917534 DNT917467:DNT917534 DDX917467:DDX917534 CUB917467:CUB917534 CKF917467:CKF917534 CAJ917467:CAJ917534 BQN917467:BQN917534 BGR917467:BGR917534 AWV917467:AWV917534 AMZ917467:AMZ917534 ADD917467:ADD917534 TH917467:TH917534 JL917467:JL917534 I917521:I917588 WVX851931:WVX851998 WMB851931:WMB851998 WCF851931:WCF851998 VSJ851931:VSJ851998 VIN851931:VIN851998 UYR851931:UYR851998 UOV851931:UOV851998 UEZ851931:UEZ851998 TVD851931:TVD851998 TLH851931:TLH851998 TBL851931:TBL851998 SRP851931:SRP851998 SHT851931:SHT851998 RXX851931:RXX851998 ROB851931:ROB851998 REF851931:REF851998 QUJ851931:QUJ851998 QKN851931:QKN851998 QAR851931:QAR851998 PQV851931:PQV851998 PGZ851931:PGZ851998 OXD851931:OXD851998 ONH851931:ONH851998 ODL851931:ODL851998 NTP851931:NTP851998 NJT851931:NJT851998 MZX851931:MZX851998 MQB851931:MQB851998 MGF851931:MGF851998 LWJ851931:LWJ851998 LMN851931:LMN851998 LCR851931:LCR851998 KSV851931:KSV851998 KIZ851931:KIZ851998 JZD851931:JZD851998 JPH851931:JPH851998 JFL851931:JFL851998 IVP851931:IVP851998 ILT851931:ILT851998 IBX851931:IBX851998 HSB851931:HSB851998 HIF851931:HIF851998 GYJ851931:GYJ851998 GON851931:GON851998 GER851931:GER851998 FUV851931:FUV851998 FKZ851931:FKZ851998 FBD851931:FBD851998 ERH851931:ERH851998 EHL851931:EHL851998 DXP851931:DXP851998 DNT851931:DNT851998 DDX851931:DDX851998 CUB851931:CUB851998 CKF851931:CKF851998 CAJ851931:CAJ851998 BQN851931:BQN851998 BGR851931:BGR851998 AWV851931:AWV851998 AMZ851931:AMZ851998 ADD851931:ADD851998 TH851931:TH851998 JL851931:JL851998 I851985:I852052 WVX786395:WVX786462 WMB786395:WMB786462 WCF786395:WCF786462 VSJ786395:VSJ786462 VIN786395:VIN786462 UYR786395:UYR786462 UOV786395:UOV786462 UEZ786395:UEZ786462 TVD786395:TVD786462 TLH786395:TLH786462 TBL786395:TBL786462 SRP786395:SRP786462 SHT786395:SHT786462 RXX786395:RXX786462 ROB786395:ROB786462 REF786395:REF786462 QUJ786395:QUJ786462 QKN786395:QKN786462 QAR786395:QAR786462 PQV786395:PQV786462 PGZ786395:PGZ786462 OXD786395:OXD786462 ONH786395:ONH786462 ODL786395:ODL786462 NTP786395:NTP786462 NJT786395:NJT786462 MZX786395:MZX786462 MQB786395:MQB786462 MGF786395:MGF786462 LWJ786395:LWJ786462 LMN786395:LMN786462 LCR786395:LCR786462 KSV786395:KSV786462 KIZ786395:KIZ786462 JZD786395:JZD786462 JPH786395:JPH786462 JFL786395:JFL786462 IVP786395:IVP786462 ILT786395:ILT786462 IBX786395:IBX786462 HSB786395:HSB786462 HIF786395:HIF786462 GYJ786395:GYJ786462 GON786395:GON786462 GER786395:GER786462 FUV786395:FUV786462 FKZ786395:FKZ786462 FBD786395:FBD786462 ERH786395:ERH786462 EHL786395:EHL786462 DXP786395:DXP786462 DNT786395:DNT786462 DDX786395:DDX786462 CUB786395:CUB786462 CKF786395:CKF786462 CAJ786395:CAJ786462 BQN786395:BQN786462 BGR786395:BGR786462 AWV786395:AWV786462 AMZ786395:AMZ786462 ADD786395:ADD786462 TH786395:TH786462 JL786395:JL786462 I786449:I786516 WVX720859:WVX720926 WMB720859:WMB720926 WCF720859:WCF720926 VSJ720859:VSJ720926 VIN720859:VIN720926 UYR720859:UYR720926 UOV720859:UOV720926 UEZ720859:UEZ720926 TVD720859:TVD720926 TLH720859:TLH720926 TBL720859:TBL720926 SRP720859:SRP720926 SHT720859:SHT720926 RXX720859:RXX720926 ROB720859:ROB720926 REF720859:REF720926 QUJ720859:QUJ720926 QKN720859:QKN720926 QAR720859:QAR720926 PQV720859:PQV720926 PGZ720859:PGZ720926 OXD720859:OXD720926 ONH720859:ONH720926 ODL720859:ODL720926 NTP720859:NTP720926 NJT720859:NJT720926 MZX720859:MZX720926 MQB720859:MQB720926 MGF720859:MGF720926 LWJ720859:LWJ720926 LMN720859:LMN720926 LCR720859:LCR720926 KSV720859:KSV720926 KIZ720859:KIZ720926 JZD720859:JZD720926 JPH720859:JPH720926 JFL720859:JFL720926 IVP720859:IVP720926 ILT720859:ILT720926 IBX720859:IBX720926 HSB720859:HSB720926 HIF720859:HIF720926 GYJ720859:GYJ720926 GON720859:GON720926 GER720859:GER720926 FUV720859:FUV720926 FKZ720859:FKZ720926 FBD720859:FBD720926 ERH720859:ERH720926 EHL720859:EHL720926 DXP720859:DXP720926 DNT720859:DNT720926 DDX720859:DDX720926 CUB720859:CUB720926 CKF720859:CKF720926 CAJ720859:CAJ720926 BQN720859:BQN720926 BGR720859:BGR720926 AWV720859:AWV720926 AMZ720859:AMZ720926 ADD720859:ADD720926 TH720859:TH720926 JL720859:JL720926 I720913:I720980 WVX655323:WVX655390 WMB655323:WMB655390 WCF655323:WCF655390 VSJ655323:VSJ655390 VIN655323:VIN655390 UYR655323:UYR655390 UOV655323:UOV655390 UEZ655323:UEZ655390 TVD655323:TVD655390 TLH655323:TLH655390 TBL655323:TBL655390 SRP655323:SRP655390 SHT655323:SHT655390 RXX655323:RXX655390 ROB655323:ROB655390 REF655323:REF655390 QUJ655323:QUJ655390 QKN655323:QKN655390 QAR655323:QAR655390 PQV655323:PQV655390 PGZ655323:PGZ655390 OXD655323:OXD655390 ONH655323:ONH655390 ODL655323:ODL655390 NTP655323:NTP655390 NJT655323:NJT655390 MZX655323:MZX655390 MQB655323:MQB655390 MGF655323:MGF655390 LWJ655323:LWJ655390 LMN655323:LMN655390 LCR655323:LCR655390 KSV655323:KSV655390 KIZ655323:KIZ655390 JZD655323:JZD655390 JPH655323:JPH655390 JFL655323:JFL655390 IVP655323:IVP655390 ILT655323:ILT655390 IBX655323:IBX655390 HSB655323:HSB655390 HIF655323:HIF655390 GYJ655323:GYJ655390 GON655323:GON655390 GER655323:GER655390 FUV655323:FUV655390 FKZ655323:FKZ655390 FBD655323:FBD655390 ERH655323:ERH655390 EHL655323:EHL655390 DXP655323:DXP655390 DNT655323:DNT655390 DDX655323:DDX655390 CUB655323:CUB655390 CKF655323:CKF655390 CAJ655323:CAJ655390 BQN655323:BQN655390 BGR655323:BGR655390 AWV655323:AWV655390 AMZ655323:AMZ655390 ADD655323:ADD655390 TH655323:TH655390 JL655323:JL655390 I655377:I655444 WVX589787:WVX589854 WMB589787:WMB589854 WCF589787:WCF589854 VSJ589787:VSJ589854 VIN589787:VIN589854 UYR589787:UYR589854 UOV589787:UOV589854 UEZ589787:UEZ589854 TVD589787:TVD589854 TLH589787:TLH589854 TBL589787:TBL589854 SRP589787:SRP589854 SHT589787:SHT589854 RXX589787:RXX589854 ROB589787:ROB589854 REF589787:REF589854 QUJ589787:QUJ589854 QKN589787:QKN589854 QAR589787:QAR589854 PQV589787:PQV589854 PGZ589787:PGZ589854 OXD589787:OXD589854 ONH589787:ONH589854 ODL589787:ODL589854 NTP589787:NTP589854 NJT589787:NJT589854 MZX589787:MZX589854 MQB589787:MQB589854 MGF589787:MGF589854 LWJ589787:LWJ589854 LMN589787:LMN589854 LCR589787:LCR589854 KSV589787:KSV589854 KIZ589787:KIZ589854 JZD589787:JZD589854 JPH589787:JPH589854 JFL589787:JFL589854 IVP589787:IVP589854 ILT589787:ILT589854 IBX589787:IBX589854 HSB589787:HSB589854 HIF589787:HIF589854 GYJ589787:GYJ589854 GON589787:GON589854 GER589787:GER589854 FUV589787:FUV589854 FKZ589787:FKZ589854 FBD589787:FBD589854 ERH589787:ERH589854 EHL589787:EHL589854 DXP589787:DXP589854 DNT589787:DNT589854 DDX589787:DDX589854 CUB589787:CUB589854 CKF589787:CKF589854 CAJ589787:CAJ589854 BQN589787:BQN589854 BGR589787:BGR589854 AWV589787:AWV589854 AMZ589787:AMZ589854 ADD589787:ADD589854 TH589787:TH589854 JL589787:JL589854 I589841:I589908 WVX524251:WVX524318 WMB524251:WMB524318 WCF524251:WCF524318 VSJ524251:VSJ524318 VIN524251:VIN524318 UYR524251:UYR524318 UOV524251:UOV524318 UEZ524251:UEZ524318 TVD524251:TVD524318 TLH524251:TLH524318 TBL524251:TBL524318 SRP524251:SRP524318 SHT524251:SHT524318 RXX524251:RXX524318 ROB524251:ROB524318 REF524251:REF524318 QUJ524251:QUJ524318 QKN524251:QKN524318 QAR524251:QAR524318 PQV524251:PQV524318 PGZ524251:PGZ524318 OXD524251:OXD524318 ONH524251:ONH524318 ODL524251:ODL524318 NTP524251:NTP524318 NJT524251:NJT524318 MZX524251:MZX524318 MQB524251:MQB524318 MGF524251:MGF524318 LWJ524251:LWJ524318 LMN524251:LMN524318 LCR524251:LCR524318 KSV524251:KSV524318 KIZ524251:KIZ524318 JZD524251:JZD524318 JPH524251:JPH524318 JFL524251:JFL524318 IVP524251:IVP524318 ILT524251:ILT524318 IBX524251:IBX524318 HSB524251:HSB524318 HIF524251:HIF524318 GYJ524251:GYJ524318 GON524251:GON524318 GER524251:GER524318 FUV524251:FUV524318 FKZ524251:FKZ524318 FBD524251:FBD524318 ERH524251:ERH524318 EHL524251:EHL524318 DXP524251:DXP524318 DNT524251:DNT524318 DDX524251:DDX524318 CUB524251:CUB524318 CKF524251:CKF524318 CAJ524251:CAJ524318 BQN524251:BQN524318 BGR524251:BGR524318 AWV524251:AWV524318 AMZ524251:AMZ524318 ADD524251:ADD524318 TH524251:TH524318 JL524251:JL524318 I524305:I524372 WVX458715:WVX458782 WMB458715:WMB458782 WCF458715:WCF458782 VSJ458715:VSJ458782 VIN458715:VIN458782 UYR458715:UYR458782 UOV458715:UOV458782 UEZ458715:UEZ458782 TVD458715:TVD458782 TLH458715:TLH458782 TBL458715:TBL458782 SRP458715:SRP458782 SHT458715:SHT458782 RXX458715:RXX458782 ROB458715:ROB458782 REF458715:REF458782 QUJ458715:QUJ458782 QKN458715:QKN458782 QAR458715:QAR458782 PQV458715:PQV458782 PGZ458715:PGZ458782 OXD458715:OXD458782 ONH458715:ONH458782 ODL458715:ODL458782 NTP458715:NTP458782 NJT458715:NJT458782 MZX458715:MZX458782 MQB458715:MQB458782 MGF458715:MGF458782 LWJ458715:LWJ458782 LMN458715:LMN458782 LCR458715:LCR458782 KSV458715:KSV458782 KIZ458715:KIZ458782 JZD458715:JZD458782 JPH458715:JPH458782 JFL458715:JFL458782 IVP458715:IVP458782 ILT458715:ILT458782 IBX458715:IBX458782 HSB458715:HSB458782 HIF458715:HIF458782 GYJ458715:GYJ458782 GON458715:GON458782 GER458715:GER458782 FUV458715:FUV458782 FKZ458715:FKZ458782 FBD458715:FBD458782 ERH458715:ERH458782 EHL458715:EHL458782 DXP458715:DXP458782 DNT458715:DNT458782 DDX458715:DDX458782 CUB458715:CUB458782 CKF458715:CKF458782 CAJ458715:CAJ458782 BQN458715:BQN458782 BGR458715:BGR458782 AWV458715:AWV458782 AMZ458715:AMZ458782 ADD458715:ADD458782 TH458715:TH458782 JL458715:JL458782 I458769:I458836 WVX393179:WVX393246 WMB393179:WMB393246 WCF393179:WCF393246 VSJ393179:VSJ393246 VIN393179:VIN393246 UYR393179:UYR393246 UOV393179:UOV393246 UEZ393179:UEZ393246 TVD393179:TVD393246 TLH393179:TLH393246 TBL393179:TBL393246 SRP393179:SRP393246 SHT393179:SHT393246 RXX393179:RXX393246 ROB393179:ROB393246 REF393179:REF393246 QUJ393179:QUJ393246 QKN393179:QKN393246 QAR393179:QAR393246 PQV393179:PQV393246 PGZ393179:PGZ393246 OXD393179:OXD393246 ONH393179:ONH393246 ODL393179:ODL393246 NTP393179:NTP393246 NJT393179:NJT393246 MZX393179:MZX393246 MQB393179:MQB393246 MGF393179:MGF393246 LWJ393179:LWJ393246 LMN393179:LMN393246 LCR393179:LCR393246 KSV393179:KSV393246 KIZ393179:KIZ393246 JZD393179:JZD393246 JPH393179:JPH393246 JFL393179:JFL393246 IVP393179:IVP393246 ILT393179:ILT393246 IBX393179:IBX393246 HSB393179:HSB393246 HIF393179:HIF393246 GYJ393179:GYJ393246 GON393179:GON393246 GER393179:GER393246 FUV393179:FUV393246 FKZ393179:FKZ393246 FBD393179:FBD393246 ERH393179:ERH393246 EHL393179:EHL393246 DXP393179:DXP393246 DNT393179:DNT393246 DDX393179:DDX393246 CUB393179:CUB393246 CKF393179:CKF393246 CAJ393179:CAJ393246 BQN393179:BQN393246 BGR393179:BGR393246 AWV393179:AWV393246 AMZ393179:AMZ393246 ADD393179:ADD393246 TH393179:TH393246 JL393179:JL393246 I393233:I393300 WVX327643:WVX327710 WMB327643:WMB327710 WCF327643:WCF327710 VSJ327643:VSJ327710 VIN327643:VIN327710 UYR327643:UYR327710 UOV327643:UOV327710 UEZ327643:UEZ327710 TVD327643:TVD327710 TLH327643:TLH327710 TBL327643:TBL327710 SRP327643:SRP327710 SHT327643:SHT327710 RXX327643:RXX327710 ROB327643:ROB327710 REF327643:REF327710 QUJ327643:QUJ327710 QKN327643:QKN327710 QAR327643:QAR327710 PQV327643:PQV327710 PGZ327643:PGZ327710 OXD327643:OXD327710 ONH327643:ONH327710 ODL327643:ODL327710 NTP327643:NTP327710 NJT327643:NJT327710 MZX327643:MZX327710 MQB327643:MQB327710 MGF327643:MGF327710 LWJ327643:LWJ327710 LMN327643:LMN327710 LCR327643:LCR327710 KSV327643:KSV327710 KIZ327643:KIZ327710 JZD327643:JZD327710 JPH327643:JPH327710 JFL327643:JFL327710 IVP327643:IVP327710 ILT327643:ILT327710 IBX327643:IBX327710 HSB327643:HSB327710 HIF327643:HIF327710 GYJ327643:GYJ327710 GON327643:GON327710 GER327643:GER327710 FUV327643:FUV327710 FKZ327643:FKZ327710 FBD327643:FBD327710 ERH327643:ERH327710 EHL327643:EHL327710 DXP327643:DXP327710 DNT327643:DNT327710 DDX327643:DDX327710 CUB327643:CUB327710 CKF327643:CKF327710 CAJ327643:CAJ327710 BQN327643:BQN327710 BGR327643:BGR327710 AWV327643:AWV327710 AMZ327643:AMZ327710 ADD327643:ADD327710 TH327643:TH327710 JL327643:JL327710 I327697:I327764 WVX262107:WVX262174 WMB262107:WMB262174 WCF262107:WCF262174 VSJ262107:VSJ262174 VIN262107:VIN262174 UYR262107:UYR262174 UOV262107:UOV262174 UEZ262107:UEZ262174 TVD262107:TVD262174 TLH262107:TLH262174 TBL262107:TBL262174 SRP262107:SRP262174 SHT262107:SHT262174 RXX262107:RXX262174 ROB262107:ROB262174 REF262107:REF262174 QUJ262107:QUJ262174 QKN262107:QKN262174 QAR262107:QAR262174 PQV262107:PQV262174 PGZ262107:PGZ262174 OXD262107:OXD262174 ONH262107:ONH262174 ODL262107:ODL262174 NTP262107:NTP262174 NJT262107:NJT262174 MZX262107:MZX262174 MQB262107:MQB262174 MGF262107:MGF262174 LWJ262107:LWJ262174 LMN262107:LMN262174 LCR262107:LCR262174 KSV262107:KSV262174 KIZ262107:KIZ262174 JZD262107:JZD262174 JPH262107:JPH262174 JFL262107:JFL262174 IVP262107:IVP262174 ILT262107:ILT262174 IBX262107:IBX262174 HSB262107:HSB262174 HIF262107:HIF262174 GYJ262107:GYJ262174 GON262107:GON262174 GER262107:GER262174 FUV262107:FUV262174 FKZ262107:FKZ262174 FBD262107:FBD262174 ERH262107:ERH262174 EHL262107:EHL262174 DXP262107:DXP262174 DNT262107:DNT262174 DDX262107:DDX262174 CUB262107:CUB262174 CKF262107:CKF262174 CAJ262107:CAJ262174 BQN262107:BQN262174 BGR262107:BGR262174 AWV262107:AWV262174 AMZ262107:AMZ262174 ADD262107:ADD262174 TH262107:TH262174 JL262107:JL262174 I262161:I262228 WVX196571:WVX196638 WMB196571:WMB196638 WCF196571:WCF196638 VSJ196571:VSJ196638 VIN196571:VIN196638 UYR196571:UYR196638 UOV196571:UOV196638 UEZ196571:UEZ196638 TVD196571:TVD196638 TLH196571:TLH196638 TBL196571:TBL196638 SRP196571:SRP196638 SHT196571:SHT196638 RXX196571:RXX196638 ROB196571:ROB196638 REF196571:REF196638 QUJ196571:QUJ196638 QKN196571:QKN196638 QAR196571:QAR196638 PQV196571:PQV196638 PGZ196571:PGZ196638 OXD196571:OXD196638 ONH196571:ONH196638 ODL196571:ODL196638 NTP196571:NTP196638 NJT196571:NJT196638 MZX196571:MZX196638 MQB196571:MQB196638 MGF196571:MGF196638 LWJ196571:LWJ196638 LMN196571:LMN196638 LCR196571:LCR196638 KSV196571:KSV196638 KIZ196571:KIZ196638 JZD196571:JZD196638 JPH196571:JPH196638 JFL196571:JFL196638 IVP196571:IVP196638 ILT196571:ILT196638 IBX196571:IBX196638 HSB196571:HSB196638 HIF196571:HIF196638 GYJ196571:GYJ196638 GON196571:GON196638 GER196571:GER196638 FUV196571:FUV196638 FKZ196571:FKZ196638 FBD196571:FBD196638 ERH196571:ERH196638 EHL196571:EHL196638 DXP196571:DXP196638 DNT196571:DNT196638 DDX196571:DDX196638 CUB196571:CUB196638 CKF196571:CKF196638 CAJ196571:CAJ196638 BQN196571:BQN196638 BGR196571:BGR196638 AWV196571:AWV196638 AMZ196571:AMZ196638 ADD196571:ADD196638 TH196571:TH196638 JL196571:JL196638 I196625:I196692 WVX131035:WVX131102 WMB131035:WMB131102 WCF131035:WCF131102 VSJ131035:VSJ131102 VIN131035:VIN131102 UYR131035:UYR131102 UOV131035:UOV131102 UEZ131035:UEZ131102 TVD131035:TVD131102 TLH131035:TLH131102 TBL131035:TBL131102 SRP131035:SRP131102 SHT131035:SHT131102 RXX131035:RXX131102 ROB131035:ROB131102 REF131035:REF131102 QUJ131035:QUJ131102 QKN131035:QKN131102 QAR131035:QAR131102 PQV131035:PQV131102 PGZ131035:PGZ131102 OXD131035:OXD131102 ONH131035:ONH131102 ODL131035:ODL131102 NTP131035:NTP131102 NJT131035:NJT131102 MZX131035:MZX131102 MQB131035:MQB131102 MGF131035:MGF131102 LWJ131035:LWJ131102 LMN131035:LMN131102 LCR131035:LCR131102 KSV131035:KSV131102 KIZ131035:KIZ131102 JZD131035:JZD131102 JPH131035:JPH131102 JFL131035:JFL131102 IVP131035:IVP131102 ILT131035:ILT131102 IBX131035:IBX131102 HSB131035:HSB131102 HIF131035:HIF131102 GYJ131035:GYJ131102 GON131035:GON131102 GER131035:GER131102 FUV131035:FUV131102 FKZ131035:FKZ131102 FBD131035:FBD131102 ERH131035:ERH131102 EHL131035:EHL131102 DXP131035:DXP131102 DNT131035:DNT131102 DDX131035:DDX131102 CUB131035:CUB131102 CKF131035:CKF131102 CAJ131035:CAJ131102 BQN131035:BQN131102 BGR131035:BGR131102 AWV131035:AWV131102 AMZ131035:AMZ131102 ADD131035:ADD131102 TH131035:TH131102 JL131035:JL131102 I131089:I131156 WVX65499:WVX65566 WMB65499:WMB65566 WCF65499:WCF65566 VSJ65499:VSJ65566 VIN65499:VIN65566 UYR65499:UYR65566 UOV65499:UOV65566 UEZ65499:UEZ65566 TVD65499:TVD65566 TLH65499:TLH65566 TBL65499:TBL65566 SRP65499:SRP65566 SHT65499:SHT65566 RXX65499:RXX65566 ROB65499:ROB65566 REF65499:REF65566 QUJ65499:QUJ65566 QKN65499:QKN65566 QAR65499:QAR65566 PQV65499:PQV65566 PGZ65499:PGZ65566 OXD65499:OXD65566 ONH65499:ONH65566 ODL65499:ODL65566 NTP65499:NTP65566 NJT65499:NJT65566 MZX65499:MZX65566 MQB65499:MQB65566 MGF65499:MGF65566 LWJ65499:LWJ65566 LMN65499:LMN65566 LCR65499:LCR65566 KSV65499:KSV65566 KIZ65499:KIZ65566 JZD65499:JZD65566 JPH65499:JPH65566 JFL65499:JFL65566 IVP65499:IVP65566 ILT65499:ILT65566 IBX65499:IBX65566 HSB65499:HSB65566 HIF65499:HIF65566 GYJ65499:GYJ65566 GON65499:GON65566 GER65499:GER65566 FUV65499:FUV65566 FKZ65499:FKZ65566 FBD65499:FBD65566 ERH65499:ERH65566 EHL65499:EHL65566 DXP65499:DXP65566 DNT65499:DNT65566 DDX65499:DDX65566 CUB65499:CUB65566 CKF65499:CKF65566 CAJ65499:CAJ65566 BQN65499:BQN65566 BGR65499:BGR65566 AWV65499:AWV65566 AMZ65499:AMZ65566 ADD65499:ADD65566 TH65499:TH65566 JL65499:JL65566 I65553:I65620 WVX27:WVX84 WMB27:WMB84 WCF27:WCF84 VSJ27:VSJ84 VIN27:VIN84 UYR27:UYR84 UOV27:UOV84 UEZ27:UEZ84 TVD27:TVD84 TLH27:TLH84 TBL27:TBL84 SRP27:SRP84 SHT27:SHT84 RXX27:RXX84 ROB27:ROB84 REF27:REF84 QUJ27:QUJ84 QKN27:QKN84 QAR27:QAR84 PQV27:PQV84 PGZ27:PGZ84 OXD27:OXD84 ONH27:ONH84 ODL27:ODL84 NTP27:NTP84 NJT27:NJT84 MZX27:MZX84 MQB27:MQB84 MGF27:MGF84 LWJ27:LWJ84 LMN27:LMN84 LCR27:LCR84 KSV27:KSV84 KIZ27:KIZ84 JZD27:JZD84 JPH27:JPH84 JFL27:JFL84 IVP27:IVP84 ILT27:ILT84 IBX27:IBX84 HSB27:HSB84 HIF27:HIF84 GYJ27:GYJ84 GON27:GON84 GER27:GER84 FUV27:FUV84 FKZ27:FKZ84 FBD27:FBD84 ERH27:ERH84 EHL27:EHL84 DXP27:DXP84 DNT27:DNT84 DDX27:DDX84 CUB27:CUB84 CKF27:CKF84 CAJ27:CAJ84 BQN27:BQN84 BGR27:BGR84 AWV27:AWV84 AMZ27:AMZ84 ADD27:ADD84 TH27:TH84" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVX983004:WVX983071 JL27:JL85 WMB983004:WMB983071 WCF983004:WCF983071 VSJ983004:VSJ983071 VIN983004:VIN983071 UYR983004:UYR983071 UOV983004:UOV983071 UEZ983004:UEZ983071 TVD983004:TVD983071 TLH983004:TLH983071 TBL983004:TBL983071 SRP983004:SRP983071 SHT983004:SHT983071 RXX983004:RXX983071 ROB983004:ROB983071 REF983004:REF983071 QUJ983004:QUJ983071 QKN983004:QKN983071 QAR983004:QAR983071 PQV983004:PQV983071 PGZ983004:PGZ983071 OXD983004:OXD983071 ONH983004:ONH983071 ODL983004:ODL983071 NTP983004:NTP983071 NJT983004:NJT983071 MZX983004:MZX983071 MQB983004:MQB983071 MGF983004:MGF983071 LWJ983004:LWJ983071 LMN983004:LMN983071 LCR983004:LCR983071 KSV983004:KSV983071 KIZ983004:KIZ983071 JZD983004:JZD983071 JPH983004:JPH983071 JFL983004:JFL983071 IVP983004:IVP983071 ILT983004:ILT983071 IBX983004:IBX983071 HSB983004:HSB983071 HIF983004:HIF983071 GYJ983004:GYJ983071 GON983004:GON983071 GER983004:GER983071 FUV983004:FUV983071 FKZ983004:FKZ983071 FBD983004:FBD983071 ERH983004:ERH983071 EHL983004:EHL983071 DXP983004:DXP983071 DNT983004:DNT983071 DDX983004:DDX983071 CUB983004:CUB983071 CKF983004:CKF983071 CAJ983004:CAJ983071 BQN983004:BQN983071 BGR983004:BGR983071 AWV983004:AWV983071 AMZ983004:AMZ983071 ADD983004:ADD983071 TH983004:TH983071 JL983004:JL983071 I983058:I983125 WVX917468:WVX917535 WMB917468:WMB917535 WCF917468:WCF917535 VSJ917468:VSJ917535 VIN917468:VIN917535 UYR917468:UYR917535 UOV917468:UOV917535 UEZ917468:UEZ917535 TVD917468:TVD917535 TLH917468:TLH917535 TBL917468:TBL917535 SRP917468:SRP917535 SHT917468:SHT917535 RXX917468:RXX917535 ROB917468:ROB917535 REF917468:REF917535 QUJ917468:QUJ917535 QKN917468:QKN917535 QAR917468:QAR917535 PQV917468:PQV917535 PGZ917468:PGZ917535 OXD917468:OXD917535 ONH917468:ONH917535 ODL917468:ODL917535 NTP917468:NTP917535 NJT917468:NJT917535 MZX917468:MZX917535 MQB917468:MQB917535 MGF917468:MGF917535 LWJ917468:LWJ917535 LMN917468:LMN917535 LCR917468:LCR917535 KSV917468:KSV917535 KIZ917468:KIZ917535 JZD917468:JZD917535 JPH917468:JPH917535 JFL917468:JFL917535 IVP917468:IVP917535 ILT917468:ILT917535 IBX917468:IBX917535 HSB917468:HSB917535 HIF917468:HIF917535 GYJ917468:GYJ917535 GON917468:GON917535 GER917468:GER917535 FUV917468:FUV917535 FKZ917468:FKZ917535 FBD917468:FBD917535 ERH917468:ERH917535 EHL917468:EHL917535 DXP917468:DXP917535 DNT917468:DNT917535 DDX917468:DDX917535 CUB917468:CUB917535 CKF917468:CKF917535 CAJ917468:CAJ917535 BQN917468:BQN917535 BGR917468:BGR917535 AWV917468:AWV917535 AMZ917468:AMZ917535 ADD917468:ADD917535 TH917468:TH917535 JL917468:JL917535 I917522:I917589 WVX851932:WVX851999 WMB851932:WMB851999 WCF851932:WCF851999 VSJ851932:VSJ851999 VIN851932:VIN851999 UYR851932:UYR851999 UOV851932:UOV851999 UEZ851932:UEZ851999 TVD851932:TVD851999 TLH851932:TLH851999 TBL851932:TBL851999 SRP851932:SRP851999 SHT851932:SHT851999 RXX851932:RXX851999 ROB851932:ROB851999 REF851932:REF851999 QUJ851932:QUJ851999 QKN851932:QKN851999 QAR851932:QAR851999 PQV851932:PQV851999 PGZ851932:PGZ851999 OXD851932:OXD851999 ONH851932:ONH851999 ODL851932:ODL851999 NTP851932:NTP851999 NJT851932:NJT851999 MZX851932:MZX851999 MQB851932:MQB851999 MGF851932:MGF851999 LWJ851932:LWJ851999 LMN851932:LMN851999 LCR851932:LCR851999 KSV851932:KSV851999 KIZ851932:KIZ851999 JZD851932:JZD851999 JPH851932:JPH851999 JFL851932:JFL851999 IVP851932:IVP851999 ILT851932:ILT851999 IBX851932:IBX851999 HSB851932:HSB851999 HIF851932:HIF851999 GYJ851932:GYJ851999 GON851932:GON851999 GER851932:GER851999 FUV851932:FUV851999 FKZ851932:FKZ851999 FBD851932:FBD851999 ERH851932:ERH851999 EHL851932:EHL851999 DXP851932:DXP851999 DNT851932:DNT851999 DDX851932:DDX851999 CUB851932:CUB851999 CKF851932:CKF851999 CAJ851932:CAJ851999 BQN851932:BQN851999 BGR851932:BGR851999 AWV851932:AWV851999 AMZ851932:AMZ851999 ADD851932:ADD851999 TH851932:TH851999 JL851932:JL851999 I851986:I852053 WVX786396:WVX786463 WMB786396:WMB786463 WCF786396:WCF786463 VSJ786396:VSJ786463 VIN786396:VIN786463 UYR786396:UYR786463 UOV786396:UOV786463 UEZ786396:UEZ786463 TVD786396:TVD786463 TLH786396:TLH786463 TBL786396:TBL786463 SRP786396:SRP786463 SHT786396:SHT786463 RXX786396:RXX786463 ROB786396:ROB786463 REF786396:REF786463 QUJ786396:QUJ786463 QKN786396:QKN786463 QAR786396:QAR786463 PQV786396:PQV786463 PGZ786396:PGZ786463 OXD786396:OXD786463 ONH786396:ONH786463 ODL786396:ODL786463 NTP786396:NTP786463 NJT786396:NJT786463 MZX786396:MZX786463 MQB786396:MQB786463 MGF786396:MGF786463 LWJ786396:LWJ786463 LMN786396:LMN786463 LCR786396:LCR786463 KSV786396:KSV786463 KIZ786396:KIZ786463 JZD786396:JZD786463 JPH786396:JPH786463 JFL786396:JFL786463 IVP786396:IVP786463 ILT786396:ILT786463 IBX786396:IBX786463 HSB786396:HSB786463 HIF786396:HIF786463 GYJ786396:GYJ786463 GON786396:GON786463 GER786396:GER786463 FUV786396:FUV786463 FKZ786396:FKZ786463 FBD786396:FBD786463 ERH786396:ERH786463 EHL786396:EHL786463 DXP786396:DXP786463 DNT786396:DNT786463 DDX786396:DDX786463 CUB786396:CUB786463 CKF786396:CKF786463 CAJ786396:CAJ786463 BQN786396:BQN786463 BGR786396:BGR786463 AWV786396:AWV786463 AMZ786396:AMZ786463 ADD786396:ADD786463 TH786396:TH786463 JL786396:JL786463 I786450:I786517 WVX720860:WVX720927 WMB720860:WMB720927 WCF720860:WCF720927 VSJ720860:VSJ720927 VIN720860:VIN720927 UYR720860:UYR720927 UOV720860:UOV720927 UEZ720860:UEZ720927 TVD720860:TVD720927 TLH720860:TLH720927 TBL720860:TBL720927 SRP720860:SRP720927 SHT720860:SHT720927 RXX720860:RXX720927 ROB720860:ROB720927 REF720860:REF720927 QUJ720860:QUJ720927 QKN720860:QKN720927 QAR720860:QAR720927 PQV720860:PQV720927 PGZ720860:PGZ720927 OXD720860:OXD720927 ONH720860:ONH720927 ODL720860:ODL720927 NTP720860:NTP720927 NJT720860:NJT720927 MZX720860:MZX720927 MQB720860:MQB720927 MGF720860:MGF720927 LWJ720860:LWJ720927 LMN720860:LMN720927 LCR720860:LCR720927 KSV720860:KSV720927 KIZ720860:KIZ720927 JZD720860:JZD720927 JPH720860:JPH720927 JFL720860:JFL720927 IVP720860:IVP720927 ILT720860:ILT720927 IBX720860:IBX720927 HSB720860:HSB720927 HIF720860:HIF720927 GYJ720860:GYJ720927 GON720860:GON720927 GER720860:GER720927 FUV720860:FUV720927 FKZ720860:FKZ720927 FBD720860:FBD720927 ERH720860:ERH720927 EHL720860:EHL720927 DXP720860:DXP720927 DNT720860:DNT720927 DDX720860:DDX720927 CUB720860:CUB720927 CKF720860:CKF720927 CAJ720860:CAJ720927 BQN720860:BQN720927 BGR720860:BGR720927 AWV720860:AWV720927 AMZ720860:AMZ720927 ADD720860:ADD720927 TH720860:TH720927 JL720860:JL720927 I720914:I720981 WVX655324:WVX655391 WMB655324:WMB655391 WCF655324:WCF655391 VSJ655324:VSJ655391 VIN655324:VIN655391 UYR655324:UYR655391 UOV655324:UOV655391 UEZ655324:UEZ655391 TVD655324:TVD655391 TLH655324:TLH655391 TBL655324:TBL655391 SRP655324:SRP655391 SHT655324:SHT655391 RXX655324:RXX655391 ROB655324:ROB655391 REF655324:REF655391 QUJ655324:QUJ655391 QKN655324:QKN655391 QAR655324:QAR655391 PQV655324:PQV655391 PGZ655324:PGZ655391 OXD655324:OXD655391 ONH655324:ONH655391 ODL655324:ODL655391 NTP655324:NTP655391 NJT655324:NJT655391 MZX655324:MZX655391 MQB655324:MQB655391 MGF655324:MGF655391 LWJ655324:LWJ655391 LMN655324:LMN655391 LCR655324:LCR655391 KSV655324:KSV655391 KIZ655324:KIZ655391 JZD655324:JZD655391 JPH655324:JPH655391 JFL655324:JFL655391 IVP655324:IVP655391 ILT655324:ILT655391 IBX655324:IBX655391 HSB655324:HSB655391 HIF655324:HIF655391 GYJ655324:GYJ655391 GON655324:GON655391 GER655324:GER655391 FUV655324:FUV655391 FKZ655324:FKZ655391 FBD655324:FBD655391 ERH655324:ERH655391 EHL655324:EHL655391 DXP655324:DXP655391 DNT655324:DNT655391 DDX655324:DDX655391 CUB655324:CUB655391 CKF655324:CKF655391 CAJ655324:CAJ655391 BQN655324:BQN655391 BGR655324:BGR655391 AWV655324:AWV655391 AMZ655324:AMZ655391 ADD655324:ADD655391 TH655324:TH655391 JL655324:JL655391 I655378:I655445 WVX589788:WVX589855 WMB589788:WMB589855 WCF589788:WCF589855 VSJ589788:VSJ589855 VIN589788:VIN589855 UYR589788:UYR589855 UOV589788:UOV589855 UEZ589788:UEZ589855 TVD589788:TVD589855 TLH589788:TLH589855 TBL589788:TBL589855 SRP589788:SRP589855 SHT589788:SHT589855 RXX589788:RXX589855 ROB589788:ROB589855 REF589788:REF589855 QUJ589788:QUJ589855 QKN589788:QKN589855 QAR589788:QAR589855 PQV589788:PQV589855 PGZ589788:PGZ589855 OXD589788:OXD589855 ONH589788:ONH589855 ODL589788:ODL589855 NTP589788:NTP589855 NJT589788:NJT589855 MZX589788:MZX589855 MQB589788:MQB589855 MGF589788:MGF589855 LWJ589788:LWJ589855 LMN589788:LMN589855 LCR589788:LCR589855 KSV589788:KSV589855 KIZ589788:KIZ589855 JZD589788:JZD589855 JPH589788:JPH589855 JFL589788:JFL589855 IVP589788:IVP589855 ILT589788:ILT589855 IBX589788:IBX589855 HSB589788:HSB589855 HIF589788:HIF589855 GYJ589788:GYJ589855 GON589788:GON589855 GER589788:GER589855 FUV589788:FUV589855 FKZ589788:FKZ589855 FBD589788:FBD589855 ERH589788:ERH589855 EHL589788:EHL589855 DXP589788:DXP589855 DNT589788:DNT589855 DDX589788:DDX589855 CUB589788:CUB589855 CKF589788:CKF589855 CAJ589788:CAJ589855 BQN589788:BQN589855 BGR589788:BGR589855 AWV589788:AWV589855 AMZ589788:AMZ589855 ADD589788:ADD589855 TH589788:TH589855 JL589788:JL589855 I589842:I589909 WVX524252:WVX524319 WMB524252:WMB524319 WCF524252:WCF524319 VSJ524252:VSJ524319 VIN524252:VIN524319 UYR524252:UYR524319 UOV524252:UOV524319 UEZ524252:UEZ524319 TVD524252:TVD524319 TLH524252:TLH524319 TBL524252:TBL524319 SRP524252:SRP524319 SHT524252:SHT524319 RXX524252:RXX524319 ROB524252:ROB524319 REF524252:REF524319 QUJ524252:QUJ524319 QKN524252:QKN524319 QAR524252:QAR524319 PQV524252:PQV524319 PGZ524252:PGZ524319 OXD524252:OXD524319 ONH524252:ONH524319 ODL524252:ODL524319 NTP524252:NTP524319 NJT524252:NJT524319 MZX524252:MZX524319 MQB524252:MQB524319 MGF524252:MGF524319 LWJ524252:LWJ524319 LMN524252:LMN524319 LCR524252:LCR524319 KSV524252:KSV524319 KIZ524252:KIZ524319 JZD524252:JZD524319 JPH524252:JPH524319 JFL524252:JFL524319 IVP524252:IVP524319 ILT524252:ILT524319 IBX524252:IBX524319 HSB524252:HSB524319 HIF524252:HIF524319 GYJ524252:GYJ524319 GON524252:GON524319 GER524252:GER524319 FUV524252:FUV524319 FKZ524252:FKZ524319 FBD524252:FBD524319 ERH524252:ERH524319 EHL524252:EHL524319 DXP524252:DXP524319 DNT524252:DNT524319 DDX524252:DDX524319 CUB524252:CUB524319 CKF524252:CKF524319 CAJ524252:CAJ524319 BQN524252:BQN524319 BGR524252:BGR524319 AWV524252:AWV524319 AMZ524252:AMZ524319 ADD524252:ADD524319 TH524252:TH524319 JL524252:JL524319 I524306:I524373 WVX458716:WVX458783 WMB458716:WMB458783 WCF458716:WCF458783 VSJ458716:VSJ458783 VIN458716:VIN458783 UYR458716:UYR458783 UOV458716:UOV458783 UEZ458716:UEZ458783 TVD458716:TVD458783 TLH458716:TLH458783 TBL458716:TBL458783 SRP458716:SRP458783 SHT458716:SHT458783 RXX458716:RXX458783 ROB458716:ROB458783 REF458716:REF458783 QUJ458716:QUJ458783 QKN458716:QKN458783 QAR458716:QAR458783 PQV458716:PQV458783 PGZ458716:PGZ458783 OXD458716:OXD458783 ONH458716:ONH458783 ODL458716:ODL458783 NTP458716:NTP458783 NJT458716:NJT458783 MZX458716:MZX458783 MQB458716:MQB458783 MGF458716:MGF458783 LWJ458716:LWJ458783 LMN458716:LMN458783 LCR458716:LCR458783 KSV458716:KSV458783 KIZ458716:KIZ458783 JZD458716:JZD458783 JPH458716:JPH458783 JFL458716:JFL458783 IVP458716:IVP458783 ILT458716:ILT458783 IBX458716:IBX458783 HSB458716:HSB458783 HIF458716:HIF458783 GYJ458716:GYJ458783 GON458716:GON458783 GER458716:GER458783 FUV458716:FUV458783 FKZ458716:FKZ458783 FBD458716:FBD458783 ERH458716:ERH458783 EHL458716:EHL458783 DXP458716:DXP458783 DNT458716:DNT458783 DDX458716:DDX458783 CUB458716:CUB458783 CKF458716:CKF458783 CAJ458716:CAJ458783 BQN458716:BQN458783 BGR458716:BGR458783 AWV458716:AWV458783 AMZ458716:AMZ458783 ADD458716:ADD458783 TH458716:TH458783 JL458716:JL458783 I458770:I458837 WVX393180:WVX393247 WMB393180:WMB393247 WCF393180:WCF393247 VSJ393180:VSJ393247 VIN393180:VIN393247 UYR393180:UYR393247 UOV393180:UOV393247 UEZ393180:UEZ393247 TVD393180:TVD393247 TLH393180:TLH393247 TBL393180:TBL393247 SRP393180:SRP393247 SHT393180:SHT393247 RXX393180:RXX393247 ROB393180:ROB393247 REF393180:REF393247 QUJ393180:QUJ393247 QKN393180:QKN393247 QAR393180:QAR393247 PQV393180:PQV393247 PGZ393180:PGZ393247 OXD393180:OXD393247 ONH393180:ONH393247 ODL393180:ODL393247 NTP393180:NTP393247 NJT393180:NJT393247 MZX393180:MZX393247 MQB393180:MQB393247 MGF393180:MGF393247 LWJ393180:LWJ393247 LMN393180:LMN393247 LCR393180:LCR393247 KSV393180:KSV393247 KIZ393180:KIZ393247 JZD393180:JZD393247 JPH393180:JPH393247 JFL393180:JFL393247 IVP393180:IVP393247 ILT393180:ILT393247 IBX393180:IBX393247 HSB393180:HSB393247 HIF393180:HIF393247 GYJ393180:GYJ393247 GON393180:GON393247 GER393180:GER393247 FUV393180:FUV393247 FKZ393180:FKZ393247 FBD393180:FBD393247 ERH393180:ERH393247 EHL393180:EHL393247 DXP393180:DXP393247 DNT393180:DNT393247 DDX393180:DDX393247 CUB393180:CUB393247 CKF393180:CKF393247 CAJ393180:CAJ393247 BQN393180:BQN393247 BGR393180:BGR393247 AWV393180:AWV393247 AMZ393180:AMZ393247 ADD393180:ADD393247 TH393180:TH393247 JL393180:JL393247 I393234:I393301 WVX327644:WVX327711 WMB327644:WMB327711 WCF327644:WCF327711 VSJ327644:VSJ327711 VIN327644:VIN327711 UYR327644:UYR327711 UOV327644:UOV327711 UEZ327644:UEZ327711 TVD327644:TVD327711 TLH327644:TLH327711 TBL327644:TBL327711 SRP327644:SRP327711 SHT327644:SHT327711 RXX327644:RXX327711 ROB327644:ROB327711 REF327644:REF327711 QUJ327644:QUJ327711 QKN327644:QKN327711 QAR327644:QAR327711 PQV327644:PQV327711 PGZ327644:PGZ327711 OXD327644:OXD327711 ONH327644:ONH327711 ODL327644:ODL327711 NTP327644:NTP327711 NJT327644:NJT327711 MZX327644:MZX327711 MQB327644:MQB327711 MGF327644:MGF327711 LWJ327644:LWJ327711 LMN327644:LMN327711 LCR327644:LCR327711 KSV327644:KSV327711 KIZ327644:KIZ327711 JZD327644:JZD327711 JPH327644:JPH327711 JFL327644:JFL327711 IVP327644:IVP327711 ILT327644:ILT327711 IBX327644:IBX327711 HSB327644:HSB327711 HIF327644:HIF327711 GYJ327644:GYJ327711 GON327644:GON327711 GER327644:GER327711 FUV327644:FUV327711 FKZ327644:FKZ327711 FBD327644:FBD327711 ERH327644:ERH327711 EHL327644:EHL327711 DXP327644:DXP327711 DNT327644:DNT327711 DDX327644:DDX327711 CUB327644:CUB327711 CKF327644:CKF327711 CAJ327644:CAJ327711 BQN327644:BQN327711 BGR327644:BGR327711 AWV327644:AWV327711 AMZ327644:AMZ327711 ADD327644:ADD327711 TH327644:TH327711 JL327644:JL327711 I327698:I327765 WVX262108:WVX262175 WMB262108:WMB262175 WCF262108:WCF262175 VSJ262108:VSJ262175 VIN262108:VIN262175 UYR262108:UYR262175 UOV262108:UOV262175 UEZ262108:UEZ262175 TVD262108:TVD262175 TLH262108:TLH262175 TBL262108:TBL262175 SRP262108:SRP262175 SHT262108:SHT262175 RXX262108:RXX262175 ROB262108:ROB262175 REF262108:REF262175 QUJ262108:QUJ262175 QKN262108:QKN262175 QAR262108:QAR262175 PQV262108:PQV262175 PGZ262108:PGZ262175 OXD262108:OXD262175 ONH262108:ONH262175 ODL262108:ODL262175 NTP262108:NTP262175 NJT262108:NJT262175 MZX262108:MZX262175 MQB262108:MQB262175 MGF262108:MGF262175 LWJ262108:LWJ262175 LMN262108:LMN262175 LCR262108:LCR262175 KSV262108:KSV262175 KIZ262108:KIZ262175 JZD262108:JZD262175 JPH262108:JPH262175 JFL262108:JFL262175 IVP262108:IVP262175 ILT262108:ILT262175 IBX262108:IBX262175 HSB262108:HSB262175 HIF262108:HIF262175 GYJ262108:GYJ262175 GON262108:GON262175 GER262108:GER262175 FUV262108:FUV262175 FKZ262108:FKZ262175 FBD262108:FBD262175 ERH262108:ERH262175 EHL262108:EHL262175 DXP262108:DXP262175 DNT262108:DNT262175 DDX262108:DDX262175 CUB262108:CUB262175 CKF262108:CKF262175 CAJ262108:CAJ262175 BQN262108:BQN262175 BGR262108:BGR262175 AWV262108:AWV262175 AMZ262108:AMZ262175 ADD262108:ADD262175 TH262108:TH262175 JL262108:JL262175 I262162:I262229 WVX196572:WVX196639 WMB196572:WMB196639 WCF196572:WCF196639 VSJ196572:VSJ196639 VIN196572:VIN196639 UYR196572:UYR196639 UOV196572:UOV196639 UEZ196572:UEZ196639 TVD196572:TVD196639 TLH196572:TLH196639 TBL196572:TBL196639 SRP196572:SRP196639 SHT196572:SHT196639 RXX196572:RXX196639 ROB196572:ROB196639 REF196572:REF196639 QUJ196572:QUJ196639 QKN196572:QKN196639 QAR196572:QAR196639 PQV196572:PQV196639 PGZ196572:PGZ196639 OXD196572:OXD196639 ONH196572:ONH196639 ODL196572:ODL196639 NTP196572:NTP196639 NJT196572:NJT196639 MZX196572:MZX196639 MQB196572:MQB196639 MGF196572:MGF196639 LWJ196572:LWJ196639 LMN196572:LMN196639 LCR196572:LCR196639 KSV196572:KSV196639 KIZ196572:KIZ196639 JZD196572:JZD196639 JPH196572:JPH196639 JFL196572:JFL196639 IVP196572:IVP196639 ILT196572:ILT196639 IBX196572:IBX196639 HSB196572:HSB196639 HIF196572:HIF196639 GYJ196572:GYJ196639 GON196572:GON196639 GER196572:GER196639 FUV196572:FUV196639 FKZ196572:FKZ196639 FBD196572:FBD196639 ERH196572:ERH196639 EHL196572:EHL196639 DXP196572:DXP196639 DNT196572:DNT196639 DDX196572:DDX196639 CUB196572:CUB196639 CKF196572:CKF196639 CAJ196572:CAJ196639 BQN196572:BQN196639 BGR196572:BGR196639 AWV196572:AWV196639 AMZ196572:AMZ196639 ADD196572:ADD196639 TH196572:TH196639 JL196572:JL196639 I196626:I196693 WVX131036:WVX131103 WMB131036:WMB131103 WCF131036:WCF131103 VSJ131036:VSJ131103 VIN131036:VIN131103 UYR131036:UYR131103 UOV131036:UOV131103 UEZ131036:UEZ131103 TVD131036:TVD131103 TLH131036:TLH131103 TBL131036:TBL131103 SRP131036:SRP131103 SHT131036:SHT131103 RXX131036:RXX131103 ROB131036:ROB131103 REF131036:REF131103 QUJ131036:QUJ131103 QKN131036:QKN131103 QAR131036:QAR131103 PQV131036:PQV131103 PGZ131036:PGZ131103 OXD131036:OXD131103 ONH131036:ONH131103 ODL131036:ODL131103 NTP131036:NTP131103 NJT131036:NJT131103 MZX131036:MZX131103 MQB131036:MQB131103 MGF131036:MGF131103 LWJ131036:LWJ131103 LMN131036:LMN131103 LCR131036:LCR131103 KSV131036:KSV131103 KIZ131036:KIZ131103 JZD131036:JZD131103 JPH131036:JPH131103 JFL131036:JFL131103 IVP131036:IVP131103 ILT131036:ILT131103 IBX131036:IBX131103 HSB131036:HSB131103 HIF131036:HIF131103 GYJ131036:GYJ131103 GON131036:GON131103 GER131036:GER131103 FUV131036:FUV131103 FKZ131036:FKZ131103 FBD131036:FBD131103 ERH131036:ERH131103 EHL131036:EHL131103 DXP131036:DXP131103 DNT131036:DNT131103 DDX131036:DDX131103 CUB131036:CUB131103 CKF131036:CKF131103 CAJ131036:CAJ131103 BQN131036:BQN131103 BGR131036:BGR131103 AWV131036:AWV131103 AMZ131036:AMZ131103 ADD131036:ADD131103 TH131036:TH131103 JL131036:JL131103 I131090:I131157 WVX65500:WVX65567 WMB65500:WMB65567 WCF65500:WCF65567 VSJ65500:VSJ65567 VIN65500:VIN65567 UYR65500:UYR65567 UOV65500:UOV65567 UEZ65500:UEZ65567 TVD65500:TVD65567 TLH65500:TLH65567 TBL65500:TBL65567 SRP65500:SRP65567 SHT65500:SHT65567 RXX65500:RXX65567 ROB65500:ROB65567 REF65500:REF65567 QUJ65500:QUJ65567 QKN65500:QKN65567 QAR65500:QAR65567 PQV65500:PQV65567 PGZ65500:PGZ65567 OXD65500:OXD65567 ONH65500:ONH65567 ODL65500:ODL65567 NTP65500:NTP65567 NJT65500:NJT65567 MZX65500:MZX65567 MQB65500:MQB65567 MGF65500:MGF65567 LWJ65500:LWJ65567 LMN65500:LMN65567 LCR65500:LCR65567 KSV65500:KSV65567 KIZ65500:KIZ65567 JZD65500:JZD65567 JPH65500:JPH65567 JFL65500:JFL65567 IVP65500:IVP65567 ILT65500:ILT65567 IBX65500:IBX65567 HSB65500:HSB65567 HIF65500:HIF65567 GYJ65500:GYJ65567 GON65500:GON65567 GER65500:GER65567 FUV65500:FUV65567 FKZ65500:FKZ65567 FBD65500:FBD65567 ERH65500:ERH65567 EHL65500:EHL65567 DXP65500:DXP65567 DNT65500:DNT65567 DDX65500:DDX65567 CUB65500:CUB65567 CKF65500:CKF65567 CAJ65500:CAJ65567 BQN65500:BQN65567 BGR65500:BGR65567 AWV65500:AWV65567 AMZ65500:AMZ65567 ADD65500:ADD65567 TH65500:TH65567 JL65500:JL65567 I65554:I65621 WVX27:WVX85 WMB27:WMB85 WCF27:WCF85 VSJ27:VSJ85 VIN27:VIN85 UYR27:UYR85 UOV27:UOV85 UEZ27:UEZ85 TVD27:TVD85 TLH27:TLH85 TBL27:TBL85 SRP27:SRP85 SHT27:SHT85 RXX27:RXX85 ROB27:ROB85 REF27:REF85 QUJ27:QUJ85 QKN27:QKN85 QAR27:QAR85 PQV27:PQV85 PGZ27:PGZ85 OXD27:OXD85 ONH27:ONH85 ODL27:ODL85 NTP27:NTP85 NJT27:NJT85 MZX27:MZX85 MQB27:MQB85 MGF27:MGF85 LWJ27:LWJ85 LMN27:LMN85 LCR27:LCR85 KSV27:KSV85 KIZ27:KIZ85 JZD27:JZD85 JPH27:JPH85 JFL27:JFL85 IVP27:IVP85 ILT27:ILT85 IBX27:IBX85 HSB27:HSB85 HIF27:HIF85 GYJ27:GYJ85 GON27:GON85 GER27:GER85 FUV27:FUV85 FKZ27:FKZ85 FBD27:FBD85 ERH27:ERH85 EHL27:EHL85 DXP27:DXP85 DNT27:DNT85 DDX27:DDX85 CUB27:CUB85 CKF27:CKF85 CAJ27:CAJ85 BQN27:BQN85 BGR27:BGR85 AWV27:AWV85 AMZ27:AMZ85 ADD27:ADD85 TH27:TH85" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$16:$K$59</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K61:K67 K15:K59 K69:K78" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$K$16:$K$59</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E90" xr:uid="{37DDCD74-110F-4B6E-8D64-C89F89A18D6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E91" xr:uid="{37DDCD74-110F-4B6E-8D64-C89F89A18D6D}">
       <formula1>"صادرات مباشرة,صادرات معلقة"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D90" xr:uid="{3A07029E-7D66-4D2D-ABBB-964AEFBF5720}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D91" xr:uid="{3A07029E-7D66-4D2D-ABBB-964AEFBF5720}">
       <formula1>"من المستوى الأعلى,أخرى"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.39" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L60:S60 L68:N68" formula="1"/>
+    <ignoredError sqref="L61:S61 L69:N69" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -7771,13 +7823,13 @@
           <x14:formula1>
             <xm:f>OFFSET(Lists!$C$3,0,0,COUNTA(Lists!$C:$C)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I90</xm:sqref>
+          <xm:sqref>I5:I91</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6225FA5A-FA66-44B5-83C2-DCD736E4BF2E}">
           <x14:formula1>
             <xm:f>OFFSET(Lists!$I$3,0,0,COUNTA(Lists!$I:$I)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C90</xm:sqref>
+          <xm:sqref>C5:C91</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7804,19 +7856,19 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="D2" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="67" t="s">
-        <v>145</v>
-      </c>
       <c r="H2" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I2" s="66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -8028,7 +8080,7 @@
       </c>
       <c r="C22" s="67"/>
       <c r="D22" s="67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report2.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/financial blank report2.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E19382D-B542-4870-8930-3194CB35CCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76FD4DE-AA88-4372-B459-C65478A17C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FR" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$K$4:$AA$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FR!$L$4:$AB$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -926,7 +926,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1251,9 +1251,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1653,1250 +1650,1250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH104"/>
+  <dimension ref="B1:AI104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="8" customWidth="1"/>
-    <col min="2" max="6" width="15.77734375" style="35" customWidth="1"/>
-    <col min="7" max="7" width="60.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.77734375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="18.77734375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="65" style="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.5546875" style="7" customWidth="1"/>
-    <col min="25" max="25" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" style="7" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.77734375" style="7" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="7" customWidth="1"/>
-    <col min="35" max="267" width="9.109375" style="7"/>
-    <col min="268" max="268" width="9" style="7" customWidth="1"/>
-    <col min="269" max="269" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="40.109375" style="7" customWidth="1"/>
-    <col min="271" max="271" width="10.77734375" style="7" customWidth="1"/>
-    <col min="272" max="272" width="20.109375" style="7" customWidth="1"/>
-    <col min="273" max="273" width="3.77734375" style="7" customWidth="1"/>
-    <col min="274" max="275" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="8.109375" style="7" customWidth="1"/>
-    <col min="277" max="280" width="10.5546875" style="7" customWidth="1"/>
-    <col min="281" max="281" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="282" max="283" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="8.77734375" style="7" customWidth="1"/>
-    <col min="285" max="285" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="12.77734375" style="7" customWidth="1"/>
-    <col min="289" max="289" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="9.6640625" style="7" customWidth="1"/>
-    <col min="291" max="523" width="9.109375" style="7"/>
-    <col min="524" max="524" width="9" style="7" customWidth="1"/>
-    <col min="525" max="525" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="40.109375" style="7" customWidth="1"/>
-    <col min="527" max="527" width="10.77734375" style="7" customWidth="1"/>
-    <col min="528" max="528" width="20.109375" style="7" customWidth="1"/>
-    <col min="529" max="529" width="3.77734375" style="7" customWidth="1"/>
-    <col min="530" max="531" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="8.109375" style="7" customWidth="1"/>
-    <col min="533" max="536" width="10.5546875" style="7" customWidth="1"/>
-    <col min="537" max="537" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="538" max="539" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="540" max="540" width="8.77734375" style="7" customWidth="1"/>
-    <col min="541" max="541" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="543" max="543" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="544" max="544" width="12.77734375" style="7" customWidth="1"/>
-    <col min="545" max="545" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="546" max="546" width="9.6640625" style="7" customWidth="1"/>
-    <col min="547" max="779" width="9.109375" style="7"/>
-    <col min="780" max="780" width="9" style="7" customWidth="1"/>
-    <col min="781" max="781" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="782" max="782" width="40.109375" style="7" customWidth="1"/>
-    <col min="783" max="783" width="10.77734375" style="7" customWidth="1"/>
-    <col min="784" max="784" width="20.109375" style="7" customWidth="1"/>
-    <col min="785" max="785" width="3.77734375" style="7" customWidth="1"/>
-    <col min="786" max="787" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="788" max="788" width="8.109375" style="7" customWidth="1"/>
-    <col min="789" max="792" width="10.5546875" style="7" customWidth="1"/>
-    <col min="793" max="793" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="794" max="795" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="796" max="796" width="8.77734375" style="7" customWidth="1"/>
-    <col min="797" max="797" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="798" max="798" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="799" max="799" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="800" max="800" width="12.77734375" style="7" customWidth="1"/>
-    <col min="801" max="801" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="802" max="802" width="9.6640625" style="7" customWidth="1"/>
-    <col min="803" max="1035" width="9.109375" style="7"/>
-    <col min="1036" max="1036" width="9" style="7" customWidth="1"/>
-    <col min="1037" max="1037" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1038" max="1038" width="40.109375" style="7" customWidth="1"/>
-    <col min="1039" max="1039" width="10.77734375" style="7" customWidth="1"/>
-    <col min="1040" max="1040" width="20.109375" style="7" customWidth="1"/>
-    <col min="1041" max="1041" width="3.77734375" style="7" customWidth="1"/>
-    <col min="1042" max="1043" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1044" max="1044" width="8.109375" style="7" customWidth="1"/>
-    <col min="1045" max="1048" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1049" max="1049" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1050" max="1051" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1052" max="1052" width="8.77734375" style="7" customWidth="1"/>
-    <col min="1053" max="1053" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1054" max="1054" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1055" max="1055" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1056" max="1056" width="12.77734375" style="7" customWidth="1"/>
-    <col min="1057" max="1057" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1058" max="1058" width="9.6640625" style="7" customWidth="1"/>
-    <col min="1059" max="1291" width="9.109375" style="7"/>
-    <col min="1292" max="1292" width="9" style="7" customWidth="1"/>
-    <col min="1293" max="1293" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1294" max="1294" width="40.109375" style="7" customWidth="1"/>
-    <col min="1295" max="1295" width="10.77734375" style="7" customWidth="1"/>
-    <col min="1296" max="1296" width="20.109375" style="7" customWidth="1"/>
-    <col min="1297" max="1297" width="3.77734375" style="7" customWidth="1"/>
-    <col min="1298" max="1299" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1300" max="1300" width="8.109375" style="7" customWidth="1"/>
-    <col min="1301" max="1304" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1305" max="1305" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1306" max="1307" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1308" max="1308" width="8.77734375" style="7" customWidth="1"/>
-    <col min="1309" max="1309" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1310" max="1310" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1311" max="1311" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1312" max="1312" width="12.77734375" style="7" customWidth="1"/>
-    <col min="1313" max="1313" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1314" max="1314" width="9.6640625" style="7" customWidth="1"/>
-    <col min="1315" max="1547" width="9.109375" style="7"/>
-    <col min="1548" max="1548" width="9" style="7" customWidth="1"/>
-    <col min="1549" max="1549" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1550" max="1550" width="40.109375" style="7" customWidth="1"/>
-    <col min="1551" max="1551" width="10.77734375" style="7" customWidth="1"/>
-    <col min="1552" max="1552" width="20.109375" style="7" customWidth="1"/>
-    <col min="1553" max="1553" width="3.77734375" style="7" customWidth="1"/>
-    <col min="1554" max="1555" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1556" max="1556" width="8.109375" style="7" customWidth="1"/>
-    <col min="1557" max="1560" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1561" max="1561" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1562" max="1563" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1564" max="1564" width="8.77734375" style="7" customWidth="1"/>
-    <col min="1565" max="1565" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1566" max="1566" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1567" max="1567" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1568" max="1568" width="12.77734375" style="7" customWidth="1"/>
-    <col min="1569" max="1569" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1570" max="1570" width="9.6640625" style="7" customWidth="1"/>
-    <col min="1571" max="1803" width="9.109375" style="7"/>
-    <col min="1804" max="1804" width="9" style="7" customWidth="1"/>
-    <col min="1805" max="1805" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1806" max="1806" width="40.109375" style="7" customWidth="1"/>
-    <col min="1807" max="1807" width="10.77734375" style="7" customWidth="1"/>
-    <col min="1808" max="1808" width="20.109375" style="7" customWidth="1"/>
-    <col min="1809" max="1809" width="3.77734375" style="7" customWidth="1"/>
-    <col min="1810" max="1811" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1812" max="1812" width="8.109375" style="7" customWidth="1"/>
-    <col min="1813" max="1816" width="10.5546875" style="7" customWidth="1"/>
-    <col min="1817" max="1817" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="1818" max="1819" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1820" max="1820" width="8.77734375" style="7" customWidth="1"/>
-    <col min="1821" max="1821" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1822" max="1822" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1823" max="1823" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1824" max="1824" width="12.77734375" style="7" customWidth="1"/>
-    <col min="1825" max="1825" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1826" max="1826" width="9.6640625" style="7" customWidth="1"/>
-    <col min="1827" max="2059" width="9.109375" style="7"/>
-    <col min="2060" max="2060" width="9" style="7" customWidth="1"/>
-    <col min="2061" max="2061" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2062" max="2062" width="40.109375" style="7" customWidth="1"/>
-    <col min="2063" max="2063" width="10.77734375" style="7" customWidth="1"/>
-    <col min="2064" max="2064" width="20.109375" style="7" customWidth="1"/>
-    <col min="2065" max="2065" width="3.77734375" style="7" customWidth="1"/>
-    <col min="2066" max="2067" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2068" max="2068" width="8.109375" style="7" customWidth="1"/>
-    <col min="2069" max="2072" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2073" max="2073" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2074" max="2075" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2076" max="2076" width="8.77734375" style="7" customWidth="1"/>
-    <col min="2077" max="2077" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2078" max="2078" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2079" max="2079" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2080" max="2080" width="12.77734375" style="7" customWidth="1"/>
-    <col min="2081" max="2081" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2082" max="2082" width="9.6640625" style="7" customWidth="1"/>
-    <col min="2083" max="2315" width="9.109375" style="7"/>
-    <col min="2316" max="2316" width="9" style="7" customWidth="1"/>
-    <col min="2317" max="2317" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2318" max="2318" width="40.109375" style="7" customWidth="1"/>
-    <col min="2319" max="2319" width="10.77734375" style="7" customWidth="1"/>
-    <col min="2320" max="2320" width="20.109375" style="7" customWidth="1"/>
-    <col min="2321" max="2321" width="3.77734375" style="7" customWidth="1"/>
-    <col min="2322" max="2323" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2324" max="2324" width="8.109375" style="7" customWidth="1"/>
-    <col min="2325" max="2328" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2329" max="2329" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2330" max="2331" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2332" max="2332" width="8.77734375" style="7" customWidth="1"/>
-    <col min="2333" max="2333" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2334" max="2334" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2335" max="2335" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2336" max="2336" width="12.77734375" style="7" customWidth="1"/>
-    <col min="2337" max="2337" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2338" max="2338" width="9.6640625" style="7" customWidth="1"/>
-    <col min="2339" max="2571" width="9.109375" style="7"/>
-    <col min="2572" max="2572" width="9" style="7" customWidth="1"/>
-    <col min="2573" max="2573" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2574" max="2574" width="40.109375" style="7" customWidth="1"/>
-    <col min="2575" max="2575" width="10.77734375" style="7" customWidth="1"/>
-    <col min="2576" max="2576" width="20.109375" style="7" customWidth="1"/>
-    <col min="2577" max="2577" width="3.77734375" style="7" customWidth="1"/>
-    <col min="2578" max="2579" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2580" max="2580" width="8.109375" style="7" customWidth="1"/>
-    <col min="2581" max="2584" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2585" max="2585" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2586" max="2587" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2588" max="2588" width="8.77734375" style="7" customWidth="1"/>
-    <col min="2589" max="2589" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2590" max="2590" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2591" max="2591" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2592" max="2592" width="12.77734375" style="7" customWidth="1"/>
-    <col min="2593" max="2593" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2594" max="2594" width="9.6640625" style="7" customWidth="1"/>
-    <col min="2595" max="2827" width="9.109375" style="7"/>
-    <col min="2828" max="2828" width="9" style="7" customWidth="1"/>
-    <col min="2829" max="2829" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2830" max="2830" width="40.109375" style="7" customWidth="1"/>
-    <col min="2831" max="2831" width="10.77734375" style="7" customWidth="1"/>
-    <col min="2832" max="2832" width="20.109375" style="7" customWidth="1"/>
-    <col min="2833" max="2833" width="3.77734375" style="7" customWidth="1"/>
-    <col min="2834" max="2835" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2836" max="2836" width="8.109375" style="7" customWidth="1"/>
-    <col min="2837" max="2840" width="10.5546875" style="7" customWidth="1"/>
-    <col min="2841" max="2841" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2842" max="2843" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2844" max="2844" width="8.77734375" style="7" customWidth="1"/>
-    <col min="2845" max="2845" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2846" max="2846" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2847" max="2847" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2848" max="2848" width="12.77734375" style="7" customWidth="1"/>
-    <col min="2849" max="2849" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2850" max="2850" width="9.6640625" style="7" customWidth="1"/>
-    <col min="2851" max="3083" width="9.109375" style="7"/>
-    <col min="3084" max="3084" width="9" style="7" customWidth="1"/>
-    <col min="3085" max="3085" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3086" max="3086" width="40.109375" style="7" customWidth="1"/>
-    <col min="3087" max="3087" width="10.77734375" style="7" customWidth="1"/>
-    <col min="3088" max="3088" width="20.109375" style="7" customWidth="1"/>
-    <col min="3089" max="3089" width="3.77734375" style="7" customWidth="1"/>
-    <col min="3090" max="3091" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3092" max="3092" width="8.109375" style="7" customWidth="1"/>
-    <col min="3093" max="3096" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3097" max="3097" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3098" max="3099" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3100" max="3100" width="8.77734375" style="7" customWidth="1"/>
-    <col min="3101" max="3101" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3102" max="3102" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3103" max="3103" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3104" max="3104" width="12.77734375" style="7" customWidth="1"/>
-    <col min="3105" max="3105" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3106" max="3106" width="9.6640625" style="7" customWidth="1"/>
-    <col min="3107" max="3339" width="9.109375" style="7"/>
-    <col min="3340" max="3340" width="9" style="7" customWidth="1"/>
-    <col min="3341" max="3341" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3342" max="3342" width="40.109375" style="7" customWidth="1"/>
-    <col min="3343" max="3343" width="10.77734375" style="7" customWidth="1"/>
-    <col min="3344" max="3344" width="20.109375" style="7" customWidth="1"/>
-    <col min="3345" max="3345" width="3.77734375" style="7" customWidth="1"/>
-    <col min="3346" max="3347" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3348" max="3348" width="8.109375" style="7" customWidth="1"/>
-    <col min="3349" max="3352" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3353" max="3353" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3354" max="3355" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3356" max="3356" width="8.77734375" style="7" customWidth="1"/>
-    <col min="3357" max="3357" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3358" max="3358" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3359" max="3359" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3360" max="3360" width="12.77734375" style="7" customWidth="1"/>
-    <col min="3361" max="3361" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3362" max="3362" width="9.6640625" style="7" customWidth="1"/>
-    <col min="3363" max="3595" width="9.109375" style="7"/>
-    <col min="3596" max="3596" width="9" style="7" customWidth="1"/>
-    <col min="3597" max="3597" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3598" max="3598" width="40.109375" style="7" customWidth="1"/>
-    <col min="3599" max="3599" width="10.77734375" style="7" customWidth="1"/>
-    <col min="3600" max="3600" width="20.109375" style="7" customWidth="1"/>
-    <col min="3601" max="3601" width="3.77734375" style="7" customWidth="1"/>
-    <col min="3602" max="3603" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3604" max="3604" width="8.109375" style="7" customWidth="1"/>
-    <col min="3605" max="3608" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3609" max="3609" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3610" max="3611" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3612" max="3612" width="8.77734375" style="7" customWidth="1"/>
-    <col min="3613" max="3613" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3614" max="3614" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3615" max="3615" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3616" max="3616" width="12.77734375" style="7" customWidth="1"/>
-    <col min="3617" max="3617" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3618" max="3618" width="9.6640625" style="7" customWidth="1"/>
-    <col min="3619" max="3851" width="9.109375" style="7"/>
-    <col min="3852" max="3852" width="9" style="7" customWidth="1"/>
-    <col min="3853" max="3853" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3854" max="3854" width="40.109375" style="7" customWidth="1"/>
-    <col min="3855" max="3855" width="10.77734375" style="7" customWidth="1"/>
-    <col min="3856" max="3856" width="20.109375" style="7" customWidth="1"/>
-    <col min="3857" max="3857" width="3.77734375" style="7" customWidth="1"/>
-    <col min="3858" max="3859" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3860" max="3860" width="8.109375" style="7" customWidth="1"/>
-    <col min="3861" max="3864" width="10.5546875" style="7" customWidth="1"/>
-    <col min="3865" max="3865" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3866" max="3867" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3868" max="3868" width="8.77734375" style="7" customWidth="1"/>
-    <col min="3869" max="3869" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3870" max="3870" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3871" max="3871" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3872" max="3872" width="12.77734375" style="7" customWidth="1"/>
-    <col min="3873" max="3873" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3874" max="3874" width="9.6640625" style="7" customWidth="1"/>
-    <col min="3875" max="4107" width="9.109375" style="7"/>
-    <col min="4108" max="4108" width="9" style="7" customWidth="1"/>
-    <col min="4109" max="4109" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4110" max="4110" width="40.109375" style="7" customWidth="1"/>
-    <col min="4111" max="4111" width="10.77734375" style="7" customWidth="1"/>
-    <col min="4112" max="4112" width="20.109375" style="7" customWidth="1"/>
-    <col min="4113" max="4113" width="3.77734375" style="7" customWidth="1"/>
-    <col min="4114" max="4115" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4116" max="4116" width="8.109375" style="7" customWidth="1"/>
-    <col min="4117" max="4120" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4121" max="4121" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4122" max="4123" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4124" max="4124" width="8.77734375" style="7" customWidth="1"/>
-    <col min="4125" max="4125" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4126" max="4126" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4127" max="4127" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4128" max="4128" width="12.77734375" style="7" customWidth="1"/>
-    <col min="4129" max="4129" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4130" max="4130" width="9.6640625" style="7" customWidth="1"/>
-    <col min="4131" max="4363" width="9.109375" style="7"/>
-    <col min="4364" max="4364" width="9" style="7" customWidth="1"/>
-    <col min="4365" max="4365" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4366" max="4366" width="40.109375" style="7" customWidth="1"/>
-    <col min="4367" max="4367" width="10.77734375" style="7" customWidth="1"/>
-    <col min="4368" max="4368" width="20.109375" style="7" customWidth="1"/>
-    <col min="4369" max="4369" width="3.77734375" style="7" customWidth="1"/>
-    <col min="4370" max="4371" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4372" max="4372" width="8.109375" style="7" customWidth="1"/>
-    <col min="4373" max="4376" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4377" max="4377" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4378" max="4379" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4380" max="4380" width="8.77734375" style="7" customWidth="1"/>
-    <col min="4381" max="4381" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4382" max="4382" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4383" max="4383" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4384" max="4384" width="12.77734375" style="7" customWidth="1"/>
-    <col min="4385" max="4385" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4386" max="4386" width="9.6640625" style="7" customWidth="1"/>
-    <col min="4387" max="4619" width="9.109375" style="7"/>
-    <col min="4620" max="4620" width="9" style="7" customWidth="1"/>
-    <col min="4621" max="4621" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4622" max="4622" width="40.109375" style="7" customWidth="1"/>
-    <col min="4623" max="4623" width="10.77734375" style="7" customWidth="1"/>
-    <col min="4624" max="4624" width="20.109375" style="7" customWidth="1"/>
-    <col min="4625" max="4625" width="3.77734375" style="7" customWidth="1"/>
-    <col min="4626" max="4627" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4628" max="4628" width="8.109375" style="7" customWidth="1"/>
-    <col min="4629" max="4632" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4633" max="4633" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4634" max="4635" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4636" max="4636" width="8.77734375" style="7" customWidth="1"/>
-    <col min="4637" max="4637" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4638" max="4638" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4639" max="4639" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4640" max="4640" width="12.77734375" style="7" customWidth="1"/>
-    <col min="4641" max="4641" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4642" max="4642" width="9.6640625" style="7" customWidth="1"/>
-    <col min="4643" max="4875" width="9.109375" style="7"/>
-    <col min="4876" max="4876" width="9" style="7" customWidth="1"/>
-    <col min="4877" max="4877" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4878" max="4878" width="40.109375" style="7" customWidth="1"/>
-    <col min="4879" max="4879" width="10.77734375" style="7" customWidth="1"/>
-    <col min="4880" max="4880" width="20.109375" style="7" customWidth="1"/>
-    <col min="4881" max="4881" width="3.77734375" style="7" customWidth="1"/>
-    <col min="4882" max="4883" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4884" max="4884" width="8.109375" style="7" customWidth="1"/>
-    <col min="4885" max="4888" width="10.5546875" style="7" customWidth="1"/>
-    <col min="4889" max="4889" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4890" max="4891" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4892" max="4892" width="8.77734375" style="7" customWidth="1"/>
-    <col min="4893" max="4893" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4894" max="4894" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4895" max="4895" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4896" max="4896" width="12.77734375" style="7" customWidth="1"/>
-    <col min="4897" max="4897" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4898" max="4898" width="9.6640625" style="7" customWidth="1"/>
-    <col min="4899" max="5131" width="9.109375" style="7"/>
-    <col min="5132" max="5132" width="9" style="7" customWidth="1"/>
-    <col min="5133" max="5133" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5134" max="5134" width="40.109375" style="7" customWidth="1"/>
-    <col min="5135" max="5135" width="10.77734375" style="7" customWidth="1"/>
-    <col min="5136" max="5136" width="20.109375" style="7" customWidth="1"/>
-    <col min="5137" max="5137" width="3.77734375" style="7" customWidth="1"/>
-    <col min="5138" max="5139" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5140" max="5140" width="8.109375" style="7" customWidth="1"/>
-    <col min="5141" max="5144" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5145" max="5145" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5146" max="5147" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5148" max="5148" width="8.77734375" style="7" customWidth="1"/>
-    <col min="5149" max="5149" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5150" max="5150" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5151" max="5151" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5152" max="5152" width="12.77734375" style="7" customWidth="1"/>
-    <col min="5153" max="5153" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5154" max="5154" width="9.6640625" style="7" customWidth="1"/>
-    <col min="5155" max="5387" width="9.109375" style="7"/>
-    <col min="5388" max="5388" width="9" style="7" customWidth="1"/>
-    <col min="5389" max="5389" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5390" max="5390" width="40.109375" style="7" customWidth="1"/>
-    <col min="5391" max="5391" width="10.77734375" style="7" customWidth="1"/>
-    <col min="5392" max="5392" width="20.109375" style="7" customWidth="1"/>
-    <col min="5393" max="5393" width="3.77734375" style="7" customWidth="1"/>
-    <col min="5394" max="5395" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5396" max="5396" width="8.109375" style="7" customWidth="1"/>
-    <col min="5397" max="5400" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5401" max="5401" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5402" max="5403" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5404" max="5404" width="8.77734375" style="7" customWidth="1"/>
-    <col min="5405" max="5405" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5406" max="5406" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5407" max="5407" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5408" max="5408" width="12.77734375" style="7" customWidth="1"/>
-    <col min="5409" max="5409" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5410" max="5410" width="9.6640625" style="7" customWidth="1"/>
-    <col min="5411" max="5643" width="9.109375" style="7"/>
-    <col min="5644" max="5644" width="9" style="7" customWidth="1"/>
-    <col min="5645" max="5645" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5646" max="5646" width="40.109375" style="7" customWidth="1"/>
-    <col min="5647" max="5647" width="10.77734375" style="7" customWidth="1"/>
-    <col min="5648" max="5648" width="20.109375" style="7" customWidth="1"/>
-    <col min="5649" max="5649" width="3.77734375" style="7" customWidth="1"/>
-    <col min="5650" max="5651" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5652" max="5652" width="8.109375" style="7" customWidth="1"/>
-    <col min="5653" max="5656" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5657" max="5657" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5658" max="5659" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5660" max="5660" width="8.77734375" style="7" customWidth="1"/>
-    <col min="5661" max="5661" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5662" max="5662" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5663" max="5663" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5664" max="5664" width="12.77734375" style="7" customWidth="1"/>
-    <col min="5665" max="5665" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5666" max="5666" width="9.6640625" style="7" customWidth="1"/>
-    <col min="5667" max="5899" width="9.109375" style="7"/>
-    <col min="5900" max="5900" width="9" style="7" customWidth="1"/>
-    <col min="5901" max="5901" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5902" max="5902" width="40.109375" style="7" customWidth="1"/>
-    <col min="5903" max="5903" width="10.77734375" style="7" customWidth="1"/>
-    <col min="5904" max="5904" width="20.109375" style="7" customWidth="1"/>
-    <col min="5905" max="5905" width="3.77734375" style="7" customWidth="1"/>
-    <col min="5906" max="5907" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5908" max="5908" width="8.109375" style="7" customWidth="1"/>
-    <col min="5909" max="5912" width="10.5546875" style="7" customWidth="1"/>
-    <col min="5913" max="5913" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="5914" max="5915" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5916" max="5916" width="8.77734375" style="7" customWidth="1"/>
-    <col min="5917" max="5917" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5918" max="5918" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5919" max="5919" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5920" max="5920" width="12.77734375" style="7" customWidth="1"/>
-    <col min="5921" max="5921" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5922" max="5922" width="9.6640625" style="7" customWidth="1"/>
-    <col min="5923" max="6155" width="9.109375" style="7"/>
-    <col min="6156" max="6156" width="9" style="7" customWidth="1"/>
-    <col min="6157" max="6157" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6158" max="6158" width="40.109375" style="7" customWidth="1"/>
-    <col min="6159" max="6159" width="10.77734375" style="7" customWidth="1"/>
-    <col min="6160" max="6160" width="20.109375" style="7" customWidth="1"/>
-    <col min="6161" max="6161" width="3.77734375" style="7" customWidth="1"/>
-    <col min="6162" max="6163" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6164" max="6164" width="8.109375" style="7" customWidth="1"/>
-    <col min="6165" max="6168" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6169" max="6169" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6170" max="6171" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6172" max="6172" width="8.77734375" style="7" customWidth="1"/>
-    <col min="6173" max="6173" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6174" max="6174" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6175" max="6175" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6176" max="6176" width="12.77734375" style="7" customWidth="1"/>
-    <col min="6177" max="6177" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6178" max="6178" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6179" max="6411" width="9.109375" style="7"/>
-    <col min="6412" max="6412" width="9" style="7" customWidth="1"/>
-    <col min="6413" max="6413" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6414" max="6414" width="40.109375" style="7" customWidth="1"/>
-    <col min="6415" max="6415" width="10.77734375" style="7" customWidth="1"/>
-    <col min="6416" max="6416" width="20.109375" style="7" customWidth="1"/>
-    <col min="6417" max="6417" width="3.77734375" style="7" customWidth="1"/>
-    <col min="6418" max="6419" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6420" max="6420" width="8.109375" style="7" customWidth="1"/>
-    <col min="6421" max="6424" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6425" max="6425" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6426" max="6427" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6428" max="6428" width="8.77734375" style="7" customWidth="1"/>
-    <col min="6429" max="6429" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6430" max="6430" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6431" max="6431" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6432" max="6432" width="12.77734375" style="7" customWidth="1"/>
-    <col min="6433" max="6433" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6434" max="6434" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6435" max="6667" width="9.109375" style="7"/>
-    <col min="6668" max="6668" width="9" style="7" customWidth="1"/>
-    <col min="6669" max="6669" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6670" max="6670" width="40.109375" style="7" customWidth="1"/>
-    <col min="6671" max="6671" width="10.77734375" style="7" customWidth="1"/>
-    <col min="6672" max="6672" width="20.109375" style="7" customWidth="1"/>
-    <col min="6673" max="6673" width="3.77734375" style="7" customWidth="1"/>
-    <col min="6674" max="6675" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6676" max="6676" width="8.109375" style="7" customWidth="1"/>
-    <col min="6677" max="6680" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6681" max="6681" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6682" max="6683" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6684" max="6684" width="8.77734375" style="7" customWidth="1"/>
-    <col min="6685" max="6685" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6686" max="6686" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6687" max="6687" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6688" max="6688" width="12.77734375" style="7" customWidth="1"/>
-    <col min="6689" max="6689" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6690" max="6690" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6691" max="6923" width="9.109375" style="7"/>
-    <col min="6924" max="6924" width="9" style="7" customWidth="1"/>
-    <col min="6925" max="6925" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6926" max="6926" width="40.109375" style="7" customWidth="1"/>
-    <col min="6927" max="6927" width="10.77734375" style="7" customWidth="1"/>
-    <col min="6928" max="6928" width="20.109375" style="7" customWidth="1"/>
-    <col min="6929" max="6929" width="3.77734375" style="7" customWidth="1"/>
-    <col min="6930" max="6931" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6932" max="6932" width="8.109375" style="7" customWidth="1"/>
-    <col min="6933" max="6936" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6937" max="6937" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="6938" max="6939" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6940" max="6940" width="8.77734375" style="7" customWidth="1"/>
-    <col min="6941" max="6941" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6942" max="6942" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6943" max="6943" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6944" max="6944" width="12.77734375" style="7" customWidth="1"/>
-    <col min="6945" max="6945" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6946" max="6946" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6947" max="7179" width="9.109375" style="7"/>
-    <col min="7180" max="7180" width="9" style="7" customWidth="1"/>
-    <col min="7181" max="7181" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7182" max="7182" width="40.109375" style="7" customWidth="1"/>
-    <col min="7183" max="7183" width="10.77734375" style="7" customWidth="1"/>
-    <col min="7184" max="7184" width="20.109375" style="7" customWidth="1"/>
-    <col min="7185" max="7185" width="3.77734375" style="7" customWidth="1"/>
-    <col min="7186" max="7187" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7188" max="7188" width="8.109375" style="7" customWidth="1"/>
-    <col min="7189" max="7192" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7193" max="7193" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7194" max="7195" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7196" max="7196" width="8.77734375" style="7" customWidth="1"/>
-    <col min="7197" max="7197" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7198" max="7198" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7199" max="7199" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7200" max="7200" width="12.77734375" style="7" customWidth="1"/>
-    <col min="7201" max="7201" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7202" max="7202" width="9.6640625" style="7" customWidth="1"/>
-    <col min="7203" max="7435" width="9.109375" style="7"/>
-    <col min="7436" max="7436" width="9" style="7" customWidth="1"/>
-    <col min="7437" max="7437" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7438" max="7438" width="40.109375" style="7" customWidth="1"/>
-    <col min="7439" max="7439" width="10.77734375" style="7" customWidth="1"/>
-    <col min="7440" max="7440" width="20.109375" style="7" customWidth="1"/>
-    <col min="7441" max="7441" width="3.77734375" style="7" customWidth="1"/>
-    <col min="7442" max="7443" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7444" max="7444" width="8.109375" style="7" customWidth="1"/>
-    <col min="7445" max="7448" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7449" max="7449" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7450" max="7451" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7452" max="7452" width="8.77734375" style="7" customWidth="1"/>
-    <col min="7453" max="7453" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7454" max="7454" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7455" max="7455" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7456" max="7456" width="12.77734375" style="7" customWidth="1"/>
-    <col min="7457" max="7457" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7458" max="7458" width="9.6640625" style="7" customWidth="1"/>
-    <col min="7459" max="7691" width="9.109375" style="7"/>
-    <col min="7692" max="7692" width="9" style="7" customWidth="1"/>
-    <col min="7693" max="7693" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7694" max="7694" width="40.109375" style="7" customWidth="1"/>
-    <col min="7695" max="7695" width="10.77734375" style="7" customWidth="1"/>
-    <col min="7696" max="7696" width="20.109375" style="7" customWidth="1"/>
-    <col min="7697" max="7697" width="3.77734375" style="7" customWidth="1"/>
-    <col min="7698" max="7699" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7700" max="7700" width="8.109375" style="7" customWidth="1"/>
-    <col min="7701" max="7704" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7705" max="7705" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7706" max="7707" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7708" max="7708" width="8.77734375" style="7" customWidth="1"/>
-    <col min="7709" max="7709" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7710" max="7710" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7711" max="7711" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7712" max="7712" width="12.77734375" style="7" customWidth="1"/>
-    <col min="7713" max="7713" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7714" max="7714" width="9.6640625" style="7" customWidth="1"/>
-    <col min="7715" max="7947" width="9.109375" style="7"/>
-    <col min="7948" max="7948" width="9" style="7" customWidth="1"/>
-    <col min="7949" max="7949" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7950" max="7950" width="40.109375" style="7" customWidth="1"/>
-    <col min="7951" max="7951" width="10.77734375" style="7" customWidth="1"/>
-    <col min="7952" max="7952" width="20.109375" style="7" customWidth="1"/>
-    <col min="7953" max="7953" width="3.77734375" style="7" customWidth="1"/>
-    <col min="7954" max="7955" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7956" max="7956" width="8.109375" style="7" customWidth="1"/>
-    <col min="7957" max="7960" width="10.5546875" style="7" customWidth="1"/>
-    <col min="7961" max="7961" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="7962" max="7963" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7964" max="7964" width="8.77734375" style="7" customWidth="1"/>
-    <col min="7965" max="7965" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7966" max="7966" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7967" max="7967" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7968" max="7968" width="12.77734375" style="7" customWidth="1"/>
-    <col min="7969" max="7969" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7970" max="7970" width="9.6640625" style="7" customWidth="1"/>
-    <col min="7971" max="8203" width="9.109375" style="7"/>
-    <col min="8204" max="8204" width="9" style="7" customWidth="1"/>
-    <col min="8205" max="8205" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8206" max="8206" width="40.109375" style="7" customWidth="1"/>
-    <col min="8207" max="8207" width="10.77734375" style="7" customWidth="1"/>
-    <col min="8208" max="8208" width="20.109375" style="7" customWidth="1"/>
-    <col min="8209" max="8209" width="3.77734375" style="7" customWidth="1"/>
-    <col min="8210" max="8211" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8212" max="8212" width="8.109375" style="7" customWidth="1"/>
-    <col min="8213" max="8216" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8217" max="8217" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8218" max="8219" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8220" max="8220" width="8.77734375" style="7" customWidth="1"/>
-    <col min="8221" max="8221" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8222" max="8222" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8223" max="8223" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8224" max="8224" width="12.77734375" style="7" customWidth="1"/>
-    <col min="8225" max="8225" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8226" max="8226" width="9.6640625" style="7" customWidth="1"/>
-    <col min="8227" max="8459" width="9.109375" style="7"/>
-    <col min="8460" max="8460" width="9" style="7" customWidth="1"/>
-    <col min="8461" max="8461" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8462" max="8462" width="40.109375" style="7" customWidth="1"/>
-    <col min="8463" max="8463" width="10.77734375" style="7" customWidth="1"/>
-    <col min="8464" max="8464" width="20.109375" style="7" customWidth="1"/>
-    <col min="8465" max="8465" width="3.77734375" style="7" customWidth="1"/>
-    <col min="8466" max="8467" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8468" max="8468" width="8.109375" style="7" customWidth="1"/>
-    <col min="8469" max="8472" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8473" max="8473" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8474" max="8475" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8476" max="8476" width="8.77734375" style="7" customWidth="1"/>
-    <col min="8477" max="8477" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8478" max="8478" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8479" max="8479" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8480" max="8480" width="12.77734375" style="7" customWidth="1"/>
-    <col min="8481" max="8481" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8482" max="8482" width="9.6640625" style="7" customWidth="1"/>
-    <col min="8483" max="8715" width="9.109375" style="7"/>
-    <col min="8716" max="8716" width="9" style="7" customWidth="1"/>
-    <col min="8717" max="8717" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8718" max="8718" width="40.109375" style="7" customWidth="1"/>
-    <col min="8719" max="8719" width="10.77734375" style="7" customWidth="1"/>
-    <col min="8720" max="8720" width="20.109375" style="7" customWidth="1"/>
-    <col min="8721" max="8721" width="3.77734375" style="7" customWidth="1"/>
-    <col min="8722" max="8723" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8724" max="8724" width="8.109375" style="7" customWidth="1"/>
-    <col min="8725" max="8728" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8729" max="8729" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8730" max="8731" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8732" max="8732" width="8.77734375" style="7" customWidth="1"/>
-    <col min="8733" max="8733" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8734" max="8734" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8735" max="8735" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8736" max="8736" width="12.77734375" style="7" customWidth="1"/>
-    <col min="8737" max="8737" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8738" max="8738" width="9.6640625" style="7" customWidth="1"/>
-    <col min="8739" max="8971" width="9.109375" style="7"/>
-    <col min="8972" max="8972" width="9" style="7" customWidth="1"/>
-    <col min="8973" max="8973" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8974" max="8974" width="40.109375" style="7" customWidth="1"/>
-    <col min="8975" max="8975" width="10.77734375" style="7" customWidth="1"/>
-    <col min="8976" max="8976" width="20.109375" style="7" customWidth="1"/>
-    <col min="8977" max="8977" width="3.77734375" style="7" customWidth="1"/>
-    <col min="8978" max="8979" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8980" max="8980" width="8.109375" style="7" customWidth="1"/>
-    <col min="8981" max="8984" width="10.5546875" style="7" customWidth="1"/>
-    <col min="8985" max="8985" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8986" max="8987" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8988" max="8988" width="8.77734375" style="7" customWidth="1"/>
-    <col min="8989" max="8989" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8990" max="8990" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8991" max="8991" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8992" max="8992" width="12.77734375" style="7" customWidth="1"/>
-    <col min="8993" max="8993" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8994" max="8994" width="9.6640625" style="7" customWidth="1"/>
-    <col min="8995" max="9227" width="9.109375" style="7"/>
-    <col min="9228" max="9228" width="9" style="7" customWidth="1"/>
-    <col min="9229" max="9229" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9230" max="9230" width="40.109375" style="7" customWidth="1"/>
-    <col min="9231" max="9231" width="10.77734375" style="7" customWidth="1"/>
-    <col min="9232" max="9232" width="20.109375" style="7" customWidth="1"/>
-    <col min="9233" max="9233" width="3.77734375" style="7" customWidth="1"/>
-    <col min="9234" max="9235" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9236" max="9236" width="8.109375" style="7" customWidth="1"/>
-    <col min="9237" max="9240" width="10.5546875" style="7" customWidth="1"/>
-    <col min="9241" max="9241" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9242" max="9243" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9244" max="9244" width="8.77734375" style="7" customWidth="1"/>
-    <col min="9245" max="9245" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9246" max="9246" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9247" max="9247" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9248" max="9248" width="12.77734375" style="7" customWidth="1"/>
-    <col min="9249" max="9249" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9250" max="9250" width="9.6640625" style="7" customWidth="1"/>
-    <col min="9251" max="9483" width="9.109375" style="7"/>
-    <col min="9484" max="9484" width="9" style="7" customWidth="1"/>
-    <col min="9485" max="9485" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9486" max="9486" width="40.109375" style="7" customWidth="1"/>
-    <col min="9487" max="9487" width="10.77734375" style="7" customWidth="1"/>
-    <col min="9488" max="9488" width="20.109375" style="7" customWidth="1"/>
-    <col min="9489" max="9489" width="3.77734375" style="7" customWidth="1"/>
-    <col min="9490" max="9491" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9492" max="9492" width="8.109375" style="7" customWidth="1"/>
-    <col min="9493" max="9496" width="10.5546875" style="7" customWidth="1"/>
-    <col min="9497" max="9497" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9498" max="9499" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9500" max="9500" width="8.77734375" style="7" customWidth="1"/>
-    <col min="9501" max="9501" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9502" max="9502" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9503" max="9503" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9504" max="9504" width="12.77734375" style="7" customWidth="1"/>
-    <col min="9505" max="9505" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9506" max="9506" width="9.6640625" style="7" customWidth="1"/>
-    <col min="9507" max="9739" width="9.109375" style="7"/>
-    <col min="9740" max="9740" width="9" style="7" customWidth="1"/>
-    <col min="9741" max="9741" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9742" max="9742" width="40.109375" style="7" customWidth="1"/>
-    <col min="9743" max="9743" width="10.77734375" style="7" customWidth="1"/>
-    <col min="9744" max="9744" width="20.109375" style="7" customWidth="1"/>
-    <col min="9745" max="9745" width="3.77734375" style="7" customWidth="1"/>
-    <col min="9746" max="9747" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9748" max="9748" width="8.109375" style="7" customWidth="1"/>
-    <col min="9749" max="9752" width="10.5546875" style="7" customWidth="1"/>
-    <col min="9753" max="9753" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9754" max="9755" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9756" max="9756" width="8.77734375" style="7" customWidth="1"/>
-    <col min="9757" max="9757" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9758" max="9758" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9759" max="9759" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9760" max="9760" width="12.77734375" style="7" customWidth="1"/>
-    <col min="9761" max="9761" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9762" max="9762" width="9.6640625" style="7" customWidth="1"/>
-    <col min="9763" max="9995" width="9.109375" style="7"/>
-    <col min="9996" max="9996" width="9" style="7" customWidth="1"/>
-    <col min="9997" max="9997" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="9998" max="9998" width="40.109375" style="7" customWidth="1"/>
-    <col min="9999" max="9999" width="10.77734375" style="7" customWidth="1"/>
-    <col min="10000" max="10000" width="20.109375" style="7" customWidth="1"/>
-    <col min="10001" max="10001" width="3.77734375" style="7" customWidth="1"/>
-    <col min="10002" max="10003" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10004" max="10004" width="8.109375" style="7" customWidth="1"/>
-    <col min="10005" max="10008" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10009" max="10009" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10010" max="10011" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10012" max="10012" width="8.77734375" style="7" customWidth="1"/>
-    <col min="10013" max="10013" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10014" max="10014" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10015" max="10015" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10016" max="10016" width="12.77734375" style="7" customWidth="1"/>
-    <col min="10017" max="10017" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10018" max="10018" width="9.6640625" style="7" customWidth="1"/>
-    <col min="10019" max="10251" width="9.109375" style="7"/>
-    <col min="10252" max="10252" width="9" style="7" customWidth="1"/>
-    <col min="10253" max="10253" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10254" max="10254" width="40.109375" style="7" customWidth="1"/>
-    <col min="10255" max="10255" width="10.77734375" style="7" customWidth="1"/>
-    <col min="10256" max="10256" width="20.109375" style="7" customWidth="1"/>
-    <col min="10257" max="10257" width="3.77734375" style="7" customWidth="1"/>
-    <col min="10258" max="10259" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10260" max="10260" width="8.109375" style="7" customWidth="1"/>
-    <col min="10261" max="10264" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10265" max="10265" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10266" max="10267" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10268" max="10268" width="8.77734375" style="7" customWidth="1"/>
-    <col min="10269" max="10269" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10270" max="10270" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10271" max="10271" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10272" max="10272" width="12.77734375" style="7" customWidth="1"/>
-    <col min="10273" max="10273" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10274" max="10274" width="9.6640625" style="7" customWidth="1"/>
-    <col min="10275" max="10507" width="9.109375" style="7"/>
-    <col min="10508" max="10508" width="9" style="7" customWidth="1"/>
-    <col min="10509" max="10509" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10510" max="10510" width="40.109375" style="7" customWidth="1"/>
-    <col min="10511" max="10511" width="10.77734375" style="7" customWidth="1"/>
-    <col min="10512" max="10512" width="20.109375" style="7" customWidth="1"/>
-    <col min="10513" max="10513" width="3.77734375" style="7" customWidth="1"/>
-    <col min="10514" max="10515" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10516" max="10516" width="8.109375" style="7" customWidth="1"/>
-    <col min="10517" max="10520" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10521" max="10521" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10522" max="10523" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10524" max="10524" width="8.77734375" style="7" customWidth="1"/>
-    <col min="10525" max="10525" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10526" max="10526" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10527" max="10527" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10528" max="10528" width="12.77734375" style="7" customWidth="1"/>
-    <col min="10529" max="10529" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10530" max="10530" width="9.6640625" style="7" customWidth="1"/>
-    <col min="10531" max="10763" width="9.109375" style="7"/>
-    <col min="10764" max="10764" width="9" style="7" customWidth="1"/>
-    <col min="10765" max="10765" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10766" max="10766" width="40.109375" style="7" customWidth="1"/>
-    <col min="10767" max="10767" width="10.77734375" style="7" customWidth="1"/>
-    <col min="10768" max="10768" width="20.109375" style="7" customWidth="1"/>
-    <col min="10769" max="10769" width="3.77734375" style="7" customWidth="1"/>
-    <col min="10770" max="10771" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10772" max="10772" width="8.109375" style="7" customWidth="1"/>
-    <col min="10773" max="10776" width="10.5546875" style="7" customWidth="1"/>
-    <col min="10777" max="10777" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="10778" max="10779" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10780" max="10780" width="8.77734375" style="7" customWidth="1"/>
-    <col min="10781" max="10781" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10782" max="10782" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10783" max="10783" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10784" max="10784" width="12.77734375" style="7" customWidth="1"/>
-    <col min="10785" max="10785" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10786" max="10786" width="9.6640625" style="7" customWidth="1"/>
-    <col min="10787" max="11019" width="9.109375" style="7"/>
-    <col min="11020" max="11020" width="9" style="7" customWidth="1"/>
-    <col min="11021" max="11021" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11022" max="11022" width="40.109375" style="7" customWidth="1"/>
-    <col min="11023" max="11023" width="10.77734375" style="7" customWidth="1"/>
-    <col min="11024" max="11024" width="20.109375" style="7" customWidth="1"/>
-    <col min="11025" max="11025" width="3.77734375" style="7" customWidth="1"/>
-    <col min="11026" max="11027" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11028" max="11028" width="8.109375" style="7" customWidth="1"/>
-    <col min="11029" max="11032" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11033" max="11033" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11034" max="11035" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11036" max="11036" width="8.77734375" style="7" customWidth="1"/>
-    <col min="11037" max="11037" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11038" max="11038" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11039" max="11039" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11040" max="11040" width="12.77734375" style="7" customWidth="1"/>
-    <col min="11041" max="11041" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11042" max="11042" width="9.6640625" style="7" customWidth="1"/>
-    <col min="11043" max="11275" width="9.109375" style="7"/>
-    <col min="11276" max="11276" width="9" style="7" customWidth="1"/>
-    <col min="11277" max="11277" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11278" max="11278" width="40.109375" style="7" customWidth="1"/>
-    <col min="11279" max="11279" width="10.77734375" style="7" customWidth="1"/>
-    <col min="11280" max="11280" width="20.109375" style="7" customWidth="1"/>
-    <col min="11281" max="11281" width="3.77734375" style="7" customWidth="1"/>
-    <col min="11282" max="11283" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11284" max="11284" width="8.109375" style="7" customWidth="1"/>
-    <col min="11285" max="11288" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11289" max="11289" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11290" max="11291" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11292" max="11292" width="8.77734375" style="7" customWidth="1"/>
-    <col min="11293" max="11293" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11294" max="11294" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11295" max="11295" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11296" max="11296" width="12.77734375" style="7" customWidth="1"/>
-    <col min="11297" max="11297" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11298" max="11298" width="9.6640625" style="7" customWidth="1"/>
-    <col min="11299" max="11531" width="9.109375" style="7"/>
-    <col min="11532" max="11532" width="9" style="7" customWidth="1"/>
-    <col min="11533" max="11533" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11534" max="11534" width="40.109375" style="7" customWidth="1"/>
-    <col min="11535" max="11535" width="10.77734375" style="7" customWidth="1"/>
-    <col min="11536" max="11536" width="20.109375" style="7" customWidth="1"/>
-    <col min="11537" max="11537" width="3.77734375" style="7" customWidth="1"/>
-    <col min="11538" max="11539" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11540" max="11540" width="8.109375" style="7" customWidth="1"/>
-    <col min="11541" max="11544" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11545" max="11545" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11546" max="11547" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11548" max="11548" width="8.77734375" style="7" customWidth="1"/>
-    <col min="11549" max="11549" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11550" max="11550" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11551" max="11551" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11552" max="11552" width="12.77734375" style="7" customWidth="1"/>
-    <col min="11553" max="11553" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11554" max="11554" width="9.6640625" style="7" customWidth="1"/>
-    <col min="11555" max="11787" width="9.109375" style="7"/>
-    <col min="11788" max="11788" width="9" style="7" customWidth="1"/>
-    <col min="11789" max="11789" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11790" max="11790" width="40.109375" style="7" customWidth="1"/>
-    <col min="11791" max="11791" width="10.77734375" style="7" customWidth="1"/>
-    <col min="11792" max="11792" width="20.109375" style="7" customWidth="1"/>
-    <col min="11793" max="11793" width="3.77734375" style="7" customWidth="1"/>
-    <col min="11794" max="11795" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11796" max="11796" width="8.109375" style="7" customWidth="1"/>
-    <col min="11797" max="11800" width="10.5546875" style="7" customWidth="1"/>
-    <col min="11801" max="11801" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="11802" max="11803" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11804" max="11804" width="8.77734375" style="7" customWidth="1"/>
-    <col min="11805" max="11805" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11806" max="11806" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11807" max="11807" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11808" max="11808" width="12.77734375" style="7" customWidth="1"/>
-    <col min="11809" max="11809" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11810" max="11810" width="9.6640625" style="7" customWidth="1"/>
-    <col min="11811" max="12043" width="9.109375" style="7"/>
-    <col min="12044" max="12044" width="9" style="7" customWidth="1"/>
-    <col min="12045" max="12045" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12046" max="12046" width="40.109375" style="7" customWidth="1"/>
-    <col min="12047" max="12047" width="10.77734375" style="7" customWidth="1"/>
-    <col min="12048" max="12048" width="20.109375" style="7" customWidth="1"/>
-    <col min="12049" max="12049" width="3.77734375" style="7" customWidth="1"/>
-    <col min="12050" max="12051" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12052" max="12052" width="8.109375" style="7" customWidth="1"/>
-    <col min="12053" max="12056" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12057" max="12057" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12058" max="12059" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12060" max="12060" width="8.77734375" style="7" customWidth="1"/>
-    <col min="12061" max="12061" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12062" max="12062" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12063" max="12063" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12064" max="12064" width="12.77734375" style="7" customWidth="1"/>
-    <col min="12065" max="12065" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12066" max="12066" width="9.6640625" style="7" customWidth="1"/>
-    <col min="12067" max="12299" width="9.109375" style="7"/>
-    <col min="12300" max="12300" width="9" style="7" customWidth="1"/>
-    <col min="12301" max="12301" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12302" max="12302" width="40.109375" style="7" customWidth="1"/>
-    <col min="12303" max="12303" width="10.77734375" style="7" customWidth="1"/>
-    <col min="12304" max="12304" width="20.109375" style="7" customWidth="1"/>
-    <col min="12305" max="12305" width="3.77734375" style="7" customWidth="1"/>
-    <col min="12306" max="12307" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12308" max="12308" width="8.109375" style="7" customWidth="1"/>
-    <col min="12309" max="12312" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12313" max="12313" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12314" max="12315" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12316" max="12316" width="8.77734375" style="7" customWidth="1"/>
-    <col min="12317" max="12317" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12318" max="12318" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12319" max="12319" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12320" max="12320" width="12.77734375" style="7" customWidth="1"/>
-    <col min="12321" max="12321" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12322" max="12322" width="9.6640625" style="7" customWidth="1"/>
-    <col min="12323" max="12555" width="9.109375" style="7"/>
-    <col min="12556" max="12556" width="9" style="7" customWidth="1"/>
-    <col min="12557" max="12557" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12558" max="12558" width="40.109375" style="7" customWidth="1"/>
-    <col min="12559" max="12559" width="10.77734375" style="7" customWidth="1"/>
-    <col min="12560" max="12560" width="20.109375" style="7" customWidth="1"/>
-    <col min="12561" max="12561" width="3.77734375" style="7" customWidth="1"/>
-    <col min="12562" max="12563" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12564" max="12564" width="8.109375" style="7" customWidth="1"/>
-    <col min="12565" max="12568" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12569" max="12569" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12570" max="12571" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12572" max="12572" width="8.77734375" style="7" customWidth="1"/>
-    <col min="12573" max="12573" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12574" max="12574" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12575" max="12575" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12576" max="12576" width="12.77734375" style="7" customWidth="1"/>
-    <col min="12577" max="12577" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12578" max="12578" width="9.6640625" style="7" customWidth="1"/>
-    <col min="12579" max="12811" width="9.109375" style="7"/>
-    <col min="12812" max="12812" width="9" style="7" customWidth="1"/>
-    <col min="12813" max="12813" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12814" max="12814" width="40.109375" style="7" customWidth="1"/>
-    <col min="12815" max="12815" width="10.77734375" style="7" customWidth="1"/>
-    <col min="12816" max="12816" width="20.109375" style="7" customWidth="1"/>
-    <col min="12817" max="12817" width="3.77734375" style="7" customWidth="1"/>
-    <col min="12818" max="12819" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12820" max="12820" width="8.109375" style="7" customWidth="1"/>
-    <col min="12821" max="12824" width="10.5546875" style="7" customWidth="1"/>
-    <col min="12825" max="12825" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="12826" max="12827" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12828" max="12828" width="8.77734375" style="7" customWidth="1"/>
-    <col min="12829" max="12829" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12830" max="12830" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12831" max="12831" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12832" max="12832" width="12.77734375" style="7" customWidth="1"/>
-    <col min="12833" max="12833" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12834" max="12834" width="9.6640625" style="7" customWidth="1"/>
-    <col min="12835" max="13067" width="9.109375" style="7"/>
-    <col min="13068" max="13068" width="9" style="7" customWidth="1"/>
-    <col min="13069" max="13069" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13070" max="13070" width="40.109375" style="7" customWidth="1"/>
-    <col min="13071" max="13071" width="10.77734375" style="7" customWidth="1"/>
-    <col min="13072" max="13072" width="20.109375" style="7" customWidth="1"/>
-    <col min="13073" max="13073" width="3.77734375" style="7" customWidth="1"/>
-    <col min="13074" max="13075" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13076" max="13076" width="8.109375" style="7" customWidth="1"/>
-    <col min="13077" max="13080" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13081" max="13081" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13082" max="13083" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13084" max="13084" width="8.77734375" style="7" customWidth="1"/>
-    <col min="13085" max="13085" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13086" max="13086" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13087" max="13087" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13088" max="13088" width="12.77734375" style="7" customWidth="1"/>
-    <col min="13089" max="13089" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13090" max="13090" width="9.6640625" style="7" customWidth="1"/>
-    <col min="13091" max="13323" width="9.109375" style="7"/>
-    <col min="13324" max="13324" width="9" style="7" customWidth="1"/>
-    <col min="13325" max="13325" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13326" max="13326" width="40.109375" style="7" customWidth="1"/>
-    <col min="13327" max="13327" width="10.77734375" style="7" customWidth="1"/>
-    <col min="13328" max="13328" width="20.109375" style="7" customWidth="1"/>
-    <col min="13329" max="13329" width="3.77734375" style="7" customWidth="1"/>
-    <col min="13330" max="13331" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13332" max="13332" width="8.109375" style="7" customWidth="1"/>
-    <col min="13333" max="13336" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13337" max="13337" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13338" max="13339" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13340" max="13340" width="8.77734375" style="7" customWidth="1"/>
-    <col min="13341" max="13341" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13342" max="13342" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13343" max="13343" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13344" max="13344" width="12.77734375" style="7" customWidth="1"/>
-    <col min="13345" max="13345" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13346" max="13346" width="9.6640625" style="7" customWidth="1"/>
-    <col min="13347" max="13579" width="9.109375" style="7"/>
-    <col min="13580" max="13580" width="9" style="7" customWidth="1"/>
-    <col min="13581" max="13581" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13582" max="13582" width="40.109375" style="7" customWidth="1"/>
-    <col min="13583" max="13583" width="10.77734375" style="7" customWidth="1"/>
-    <col min="13584" max="13584" width="20.109375" style="7" customWidth="1"/>
-    <col min="13585" max="13585" width="3.77734375" style="7" customWidth="1"/>
-    <col min="13586" max="13587" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13588" max="13588" width="8.109375" style="7" customWidth="1"/>
-    <col min="13589" max="13592" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13593" max="13593" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13594" max="13595" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13596" max="13596" width="8.77734375" style="7" customWidth="1"/>
-    <col min="13597" max="13597" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13598" max="13598" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13599" max="13599" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13600" max="13600" width="12.77734375" style="7" customWidth="1"/>
-    <col min="13601" max="13601" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13602" max="13602" width="9.6640625" style="7" customWidth="1"/>
-    <col min="13603" max="13835" width="9.109375" style="7"/>
-    <col min="13836" max="13836" width="9" style="7" customWidth="1"/>
-    <col min="13837" max="13837" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13838" max="13838" width="40.109375" style="7" customWidth="1"/>
-    <col min="13839" max="13839" width="10.77734375" style="7" customWidth="1"/>
-    <col min="13840" max="13840" width="20.109375" style="7" customWidth="1"/>
-    <col min="13841" max="13841" width="3.77734375" style="7" customWidth="1"/>
-    <col min="13842" max="13843" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13844" max="13844" width="8.109375" style="7" customWidth="1"/>
-    <col min="13845" max="13848" width="10.5546875" style="7" customWidth="1"/>
-    <col min="13849" max="13849" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="13850" max="13851" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13852" max="13852" width="8.77734375" style="7" customWidth="1"/>
-    <col min="13853" max="13853" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13854" max="13854" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13855" max="13855" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13856" max="13856" width="12.77734375" style="7" customWidth="1"/>
-    <col min="13857" max="13857" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13858" max="13858" width="9.6640625" style="7" customWidth="1"/>
-    <col min="13859" max="14091" width="9.109375" style="7"/>
-    <col min="14092" max="14092" width="9" style="7" customWidth="1"/>
-    <col min="14093" max="14093" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14094" max="14094" width="40.109375" style="7" customWidth="1"/>
-    <col min="14095" max="14095" width="10.77734375" style="7" customWidth="1"/>
-    <col min="14096" max="14096" width="20.109375" style="7" customWidth="1"/>
-    <col min="14097" max="14097" width="3.77734375" style="7" customWidth="1"/>
-    <col min="14098" max="14099" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14100" max="14100" width="8.109375" style="7" customWidth="1"/>
-    <col min="14101" max="14104" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14105" max="14105" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14106" max="14107" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14108" max="14108" width="8.77734375" style="7" customWidth="1"/>
-    <col min="14109" max="14109" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14110" max="14110" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14111" max="14111" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14112" max="14112" width="12.77734375" style="7" customWidth="1"/>
-    <col min="14113" max="14113" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14114" max="14114" width="9.6640625" style="7" customWidth="1"/>
-    <col min="14115" max="14347" width="9.109375" style="7"/>
-    <col min="14348" max="14348" width="9" style="7" customWidth="1"/>
-    <col min="14349" max="14349" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14350" max="14350" width="40.109375" style="7" customWidth="1"/>
-    <col min="14351" max="14351" width="10.77734375" style="7" customWidth="1"/>
-    <col min="14352" max="14352" width="20.109375" style="7" customWidth="1"/>
-    <col min="14353" max="14353" width="3.77734375" style="7" customWidth="1"/>
-    <col min="14354" max="14355" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14356" max="14356" width="8.109375" style="7" customWidth="1"/>
-    <col min="14357" max="14360" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14361" max="14361" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14362" max="14363" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14364" max="14364" width="8.77734375" style="7" customWidth="1"/>
-    <col min="14365" max="14365" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14366" max="14366" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14367" max="14367" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14368" max="14368" width="12.77734375" style="7" customWidth="1"/>
-    <col min="14369" max="14369" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14370" max="14370" width="9.6640625" style="7" customWidth="1"/>
-    <col min="14371" max="14603" width="9.109375" style="7"/>
-    <col min="14604" max="14604" width="9" style="7" customWidth="1"/>
-    <col min="14605" max="14605" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14606" max="14606" width="40.109375" style="7" customWidth="1"/>
-    <col min="14607" max="14607" width="10.77734375" style="7" customWidth="1"/>
-    <col min="14608" max="14608" width="20.109375" style="7" customWidth="1"/>
-    <col min="14609" max="14609" width="3.77734375" style="7" customWidth="1"/>
-    <col min="14610" max="14611" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14612" max="14612" width="8.109375" style="7" customWidth="1"/>
-    <col min="14613" max="14616" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14617" max="14617" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14618" max="14619" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14620" max="14620" width="8.77734375" style="7" customWidth="1"/>
-    <col min="14621" max="14621" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14622" max="14622" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14623" max="14623" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14624" max="14624" width="12.77734375" style="7" customWidth="1"/>
-    <col min="14625" max="14625" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14626" max="14626" width="9.6640625" style="7" customWidth="1"/>
-    <col min="14627" max="14859" width="9.109375" style="7"/>
-    <col min="14860" max="14860" width="9" style="7" customWidth="1"/>
-    <col min="14861" max="14861" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14862" max="14862" width="40.109375" style="7" customWidth="1"/>
-    <col min="14863" max="14863" width="10.77734375" style="7" customWidth="1"/>
-    <col min="14864" max="14864" width="20.109375" style="7" customWidth="1"/>
-    <col min="14865" max="14865" width="3.77734375" style="7" customWidth="1"/>
-    <col min="14866" max="14867" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14868" max="14868" width="8.109375" style="7" customWidth="1"/>
-    <col min="14869" max="14872" width="10.5546875" style="7" customWidth="1"/>
-    <col min="14873" max="14873" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="14874" max="14875" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14876" max="14876" width="8.77734375" style="7" customWidth="1"/>
-    <col min="14877" max="14877" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14878" max="14878" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14879" max="14879" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14880" max="14880" width="12.77734375" style="7" customWidth="1"/>
-    <col min="14881" max="14881" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14882" max="14882" width="9.6640625" style="7" customWidth="1"/>
-    <col min="14883" max="15115" width="9.109375" style="7"/>
-    <col min="15116" max="15116" width="9" style="7" customWidth="1"/>
-    <col min="15117" max="15117" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15118" max="15118" width="40.109375" style="7" customWidth="1"/>
-    <col min="15119" max="15119" width="10.77734375" style="7" customWidth="1"/>
-    <col min="15120" max="15120" width="20.109375" style="7" customWidth="1"/>
-    <col min="15121" max="15121" width="3.77734375" style="7" customWidth="1"/>
-    <col min="15122" max="15123" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15124" max="15124" width="8.109375" style="7" customWidth="1"/>
-    <col min="15125" max="15128" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15129" max="15129" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15130" max="15131" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15132" max="15132" width="8.77734375" style="7" customWidth="1"/>
-    <col min="15133" max="15133" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15134" max="15134" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15135" max="15135" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15136" max="15136" width="12.77734375" style="7" customWidth="1"/>
-    <col min="15137" max="15137" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15138" max="15138" width="9.6640625" style="7" customWidth="1"/>
-    <col min="15139" max="15371" width="9.109375" style="7"/>
-    <col min="15372" max="15372" width="9" style="7" customWidth="1"/>
-    <col min="15373" max="15373" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15374" max="15374" width="40.109375" style="7" customWidth="1"/>
-    <col min="15375" max="15375" width="10.77734375" style="7" customWidth="1"/>
-    <col min="15376" max="15376" width="20.109375" style="7" customWidth="1"/>
-    <col min="15377" max="15377" width="3.77734375" style="7" customWidth="1"/>
-    <col min="15378" max="15379" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15380" max="15380" width="8.109375" style="7" customWidth="1"/>
-    <col min="15381" max="15384" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15385" max="15385" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15386" max="15387" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15388" max="15388" width="8.77734375" style="7" customWidth="1"/>
-    <col min="15389" max="15389" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15390" max="15390" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15391" max="15391" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15392" max="15392" width="12.77734375" style="7" customWidth="1"/>
-    <col min="15393" max="15393" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15394" max="15394" width="9.6640625" style="7" customWidth="1"/>
-    <col min="15395" max="15627" width="9.109375" style="7"/>
-    <col min="15628" max="15628" width="9" style="7" customWidth="1"/>
-    <col min="15629" max="15629" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15630" max="15630" width="40.109375" style="7" customWidth="1"/>
-    <col min="15631" max="15631" width="10.77734375" style="7" customWidth="1"/>
-    <col min="15632" max="15632" width="20.109375" style="7" customWidth="1"/>
-    <col min="15633" max="15633" width="3.77734375" style="7" customWidth="1"/>
-    <col min="15634" max="15635" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15636" max="15636" width="8.109375" style="7" customWidth="1"/>
-    <col min="15637" max="15640" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15641" max="15641" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15642" max="15643" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15644" max="15644" width="8.77734375" style="7" customWidth="1"/>
-    <col min="15645" max="15645" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15646" max="15646" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15647" max="15647" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15648" max="15648" width="12.77734375" style="7" customWidth="1"/>
-    <col min="15649" max="15649" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15650" max="15650" width="9.6640625" style="7" customWidth="1"/>
-    <col min="15651" max="15883" width="9.109375" style="7"/>
-    <col min="15884" max="15884" width="9" style="7" customWidth="1"/>
-    <col min="15885" max="15885" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15886" max="15886" width="40.109375" style="7" customWidth="1"/>
-    <col min="15887" max="15887" width="10.77734375" style="7" customWidth="1"/>
-    <col min="15888" max="15888" width="20.109375" style="7" customWidth="1"/>
-    <col min="15889" max="15889" width="3.77734375" style="7" customWidth="1"/>
-    <col min="15890" max="15891" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15892" max="15892" width="8.109375" style="7" customWidth="1"/>
-    <col min="15893" max="15896" width="10.5546875" style="7" customWidth="1"/>
-    <col min="15897" max="15897" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="15898" max="15899" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15900" max="15900" width="8.77734375" style="7" customWidth="1"/>
-    <col min="15901" max="15901" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15902" max="15902" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15903" max="15903" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15904" max="15904" width="12.77734375" style="7" customWidth="1"/>
-    <col min="15905" max="15905" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15906" max="15906" width="9.6640625" style="7" customWidth="1"/>
-    <col min="15907" max="16139" width="9.109375" style="7"/>
-    <col min="16140" max="16140" width="9" style="7" customWidth="1"/>
-    <col min="16141" max="16141" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="16142" max="16142" width="40.109375" style="7" customWidth="1"/>
-    <col min="16143" max="16143" width="10.77734375" style="7" customWidth="1"/>
-    <col min="16144" max="16144" width="20.109375" style="7" customWidth="1"/>
-    <col min="16145" max="16145" width="3.77734375" style="7" customWidth="1"/>
-    <col min="16146" max="16147" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16148" max="16148" width="8.109375" style="7" customWidth="1"/>
-    <col min="16149" max="16152" width="10.5546875" style="7" customWidth="1"/>
-    <col min="16153" max="16153" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="16154" max="16155" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16156" max="16156" width="8.77734375" style="7" customWidth="1"/>
-    <col min="16157" max="16157" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16158" max="16158" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16159" max="16159" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16160" max="16160" width="12.77734375" style="7" customWidth="1"/>
-    <col min="16161" max="16161" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16162" max="16162" width="9.6640625" style="7" customWidth="1"/>
-    <col min="16163" max="16384" width="9.109375" style="7"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="15.77734375" style="8" customWidth="1"/>
+    <col min="3" max="7" width="15.77734375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="60.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="18.77734375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="65" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="10.5546875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.77734375" style="7" customWidth="1"/>
+    <col min="30" max="30" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.77734375" style="7" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" style="7" customWidth="1"/>
+    <col min="36" max="268" width="9.109375" style="7"/>
+    <col min="269" max="269" width="9" style="7" customWidth="1"/>
+    <col min="270" max="270" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="40.109375" style="7" customWidth="1"/>
+    <col min="272" max="272" width="10.77734375" style="7" customWidth="1"/>
+    <col min="273" max="273" width="20.109375" style="7" customWidth="1"/>
+    <col min="274" max="274" width="3.77734375" style="7" customWidth="1"/>
+    <col min="275" max="276" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="8.109375" style="7" customWidth="1"/>
+    <col min="278" max="281" width="10.5546875" style="7" customWidth="1"/>
+    <col min="282" max="282" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="283" max="284" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="8.77734375" style="7" customWidth="1"/>
+    <col min="286" max="286" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="12.77734375" style="7" customWidth="1"/>
+    <col min="290" max="290" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="9.6640625" style="7" customWidth="1"/>
+    <col min="292" max="524" width="9.109375" style="7"/>
+    <col min="525" max="525" width="9" style="7" customWidth="1"/>
+    <col min="526" max="526" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="40.109375" style="7" customWidth="1"/>
+    <col min="528" max="528" width="10.77734375" style="7" customWidth="1"/>
+    <col min="529" max="529" width="20.109375" style="7" customWidth="1"/>
+    <col min="530" max="530" width="3.77734375" style="7" customWidth="1"/>
+    <col min="531" max="532" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="8.109375" style="7" customWidth="1"/>
+    <col min="534" max="537" width="10.5546875" style="7" customWidth="1"/>
+    <col min="538" max="538" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="539" max="540" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="8.77734375" style="7" customWidth="1"/>
+    <col min="542" max="542" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="12.77734375" style="7" customWidth="1"/>
+    <col min="546" max="546" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="9.6640625" style="7" customWidth="1"/>
+    <col min="548" max="780" width="9.109375" style="7"/>
+    <col min="781" max="781" width="9" style="7" customWidth="1"/>
+    <col min="782" max="782" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="40.109375" style="7" customWidth="1"/>
+    <col min="784" max="784" width="10.77734375" style="7" customWidth="1"/>
+    <col min="785" max="785" width="20.109375" style="7" customWidth="1"/>
+    <col min="786" max="786" width="3.77734375" style="7" customWidth="1"/>
+    <col min="787" max="788" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="789" max="789" width="8.109375" style="7" customWidth="1"/>
+    <col min="790" max="793" width="10.5546875" style="7" customWidth="1"/>
+    <col min="794" max="794" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="795" max="796" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="797" max="797" width="8.77734375" style="7" customWidth="1"/>
+    <col min="798" max="798" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="799" max="799" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="800" max="800" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="801" max="801" width="12.77734375" style="7" customWidth="1"/>
+    <col min="802" max="802" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="803" max="803" width="9.6640625" style="7" customWidth="1"/>
+    <col min="804" max="1036" width="9.109375" style="7"/>
+    <col min="1037" max="1037" width="9" style="7" customWidth="1"/>
+    <col min="1038" max="1038" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="40.109375" style="7" customWidth="1"/>
+    <col min="1040" max="1040" width="10.77734375" style="7" customWidth="1"/>
+    <col min="1041" max="1041" width="20.109375" style="7" customWidth="1"/>
+    <col min="1042" max="1042" width="3.77734375" style="7" customWidth="1"/>
+    <col min="1043" max="1044" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1045" max="1045" width="8.109375" style="7" customWidth="1"/>
+    <col min="1046" max="1049" width="10.5546875" style="7" customWidth="1"/>
+    <col min="1050" max="1050" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1051" max="1052" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1053" max="1053" width="8.77734375" style="7" customWidth="1"/>
+    <col min="1054" max="1054" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1055" max="1055" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1056" max="1056" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1057" max="1057" width="12.77734375" style="7" customWidth="1"/>
+    <col min="1058" max="1058" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1059" max="1059" width="9.6640625" style="7" customWidth="1"/>
+    <col min="1060" max="1292" width="9.109375" style="7"/>
+    <col min="1293" max="1293" width="9" style="7" customWidth="1"/>
+    <col min="1294" max="1294" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="40.109375" style="7" customWidth="1"/>
+    <col min="1296" max="1296" width="10.77734375" style="7" customWidth="1"/>
+    <col min="1297" max="1297" width="20.109375" style="7" customWidth="1"/>
+    <col min="1298" max="1298" width="3.77734375" style="7" customWidth="1"/>
+    <col min="1299" max="1300" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1301" max="1301" width="8.109375" style="7" customWidth="1"/>
+    <col min="1302" max="1305" width="10.5546875" style="7" customWidth="1"/>
+    <col min="1306" max="1306" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1307" max="1308" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1309" max="1309" width="8.77734375" style="7" customWidth="1"/>
+    <col min="1310" max="1310" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1311" max="1311" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1312" max="1312" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1313" max="1313" width="12.77734375" style="7" customWidth="1"/>
+    <col min="1314" max="1314" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1315" max="1315" width="9.6640625" style="7" customWidth="1"/>
+    <col min="1316" max="1548" width="9.109375" style="7"/>
+    <col min="1549" max="1549" width="9" style="7" customWidth="1"/>
+    <col min="1550" max="1550" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="40.109375" style="7" customWidth="1"/>
+    <col min="1552" max="1552" width="10.77734375" style="7" customWidth="1"/>
+    <col min="1553" max="1553" width="20.109375" style="7" customWidth="1"/>
+    <col min="1554" max="1554" width="3.77734375" style="7" customWidth="1"/>
+    <col min="1555" max="1556" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1557" max="1557" width="8.109375" style="7" customWidth="1"/>
+    <col min="1558" max="1561" width="10.5546875" style="7" customWidth="1"/>
+    <col min="1562" max="1562" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1563" max="1564" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1565" max="1565" width="8.77734375" style="7" customWidth="1"/>
+    <col min="1566" max="1566" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1567" max="1567" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1568" max="1568" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1569" max="1569" width="12.77734375" style="7" customWidth="1"/>
+    <col min="1570" max="1570" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1571" max="1571" width="9.6640625" style="7" customWidth="1"/>
+    <col min="1572" max="1804" width="9.109375" style="7"/>
+    <col min="1805" max="1805" width="9" style="7" customWidth="1"/>
+    <col min="1806" max="1806" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="40.109375" style="7" customWidth="1"/>
+    <col min="1808" max="1808" width="10.77734375" style="7" customWidth="1"/>
+    <col min="1809" max="1809" width="20.109375" style="7" customWidth="1"/>
+    <col min="1810" max="1810" width="3.77734375" style="7" customWidth="1"/>
+    <col min="1811" max="1812" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1813" max="1813" width="8.109375" style="7" customWidth="1"/>
+    <col min="1814" max="1817" width="10.5546875" style="7" customWidth="1"/>
+    <col min="1818" max="1818" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="1819" max="1820" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1821" max="1821" width="8.77734375" style="7" customWidth="1"/>
+    <col min="1822" max="1822" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1823" max="1823" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1824" max="1824" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1825" max="1825" width="12.77734375" style="7" customWidth="1"/>
+    <col min="1826" max="1826" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1827" max="1827" width="9.6640625" style="7" customWidth="1"/>
+    <col min="1828" max="2060" width="9.109375" style="7"/>
+    <col min="2061" max="2061" width="9" style="7" customWidth="1"/>
+    <col min="2062" max="2062" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="40.109375" style="7" customWidth="1"/>
+    <col min="2064" max="2064" width="10.77734375" style="7" customWidth="1"/>
+    <col min="2065" max="2065" width="20.109375" style="7" customWidth="1"/>
+    <col min="2066" max="2066" width="3.77734375" style="7" customWidth="1"/>
+    <col min="2067" max="2068" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2069" max="2069" width="8.109375" style="7" customWidth="1"/>
+    <col min="2070" max="2073" width="10.5546875" style="7" customWidth="1"/>
+    <col min="2074" max="2074" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2075" max="2076" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2077" max="2077" width="8.77734375" style="7" customWidth="1"/>
+    <col min="2078" max="2078" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2079" max="2079" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2080" max="2080" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2081" max="2081" width="12.77734375" style="7" customWidth="1"/>
+    <col min="2082" max="2082" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2083" max="2083" width="9.6640625" style="7" customWidth="1"/>
+    <col min="2084" max="2316" width="9.109375" style="7"/>
+    <col min="2317" max="2317" width="9" style="7" customWidth="1"/>
+    <col min="2318" max="2318" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="40.109375" style="7" customWidth="1"/>
+    <col min="2320" max="2320" width="10.77734375" style="7" customWidth="1"/>
+    <col min="2321" max="2321" width="20.109375" style="7" customWidth="1"/>
+    <col min="2322" max="2322" width="3.77734375" style="7" customWidth="1"/>
+    <col min="2323" max="2324" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2325" max="2325" width="8.109375" style="7" customWidth="1"/>
+    <col min="2326" max="2329" width="10.5546875" style="7" customWidth="1"/>
+    <col min="2330" max="2330" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2331" max="2332" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2333" max="2333" width="8.77734375" style="7" customWidth="1"/>
+    <col min="2334" max="2334" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2335" max="2335" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2336" max="2336" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2337" max="2337" width="12.77734375" style="7" customWidth="1"/>
+    <col min="2338" max="2338" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2339" max="2339" width="9.6640625" style="7" customWidth="1"/>
+    <col min="2340" max="2572" width="9.109375" style="7"/>
+    <col min="2573" max="2573" width="9" style="7" customWidth="1"/>
+    <col min="2574" max="2574" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="40.109375" style="7" customWidth="1"/>
+    <col min="2576" max="2576" width="10.77734375" style="7" customWidth="1"/>
+    <col min="2577" max="2577" width="20.109375" style="7" customWidth="1"/>
+    <col min="2578" max="2578" width="3.77734375" style="7" customWidth="1"/>
+    <col min="2579" max="2580" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2581" max="2581" width="8.109375" style="7" customWidth="1"/>
+    <col min="2582" max="2585" width="10.5546875" style="7" customWidth="1"/>
+    <col min="2586" max="2586" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2587" max="2588" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2589" max="2589" width="8.77734375" style="7" customWidth="1"/>
+    <col min="2590" max="2590" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2591" max="2591" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2592" max="2592" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2593" max="2593" width="12.77734375" style="7" customWidth="1"/>
+    <col min="2594" max="2594" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2595" max="2595" width="9.6640625" style="7" customWidth="1"/>
+    <col min="2596" max="2828" width="9.109375" style="7"/>
+    <col min="2829" max="2829" width="9" style="7" customWidth="1"/>
+    <col min="2830" max="2830" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="40.109375" style="7" customWidth="1"/>
+    <col min="2832" max="2832" width="10.77734375" style="7" customWidth="1"/>
+    <col min="2833" max="2833" width="20.109375" style="7" customWidth="1"/>
+    <col min="2834" max="2834" width="3.77734375" style="7" customWidth="1"/>
+    <col min="2835" max="2836" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2837" max="2837" width="8.109375" style="7" customWidth="1"/>
+    <col min="2838" max="2841" width="10.5546875" style="7" customWidth="1"/>
+    <col min="2842" max="2842" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="2843" max="2844" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2845" max="2845" width="8.77734375" style="7" customWidth="1"/>
+    <col min="2846" max="2846" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2847" max="2847" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2848" max="2848" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2849" max="2849" width="12.77734375" style="7" customWidth="1"/>
+    <col min="2850" max="2850" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2851" max="2851" width="9.6640625" style="7" customWidth="1"/>
+    <col min="2852" max="3084" width="9.109375" style="7"/>
+    <col min="3085" max="3085" width="9" style="7" customWidth="1"/>
+    <col min="3086" max="3086" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="40.109375" style="7" customWidth="1"/>
+    <col min="3088" max="3088" width="10.77734375" style="7" customWidth="1"/>
+    <col min="3089" max="3089" width="20.109375" style="7" customWidth="1"/>
+    <col min="3090" max="3090" width="3.77734375" style="7" customWidth="1"/>
+    <col min="3091" max="3092" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3093" max="3093" width="8.109375" style="7" customWidth="1"/>
+    <col min="3094" max="3097" width="10.5546875" style="7" customWidth="1"/>
+    <col min="3098" max="3098" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3099" max="3100" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3101" max="3101" width="8.77734375" style="7" customWidth="1"/>
+    <col min="3102" max="3102" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3103" max="3103" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3104" max="3104" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3105" max="3105" width="12.77734375" style="7" customWidth="1"/>
+    <col min="3106" max="3106" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3107" max="3107" width="9.6640625" style="7" customWidth="1"/>
+    <col min="3108" max="3340" width="9.109375" style="7"/>
+    <col min="3341" max="3341" width="9" style="7" customWidth="1"/>
+    <col min="3342" max="3342" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="40.109375" style="7" customWidth="1"/>
+    <col min="3344" max="3344" width="10.77734375" style="7" customWidth="1"/>
+    <col min="3345" max="3345" width="20.109375" style="7" customWidth="1"/>
+    <col min="3346" max="3346" width="3.77734375" style="7" customWidth="1"/>
+    <col min="3347" max="3348" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3349" max="3349" width="8.109375" style="7" customWidth="1"/>
+    <col min="3350" max="3353" width="10.5546875" style="7" customWidth="1"/>
+    <col min="3354" max="3354" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3355" max="3356" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3357" max="3357" width="8.77734375" style="7" customWidth="1"/>
+    <col min="3358" max="3358" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3359" max="3359" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3360" max="3360" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3361" max="3361" width="12.77734375" style="7" customWidth="1"/>
+    <col min="3362" max="3362" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3363" max="3363" width="9.6640625" style="7" customWidth="1"/>
+    <col min="3364" max="3596" width="9.109375" style="7"/>
+    <col min="3597" max="3597" width="9" style="7" customWidth="1"/>
+    <col min="3598" max="3598" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="40.109375" style="7" customWidth="1"/>
+    <col min="3600" max="3600" width="10.77734375" style="7" customWidth="1"/>
+    <col min="3601" max="3601" width="20.109375" style="7" customWidth="1"/>
+    <col min="3602" max="3602" width="3.77734375" style="7" customWidth="1"/>
+    <col min="3603" max="3604" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3605" max="3605" width="8.109375" style="7" customWidth="1"/>
+    <col min="3606" max="3609" width="10.5546875" style="7" customWidth="1"/>
+    <col min="3610" max="3610" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3611" max="3612" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3613" max="3613" width="8.77734375" style="7" customWidth="1"/>
+    <col min="3614" max="3614" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3615" max="3615" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3616" max="3616" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3617" max="3617" width="12.77734375" style="7" customWidth="1"/>
+    <col min="3618" max="3618" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3619" max="3619" width="9.6640625" style="7" customWidth="1"/>
+    <col min="3620" max="3852" width="9.109375" style="7"/>
+    <col min="3853" max="3853" width="9" style="7" customWidth="1"/>
+    <col min="3854" max="3854" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="40.109375" style="7" customWidth="1"/>
+    <col min="3856" max="3856" width="10.77734375" style="7" customWidth="1"/>
+    <col min="3857" max="3857" width="20.109375" style="7" customWidth="1"/>
+    <col min="3858" max="3858" width="3.77734375" style="7" customWidth="1"/>
+    <col min="3859" max="3860" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3861" max="3861" width="8.109375" style="7" customWidth="1"/>
+    <col min="3862" max="3865" width="10.5546875" style="7" customWidth="1"/>
+    <col min="3866" max="3866" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3867" max="3868" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3869" max="3869" width="8.77734375" style="7" customWidth="1"/>
+    <col min="3870" max="3870" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3871" max="3871" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3872" max="3872" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3873" max="3873" width="12.77734375" style="7" customWidth="1"/>
+    <col min="3874" max="3874" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3875" max="3875" width="9.6640625" style="7" customWidth="1"/>
+    <col min="3876" max="4108" width="9.109375" style="7"/>
+    <col min="4109" max="4109" width="9" style="7" customWidth="1"/>
+    <col min="4110" max="4110" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="40.109375" style="7" customWidth="1"/>
+    <col min="4112" max="4112" width="10.77734375" style="7" customWidth="1"/>
+    <col min="4113" max="4113" width="20.109375" style="7" customWidth="1"/>
+    <col min="4114" max="4114" width="3.77734375" style="7" customWidth="1"/>
+    <col min="4115" max="4116" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4117" max="4117" width="8.109375" style="7" customWidth="1"/>
+    <col min="4118" max="4121" width="10.5546875" style="7" customWidth="1"/>
+    <col min="4122" max="4122" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4123" max="4124" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4125" max="4125" width="8.77734375" style="7" customWidth="1"/>
+    <col min="4126" max="4126" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4127" max="4127" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4128" max="4128" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4129" max="4129" width="12.77734375" style="7" customWidth="1"/>
+    <col min="4130" max="4130" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4131" max="4131" width="9.6640625" style="7" customWidth="1"/>
+    <col min="4132" max="4364" width="9.109375" style="7"/>
+    <col min="4365" max="4365" width="9" style="7" customWidth="1"/>
+    <col min="4366" max="4366" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="40.109375" style="7" customWidth="1"/>
+    <col min="4368" max="4368" width="10.77734375" style="7" customWidth="1"/>
+    <col min="4369" max="4369" width="20.109375" style="7" customWidth="1"/>
+    <col min="4370" max="4370" width="3.77734375" style="7" customWidth="1"/>
+    <col min="4371" max="4372" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4373" max="4373" width="8.109375" style="7" customWidth="1"/>
+    <col min="4374" max="4377" width="10.5546875" style="7" customWidth="1"/>
+    <col min="4378" max="4378" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4379" max="4380" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4381" max="4381" width="8.77734375" style="7" customWidth="1"/>
+    <col min="4382" max="4382" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4383" max="4383" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4384" max="4384" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4385" max="4385" width="12.77734375" style="7" customWidth="1"/>
+    <col min="4386" max="4386" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4387" max="4387" width="9.6640625" style="7" customWidth="1"/>
+    <col min="4388" max="4620" width="9.109375" style="7"/>
+    <col min="4621" max="4621" width="9" style="7" customWidth="1"/>
+    <col min="4622" max="4622" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="40.109375" style="7" customWidth="1"/>
+    <col min="4624" max="4624" width="10.77734375" style="7" customWidth="1"/>
+    <col min="4625" max="4625" width="20.109375" style="7" customWidth="1"/>
+    <col min="4626" max="4626" width="3.77734375" style="7" customWidth="1"/>
+    <col min="4627" max="4628" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4629" max="4629" width="8.109375" style="7" customWidth="1"/>
+    <col min="4630" max="4633" width="10.5546875" style="7" customWidth="1"/>
+    <col min="4634" max="4634" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4635" max="4636" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4637" max="4637" width="8.77734375" style="7" customWidth="1"/>
+    <col min="4638" max="4638" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4639" max="4639" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4640" max="4640" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4641" max="4641" width="12.77734375" style="7" customWidth="1"/>
+    <col min="4642" max="4642" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4643" max="4643" width="9.6640625" style="7" customWidth="1"/>
+    <col min="4644" max="4876" width="9.109375" style="7"/>
+    <col min="4877" max="4877" width="9" style="7" customWidth="1"/>
+    <col min="4878" max="4878" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="40.109375" style="7" customWidth="1"/>
+    <col min="4880" max="4880" width="10.77734375" style="7" customWidth="1"/>
+    <col min="4881" max="4881" width="20.109375" style="7" customWidth="1"/>
+    <col min="4882" max="4882" width="3.77734375" style="7" customWidth="1"/>
+    <col min="4883" max="4884" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4885" max="4885" width="8.109375" style="7" customWidth="1"/>
+    <col min="4886" max="4889" width="10.5546875" style="7" customWidth="1"/>
+    <col min="4890" max="4890" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4891" max="4892" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4893" max="4893" width="8.77734375" style="7" customWidth="1"/>
+    <col min="4894" max="4894" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4895" max="4895" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4896" max="4896" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4897" max="4897" width="12.77734375" style="7" customWidth="1"/>
+    <col min="4898" max="4898" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4899" max="4899" width="9.6640625" style="7" customWidth="1"/>
+    <col min="4900" max="5132" width="9.109375" style="7"/>
+    <col min="5133" max="5133" width="9" style="7" customWidth="1"/>
+    <col min="5134" max="5134" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="40.109375" style="7" customWidth="1"/>
+    <col min="5136" max="5136" width="10.77734375" style="7" customWidth="1"/>
+    <col min="5137" max="5137" width="20.109375" style="7" customWidth="1"/>
+    <col min="5138" max="5138" width="3.77734375" style="7" customWidth="1"/>
+    <col min="5139" max="5140" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5141" max="5141" width="8.109375" style="7" customWidth="1"/>
+    <col min="5142" max="5145" width="10.5546875" style="7" customWidth="1"/>
+    <col min="5146" max="5146" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5147" max="5148" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5149" max="5149" width="8.77734375" style="7" customWidth="1"/>
+    <col min="5150" max="5150" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5151" max="5151" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5152" max="5152" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5153" max="5153" width="12.77734375" style="7" customWidth="1"/>
+    <col min="5154" max="5154" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5155" max="5155" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5156" max="5388" width="9.109375" style="7"/>
+    <col min="5389" max="5389" width="9" style="7" customWidth="1"/>
+    <col min="5390" max="5390" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="40.109375" style="7" customWidth="1"/>
+    <col min="5392" max="5392" width="10.77734375" style="7" customWidth="1"/>
+    <col min="5393" max="5393" width="20.109375" style="7" customWidth="1"/>
+    <col min="5394" max="5394" width="3.77734375" style="7" customWidth="1"/>
+    <col min="5395" max="5396" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5397" max="5397" width="8.109375" style="7" customWidth="1"/>
+    <col min="5398" max="5401" width="10.5546875" style="7" customWidth="1"/>
+    <col min="5402" max="5402" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5403" max="5404" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5405" max="5405" width="8.77734375" style="7" customWidth="1"/>
+    <col min="5406" max="5406" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5407" max="5407" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5408" max="5408" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5409" max="5409" width="12.77734375" style="7" customWidth="1"/>
+    <col min="5410" max="5410" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5411" max="5411" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5412" max="5644" width="9.109375" style="7"/>
+    <col min="5645" max="5645" width="9" style="7" customWidth="1"/>
+    <col min="5646" max="5646" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="40.109375" style="7" customWidth="1"/>
+    <col min="5648" max="5648" width="10.77734375" style="7" customWidth="1"/>
+    <col min="5649" max="5649" width="20.109375" style="7" customWidth="1"/>
+    <col min="5650" max="5650" width="3.77734375" style="7" customWidth="1"/>
+    <col min="5651" max="5652" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5653" max="5653" width="8.109375" style="7" customWidth="1"/>
+    <col min="5654" max="5657" width="10.5546875" style="7" customWidth="1"/>
+    <col min="5658" max="5658" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5659" max="5660" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5661" max="5661" width="8.77734375" style="7" customWidth="1"/>
+    <col min="5662" max="5662" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5663" max="5663" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5664" max="5664" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5665" max="5665" width="12.77734375" style="7" customWidth="1"/>
+    <col min="5666" max="5666" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5667" max="5667" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5668" max="5900" width="9.109375" style="7"/>
+    <col min="5901" max="5901" width="9" style="7" customWidth="1"/>
+    <col min="5902" max="5902" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="40.109375" style="7" customWidth="1"/>
+    <col min="5904" max="5904" width="10.77734375" style="7" customWidth="1"/>
+    <col min="5905" max="5905" width="20.109375" style="7" customWidth="1"/>
+    <col min="5906" max="5906" width="3.77734375" style="7" customWidth="1"/>
+    <col min="5907" max="5908" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5909" max="5909" width="8.109375" style="7" customWidth="1"/>
+    <col min="5910" max="5913" width="10.5546875" style="7" customWidth="1"/>
+    <col min="5914" max="5914" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="5915" max="5916" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5917" max="5917" width="8.77734375" style="7" customWidth="1"/>
+    <col min="5918" max="5918" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5919" max="5919" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5920" max="5920" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5921" max="5921" width="12.77734375" style="7" customWidth="1"/>
+    <col min="5922" max="5922" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5923" max="5923" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5924" max="6156" width="9.109375" style="7"/>
+    <col min="6157" max="6157" width="9" style="7" customWidth="1"/>
+    <col min="6158" max="6158" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="40.109375" style="7" customWidth="1"/>
+    <col min="6160" max="6160" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6161" max="6161" width="20.109375" style="7" customWidth="1"/>
+    <col min="6162" max="6162" width="3.77734375" style="7" customWidth="1"/>
+    <col min="6163" max="6164" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6165" max="6165" width="8.109375" style="7" customWidth="1"/>
+    <col min="6166" max="6169" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6170" max="6170" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6171" max="6172" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6173" max="6173" width="8.77734375" style="7" customWidth="1"/>
+    <col min="6174" max="6174" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6175" max="6175" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6176" max="6176" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6177" max="6177" width="12.77734375" style="7" customWidth="1"/>
+    <col min="6178" max="6178" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6179" max="6179" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6180" max="6412" width="9.109375" style="7"/>
+    <col min="6413" max="6413" width="9" style="7" customWidth="1"/>
+    <col min="6414" max="6414" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="40.109375" style="7" customWidth="1"/>
+    <col min="6416" max="6416" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6417" max="6417" width="20.109375" style="7" customWidth="1"/>
+    <col min="6418" max="6418" width="3.77734375" style="7" customWidth="1"/>
+    <col min="6419" max="6420" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6421" max="6421" width="8.109375" style="7" customWidth="1"/>
+    <col min="6422" max="6425" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6426" max="6426" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6427" max="6428" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6429" max="6429" width="8.77734375" style="7" customWidth="1"/>
+    <col min="6430" max="6430" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6431" max="6431" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6432" max="6432" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6433" max="6433" width="12.77734375" style="7" customWidth="1"/>
+    <col min="6434" max="6434" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6435" max="6435" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6436" max="6668" width="9.109375" style="7"/>
+    <col min="6669" max="6669" width="9" style="7" customWidth="1"/>
+    <col min="6670" max="6670" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="40.109375" style="7" customWidth="1"/>
+    <col min="6672" max="6672" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6673" max="6673" width="20.109375" style="7" customWidth="1"/>
+    <col min="6674" max="6674" width="3.77734375" style="7" customWidth="1"/>
+    <col min="6675" max="6676" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6677" max="6677" width="8.109375" style="7" customWidth="1"/>
+    <col min="6678" max="6681" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6682" max="6682" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6683" max="6684" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6685" max="6685" width="8.77734375" style="7" customWidth="1"/>
+    <col min="6686" max="6686" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6687" max="6687" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6688" max="6688" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6689" max="6689" width="12.77734375" style="7" customWidth="1"/>
+    <col min="6690" max="6690" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6691" max="6691" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6692" max="6924" width="9.109375" style="7"/>
+    <col min="6925" max="6925" width="9" style="7" customWidth="1"/>
+    <col min="6926" max="6926" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="40.109375" style="7" customWidth="1"/>
+    <col min="6928" max="6928" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6929" max="6929" width="20.109375" style="7" customWidth="1"/>
+    <col min="6930" max="6930" width="3.77734375" style="7" customWidth="1"/>
+    <col min="6931" max="6932" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6933" max="6933" width="8.109375" style="7" customWidth="1"/>
+    <col min="6934" max="6937" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6938" max="6938" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6939" max="6940" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6941" max="6941" width="8.77734375" style="7" customWidth="1"/>
+    <col min="6942" max="6942" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6943" max="6943" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6944" max="6944" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6945" max="6945" width="12.77734375" style="7" customWidth="1"/>
+    <col min="6946" max="6946" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6947" max="6947" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6948" max="7180" width="9.109375" style="7"/>
+    <col min="7181" max="7181" width="9" style="7" customWidth="1"/>
+    <col min="7182" max="7182" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="40.109375" style="7" customWidth="1"/>
+    <col min="7184" max="7184" width="10.77734375" style="7" customWidth="1"/>
+    <col min="7185" max="7185" width="20.109375" style="7" customWidth="1"/>
+    <col min="7186" max="7186" width="3.77734375" style="7" customWidth="1"/>
+    <col min="7187" max="7188" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7189" max="7189" width="8.109375" style="7" customWidth="1"/>
+    <col min="7190" max="7193" width="10.5546875" style="7" customWidth="1"/>
+    <col min="7194" max="7194" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7195" max="7196" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7197" max="7197" width="8.77734375" style="7" customWidth="1"/>
+    <col min="7198" max="7198" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7199" max="7199" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7200" max="7200" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7201" max="7201" width="12.77734375" style="7" customWidth="1"/>
+    <col min="7202" max="7202" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7203" max="7203" width="9.6640625" style="7" customWidth="1"/>
+    <col min="7204" max="7436" width="9.109375" style="7"/>
+    <col min="7437" max="7437" width="9" style="7" customWidth="1"/>
+    <col min="7438" max="7438" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="40.109375" style="7" customWidth="1"/>
+    <col min="7440" max="7440" width="10.77734375" style="7" customWidth="1"/>
+    <col min="7441" max="7441" width="20.109375" style="7" customWidth="1"/>
+    <col min="7442" max="7442" width="3.77734375" style="7" customWidth="1"/>
+    <col min="7443" max="7444" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7445" max="7445" width="8.109375" style="7" customWidth="1"/>
+    <col min="7446" max="7449" width="10.5546875" style="7" customWidth="1"/>
+    <col min="7450" max="7450" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7451" max="7452" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7453" max="7453" width="8.77734375" style="7" customWidth="1"/>
+    <col min="7454" max="7454" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7455" max="7455" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7456" max="7456" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7457" max="7457" width="12.77734375" style="7" customWidth="1"/>
+    <col min="7458" max="7458" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7459" max="7459" width="9.6640625" style="7" customWidth="1"/>
+    <col min="7460" max="7692" width="9.109375" style="7"/>
+    <col min="7693" max="7693" width="9" style="7" customWidth="1"/>
+    <col min="7694" max="7694" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="40.109375" style="7" customWidth="1"/>
+    <col min="7696" max="7696" width="10.77734375" style="7" customWidth="1"/>
+    <col min="7697" max="7697" width="20.109375" style="7" customWidth="1"/>
+    <col min="7698" max="7698" width="3.77734375" style="7" customWidth="1"/>
+    <col min="7699" max="7700" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7701" max="7701" width="8.109375" style="7" customWidth="1"/>
+    <col min="7702" max="7705" width="10.5546875" style="7" customWidth="1"/>
+    <col min="7706" max="7706" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7707" max="7708" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7709" max="7709" width="8.77734375" style="7" customWidth="1"/>
+    <col min="7710" max="7710" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7711" max="7711" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7712" max="7712" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7713" max="7713" width="12.77734375" style="7" customWidth="1"/>
+    <col min="7714" max="7714" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7715" max="7715" width="9.6640625" style="7" customWidth="1"/>
+    <col min="7716" max="7948" width="9.109375" style="7"/>
+    <col min="7949" max="7949" width="9" style="7" customWidth="1"/>
+    <col min="7950" max="7950" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="40.109375" style="7" customWidth="1"/>
+    <col min="7952" max="7952" width="10.77734375" style="7" customWidth="1"/>
+    <col min="7953" max="7953" width="20.109375" style="7" customWidth="1"/>
+    <col min="7954" max="7954" width="3.77734375" style="7" customWidth="1"/>
+    <col min="7955" max="7956" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7957" max="7957" width="8.109375" style="7" customWidth="1"/>
+    <col min="7958" max="7961" width="10.5546875" style="7" customWidth="1"/>
+    <col min="7962" max="7962" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="7963" max="7964" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7965" max="7965" width="8.77734375" style="7" customWidth="1"/>
+    <col min="7966" max="7966" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7967" max="7967" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7968" max="7968" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7969" max="7969" width="12.77734375" style="7" customWidth="1"/>
+    <col min="7970" max="7970" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7971" max="7971" width="9.6640625" style="7" customWidth="1"/>
+    <col min="7972" max="8204" width="9.109375" style="7"/>
+    <col min="8205" max="8205" width="9" style="7" customWidth="1"/>
+    <col min="8206" max="8206" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="40.109375" style="7" customWidth="1"/>
+    <col min="8208" max="8208" width="10.77734375" style="7" customWidth="1"/>
+    <col min="8209" max="8209" width="20.109375" style="7" customWidth="1"/>
+    <col min="8210" max="8210" width="3.77734375" style="7" customWidth="1"/>
+    <col min="8211" max="8212" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8213" max="8213" width="8.109375" style="7" customWidth="1"/>
+    <col min="8214" max="8217" width="10.5546875" style="7" customWidth="1"/>
+    <col min="8218" max="8218" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8219" max="8220" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8221" max="8221" width="8.77734375" style="7" customWidth="1"/>
+    <col min="8222" max="8222" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8223" max="8223" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8224" max="8224" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8225" max="8225" width="12.77734375" style="7" customWidth="1"/>
+    <col min="8226" max="8226" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8227" max="8227" width="9.6640625" style="7" customWidth="1"/>
+    <col min="8228" max="8460" width="9.109375" style="7"/>
+    <col min="8461" max="8461" width="9" style="7" customWidth="1"/>
+    <col min="8462" max="8462" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="40.109375" style="7" customWidth="1"/>
+    <col min="8464" max="8464" width="10.77734375" style="7" customWidth="1"/>
+    <col min="8465" max="8465" width="20.109375" style="7" customWidth="1"/>
+    <col min="8466" max="8466" width="3.77734375" style="7" customWidth="1"/>
+    <col min="8467" max="8468" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8469" max="8469" width="8.109375" style="7" customWidth="1"/>
+    <col min="8470" max="8473" width="10.5546875" style="7" customWidth="1"/>
+    <col min="8474" max="8474" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8475" max="8476" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8477" max="8477" width="8.77734375" style="7" customWidth="1"/>
+    <col min="8478" max="8478" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8479" max="8479" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8480" max="8480" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8481" max="8481" width="12.77734375" style="7" customWidth="1"/>
+    <col min="8482" max="8482" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8483" max="8483" width="9.6640625" style="7" customWidth="1"/>
+    <col min="8484" max="8716" width="9.109375" style="7"/>
+    <col min="8717" max="8717" width="9" style="7" customWidth="1"/>
+    <col min="8718" max="8718" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="40.109375" style="7" customWidth="1"/>
+    <col min="8720" max="8720" width="10.77734375" style="7" customWidth="1"/>
+    <col min="8721" max="8721" width="20.109375" style="7" customWidth="1"/>
+    <col min="8722" max="8722" width="3.77734375" style="7" customWidth="1"/>
+    <col min="8723" max="8724" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8725" max="8725" width="8.109375" style="7" customWidth="1"/>
+    <col min="8726" max="8729" width="10.5546875" style="7" customWidth="1"/>
+    <col min="8730" max="8730" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8731" max="8732" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8733" max="8733" width="8.77734375" style="7" customWidth="1"/>
+    <col min="8734" max="8734" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8735" max="8735" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8736" max="8736" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8737" max="8737" width="12.77734375" style="7" customWidth="1"/>
+    <col min="8738" max="8738" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8739" max="8739" width="9.6640625" style="7" customWidth="1"/>
+    <col min="8740" max="8972" width="9.109375" style="7"/>
+    <col min="8973" max="8973" width="9" style="7" customWidth="1"/>
+    <col min="8974" max="8974" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="40.109375" style="7" customWidth="1"/>
+    <col min="8976" max="8976" width="10.77734375" style="7" customWidth="1"/>
+    <col min="8977" max="8977" width="20.109375" style="7" customWidth="1"/>
+    <col min="8978" max="8978" width="3.77734375" style="7" customWidth="1"/>
+    <col min="8979" max="8980" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8981" max="8981" width="8.109375" style="7" customWidth="1"/>
+    <col min="8982" max="8985" width="10.5546875" style="7" customWidth="1"/>
+    <col min="8986" max="8986" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="8987" max="8988" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8989" max="8989" width="8.77734375" style="7" customWidth="1"/>
+    <col min="8990" max="8990" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8991" max="8991" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8992" max="8992" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8993" max="8993" width="12.77734375" style="7" customWidth="1"/>
+    <col min="8994" max="8994" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8995" max="8995" width="9.6640625" style="7" customWidth="1"/>
+    <col min="8996" max="9228" width="9.109375" style="7"/>
+    <col min="9229" max="9229" width="9" style="7" customWidth="1"/>
+    <col min="9230" max="9230" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="40.109375" style="7" customWidth="1"/>
+    <col min="9232" max="9232" width="10.77734375" style="7" customWidth="1"/>
+    <col min="9233" max="9233" width="20.109375" style="7" customWidth="1"/>
+    <col min="9234" max="9234" width="3.77734375" style="7" customWidth="1"/>
+    <col min="9235" max="9236" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9237" max="9237" width="8.109375" style="7" customWidth="1"/>
+    <col min="9238" max="9241" width="10.5546875" style="7" customWidth="1"/>
+    <col min="9242" max="9242" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9243" max="9244" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9245" max="9245" width="8.77734375" style="7" customWidth="1"/>
+    <col min="9246" max="9246" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9247" max="9247" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9248" max="9248" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9249" max="9249" width="12.77734375" style="7" customWidth="1"/>
+    <col min="9250" max="9250" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9251" max="9251" width="9.6640625" style="7" customWidth="1"/>
+    <col min="9252" max="9484" width="9.109375" style="7"/>
+    <col min="9485" max="9485" width="9" style="7" customWidth="1"/>
+    <col min="9486" max="9486" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="40.109375" style="7" customWidth="1"/>
+    <col min="9488" max="9488" width="10.77734375" style="7" customWidth="1"/>
+    <col min="9489" max="9489" width="20.109375" style="7" customWidth="1"/>
+    <col min="9490" max="9490" width="3.77734375" style="7" customWidth="1"/>
+    <col min="9491" max="9492" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9493" max="9493" width="8.109375" style="7" customWidth="1"/>
+    <col min="9494" max="9497" width="10.5546875" style="7" customWidth="1"/>
+    <col min="9498" max="9498" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9499" max="9500" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9501" max="9501" width="8.77734375" style="7" customWidth="1"/>
+    <col min="9502" max="9502" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9503" max="9503" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9504" max="9504" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9505" max="9505" width="12.77734375" style="7" customWidth="1"/>
+    <col min="9506" max="9506" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9507" max="9507" width="9.6640625" style="7" customWidth="1"/>
+    <col min="9508" max="9740" width="9.109375" style="7"/>
+    <col min="9741" max="9741" width="9" style="7" customWidth="1"/>
+    <col min="9742" max="9742" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="40.109375" style="7" customWidth="1"/>
+    <col min="9744" max="9744" width="10.77734375" style="7" customWidth="1"/>
+    <col min="9745" max="9745" width="20.109375" style="7" customWidth="1"/>
+    <col min="9746" max="9746" width="3.77734375" style="7" customWidth="1"/>
+    <col min="9747" max="9748" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9749" max="9749" width="8.109375" style="7" customWidth="1"/>
+    <col min="9750" max="9753" width="10.5546875" style="7" customWidth="1"/>
+    <col min="9754" max="9754" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9755" max="9756" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9757" max="9757" width="8.77734375" style="7" customWidth="1"/>
+    <col min="9758" max="9758" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9759" max="9759" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9760" max="9760" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9761" max="9761" width="12.77734375" style="7" customWidth="1"/>
+    <col min="9762" max="9762" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9763" max="9763" width="9.6640625" style="7" customWidth="1"/>
+    <col min="9764" max="9996" width="9.109375" style="7"/>
+    <col min="9997" max="9997" width="9" style="7" customWidth="1"/>
+    <col min="9998" max="9998" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="40.109375" style="7" customWidth="1"/>
+    <col min="10000" max="10000" width="10.77734375" style="7" customWidth="1"/>
+    <col min="10001" max="10001" width="20.109375" style="7" customWidth="1"/>
+    <col min="10002" max="10002" width="3.77734375" style="7" customWidth="1"/>
+    <col min="10003" max="10004" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10005" max="10005" width="8.109375" style="7" customWidth="1"/>
+    <col min="10006" max="10009" width="10.5546875" style="7" customWidth="1"/>
+    <col min="10010" max="10010" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10011" max="10012" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10013" max="10013" width="8.77734375" style="7" customWidth="1"/>
+    <col min="10014" max="10014" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10015" max="10015" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10016" max="10016" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10017" max="10017" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10018" max="10018" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10019" max="10019" width="9.6640625" style="7" customWidth="1"/>
+    <col min="10020" max="10252" width="9.109375" style="7"/>
+    <col min="10253" max="10253" width="9" style="7" customWidth="1"/>
+    <col min="10254" max="10254" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="40.109375" style="7" customWidth="1"/>
+    <col min="10256" max="10256" width="10.77734375" style="7" customWidth="1"/>
+    <col min="10257" max="10257" width="20.109375" style="7" customWidth="1"/>
+    <col min="10258" max="10258" width="3.77734375" style="7" customWidth="1"/>
+    <col min="10259" max="10260" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10261" max="10261" width="8.109375" style="7" customWidth="1"/>
+    <col min="10262" max="10265" width="10.5546875" style="7" customWidth="1"/>
+    <col min="10266" max="10266" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10267" max="10268" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10269" max="10269" width="8.77734375" style="7" customWidth="1"/>
+    <col min="10270" max="10270" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10271" max="10271" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10272" max="10272" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10273" max="10273" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10274" max="10274" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10275" max="10275" width="9.6640625" style="7" customWidth="1"/>
+    <col min="10276" max="10508" width="9.109375" style="7"/>
+    <col min="10509" max="10509" width="9" style="7" customWidth="1"/>
+    <col min="10510" max="10510" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="40.109375" style="7" customWidth="1"/>
+    <col min="10512" max="10512" width="10.77734375" style="7" customWidth="1"/>
+    <col min="10513" max="10513" width="20.109375" style="7" customWidth="1"/>
+    <col min="10514" max="10514" width="3.77734375" style="7" customWidth="1"/>
+    <col min="10515" max="10516" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10517" max="10517" width="8.109375" style="7" customWidth="1"/>
+    <col min="10518" max="10521" width="10.5546875" style="7" customWidth="1"/>
+    <col min="10522" max="10522" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10523" max="10524" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10525" max="10525" width="8.77734375" style="7" customWidth="1"/>
+    <col min="10526" max="10526" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10527" max="10527" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10528" max="10528" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10529" max="10529" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10530" max="10530" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10531" max="10531" width="9.6640625" style="7" customWidth="1"/>
+    <col min="10532" max="10764" width="9.109375" style="7"/>
+    <col min="10765" max="10765" width="9" style="7" customWidth="1"/>
+    <col min="10766" max="10766" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="40.109375" style="7" customWidth="1"/>
+    <col min="10768" max="10768" width="10.77734375" style="7" customWidth="1"/>
+    <col min="10769" max="10769" width="20.109375" style="7" customWidth="1"/>
+    <col min="10770" max="10770" width="3.77734375" style="7" customWidth="1"/>
+    <col min="10771" max="10772" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10773" max="10773" width="8.109375" style="7" customWidth="1"/>
+    <col min="10774" max="10777" width="10.5546875" style="7" customWidth="1"/>
+    <col min="10778" max="10778" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="10779" max="10780" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10781" max="10781" width="8.77734375" style="7" customWidth="1"/>
+    <col min="10782" max="10782" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10783" max="10783" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10784" max="10784" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10785" max="10785" width="12.77734375" style="7" customWidth="1"/>
+    <col min="10786" max="10786" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10787" max="10787" width="9.6640625" style="7" customWidth="1"/>
+    <col min="10788" max="11020" width="9.109375" style="7"/>
+    <col min="11021" max="11021" width="9" style="7" customWidth="1"/>
+    <col min="11022" max="11022" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="40.109375" style="7" customWidth="1"/>
+    <col min="11024" max="11024" width="10.77734375" style="7" customWidth="1"/>
+    <col min="11025" max="11025" width="20.109375" style="7" customWidth="1"/>
+    <col min="11026" max="11026" width="3.77734375" style="7" customWidth="1"/>
+    <col min="11027" max="11028" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11029" max="11029" width="8.109375" style="7" customWidth="1"/>
+    <col min="11030" max="11033" width="10.5546875" style="7" customWidth="1"/>
+    <col min="11034" max="11034" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11035" max="11036" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11037" max="11037" width="8.77734375" style="7" customWidth="1"/>
+    <col min="11038" max="11038" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11039" max="11039" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11040" max="11040" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11041" max="11041" width="12.77734375" style="7" customWidth="1"/>
+    <col min="11042" max="11042" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11043" max="11043" width="9.6640625" style="7" customWidth="1"/>
+    <col min="11044" max="11276" width="9.109375" style="7"/>
+    <col min="11277" max="11277" width="9" style="7" customWidth="1"/>
+    <col min="11278" max="11278" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="40.109375" style="7" customWidth="1"/>
+    <col min="11280" max="11280" width="10.77734375" style="7" customWidth="1"/>
+    <col min="11281" max="11281" width="20.109375" style="7" customWidth="1"/>
+    <col min="11282" max="11282" width="3.77734375" style="7" customWidth="1"/>
+    <col min="11283" max="11284" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11285" max="11285" width="8.109375" style="7" customWidth="1"/>
+    <col min="11286" max="11289" width="10.5546875" style="7" customWidth="1"/>
+    <col min="11290" max="11290" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11291" max="11292" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11293" max="11293" width="8.77734375" style="7" customWidth="1"/>
+    <col min="11294" max="11294" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11295" max="11295" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11296" max="11296" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11297" max="11297" width="12.77734375" style="7" customWidth="1"/>
+    <col min="11298" max="11298" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11299" max="11299" width="9.6640625" style="7" customWidth="1"/>
+    <col min="11300" max="11532" width="9.109375" style="7"/>
+    <col min="11533" max="11533" width="9" style="7" customWidth="1"/>
+    <col min="11534" max="11534" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="40.109375" style="7" customWidth="1"/>
+    <col min="11536" max="11536" width="10.77734375" style="7" customWidth="1"/>
+    <col min="11537" max="11537" width="20.109375" style="7" customWidth="1"/>
+    <col min="11538" max="11538" width="3.77734375" style="7" customWidth="1"/>
+    <col min="11539" max="11540" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11541" max="11541" width="8.109375" style="7" customWidth="1"/>
+    <col min="11542" max="11545" width="10.5546875" style="7" customWidth="1"/>
+    <col min="11546" max="11546" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11547" max="11548" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11549" max="11549" width="8.77734375" style="7" customWidth="1"/>
+    <col min="11550" max="11550" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11551" max="11551" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11552" max="11552" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11553" max="11553" width="12.77734375" style="7" customWidth="1"/>
+    <col min="11554" max="11554" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11555" max="11555" width="9.6640625" style="7" customWidth="1"/>
+    <col min="11556" max="11788" width="9.109375" style="7"/>
+    <col min="11789" max="11789" width="9" style="7" customWidth="1"/>
+    <col min="11790" max="11790" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="40.109375" style="7" customWidth="1"/>
+    <col min="11792" max="11792" width="10.77734375" style="7" customWidth="1"/>
+    <col min="11793" max="11793" width="20.109375" style="7" customWidth="1"/>
+    <col min="11794" max="11794" width="3.77734375" style="7" customWidth="1"/>
+    <col min="11795" max="11796" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11797" max="11797" width="8.109375" style="7" customWidth="1"/>
+    <col min="11798" max="11801" width="10.5546875" style="7" customWidth="1"/>
+    <col min="11802" max="11802" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11803" max="11804" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11805" max="11805" width="8.77734375" style="7" customWidth="1"/>
+    <col min="11806" max="11806" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11807" max="11807" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11808" max="11808" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11809" max="11809" width="12.77734375" style="7" customWidth="1"/>
+    <col min="11810" max="11810" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11811" max="11811" width="9.6640625" style="7" customWidth="1"/>
+    <col min="11812" max="12044" width="9.109375" style="7"/>
+    <col min="12045" max="12045" width="9" style="7" customWidth="1"/>
+    <col min="12046" max="12046" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="40.109375" style="7" customWidth="1"/>
+    <col min="12048" max="12048" width="10.77734375" style="7" customWidth="1"/>
+    <col min="12049" max="12049" width="20.109375" style="7" customWidth="1"/>
+    <col min="12050" max="12050" width="3.77734375" style="7" customWidth="1"/>
+    <col min="12051" max="12052" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12053" max="12053" width="8.109375" style="7" customWidth="1"/>
+    <col min="12054" max="12057" width="10.5546875" style="7" customWidth="1"/>
+    <col min="12058" max="12058" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12059" max="12060" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12061" max="12061" width="8.77734375" style="7" customWidth="1"/>
+    <col min="12062" max="12062" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12063" max="12063" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12064" max="12064" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12065" max="12065" width="12.77734375" style="7" customWidth="1"/>
+    <col min="12066" max="12066" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12067" max="12067" width="9.6640625" style="7" customWidth="1"/>
+    <col min="12068" max="12300" width="9.109375" style="7"/>
+    <col min="12301" max="12301" width="9" style="7" customWidth="1"/>
+    <col min="12302" max="12302" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="40.109375" style="7" customWidth="1"/>
+    <col min="12304" max="12304" width="10.77734375" style="7" customWidth="1"/>
+    <col min="12305" max="12305" width="20.109375" style="7" customWidth="1"/>
+    <col min="12306" max="12306" width="3.77734375" style="7" customWidth="1"/>
+    <col min="12307" max="12308" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12309" max="12309" width="8.109375" style="7" customWidth="1"/>
+    <col min="12310" max="12313" width="10.5546875" style="7" customWidth="1"/>
+    <col min="12314" max="12314" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12315" max="12316" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12317" max="12317" width="8.77734375" style="7" customWidth="1"/>
+    <col min="12318" max="12318" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12319" max="12319" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12320" max="12320" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12321" max="12321" width="12.77734375" style="7" customWidth="1"/>
+    <col min="12322" max="12322" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12323" max="12323" width="9.6640625" style="7" customWidth="1"/>
+    <col min="12324" max="12556" width="9.109375" style="7"/>
+    <col min="12557" max="12557" width="9" style="7" customWidth="1"/>
+    <col min="12558" max="12558" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="40.109375" style="7" customWidth="1"/>
+    <col min="12560" max="12560" width="10.77734375" style="7" customWidth="1"/>
+    <col min="12561" max="12561" width="20.109375" style="7" customWidth="1"/>
+    <col min="12562" max="12562" width="3.77734375" style="7" customWidth="1"/>
+    <col min="12563" max="12564" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12565" max="12565" width="8.109375" style="7" customWidth="1"/>
+    <col min="12566" max="12569" width="10.5546875" style="7" customWidth="1"/>
+    <col min="12570" max="12570" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12571" max="12572" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12573" max="12573" width="8.77734375" style="7" customWidth="1"/>
+    <col min="12574" max="12574" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12575" max="12575" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12576" max="12576" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12577" max="12577" width="12.77734375" style="7" customWidth="1"/>
+    <col min="12578" max="12578" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12579" max="12579" width="9.6640625" style="7" customWidth="1"/>
+    <col min="12580" max="12812" width="9.109375" style="7"/>
+    <col min="12813" max="12813" width="9" style="7" customWidth="1"/>
+    <col min="12814" max="12814" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="40.109375" style="7" customWidth="1"/>
+    <col min="12816" max="12816" width="10.77734375" style="7" customWidth="1"/>
+    <col min="12817" max="12817" width="20.109375" style="7" customWidth="1"/>
+    <col min="12818" max="12818" width="3.77734375" style="7" customWidth="1"/>
+    <col min="12819" max="12820" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12821" max="12821" width="8.109375" style="7" customWidth="1"/>
+    <col min="12822" max="12825" width="10.5546875" style="7" customWidth="1"/>
+    <col min="12826" max="12826" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="12827" max="12828" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12829" max="12829" width="8.77734375" style="7" customWidth="1"/>
+    <col min="12830" max="12830" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12831" max="12831" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12832" max="12832" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12833" max="12833" width="12.77734375" style="7" customWidth="1"/>
+    <col min="12834" max="12834" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12835" max="12835" width="9.6640625" style="7" customWidth="1"/>
+    <col min="12836" max="13068" width="9.109375" style="7"/>
+    <col min="13069" max="13069" width="9" style="7" customWidth="1"/>
+    <col min="13070" max="13070" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="40.109375" style="7" customWidth="1"/>
+    <col min="13072" max="13072" width="10.77734375" style="7" customWidth="1"/>
+    <col min="13073" max="13073" width="20.109375" style="7" customWidth="1"/>
+    <col min="13074" max="13074" width="3.77734375" style="7" customWidth="1"/>
+    <col min="13075" max="13076" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13077" max="13077" width="8.109375" style="7" customWidth="1"/>
+    <col min="13078" max="13081" width="10.5546875" style="7" customWidth="1"/>
+    <col min="13082" max="13082" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13083" max="13084" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13085" max="13085" width="8.77734375" style="7" customWidth="1"/>
+    <col min="13086" max="13086" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13087" max="13087" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13088" max="13088" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13089" max="13089" width="12.77734375" style="7" customWidth="1"/>
+    <col min="13090" max="13090" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13091" max="13091" width="9.6640625" style="7" customWidth="1"/>
+    <col min="13092" max="13324" width="9.109375" style="7"/>
+    <col min="13325" max="13325" width="9" style="7" customWidth="1"/>
+    <col min="13326" max="13326" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="40.109375" style="7" customWidth="1"/>
+    <col min="13328" max="13328" width="10.77734375" style="7" customWidth="1"/>
+    <col min="13329" max="13329" width="20.109375" style="7" customWidth="1"/>
+    <col min="13330" max="13330" width="3.77734375" style="7" customWidth="1"/>
+    <col min="13331" max="13332" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13333" max="13333" width="8.109375" style="7" customWidth="1"/>
+    <col min="13334" max="13337" width="10.5546875" style="7" customWidth="1"/>
+    <col min="13338" max="13338" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13339" max="13340" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13341" max="13341" width="8.77734375" style="7" customWidth="1"/>
+    <col min="13342" max="13342" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13343" max="13343" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13344" max="13344" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13345" max="13345" width="12.77734375" style="7" customWidth="1"/>
+    <col min="13346" max="13346" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13347" max="13347" width="9.6640625" style="7" customWidth="1"/>
+    <col min="13348" max="13580" width="9.109375" style="7"/>
+    <col min="13581" max="13581" width="9" style="7" customWidth="1"/>
+    <col min="13582" max="13582" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="40.109375" style="7" customWidth="1"/>
+    <col min="13584" max="13584" width="10.77734375" style="7" customWidth="1"/>
+    <col min="13585" max="13585" width="20.109375" style="7" customWidth="1"/>
+    <col min="13586" max="13586" width="3.77734375" style="7" customWidth="1"/>
+    <col min="13587" max="13588" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13589" max="13589" width="8.109375" style="7" customWidth="1"/>
+    <col min="13590" max="13593" width="10.5546875" style="7" customWidth="1"/>
+    <col min="13594" max="13594" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13595" max="13596" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13597" max="13597" width="8.77734375" style="7" customWidth="1"/>
+    <col min="13598" max="13598" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13599" max="13599" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13600" max="13600" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13601" max="13601" width="12.77734375" style="7" customWidth="1"/>
+    <col min="13602" max="13602" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13603" max="13603" width="9.6640625" style="7" customWidth="1"/>
+    <col min="13604" max="13836" width="9.109375" style="7"/>
+    <col min="13837" max="13837" width="9" style="7" customWidth="1"/>
+    <col min="13838" max="13838" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="40.109375" style="7" customWidth="1"/>
+    <col min="13840" max="13840" width="10.77734375" style="7" customWidth="1"/>
+    <col min="13841" max="13841" width="20.109375" style="7" customWidth="1"/>
+    <col min="13842" max="13842" width="3.77734375" style="7" customWidth="1"/>
+    <col min="13843" max="13844" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13845" max="13845" width="8.109375" style="7" customWidth="1"/>
+    <col min="13846" max="13849" width="10.5546875" style="7" customWidth="1"/>
+    <col min="13850" max="13850" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="13851" max="13852" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13853" max="13853" width="8.77734375" style="7" customWidth="1"/>
+    <col min="13854" max="13854" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13855" max="13855" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13856" max="13856" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13857" max="13857" width="12.77734375" style="7" customWidth="1"/>
+    <col min="13858" max="13858" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13859" max="13859" width="9.6640625" style="7" customWidth="1"/>
+    <col min="13860" max="14092" width="9.109375" style="7"/>
+    <col min="14093" max="14093" width="9" style="7" customWidth="1"/>
+    <col min="14094" max="14094" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="40.109375" style="7" customWidth="1"/>
+    <col min="14096" max="14096" width="10.77734375" style="7" customWidth="1"/>
+    <col min="14097" max="14097" width="20.109375" style="7" customWidth="1"/>
+    <col min="14098" max="14098" width="3.77734375" style="7" customWidth="1"/>
+    <col min="14099" max="14100" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14101" max="14101" width="8.109375" style="7" customWidth="1"/>
+    <col min="14102" max="14105" width="10.5546875" style="7" customWidth="1"/>
+    <col min="14106" max="14106" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14107" max="14108" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14109" max="14109" width="8.77734375" style="7" customWidth="1"/>
+    <col min="14110" max="14110" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14111" max="14111" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14112" max="14112" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14113" max="14113" width="12.77734375" style="7" customWidth="1"/>
+    <col min="14114" max="14114" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14115" max="14115" width="9.6640625" style="7" customWidth="1"/>
+    <col min="14116" max="14348" width="9.109375" style="7"/>
+    <col min="14349" max="14349" width="9" style="7" customWidth="1"/>
+    <col min="14350" max="14350" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="40.109375" style="7" customWidth="1"/>
+    <col min="14352" max="14352" width="10.77734375" style="7" customWidth="1"/>
+    <col min="14353" max="14353" width="20.109375" style="7" customWidth="1"/>
+    <col min="14354" max="14354" width="3.77734375" style="7" customWidth="1"/>
+    <col min="14355" max="14356" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14357" max="14357" width="8.109375" style="7" customWidth="1"/>
+    <col min="14358" max="14361" width="10.5546875" style="7" customWidth="1"/>
+    <col min="14362" max="14362" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14363" max="14364" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14365" max="14365" width="8.77734375" style="7" customWidth="1"/>
+    <col min="14366" max="14366" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14367" max="14367" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14368" max="14368" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14369" max="14369" width="12.77734375" style="7" customWidth="1"/>
+    <col min="14370" max="14370" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14371" max="14371" width="9.6640625" style="7" customWidth="1"/>
+    <col min="14372" max="14604" width="9.109375" style="7"/>
+    <col min="14605" max="14605" width="9" style="7" customWidth="1"/>
+    <col min="14606" max="14606" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="40.109375" style="7" customWidth="1"/>
+    <col min="14608" max="14608" width="10.77734375" style="7" customWidth="1"/>
+    <col min="14609" max="14609" width="20.109375" style="7" customWidth="1"/>
+    <col min="14610" max="14610" width="3.77734375" style="7" customWidth="1"/>
+    <col min="14611" max="14612" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14613" max="14613" width="8.109375" style="7" customWidth="1"/>
+    <col min="14614" max="14617" width="10.5546875" style="7" customWidth="1"/>
+    <col min="14618" max="14618" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14619" max="14620" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14621" max="14621" width="8.77734375" style="7" customWidth="1"/>
+    <col min="14622" max="14622" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14623" max="14623" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14624" max="14624" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14625" max="14625" width="12.77734375" style="7" customWidth="1"/>
+    <col min="14626" max="14626" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14627" max="14627" width="9.6640625" style="7" customWidth="1"/>
+    <col min="14628" max="14860" width="9.109375" style="7"/>
+    <col min="14861" max="14861" width="9" style="7" customWidth="1"/>
+    <col min="14862" max="14862" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="40.109375" style="7" customWidth="1"/>
+    <col min="14864" max="14864" width="10.77734375" style="7" customWidth="1"/>
+    <col min="14865" max="14865" width="20.109375" style="7" customWidth="1"/>
+    <col min="14866" max="14866" width="3.77734375" style="7" customWidth="1"/>
+    <col min="14867" max="14868" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14869" max="14869" width="8.109375" style="7" customWidth="1"/>
+    <col min="14870" max="14873" width="10.5546875" style="7" customWidth="1"/>
+    <col min="14874" max="14874" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="14875" max="14876" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14877" max="14877" width="8.77734375" style="7" customWidth="1"/>
+    <col min="14878" max="14878" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14879" max="14879" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14880" max="14880" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14881" max="14881" width="12.77734375" style="7" customWidth="1"/>
+    <col min="14882" max="14882" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14883" max="14883" width="9.6640625" style="7" customWidth="1"/>
+    <col min="14884" max="15116" width="9.109375" style="7"/>
+    <col min="15117" max="15117" width="9" style="7" customWidth="1"/>
+    <col min="15118" max="15118" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="40.109375" style="7" customWidth="1"/>
+    <col min="15120" max="15120" width="10.77734375" style="7" customWidth="1"/>
+    <col min="15121" max="15121" width="20.109375" style="7" customWidth="1"/>
+    <col min="15122" max="15122" width="3.77734375" style="7" customWidth="1"/>
+    <col min="15123" max="15124" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15125" max="15125" width="8.109375" style="7" customWidth="1"/>
+    <col min="15126" max="15129" width="10.5546875" style="7" customWidth="1"/>
+    <col min="15130" max="15130" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15131" max="15132" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15133" max="15133" width="8.77734375" style="7" customWidth="1"/>
+    <col min="15134" max="15134" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15135" max="15135" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15136" max="15136" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15137" max="15137" width="12.77734375" style="7" customWidth="1"/>
+    <col min="15138" max="15138" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15139" max="15139" width="9.6640625" style="7" customWidth="1"/>
+    <col min="15140" max="15372" width="9.109375" style="7"/>
+    <col min="15373" max="15373" width="9" style="7" customWidth="1"/>
+    <col min="15374" max="15374" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="40.109375" style="7" customWidth="1"/>
+    <col min="15376" max="15376" width="10.77734375" style="7" customWidth="1"/>
+    <col min="15377" max="15377" width="20.109375" style="7" customWidth="1"/>
+    <col min="15378" max="15378" width="3.77734375" style="7" customWidth="1"/>
+    <col min="15379" max="15380" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15381" max="15381" width="8.109375" style="7" customWidth="1"/>
+    <col min="15382" max="15385" width="10.5546875" style="7" customWidth="1"/>
+    <col min="15386" max="15386" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15387" max="15388" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15389" max="15389" width="8.77734375" style="7" customWidth="1"/>
+    <col min="15390" max="15390" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15391" max="15391" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15392" max="15392" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15393" max="15393" width="12.77734375" style="7" customWidth="1"/>
+    <col min="15394" max="15394" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15395" max="15395" width="9.6640625" style="7" customWidth="1"/>
+    <col min="15396" max="15628" width="9.109375" style="7"/>
+    <col min="15629" max="15629" width="9" style="7" customWidth="1"/>
+    <col min="15630" max="15630" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="40.109375" style="7" customWidth="1"/>
+    <col min="15632" max="15632" width="10.77734375" style="7" customWidth="1"/>
+    <col min="15633" max="15633" width="20.109375" style="7" customWidth="1"/>
+    <col min="15634" max="15634" width="3.77734375" style="7" customWidth="1"/>
+    <col min="15635" max="15636" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15637" max="15637" width="8.109375" style="7" customWidth="1"/>
+    <col min="15638" max="15641" width="10.5546875" style="7" customWidth="1"/>
+    <col min="15642" max="15642" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15643" max="15644" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15645" max="15645" width="8.77734375" style="7" customWidth="1"/>
+    <col min="15646" max="15646" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15647" max="15647" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15648" max="15648" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15649" max="15649" width="12.77734375" style="7" customWidth="1"/>
+    <col min="15650" max="15650" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15651" max="15651" width="9.6640625" style="7" customWidth="1"/>
+    <col min="15652" max="15884" width="9.109375" style="7"/>
+    <col min="15885" max="15885" width="9" style="7" customWidth="1"/>
+    <col min="15886" max="15886" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="40.109375" style="7" customWidth="1"/>
+    <col min="15888" max="15888" width="10.77734375" style="7" customWidth="1"/>
+    <col min="15889" max="15889" width="20.109375" style="7" customWidth="1"/>
+    <col min="15890" max="15890" width="3.77734375" style="7" customWidth="1"/>
+    <col min="15891" max="15892" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15893" max="15893" width="8.109375" style="7" customWidth="1"/>
+    <col min="15894" max="15897" width="10.5546875" style="7" customWidth="1"/>
+    <col min="15898" max="15898" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15899" max="15900" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15901" max="15901" width="8.77734375" style="7" customWidth="1"/>
+    <col min="15902" max="15902" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15903" max="15903" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15904" max="15904" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15905" max="15905" width="12.77734375" style="7" customWidth="1"/>
+    <col min="15906" max="15906" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15907" max="15907" width="9.6640625" style="7" customWidth="1"/>
+    <col min="15908" max="16140" width="9.109375" style="7"/>
+    <col min="16141" max="16141" width="9" style="7" customWidth="1"/>
+    <col min="16142" max="16142" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="40.109375" style="7" customWidth="1"/>
+    <col min="16144" max="16144" width="10.77734375" style="7" customWidth="1"/>
+    <col min="16145" max="16145" width="20.109375" style="7" customWidth="1"/>
+    <col min="16146" max="16146" width="3.77734375" style="7" customWidth="1"/>
+    <col min="16147" max="16148" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16149" max="16149" width="8.109375" style="7" customWidth="1"/>
+    <col min="16150" max="16153" width="10.5546875" style="7" customWidth="1"/>
+    <col min="16154" max="16154" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="16155" max="16156" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16157" max="16157" width="8.77734375" style="7" customWidth="1"/>
+    <col min="16158" max="16158" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16159" max="16159" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16160" max="16160" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16161" max="16161" width="12.77734375" style="7" customWidth="1"/>
+    <col min="16162" max="16162" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16163" max="16163" width="9.6640625" style="7" customWidth="1"/>
+    <col min="16164" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="90"/>
+    <row r="1" spans="2:35" s="1" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="89" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
       <c r="E1" s="90"/>
       <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="G1" s="90"/>
       <c r="H1" s="91"/>
-      <c r="I1" s="92"/>
-      <c r="K1" s="102" t="s">
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
+      <c r="L1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="103"/>
       <c r="M1" s="103"/>
       <c r="N1" s="103"/>
       <c r="O1" s="103"/>
@@ -2904,8 +2901,8 @@
       <c r="Q1" s="103"/>
       <c r="R1" s="103"/>
       <c r="S1" s="103"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="2"/>
+      <c r="T1" s="103"/>
+      <c r="V1" s="26"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -2918,18 +2915,18 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
-    </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
+      <c r="AI1" s="2"/>
+    </row>
+    <row r="2" spans="2:35" s="1" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="100"/>
       <c r="C2" s="101"/>
       <c r="D2" s="101"/>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99"/>
-      <c r="K2" s="3"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -2938,8 +2935,8 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="U2" s="26"/>
-      <c r="W2" s="2"/>
+      <c r="T2" s="3"/>
+      <c r="V2" s="26"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -2951,49 +2948,49 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-    </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A3" s="46" t="s">
+      <c r="AI2" s="2"/>
+    </row>
+    <row r="3" spans="2:35" s="1" customFormat="1" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="C3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="H3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="I3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="J3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="93" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="94"/>
-      <c r="M3" s="52"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="S3" s="52"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="2"/>
+      <c r="T3" s="52"/>
+      <c r="V3" s="26"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -3006,37 +3003,37 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-    </row>
-    <row r="4" spans="1:34" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A4" s="95" t="s">
+      <c r="AI3" s="2"/>
+    </row>
+    <row r="4" spans="2:35" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="B4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="96"/>
       <c r="C4" s="96"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
       <c r="G4" s="96"/>
       <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6" t="s">
+      <c r="I4" s="96"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="M4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="57"/>
       <c r="N4" s="57"/>
       <c r="O4" s="57"/>
       <c r="P4" s="57"/>
       <c r="Q4" s="57"/>
       <c r="R4" s="57"/>
       <c r="S4" s="57"/>
-      <c r="U4" s="27" t="s">
+      <c r="T4" s="57"/>
+      <c r="V4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
@@ -3049,58 +3046,58 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
-    </row>
-    <row r="5" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="15"/>
+      <c r="AI4" s="8"/>
+    </row>
+    <row r="5" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="L5" s="65">
-        <f>SUMIFS(A:A,I:I,K5,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M5" s="65">
-        <f>SUMIFS(A:A,I:I,K5,C:C,$M$4)</f>
+        <f>SUMIFS(B:B,J:J,L5,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N5" s="65">
-        <f>SUMIFS(A:A,I:I,K5,C:C,$N$4)</f>
+        <f>SUMIFS(B:B,J:J,L5,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O5" s="65">
-        <f>SUMIFS(A:A,I:I,K5,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L5,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P5" s="65">
-        <f>SUMIFS(A:A,I:I,K5,C:C,$P$4)</f>
+        <f>SUMIFS(B:B,J:J,L5,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="65">
-        <f>SUMIFS(A:A,I:I,K5,C:C,$Q$4)</f>
+        <f>SUMIFS(B:B,J:J,L5,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R5" s="65">
-        <f>SUMIFS(A:A,I:I,K5,C:C,$R$4)</f>
+        <f>SUMIFS(B:B,J:J,L5,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S5" s="65">
-        <f>SUMIFS(A:A,I:I,K5,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="28" t="s">
+        <f>SUMIFS(B:B,J:J,L5,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="65">
+        <f>SUMIFS(B:B,J:J,L5,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="8"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -3112,58 +3109,58 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
-    </row>
-    <row r="6" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="71"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="15"/>
+      <c r="AI5" s="8"/>
+    </row>
+    <row r="6" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="71"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="65">
-        <f>SUMIFS(A:A,I:I,K6,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M6" s="65">
-        <f>SUMIFS(A:A,I:I,K6,C:C,$M$4)</f>
+        <f>SUMIFS(B:B,J:J,L6,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N6" s="65">
-        <f>SUMIFS(A:A,I:I,K6,C:C,$N$4)</f>
+        <f>SUMIFS(B:B,J:J,L6,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O6" s="65">
-        <f>SUMIFS(A:A,I:I,K6,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L6,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P6" s="65">
-        <f>SUMIFS(A:A,I:I,K6,C:C,$P$4)</f>
+        <f>SUMIFS(B:B,J:J,L6,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="65">
-        <f>SUMIFS(A:A,I:I,K6,C:C,$Q$4)</f>
+        <f>SUMIFS(B:B,J:J,L6,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R6" s="65">
-        <f>SUMIFS(A:A,I:I,K6,C:C,$R$4)</f>
+        <f>SUMIFS(B:B,J:J,L6,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S6" s="65">
-        <f>SUMIFS(A:A,I:I,K6,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="26" t="s">
+        <f>SUMIFS(B:B,J:J,L6,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="65">
+        <f>SUMIFS(B:B,J:J,L6,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="8"/>
+      <c r="W6" s="2"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -3175,58 +3172,58 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-    </row>
-    <row r="7" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="15"/>
+      <c r="AI6" s="8"/>
+    </row>
+    <row r="7" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="65">
-        <f>SUMIFS(A:A,I:I,K7,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M7" s="65">
-        <f>SUMIFS(A:A,I:I,K7,C:C,$M$4)</f>
+        <f>SUMIFS(B:B,J:J,L7,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N7" s="65">
-        <f>SUMIFS(A:A,I:I,K7,C:C,$N$4)</f>
+        <f>SUMIFS(B:B,J:J,L7,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O7" s="65">
-        <f>SUMIFS(A:A,I:I,K7,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L7,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P7" s="65">
-        <f>SUMIFS(A:A,I:I,K7,C:C,$P$4)</f>
+        <f>SUMIFS(B:B,J:J,L7,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="65">
-        <f>SUMIFS(A:A,I:I,K7,C:C,$Q$4)</f>
+        <f>SUMIFS(B:B,J:J,L7,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R7" s="65">
-        <f>SUMIFS(A:A,I:I,K7,C:C,$R$4)</f>
+        <f>SUMIFS(B:B,J:J,L7,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S7" s="65">
-        <f>SUMIFS(A:A,I:I,K7,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="26" t="s">
+        <f>SUMIFS(B:B,J:J,L7,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="65">
+        <f>SUMIFS(B:B,J:J,L7,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="8"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -3238,58 +3235,58 @@
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
-    </row>
-    <row r="8" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="15"/>
+      <c r="AI7" s="8"/>
+    </row>
+    <row r="8" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="65">
-        <f>SUMIFS(A:A,I:I,K8,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M8" s="65">
-        <f>SUMIFS(A:A,I:I,K8,C:C,$M$4)</f>
+        <f>SUMIFS(B:B,J:J,L8,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N8" s="65">
-        <f>SUMIFS(A:A,I:I,K8,C:C,$N$4)</f>
+        <f>SUMIFS(B:B,J:J,L8,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O8" s="65">
-        <f>SUMIFS(A:A,I:I,K8,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L8,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P8" s="65">
-        <f>SUMIFS(A:A,I:I,K8,C:C,$P$4)</f>
+        <f>SUMIFS(B:B,J:J,L8,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="65">
-        <f>SUMIFS(A:A,I:I,K8,C:C,$Q$4)</f>
+        <f>SUMIFS(B:B,J:J,L8,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R8" s="65">
-        <f>SUMIFS(A:A,I:I,K8,C:C,$R$4)</f>
+        <f>SUMIFS(B:B,J:J,L8,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S8" s="65">
-        <f>SUMIFS(A:A,I:I,K8,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="26" t="s">
+        <f>SUMIFS(B:B,J:J,L8,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="65">
+        <f>SUMIFS(B:B,J:J,L8,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="8"/>
+      <c r="W8" s="2"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -3301,58 +3298,58 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
-    </row>
-    <row r="9" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="71"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="15"/>
+      <c r="AI8" s="8"/>
+    </row>
+    <row r="9" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="71"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="65">
-        <f>SUMIFS(A:A,I:I,K9,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M9" s="65">
-        <f>SUMIFS(A:A,I:I,K9,C:C,$M$4)</f>
+        <f>SUMIFS(B:B,J:J,L9,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N9" s="65">
-        <f>SUMIFS(A:A,I:I,K9,C:C,$N$4)</f>
+        <f>SUMIFS(B:B,J:J,L9,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O9" s="65">
-        <f>SUMIFS(A:A,I:I,K9,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L9,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P9" s="65">
-        <f>SUMIFS(A:A,I:I,K9,C:C,$P$4)</f>
+        <f>SUMIFS(B:B,J:J,L9,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="65">
-        <f>SUMIFS(A:A,I:I,K9,C:C,$Q$4)</f>
+        <f>SUMIFS(B:B,J:J,L9,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R9" s="65">
-        <f>SUMIFS(A:A,I:I,K9,C:C,$R$4)</f>
+        <f>SUMIFS(B:B,J:J,L9,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S9" s="65">
-        <f>SUMIFS(A:A,I:I,K9,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="26" t="s">
+        <f>SUMIFS(B:B,J:J,L9,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="65">
+        <f>SUMIFS(B:B,J:J,L9,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="8"/>
+      <c r="W9" s="2"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -3364,58 +3361,58 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
-    </row>
-    <row r="10" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="71"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="15"/>
+      <c r="AI9" s="8"/>
+    </row>
+    <row r="10" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B10" s="71"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="65">
-        <f>SUMIFS(A:A,I:I,K10,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M10" s="65">
-        <f>SUMIFS(A:A,I:I,K10,C:C,$M$4)</f>
+        <f>SUMIFS(B:B,J:J,L10,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N10" s="65">
-        <f>SUMIFS(A:A,I:I,K10,C:C,$N$4)</f>
+        <f>SUMIFS(B:B,J:J,L10,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O10" s="65">
-        <f>SUMIFS(A:A,I:I,K10,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L10,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P10" s="65">
-        <f>SUMIFS(A:A,I:I,K10,C:C,$P$4)</f>
+        <f>SUMIFS(B:B,J:J,L10,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="65">
-        <f>SUMIFS(A:A,I:I,K10,C:C,$Q$4)</f>
+        <f>SUMIFS(B:B,J:J,L10,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R10" s="65">
-        <f>SUMIFS(A:A,I:I,K10,C:C,$R$4)</f>
+        <f>SUMIFS(B:B,J:J,L10,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S10" s="65">
-        <f>SUMIFS(A:A,I:I,K10,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="26" t="s">
+        <f>SUMIFS(B:B,J:J,L10,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="65">
+        <f>SUMIFS(B:B,J:J,L10,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="8"/>
+      <c r="W10" s="2"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -3427,58 +3424,58 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
-    </row>
-    <row r="11" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A11" s="71"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="15"/>
+      <c r="AI10" s="8"/>
+    </row>
+    <row r="11" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B11" s="71"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="65">
-        <f>SUMIFS(A:A,I:I,K11,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M11" s="65">
-        <f>SUMIFS(A:A,I:I,K11,C:C,$M$4)</f>
+        <f>SUMIFS(B:B,J:J,L11,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N11" s="65">
-        <f>SUMIFS(A:A,I:I,K11,C:C,$N$4)</f>
+        <f>SUMIFS(B:B,J:J,L11,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O11" s="65">
-        <f>SUMIFS(A:A,I:I,K11,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L11,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P11" s="65">
-        <f>SUMIFS(A:A,I:I,K11,C:C,$P$4)</f>
+        <f>SUMIFS(B:B,J:J,L11,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="65">
-        <f>SUMIFS(A:A,I:I,K11,C:C,$Q$4)</f>
+        <f>SUMIFS(B:B,J:J,L11,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R11" s="65">
-        <f>SUMIFS(A:A,I:I,K11,C:C,$R$4)</f>
+        <f>SUMIFS(B:B,J:J,L11,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S11" s="65">
-        <f>SUMIFS(A:A,I:I,K11,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="26" t="s">
+        <f>SUMIFS(B:B,J:J,L11,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="65">
+        <f>SUMIFS(B:B,J:J,L11,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="8"/>
+      <c r="W11" s="2"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -3490,56 +3487,56 @@
       <c r="AF11" s="8"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
-    </row>
-    <row r="12" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="71"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="15"/>
+      <c r="AI11" s="8"/>
+    </row>
+    <row r="12" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B12" s="71"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="L12" s="65">
-        <f>SUMIFS(A:A,I:I,K12,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M12" s="65">
-        <f>SUMIFS(A:A,I:I,K12,C:C,$M$4)</f>
+        <f>SUMIFS(B:B,J:J,L12,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N12" s="65">
-        <f>SUMIFS(A:A,I:I,K12,C:C,$N$4)</f>
+        <f>SUMIFS(B:B,J:J,L12,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O12" s="65">
-        <f>SUMIFS(A:A,I:I,K12,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L12,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P12" s="65">
-        <f>SUMIFS(A:A,I:I,K12,C:C,$P$4)</f>
+        <f>SUMIFS(B:B,J:J,L12,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="65">
-        <f>SUMIFS(A:A,I:I,K12,C:C,$Q$4)</f>
+        <f>SUMIFS(B:B,J:J,L12,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R12" s="65">
-        <f>SUMIFS(A:A,I:I,K12,C:C,$R$4)</f>
+        <f>SUMIFS(B:B,J:J,L12,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S12" s="65">
-        <f>SUMIFS(A:A,I:I,K12,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="26"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="8"/>
+        <f>SUMIFS(B:B,J:J,L12,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="65">
+        <f>SUMIFS(B:B,J:J,L12,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="26"/>
+      <c r="W12" s="2"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
@@ -3551,31 +3548,28 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-    </row>
-    <row r="13" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="15"/>
+      <c r="AI12" s="8"/>
+    </row>
+    <row r="13" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="12" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="58">
-        <f>SUM(L5:L12)</f>
-        <v>0</v>
-      </c>
       <c r="M13" s="58">
-        <f t="shared" ref="M13:S13" si="0">SUM(M5:M12)</f>
+        <f>SUM(M5:M12)</f>
         <v>0</v>
       </c>
       <c r="N13" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N13:T13" si="0">SUM(N5:N12)</f>
         <v>0</v>
       </c>
       <c r="O13" s="58">
@@ -3598,9 +3592,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U13" s="26"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="8"/>
+      <c r="T13" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="26"/>
+      <c r="W13" s="2"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
@@ -3612,31 +3609,28 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-    </row>
-    <row r="14" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="71"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="15"/>
+      <c r="AI13" s="8"/>
+    </row>
+    <row r="14" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B14" s="71"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="6" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="L14" s="57" t="str">
-        <f>L4</f>
+      <c r="M14" s="57" t="str">
+        <f>M4</f>
         <v>دولار</v>
       </c>
-      <c r="M14" s="57">
-        <f t="shared" ref="M14:S14" si="1">M4</f>
-        <v>0</v>
-      </c>
       <c r="N14" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N14:T14" si="1">N4</f>
         <v>0</v>
       </c>
       <c r="O14" s="57">
@@ -3659,9 +3653,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U14" s="26"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="8"/>
+      <c r="T14" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="26"/>
+      <c r="W14" s="2"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
@@ -3673,58 +3670,58 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-    </row>
-    <row r="15" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="71"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="15"/>
+      <c r="AI14" s="8"/>
+    </row>
+    <row r="15" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B15" s="71"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="65">
-        <f>SUMIFS(B:B,I:I,K15,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M15" s="65">
-        <f>SUMIFS(B:B,I:I,K15,C:C,$M$4)</f>
+        <f t="shared" ref="M15:M60" si="2">SUMIFS(C:C,J:J,L15,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N15" s="65">
-        <f>SUMIFS(B:B,I:I,K15,C:C,$N$4)</f>
+        <f t="shared" ref="N15:N60" si="3">SUMIFS(C:C,J:J,L15,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O15" s="65">
-        <f>SUMIFS(B:B,I:I,K15,C:C,$O$4)</f>
+        <f t="shared" ref="O15:O60" si="4">SUMIFS(C:C,J:J,L15,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P15" s="65">
-        <f>SUMIFS(B:B,I:I,K15,C:C,$P$4)</f>
+        <f t="shared" ref="P15:P60" si="5">SUMIFS(C:C,J:J,L15,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="65">
-        <f>SUMIFS(B:B,I:I,K15,C:C,$Q$4)</f>
+        <f t="shared" ref="Q15:Q60" si="6">SUMIFS(C:C,J:J,L15,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R15" s="65">
-        <f>SUMIFS(B:B,I:I,K15,C:C,$R$4)</f>
+        <f t="shared" ref="R15:R60" si="7">SUMIFS(C:C,J:J,L15,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S15" s="65">
-        <f>SUMIFS(B:B,I:I,K15,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="26" t="s">
+        <f t="shared" ref="S15:S60" si="8">SUMIFS(C:C,J:J,L15,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="65">
+        <f t="shared" ref="T15:T60" si="9">SUMIFS(C:C,J:J,L15,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="8"/>
+      <c r="W15" s="2"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
@@ -3736,58 +3733,58 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
-    </row>
-    <row r="16" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="71"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="15"/>
+      <c r="AI15" s="8"/>
+    </row>
+    <row r="16" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B16" s="71"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="65">
-        <f>SUMIFS(B:B,I:I,K16,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M16" s="65">
-        <f>SUMIFS(B:B,I:I,K16,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N16" s="65">
-        <f>SUMIFS(B:B,I:I,K16,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="65">
-        <f>SUMIFS(B:B,I:I,K16,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="65">
-        <f>SUMIFS(B:B,I:I,K16,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q16" s="65">
-        <f>SUMIFS(B:B,I:I,K16,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R16" s="65">
-        <f>SUMIFS(B:B,I:I,K16,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S16" s="65">
-        <f>SUMIFS(B:B,I:I,K16,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="V16" s="2"/>
-      <c r="W16" s="8"/>
+      <c r="W16" s="2"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -3799,58 +3796,58 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
-    </row>
-    <row r="17" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="71"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="79"/>
+      <c r="AI16" s="8"/>
+    </row>
+    <row r="17" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B17" s="71"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
       <c r="F17" s="79"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11" t="s">
+      <c r="G17" s="79"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="65">
-        <f>SUMIFS(B:B,I:I,K17,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M17" s="65">
-        <f>SUMIFS(B:B,I:I,K17,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N17" s="65">
-        <f>SUMIFS(B:B,I:I,K17,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="65">
-        <f>SUMIFS(B:B,I:I,K17,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="65">
-        <f>SUMIFS(B:B,I:I,K17,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q17" s="65">
-        <f>SUMIFS(B:B,I:I,K17,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R17" s="65">
-        <f>SUMIFS(B:B,I:I,K17,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S17" s="65">
-        <f>SUMIFS(B:B,I:I,K17,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="2"/>
-      <c r="W17" s="8"/>
+      <c r="W17" s="2"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
@@ -3862,58 +3859,58 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
-    </row>
-    <row r="18" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="71"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="15"/>
+      <c r="AI17" s="8"/>
+    </row>
+    <row r="18" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B18" s="71"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="65">
-        <f>SUMIFS(B:B,I:I,K18,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M18" s="65">
-        <f>SUMIFS(B:B,I:I,K18,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N18" s="65">
-        <f>SUMIFS(B:B,I:I,K18,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18" s="65">
-        <f>SUMIFS(B:B,I:I,K18,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P18" s="65">
-        <f>SUMIFS(B:B,I:I,K18,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q18" s="65">
-        <f>SUMIFS(B:B,I:I,K18,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R18" s="65">
-        <f>SUMIFS(B:B,I:I,K18,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S18" s="65">
-        <f>SUMIFS(B:B,I:I,K18,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="V18" s="2"/>
-      <c r="W18" s="8"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -3925,58 +3922,58 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-    </row>
-    <row r="19" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="71"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="15"/>
+      <c r="AI18" s="8"/>
+    </row>
+    <row r="19" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B19" s="71"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="65">
-        <f>SUMIFS(B:B,I:I,K19,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M19" s="65">
-        <f>SUMIFS(B:B,I:I,K19,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N19" s="65">
-        <f>SUMIFS(B:B,I:I,K19,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="65">
-        <f>SUMIFS(B:B,I:I,K19,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="65">
-        <f>SUMIFS(B:B,I:I,K19,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19" s="65">
-        <f>SUMIFS(B:B,I:I,K19,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R19" s="65">
-        <f>SUMIFS(B:B,I:I,K19,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S19" s="65">
-        <f>SUMIFS(B:B,I:I,K19,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="8"/>
+      <c r="W19" s="2"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -3988,58 +3985,58 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
-    </row>
-    <row r="20" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A20" s="72"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="15"/>
+      <c r="AI19" s="8"/>
+    </row>
+    <row r="20" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B20" s="72"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="11" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="65">
-        <f>SUMIFS(B:B,I:I,K20,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M20" s="65">
-        <f>SUMIFS(B:B,I:I,K20,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N20" s="65">
-        <f>SUMIFS(B:B,I:I,K20,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="65">
-        <f>SUMIFS(B:B,I:I,K20,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="65">
-        <f>SUMIFS(B:B,I:I,K20,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q20" s="65">
-        <f>SUMIFS(B:B,I:I,K20,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R20" s="65">
-        <f>SUMIFS(B:B,I:I,K20,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S20" s="65">
-        <f>SUMIFS(B:B,I:I,K20,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="8"/>
+      <c r="W20" s="2"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -4051,58 +4048,58 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
-    </row>
-    <row r="21" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="72"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="15"/>
+      <c r="AI20" s="8"/>
+    </row>
+    <row r="21" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B21" s="72"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="11" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="65">
-        <f>SUMIFS(B:B,I:I,K21,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M21" s="65">
-        <f>SUMIFS(B:B,I:I,K21,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21" s="65">
-        <f>SUMIFS(B:B,I:I,K21,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21" s="65">
-        <f>SUMIFS(B:B,I:I,K21,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="65">
-        <f>SUMIFS(B:B,I:I,K21,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q21" s="65">
-        <f>SUMIFS(B:B,I:I,K21,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R21" s="65">
-        <f>SUMIFS(B:B,I:I,K21,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S21" s="65">
-        <f>SUMIFS(B:B,I:I,K21,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="8"/>
+      <c r="W21" s="2"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -4114,58 +4111,58 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
-    </row>
-    <row r="22" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="72"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="15"/>
+      <c r="AI21" s="8"/>
+    </row>
+    <row r="22" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B22" s="72"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="11" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="65">
-        <f>SUMIFS(B:B,I:I,K22,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M22" s="65">
-        <f>SUMIFS(B:B,I:I,K22,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N22" s="65">
-        <f>SUMIFS(B:B,I:I,K22,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="65">
-        <f>SUMIFS(B:B,I:I,K22,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="65">
-        <f>SUMIFS(B:B,I:I,K22,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q22" s="65">
-        <f>SUMIFS(B:B,I:I,K22,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R22" s="65">
-        <f>SUMIFS(B:B,I:I,K22,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S22" s="65">
-        <f>SUMIFS(B:B,I:I,K22,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="V22" s="2"/>
-      <c r="W22" s="8"/>
+      <c r="W22" s="2"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -4177,58 +4174,58 @@
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
-    </row>
-    <row r="23" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="72"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="15"/>
+      <c r="AI22" s="8"/>
+    </row>
+    <row r="23" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B23" s="72"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="11" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="65">
-        <f>SUMIFS(B:B,I:I,K23,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M23" s="65">
-        <f>SUMIFS(B:B,I:I,K23,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N23" s="65">
-        <f>SUMIFS(B:B,I:I,K23,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="65">
-        <f>SUMIFS(B:B,I:I,K23,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P23" s="65">
-        <f>SUMIFS(B:B,I:I,K23,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q23" s="65">
-        <f>SUMIFS(B:B,I:I,K23,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R23" s="65">
-        <f>SUMIFS(B:B,I:I,K23,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S23" s="65">
-        <f>SUMIFS(B:B,I:I,K23,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="8"/>
+      <c r="W23" s="2"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
@@ -4240,58 +4237,58 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-    </row>
-    <row r="24" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A24" s="72"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="15"/>
+      <c r="AI23" s="8"/>
+    </row>
+    <row r="24" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B24" s="72"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="11" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L24" s="65">
-        <f>SUMIFS(B:B,I:I,K24,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M24" s="65">
-        <f>SUMIFS(B:B,I:I,K24,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N24" s="65">
-        <f>SUMIFS(B:B,I:I,K24,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="65">
-        <f>SUMIFS(B:B,I:I,K24,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P24" s="65">
-        <f>SUMIFS(B:B,I:I,K24,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q24" s="65">
-        <f>SUMIFS(B:B,I:I,K24,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="65">
-        <f>SUMIFS(B:B,I:I,K24,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S24" s="65">
-        <f>SUMIFS(B:B,I:I,K24,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="8"/>
+      <c r="W24" s="2"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
@@ -4303,58 +4300,58 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-    </row>
-    <row r="25" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="72"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="15"/>
+      <c r="AI24" s="8"/>
+    </row>
+    <row r="25" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B25" s="72"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="11" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="L25" s="65">
-        <f>SUMIFS(B:B,I:I,K25,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M25" s="65">
-        <f>SUMIFS(B:B,I:I,K25,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N25" s="65">
-        <f>SUMIFS(B:B,I:I,K25,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="65">
-        <f>SUMIFS(B:B,I:I,K25,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P25" s="65">
-        <f>SUMIFS(B:B,I:I,K25,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q25" s="65">
-        <f>SUMIFS(B:B,I:I,K25,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R25" s="65">
-        <f>SUMIFS(B:B,I:I,K25,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S25" s="65">
-        <f>SUMIFS(B:B,I:I,K25,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="V25" s="2"/>
-      <c r="W25" s="8"/>
+      <c r="W25" s="2"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
@@ -4366,2739 +4363,2738 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-    </row>
-    <row r="26" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A26" s="72"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="15"/>
+      <c r="AI25" s="8"/>
+    </row>
+    <row r="26" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B26" s="72"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="11" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="65">
-        <f>SUMIFS(B:B,I:I,K26,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M26" s="65">
-        <f>SUMIFS(B:B,I:I,K26,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N26" s="65">
-        <f>SUMIFS(B:B,I:I,K26,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="65">
-        <f>SUMIFS(B:B,I:I,K26,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P26" s="65">
-        <f>SUMIFS(B:B,I:I,K26,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q26" s="65">
-        <f>SUMIFS(B:B,I:I,K26,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R26" s="65">
-        <f>SUMIFS(B:B,I:I,K26,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S26" s="65">
-        <f>SUMIFS(B:B,I:I,K26,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="73"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="45"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B27" s="73"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="11" t="s">
+      <c r="G27" s="45"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="65">
-        <f>SUMIFS(B:B,I:I,K27,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M27" s="65">
-        <f>SUMIFS(B:B,I:I,K27,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N27" s="65">
-        <f>SUMIFS(B:B,I:I,K27,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="65">
-        <f>SUMIFS(B:B,I:I,K27,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27" s="65">
-        <f>SUMIFS(B:B,I:I,K27,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q27" s="65">
-        <f>SUMIFS(B:B,I:I,K27,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R27" s="65">
-        <f>SUMIFS(B:B,I:I,K27,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S27" s="65">
-        <f>SUMIFS(B:B,I:I,K27,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="73"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="45"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B28" s="73"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="11" t="s">
+      <c r="G28" s="45"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="L28" s="65">
-        <f>SUMIFS(B:B,I:I,K28,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M28" s="65">
-        <f>SUMIFS(B:B,I:I,K28,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N28" s="65">
-        <f>SUMIFS(B:B,I:I,K28,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="65">
-        <f>SUMIFS(B:B,I:I,K28,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P28" s="65">
-        <f>SUMIFS(B:B,I:I,K28,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q28" s="65">
-        <f>SUMIFS(B:B,I:I,K28,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R28" s="65">
-        <f>SUMIFS(B:B,I:I,K28,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S28" s="65">
-        <f>SUMIFS(B:B,I:I,K28,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A29" s="73"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="45"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B29" s="73"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="11" t="s">
+      <c r="G29" s="45"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L29" s="65">
-        <f>SUMIFS(B:B,I:I,K29,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M29" s="65">
-        <f>SUMIFS(B:B,I:I,K29,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N29" s="65">
-        <f>SUMIFS(B:B,I:I,K29,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="65">
-        <f>SUMIFS(B:B,I:I,K29,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29" s="65">
-        <f>SUMIFS(B:B,I:I,K29,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q29" s="65">
-        <f>SUMIFS(B:B,I:I,K29,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R29" s="65">
-        <f>SUMIFS(B:B,I:I,K29,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S29" s="65">
-        <f>SUMIFS(B:B,I:I,K29,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A30" s="73"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="45"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B30" s="73"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="11" t="s">
+      <c r="G30" s="45"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="65">
-        <f>SUMIFS(B:B,I:I,K30,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M30" s="65">
-        <f>SUMIFS(B:B,I:I,K30,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N30" s="65">
-        <f>SUMIFS(B:B,I:I,K30,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="65">
-        <f>SUMIFS(B:B,I:I,K30,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P30" s="65">
-        <f>SUMIFS(B:B,I:I,K30,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q30" s="65">
-        <f>SUMIFS(B:B,I:I,K30,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R30" s="65">
-        <f>SUMIFS(B:B,I:I,K30,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S30" s="65">
-        <f>SUMIFS(B:B,I:I,K30,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="74"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="45"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B31" s="74"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="11" t="s">
+      <c r="G31" s="45"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="L31" s="65">
-        <f>SUMIFS(B:B,I:I,K31,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M31" s="65">
-        <f>SUMIFS(B:B,I:I,K31,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N31" s="65">
-        <f>SUMIFS(B:B,I:I,K31,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="65">
-        <f>SUMIFS(B:B,I:I,K31,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="65">
-        <f>SUMIFS(B:B,I:I,K31,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31" s="65">
-        <f>SUMIFS(B:B,I:I,K31,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R31" s="65">
-        <f>SUMIFS(B:B,I:I,K31,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S31" s="65">
-        <f>SUMIFS(B:B,I:I,K31,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="74"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="45"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="2:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B32" s="74"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="11" t="s">
+      <c r="G32" s="45"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="L32" s="65">
-        <f>SUMIFS(B:B,I:I,K32,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M32" s="65">
-        <f>SUMIFS(B:B,I:I,K32,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N32" s="65">
-        <f>SUMIFS(B:B,I:I,K32,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O32" s="65">
-        <f>SUMIFS(B:B,I:I,K32,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P32" s="65">
-        <f>SUMIFS(B:B,I:I,K32,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q32" s="65">
-        <f>SUMIFS(B:B,I:I,K32,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R32" s="65">
-        <f>SUMIFS(B:B,I:I,K32,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S32" s="65">
-        <f>SUMIFS(B:B,I:I,K32,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A33" s="74"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="45"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B33" s="74"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
       <c r="F33" s="45"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="11" t="s">
+      <c r="G33" s="45"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="65">
-        <f>SUMIFS(B:B,I:I,K33,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M33" s="65">
-        <f>SUMIFS(B:B,I:I,K33,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N33" s="65">
-        <f>SUMIFS(B:B,I:I,K33,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O33" s="65">
-        <f>SUMIFS(B:B,I:I,K33,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P33" s="65">
-        <f>SUMIFS(B:B,I:I,K33,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q33" s="65">
-        <f>SUMIFS(B:B,I:I,K33,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R33" s="65">
-        <f>SUMIFS(B:B,I:I,K33,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S33" s="65">
-        <f>SUMIFS(B:B,I:I,K33,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="18"/>
-      <c r="U33" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="18"/>
+      <c r="V33" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A34" s="74"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="45"/>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B34" s="74"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="11" t="s">
+      <c r="G34" s="45"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="65">
-        <f>SUMIFS(B:B,I:I,K34,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M34" s="65">
-        <f>SUMIFS(B:B,I:I,K34,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N34" s="65">
-        <f>SUMIFS(B:B,I:I,K34,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34" s="65">
-        <f>SUMIFS(B:B,I:I,K34,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34" s="65">
-        <f>SUMIFS(B:B,I:I,K34,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q34" s="65">
-        <f>SUMIFS(B:B,I:I,K34,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R34" s="65">
-        <f>SUMIFS(B:B,I:I,K34,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S34" s="65">
-        <f>SUMIFS(B:B,I:I,K34,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="V34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A35" s="75"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="45"/>
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B35" s="75"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
       <c r="F35" s="45"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="11" t="s">
+      <c r="G35" s="45"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L35" s="65">
-        <f>SUMIFS(B:B,I:I,K35,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M35" s="65">
-        <f>SUMIFS(B:B,I:I,K35,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N35" s="65">
-        <f>SUMIFS(B:B,I:I,K35,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O35" s="65">
-        <f>SUMIFS(B:B,I:I,K35,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P35" s="65">
-        <f>SUMIFS(B:B,I:I,K35,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q35" s="65">
-        <f>SUMIFS(B:B,I:I,K35,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R35" s="65">
-        <f>SUMIFS(B:B,I:I,K35,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S35" s="65">
-        <f>SUMIFS(B:B,I:I,K35,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A36" s="75"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="45"/>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B36" s="75"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="11" t="s">
+      <c r="G36" s="45"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L36" s="65">
-        <f>SUMIFS(B:B,I:I,K36,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M36" s="65">
-        <f>SUMIFS(B:B,I:I,K36,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N36" s="65">
-        <f>SUMIFS(B:B,I:I,K36,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O36" s="65">
-        <f>SUMIFS(B:B,I:I,K36,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P36" s="65">
-        <f>SUMIFS(B:B,I:I,K36,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q36" s="65">
-        <f>SUMIFS(B:B,I:I,K36,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R36" s="65">
-        <f>SUMIFS(B:B,I:I,K36,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S36" s="65">
-        <f>SUMIFS(B:B,I:I,K36,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A37" s="75"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="45"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B37" s="75"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
       <c r="F37" s="45"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="11"/>
-      <c r="K37" s="11" t="s">
+      <c r="G37" s="45"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="11"/>
+      <c r="L37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="65">
-        <f>SUMIFS(B:B,I:I,K37,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M37" s="65">
-        <f>SUMIFS(B:B,I:I,K37,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N37" s="65">
-        <f>SUMIFS(B:B,I:I,K37,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O37" s="65">
-        <f>SUMIFS(B:B,I:I,K37,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P37" s="65">
-        <f>SUMIFS(B:B,I:I,K37,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q37" s="65">
-        <f>SUMIFS(B:B,I:I,K37,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R37" s="65">
-        <f>SUMIFS(B:B,I:I,K37,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S37" s="65">
-        <f>SUMIFS(B:B,I:I,K37,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A38" s="75"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="45"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B38" s="75"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
       <c r="F38" s="45"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="11"/>
-      <c r="K38" s="11" t="s">
+      <c r="G38" s="45"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="11"/>
+      <c r="L38" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L38" s="65">
-        <f>SUMIFS(B:B,I:I,K38,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M38" s="65">
-        <f>SUMIFS(B:B,I:I,K38,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N38" s="65">
-        <f>SUMIFS(B:B,I:I,K38,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O38" s="65">
-        <f>SUMIFS(B:B,I:I,K38,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P38" s="65">
-        <f>SUMIFS(B:B,I:I,K38,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q38" s="65">
-        <f>SUMIFS(B:B,I:I,K38,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R38" s="65">
-        <f>SUMIFS(B:B,I:I,K38,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S38" s="65">
-        <f>SUMIFS(B:B,I:I,K38,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A39" s="76"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="45"/>
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B39" s="76"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
       <c r="F39" s="45"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="11"/>
-      <c r="K39" s="11" t="s">
+      <c r="G39" s="45"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="11"/>
+      <c r="L39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L39" s="65">
-        <f>SUMIFS(B:B,I:I,K39,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M39" s="65">
-        <f>SUMIFS(B:B,I:I,K39,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N39" s="65">
-        <f>SUMIFS(B:B,I:I,K39,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O39" s="65">
-        <f>SUMIFS(B:B,I:I,K39,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P39" s="65">
-        <f>SUMIFS(B:B,I:I,K39,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q39" s="65">
-        <f>SUMIFS(B:B,I:I,K39,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R39" s="65">
-        <f>SUMIFS(B:B,I:I,K39,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S39" s="65">
-        <f>SUMIFS(B:B,I:I,K39,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A40" s="76"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="45"/>
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B40" s="76"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
       <c r="F40" s="45"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="11"/>
-      <c r="K40" s="11" t="s">
+      <c r="G40" s="45"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="11"/>
+      <c r="L40" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L40" s="65">
-        <f>SUMIFS(B:B,I:I,K40,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M40" s="65">
-        <f>SUMIFS(B:B,I:I,K40,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N40" s="65">
-        <f>SUMIFS(B:B,I:I,K40,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O40" s="65">
-        <f>SUMIFS(B:B,I:I,K40,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P40" s="65">
-        <f>SUMIFS(B:B,I:I,K40,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q40" s="65">
-        <f>SUMIFS(B:B,I:I,K40,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R40" s="65">
-        <f>SUMIFS(B:B,I:I,K40,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S40" s="65">
-        <f>SUMIFS(B:B,I:I,K40,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A41" s="76"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="45"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B41" s="76"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
       <c r="F41" s="45"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="11"/>
-      <c r="K41" s="11" t="s">
+      <c r="G41" s="45"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="11"/>
+      <c r="L41" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L41" s="65">
-        <f>SUMIFS(B:B,I:I,K41,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M41" s="65">
-        <f>SUMIFS(B:B,I:I,K41,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N41" s="65">
-        <f>SUMIFS(B:B,I:I,K41,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O41" s="65">
-        <f>SUMIFS(B:B,I:I,K41,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P41" s="65">
-        <f>SUMIFS(B:B,I:I,K41,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q41" s="65">
-        <f>SUMIFS(B:B,I:I,K41,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R41" s="65">
-        <f>SUMIFS(B:B,I:I,K41,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S41" s="65">
-        <f>SUMIFS(B:B,I:I,K41,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A42" s="76"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="45"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B42" s="76"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="11"/>
-      <c r="K42" s="11" t="s">
+      <c r="G42" s="45"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="11"/>
+      <c r="L42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="65">
-        <f>SUMIFS(B:B,I:I,K42,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M42" s="65">
-        <f>SUMIFS(B:B,I:I,K42,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N42" s="65">
-        <f>SUMIFS(B:B,I:I,K42,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O42" s="65">
-        <f>SUMIFS(B:B,I:I,K42,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P42" s="65">
-        <f>SUMIFS(B:B,I:I,K42,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q42" s="65">
-        <f>SUMIFS(B:B,I:I,K42,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R42" s="65">
-        <f>SUMIFS(B:B,I:I,K42,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S42" s="65">
-        <f>SUMIFS(B:B,I:I,K42,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A43" s="77"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="45"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B43" s="77"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="11"/>
-      <c r="K43" s="11" t="s">
+      <c r="G43" s="45"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="11"/>
+      <c r="L43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L43" s="65">
-        <f>SUMIFS(B:B,I:I,K43,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M43" s="65">
-        <f>SUMIFS(B:B,I:I,K43,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N43" s="65">
-        <f>SUMIFS(B:B,I:I,K43,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O43" s="65">
-        <f>SUMIFS(B:B,I:I,K43,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P43" s="65">
-        <f>SUMIFS(B:B,I:I,K43,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q43" s="65">
-        <f>SUMIFS(B:B,I:I,K43,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R43" s="65">
-        <f>SUMIFS(B:B,I:I,K43,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S43" s="65">
-        <f>SUMIFS(B:B,I:I,K43,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="V43" s="2"/>
-      <c r="W43" s="18"/>
-    </row>
-    <row r="44" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A44" s="77"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="45"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="18"/>
+    </row>
+    <row r="44" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B44" s="77"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
       <c r="F44" s="45"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="11"/>
-      <c r="K44" s="11" t="s">
+      <c r="G44" s="45"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="11"/>
+      <c r="L44" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="65">
-        <f>SUMIFS(B:B,I:I,K44,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M44" s="65">
-        <f>SUMIFS(B:B,I:I,K44,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N44" s="65">
-        <f>SUMIFS(B:B,I:I,K44,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O44" s="65">
-        <f>SUMIFS(B:B,I:I,K44,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P44" s="65">
-        <f>SUMIFS(B:B,I:I,K44,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q44" s="65">
-        <f>SUMIFS(B:B,I:I,K44,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R44" s="65">
-        <f>SUMIFS(B:B,I:I,K44,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S44" s="65">
-        <f>SUMIFS(B:B,I:I,K44,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A45" s="77"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="45"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B45" s="77"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
       <c r="F45" s="45"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="11"/>
-      <c r="K45" s="11" t="s">
+      <c r="G45" s="45"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="11"/>
+      <c r="L45" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L45" s="65">
-        <f>SUMIFS(B:B,I:I,K45,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M45" s="65">
-        <f>SUMIFS(B:B,I:I,K45,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N45" s="65">
-        <f>SUMIFS(B:B,I:I,K45,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O45" s="65">
-        <f>SUMIFS(B:B,I:I,K45,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P45" s="65">
-        <f>SUMIFS(B:B,I:I,K45,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q45" s="65">
-        <f>SUMIFS(B:B,I:I,K45,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R45" s="65">
-        <f>SUMIFS(B:B,I:I,K45,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S45" s="65">
-        <f>SUMIFS(B:B,I:I,K45,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="V45" s="2"/>
-    </row>
-    <row r="46" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A46" s="78"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="45"/>
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B46" s="78"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
       <c r="F46" s="45"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="11"/>
-      <c r="K46" s="11" t="s">
+      <c r="G46" s="45"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="11"/>
+      <c r="L46" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L46" s="65">
-        <f>SUMIFS(B:B,I:I,K46,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M46" s="65">
-        <f>SUMIFS(B:B,I:I,K46,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N46" s="65">
-        <f>SUMIFS(B:B,I:I,K46,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O46" s="65">
-        <f>SUMIFS(B:B,I:I,K46,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P46" s="65">
-        <f>SUMIFS(B:B,I:I,K46,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q46" s="65">
-        <f>SUMIFS(B:B,I:I,K46,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R46" s="65">
-        <f>SUMIFS(B:B,I:I,K46,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S46" s="65">
-        <f>SUMIFS(B:B,I:I,K46,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A47" s="77"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="45"/>
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B47" s="77"/>
+      <c r="C47" s="70"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="11"/>
-      <c r="K47" s="11" t="s">
+      <c r="G47" s="45"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="11"/>
+      <c r="L47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L47" s="65">
-        <f>SUMIFS(B:B,I:I,K47,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M47" s="65">
-        <f>SUMIFS(B:B,I:I,K47,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N47" s="65">
-        <f>SUMIFS(B:B,I:I,K47,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O47" s="65">
-        <f>SUMIFS(B:B,I:I,K47,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P47" s="65">
-        <f>SUMIFS(B:B,I:I,K47,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q47" s="65">
-        <f>SUMIFS(B:B,I:I,K47,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R47" s="65">
-        <f>SUMIFS(B:B,I:I,K47,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S47" s="65">
-        <f>SUMIFS(B:B,I:I,K47,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U47" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A48" s="77"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="45"/>
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B48" s="77"/>
+      <c r="C48" s="70"/>
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
       <c r="F48" s="45"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="11"/>
-      <c r="K48" s="11" t="s">
+      <c r="G48" s="45"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="11"/>
+      <c r="L48" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L48" s="65">
-        <f>SUMIFS(B:B,I:I,K48,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M48" s="65">
-        <f>SUMIFS(B:B,I:I,K48,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N48" s="65">
-        <f>SUMIFS(B:B,I:I,K48,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O48" s="65">
-        <f>SUMIFS(B:B,I:I,K48,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P48" s="65">
-        <f>SUMIFS(B:B,I:I,K48,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q48" s="65">
-        <f>SUMIFS(B:B,I:I,K48,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R48" s="65">
-        <f>SUMIFS(B:B,I:I,K48,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S48" s="65">
-        <f>SUMIFS(B:B,I:I,K48,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A49" s="77"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="45"/>
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B49" s="77"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="11"/>
-      <c r="K49" s="11" t="s">
+      <c r="G49" s="45"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="11"/>
+      <c r="L49" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="65">
-        <f>SUMIFS(B:B,I:I,K49,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M49" s="65">
-        <f>SUMIFS(B:B,I:I,K49,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N49" s="65">
-        <f>SUMIFS(B:B,I:I,K49,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O49" s="65">
-        <f>SUMIFS(B:B,I:I,K49,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P49" s="65">
-        <f>SUMIFS(B:B,I:I,K49,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q49" s="65">
-        <f>SUMIFS(B:B,I:I,K49,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R49" s="65">
-        <f>SUMIFS(B:B,I:I,K49,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S49" s="65">
-        <f>SUMIFS(B:B,I:I,K49,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U49" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A50" s="77"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="45"/>
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B50" s="77"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
       <c r="F50" s="45"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="11"/>
-      <c r="K50" s="11" t="s">
+      <c r="G50" s="45"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="11"/>
+      <c r="L50" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="65">
-        <f>SUMIFS(B:B,I:I,K50,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M50" s="65">
-        <f>SUMIFS(B:B,I:I,K50,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N50" s="65">
-        <f>SUMIFS(B:B,I:I,K50,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O50" s="65">
-        <f>SUMIFS(B:B,I:I,K50,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P50" s="65">
-        <f>SUMIFS(B:B,I:I,K50,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q50" s="65">
-        <f>SUMIFS(B:B,I:I,K50,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R50" s="65">
-        <f>SUMIFS(B:B,I:I,K50,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S50" s="65">
-        <f>SUMIFS(B:B,I:I,K50,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U50" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A51" s="77"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="45"/>
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B51" s="77"/>
+      <c r="C51" s="70"/>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="11"/>
-      <c r="K51" s="11" t="s">
+      <c r="G51" s="45"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="11"/>
+      <c r="L51" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L51" s="65">
-        <f>SUMIFS(B:B,I:I,K51,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M51" s="65">
-        <f>SUMIFS(B:B,I:I,K51,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N51" s="65">
-        <f>SUMIFS(B:B,I:I,K51,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O51" s="65">
-        <f>SUMIFS(B:B,I:I,K51,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P51" s="65">
-        <f>SUMIFS(B:B,I:I,K51,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q51" s="65">
-        <f>SUMIFS(B:B,I:I,K51,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R51" s="65">
-        <f>SUMIFS(B:B,I:I,K51,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S51" s="65">
-        <f>SUMIFS(B:B,I:I,K51,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U51" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="V51" s="2"/>
-    </row>
-    <row r="52" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A52" s="77"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="45"/>
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B52" s="77"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="11"/>
-      <c r="K52" s="11" t="s">
+      <c r="G52" s="45"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="11"/>
+      <c r="L52" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L52" s="65">
-        <f>SUMIFS(B:B,I:I,K52,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M52" s="65">
-        <f>SUMIFS(B:B,I:I,K52,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N52" s="65">
-        <f>SUMIFS(B:B,I:I,K52,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O52" s="65">
-        <f>SUMIFS(B:B,I:I,K52,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P52" s="65">
-        <f>SUMIFS(B:B,I:I,K52,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q52" s="65">
-        <f>SUMIFS(B:B,I:I,K52,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R52" s="65">
-        <f>SUMIFS(B:B,I:I,K52,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S52" s="65">
-        <f>SUMIFS(B:B,I:I,K52,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="V52" s="2"/>
-    </row>
-    <row r="53" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A53" s="77"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="45"/>
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B53" s="77"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="11"/>
-      <c r="K53" s="11" t="s">
+      <c r="G53" s="45"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="11"/>
+      <c r="L53" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="L53" s="65">
-        <f>SUMIFS(B:B,I:I,K53,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M53" s="65">
-        <f>SUMIFS(B:B,I:I,K53,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N53" s="65">
-        <f>SUMIFS(B:B,I:I,K53,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O53" s="65">
-        <f>SUMIFS(B:B,I:I,K53,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P53" s="65">
-        <f>SUMIFS(B:B,I:I,K53,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q53" s="65">
-        <f>SUMIFS(B:B,I:I,K53,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R53" s="65">
-        <f>SUMIFS(B:B,I:I,K53,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S53" s="65">
-        <f>SUMIFS(B:B,I:I,K53,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U53" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="V53" s="2"/>
-    </row>
-    <row r="54" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A54" s="77"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="45"/>
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B54" s="77"/>
+      <c r="C54" s="70"/>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
       <c r="F54" s="45"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="13"/>
-      <c r="K54" s="11" t="s">
+      <c r="G54" s="45"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="13"/>
+      <c r="L54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L54" s="65">
-        <f>SUMIFS(B:B,I:I,K54,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M54" s="65">
-        <f>SUMIFS(B:B,I:I,K54,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N54" s="65">
-        <f>SUMIFS(B:B,I:I,K54,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O54" s="65">
-        <f>SUMIFS(B:B,I:I,K54,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P54" s="65">
-        <f>SUMIFS(B:B,I:I,K54,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q54" s="65">
-        <f>SUMIFS(B:B,I:I,K54,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R54" s="65">
-        <f>SUMIFS(B:B,I:I,K54,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S54" s="65">
-        <f>SUMIFS(B:B,I:I,K54,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U54" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="V54" s="2"/>
-    </row>
-    <row r="55" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A55" s="78"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="45"/>
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B55" s="78"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="13"/>
-      <c r="K55" s="11" t="s">
+      <c r="G55" s="45"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="13"/>
+      <c r="L55" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L55" s="65">
-        <f>SUMIFS(B:B,I:I,K55,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M55" s="65">
-        <f>SUMIFS(B:B,I:I,K55,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N55" s="65">
-        <f>SUMIFS(B:B,I:I,K55,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O55" s="65">
-        <f>SUMIFS(B:B,I:I,K55,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P55" s="65">
-        <f>SUMIFS(B:B,I:I,K55,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q55" s="65">
-        <f>SUMIFS(B:B,I:I,K55,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R55" s="65">
-        <f>SUMIFS(B:B,I:I,K55,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S55" s="65">
-        <f>SUMIFS(B:B,I:I,K55,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U55" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="V55" s="2"/>
-    </row>
-    <row r="56" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A56" s="77"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="33"/>
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B56" s="77"/>
+      <c r="C56" s="70"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="13"/>
-      <c r="K56" s="11" t="s">
+      <c r="G56" s="33"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="13"/>
+      <c r="L56" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L56" s="65">
-        <f>SUMIFS(B:B,I:I,K56,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M56" s="65">
-        <f>SUMIFS(B:B,I:I,K56,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N56" s="65">
-        <f>SUMIFS(B:B,I:I,K56,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O56" s="65">
-        <f>SUMIFS(B:B,I:I,K56,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P56" s="65">
-        <f>SUMIFS(B:B,I:I,K56,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q56" s="65">
-        <f>SUMIFS(B:B,I:I,K56,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R56" s="65">
-        <f>SUMIFS(B:B,I:I,K56,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S56" s="65">
-        <f>SUMIFS(B:B,I:I,K56,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U56" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="V56" s="2"/>
-    </row>
-    <row r="57" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A57" s="77"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="33"/>
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B57" s="77"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="13"/>
-      <c r="K57" s="11" t="s">
+      <c r="G57" s="33"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="13"/>
+      <c r="L57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L57" s="65">
-        <f>SUMIFS(B:B,I:I,K57,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M57" s="65">
-        <f>SUMIFS(B:B,I:I,K57,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N57" s="65">
-        <f>SUMIFS(B:B,I:I,K57,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O57" s="65">
-        <f>SUMIFS(B:B,I:I,K57,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P57" s="65">
-        <f>SUMIFS(B:B,I:I,K57,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q57" s="65">
-        <f>SUMIFS(B:B,I:I,K57,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R57" s="65">
-        <f>SUMIFS(B:B,I:I,K57,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S57" s="65">
-        <f>SUMIFS(B:B,I:I,K57,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U57" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="V57" s="2"/>
-    </row>
-    <row r="58" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A58" s="78"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="33"/>
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B58" s="78"/>
+      <c r="C58" s="70"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="13"/>
-      <c r="K58" s="11" t="s">
+      <c r="G58" s="33"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="13"/>
+      <c r="L58" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L58" s="65">
-        <f>SUMIFS(B:B,I:I,K58,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M58" s="65">
-        <f>SUMIFS(B:B,I:I,K58,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N58" s="65">
-        <f>SUMIFS(B:B,I:I,K58,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O58" s="65">
-        <f>SUMIFS(B:B,I:I,K58,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P58" s="65">
-        <f>SUMIFS(B:B,I:I,K58,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q58" s="65">
-        <f>SUMIFS(B:B,I:I,K58,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R58" s="65">
-        <f>SUMIFS(B:B,I:I,K58,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S58" s="65">
-        <f>SUMIFS(B:B,I:I,K58,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U58" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="V58" s="2"/>
-    </row>
-    <row r="59" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A59" s="78"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="33"/>
+      <c r="W58" s="2"/>
+    </row>
+    <row r="59" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B59" s="78"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="11" t="s">
+      <c r="G59" s="33"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L59" s="65">
-        <f>SUMIFS(B:B,I:I,K59,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M59" s="65">
-        <f>SUMIFS(B:B,I:I,K59,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N59" s="65">
-        <f>SUMIFS(B:B,I:I,K59,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O59" s="65">
-        <f>SUMIFS(B:B,I:I,K59,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P59" s="65">
-        <f>SUMIFS(B:B,I:I,K59,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q59" s="65">
-        <f>SUMIFS(B:B,I:I,K59,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R59" s="65">
-        <f>SUMIFS(B:B,I:I,K59,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S59" s="65">
-        <f>SUMIFS(B:B,I:I,K59,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U59" s="26" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="V59" s="2"/>
-    </row>
-    <row r="60" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A60" s="78"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="33"/>
+      <c r="W59" s="2"/>
+    </row>
+    <row r="60" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B60" s="78"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="104"/>
-      <c r="K60" s="11" t="s">
+      <c r="G60" s="33"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="13"/>
+      <c r="L60" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L60" s="65">
-        <f>SUMIFS(B:B,I:I,K60,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M60" s="65">
-        <f>SUMIFS(B:B,I:I,K60,C:C,$M$4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N60" s="65">
-        <f>SUMIFS(B:B,I:I,K60,C:C,$N$4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O60" s="65">
-        <f>SUMIFS(B:B,I:I,K60,C:C,$O$4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P60" s="65">
-        <f>SUMIFS(B:B,I:I,K60,C:C,$P$4)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q60" s="65">
-        <f>SUMIFS(B:B,I:I,K60,C:C,$Q$4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R60" s="65">
-        <f>SUMIFS(B:B,I:I,K60,C:C,$R$4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S60" s="65">
-        <f>SUMIFS(B:B,I:I,K60,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U60" s="26"/>
-      <c r="V60" s="2"/>
-    </row>
-    <row r="61" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A61" s="78"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="33"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="26"/>
+      <c r="W60" s="2"/>
+    </row>
+    <row r="61" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B61" s="78"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="13"/>
-      <c r="K61" s="6" t="s">
+      <c r="G61" s="33"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="13"/>
+      <c r="L61" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="L61" s="57" t="str">
-        <f>L4</f>
+      <c r="M61" s="57" t="str">
+        <f t="shared" ref="M61:T61" si="10">M4</f>
         <v>دولار</v>
       </c>
-      <c r="M61" s="57">
-        <f>M4</f>
-        <v>0</v>
-      </c>
       <c r="N61" s="57">
-        <f>N4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O61" s="57">
-        <f>O4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P61" s="57">
-        <f>P4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q61" s="57">
-        <f>Q4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R61" s="57">
-        <f>R4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S61" s="57">
-        <f>S4</f>
-        <v>0</v>
-      </c>
-      <c r="U61" s="26"/>
-      <c r="V61" s="2"/>
-    </row>
-    <row r="62" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A62" s="78"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="33"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="26"/>
+      <c r="W61" s="2"/>
+    </row>
+    <row r="62" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B62" s="78"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
       <c r="F62" s="33"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="13"/>
-      <c r="K62" s="11" t="s">
+      <c r="G62" s="33"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="13"/>
+      <c r="L62" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L62" s="65">
-        <f>SUMIFS(B:B,I:I,K62,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M62" s="65">
-        <f>SUMIFS(B:B,I:I,K62,C:C,$M$4)</f>
+        <f t="shared" ref="M62:M68" si="11">SUMIFS(C:C,J:J,L62,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N62" s="65">
-        <f>SUMIFS(B:B,I:I,K62,C:C,$N$4)</f>
+        <f t="shared" ref="N62:N68" si="12">SUMIFS(C:C,J:J,L62,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O62" s="65">
-        <f>SUMIFS(B:B,I:I,K62,C:C,$O$4)</f>
+        <f t="shared" ref="O62:O68" si="13">SUMIFS(C:C,J:J,L62,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P62" s="65">
-        <f>SUMIFS(B:B,I:I,K62,C:C,$P$4)</f>
+        <f t="shared" ref="P62:P68" si="14">SUMIFS(C:C,J:J,L62,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q62" s="65">
-        <f>SUMIFS(B:B,I:I,K62,C:C,$Q$4)</f>
+        <f t="shared" ref="Q62:Q68" si="15">SUMIFS(C:C,J:J,L62,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R62" s="65">
-        <f>SUMIFS(B:B,I:I,K62,C:C,$R$4)</f>
+        <f t="shared" ref="R62:R68" si="16">SUMIFS(C:C,J:J,L62,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S62" s="65">
-        <f>SUMIFS(B:B,I:I,K62,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U62" s="26" t="s">
+        <f t="shared" ref="S62:S68" si="17">SUMIFS(C:C,J:J,L62,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T62" s="65">
+        <f t="shared" ref="T62:T68" si="18">SUMIFS(C:C,J:J,L62,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V62" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="V62" s="2"/>
-    </row>
-    <row r="63" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A63" s="78"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="33"/>
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B63" s="78"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="13"/>
-      <c r="K63" s="11" t="s">
+      <c r="G63" s="33"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="13"/>
+      <c r="L63" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L63" s="65">
-        <f>SUMIFS(B:B,I:I,K63,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M63" s="65">
-        <f>SUMIFS(B:B,I:I,K63,C:C,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N63" s="65">
-        <f>SUMIFS(B:B,I:I,K63,C:C,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O63" s="65">
-        <f>SUMIFS(B:B,I:I,K63,C:C,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P63" s="65">
-        <f>SUMIFS(B:B,I:I,K63,C:C,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q63" s="65">
-        <f>SUMIFS(B:B,I:I,K63,C:C,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R63" s="65">
-        <f>SUMIFS(B:B,I:I,K63,C:C,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S63" s="65">
-        <f>SUMIFS(B:B,I:I,K63,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U63" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="65">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="V63" s="2"/>
-    </row>
-    <row r="64" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A64" s="78"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="33"/>
+      <c r="W63" s="2"/>
+    </row>
+    <row r="64" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B64" s="78"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="13"/>
-      <c r="K64" s="11" t="s">
+      <c r="G64" s="33"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="13"/>
+      <c r="L64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L64" s="65">
-        <f>SUMIFS(B:B,I:I,K64,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M64" s="65">
-        <f>SUMIFS(B:B,I:I,K64,C:C,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N64" s="65">
-        <f>SUMIFS(B:B,I:I,K64,C:C,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O64" s="65">
-        <f>SUMIFS(B:B,I:I,K64,C:C,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P64" s="65">
-        <f>SUMIFS(B:B,I:I,K64,C:C,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q64" s="65">
-        <f>SUMIFS(B:B,I:I,K64,C:C,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R64" s="65">
-        <f>SUMIFS(B:B,I:I,K64,C:C,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S64" s="65">
-        <f>SUMIFS(B:B,I:I,K64,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U64" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="65">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="V64" s="2"/>
-    </row>
-    <row r="65" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A65" s="78"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="33"/>
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B65" s="78"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
       <c r="F65" s="33"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="13"/>
-      <c r="K65" s="11" t="s">
+      <c r="G65" s="33"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="13"/>
+      <c r="L65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L65" s="65">
-        <f>SUMIFS(B:B,I:I,K65,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M65" s="65">
-        <f>SUMIFS(B:B,I:I,K65,C:C,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N65" s="65">
-        <f>SUMIFS(B:B,I:I,K65,C:C,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O65" s="65">
-        <f>SUMIFS(B:B,I:I,K65,C:C,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P65" s="65">
-        <f>SUMIFS(B:B,I:I,K65,C:C,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q65" s="65">
-        <f>SUMIFS(B:B,I:I,K65,C:C,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R65" s="65">
-        <f>SUMIFS(B:B,I:I,K65,C:C,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S65" s="65">
-        <f>SUMIFS(B:B,I:I,K65,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U65" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="65">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="V65" s="2"/>
-    </row>
-    <row r="66" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A66" s="78"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="33"/>
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B66" s="78"/>
+      <c r="C66" s="70"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="13"/>
-      <c r="K66" s="11" t="s">
+      <c r="G66" s="33"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="13"/>
+      <c r="L66" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L66" s="65">
-        <f>SUMIFS(B:B,I:I,K66,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M66" s="65">
-        <f>SUMIFS(B:B,I:I,K66,C:C,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N66" s="65">
-        <f>SUMIFS(B:B,I:I,K66,C:C,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O66" s="65">
-        <f>SUMIFS(B:B,I:I,K66,C:C,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P66" s="65">
-        <f>SUMIFS(B:B,I:I,K66,C:C,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q66" s="65">
-        <f>SUMIFS(B:B,I:I,K66,C:C,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R66" s="65">
-        <f>SUMIFS(B:B,I:I,K66,C:C,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S66" s="65">
-        <f>SUMIFS(B:B,I:I,K66,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U66" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="65">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="V66" s="2"/>
-    </row>
-    <row r="67" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A67" s="78"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="33"/>
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B67" s="78"/>
+      <c r="C67" s="70"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="13"/>
-      <c r="K67" s="11" t="s">
+      <c r="G67" s="33"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="13"/>
+      <c r="L67" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L67" s="65">
-        <f>SUMIFS(B:B,I:I,K67,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M67" s="65">
-        <f>SUMIFS(B:B,I:I,K67,C:C,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N67" s="65">
-        <f>SUMIFS(B:B,I:I,K67,C:C,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O67" s="65">
-        <f>SUMIFS(B:B,I:I,K67,C:C,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P67" s="65">
-        <f>SUMIFS(B:B,I:I,K67,C:C,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q67" s="65">
-        <f>SUMIFS(B:B,I:I,K67,C:C,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R67" s="65">
-        <f>SUMIFS(B:B,I:I,K67,C:C,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S67" s="65">
-        <f>SUMIFS(B:B,I:I,K67,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U67" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="65">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="V67" s="2"/>
-    </row>
-    <row r="68" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A68" s="78"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="33"/>
+      <c r="W67" s="2"/>
+    </row>
+    <row r="68" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B68" s="78"/>
+      <c r="C68" s="70"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="13"/>
-      <c r="K68" s="11" t="s">
+      <c r="G68" s="33"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="13"/>
+      <c r="L68" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L68" s="65">
-        <f>SUMIFS(B:B,I:I,K68,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M68" s="65">
-        <f>SUMIFS(B:B,I:I,K68,C:C,$M$4)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N68" s="65">
-        <f>SUMIFS(B:B,I:I,K68,C:C,$N$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O68" s="65">
-        <f>SUMIFS(B:B,I:I,K68,C:C,$O$4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P68" s="65">
-        <f>SUMIFS(B:B,I:I,K68,C:C,$P$4)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q68" s="65">
-        <f>SUMIFS(B:B,I:I,K68,C:C,$Q$4)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R68" s="65">
-        <f>SUMIFS(B:B,I:I,K68,C:C,$R$4)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S68" s="65">
-        <f>SUMIFS(B:B,I:I,K68,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U68" s="26" t="s">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="65">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="V68" s="2"/>
-    </row>
-    <row r="69" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A69" s="78"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="33"/>
+      <c r="W68" s="2"/>
+    </row>
+    <row r="69" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B69" s="78"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="13"/>
-      <c r="K69" s="6" t="s">
+      <c r="G69" s="33"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="13"/>
+      <c r="L69" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L69" s="57" t="str">
-        <f>L4</f>
+      <c r="M69" s="57" t="str">
+        <f t="shared" ref="M69:T69" si="19">M4</f>
         <v>دولار</v>
       </c>
-      <c r="M69" s="57">
-        <f>M4</f>
-        <v>0</v>
-      </c>
       <c r="N69" s="57">
-        <f>N4</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O69" s="57">
-        <f>O4</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P69" s="57">
-        <f>P4</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q69" s="57">
-        <f>Q4</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R69" s="57">
-        <f>R4</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S69" s="57">
-        <f>S4</f>
-        <v>0</v>
-      </c>
-      <c r="U69" s="26"/>
-      <c r="V69" s="2"/>
-    </row>
-    <row r="70" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A70" s="78"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="33"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="57">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="26"/>
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B70" s="78"/>
+      <c r="C70" s="70"/>
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="13"/>
-      <c r="K70" s="11" t="s">
+      <c r="G70" s="33"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="13"/>
+      <c r="L70" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L70" s="65">
-        <f>SUMIFS(B:B,I:I,K70,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M70" s="65">
-        <f>SUMIFS(B:B,I:I,K70,C:C,$M$4)</f>
+        <f t="shared" ref="M70:M79" si="20">SUMIFS(C:C,J:J,L70,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N70" s="65">
-        <f>SUMIFS(B:B,I:I,K70,C:C,$N$4)</f>
+        <f t="shared" ref="N70:N79" si="21">SUMIFS(C:C,J:J,L70,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O70" s="65">
-        <f>SUMIFS(B:B,I:I,K70,C:C,$O$4)</f>
+        <f t="shared" ref="O70:O79" si="22">SUMIFS(C:C,J:J,L70,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P70" s="65">
-        <f>SUMIFS(B:B,I:I,K70,C:C,$P$4)</f>
+        <f t="shared" ref="P70:P79" si="23">SUMIFS(C:C,J:J,L70,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q70" s="65">
-        <f>SUMIFS(B:B,I:I,K70,C:C,$Q$4)</f>
+        <f t="shared" ref="Q70:Q79" si="24">SUMIFS(C:C,J:J,L70,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R70" s="65">
-        <f>SUMIFS(B:B,I:I,K70,C:C,$R$4)</f>
+        <f t="shared" ref="R70:R79" si="25">SUMIFS(C:C,J:J,L70,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S70" s="65">
-        <f>SUMIFS(B:B,I:I,K70,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U70" s="26" t="s">
+        <f t="shared" ref="S70:S79" si="26">SUMIFS(C:C,J:J,L70,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="65">
+        <f t="shared" ref="T70:T79" si="27">SUMIFS(C:C,J:J,L70,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="V70" s="2"/>
-    </row>
-    <row r="71" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A71" s="78"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="33"/>
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B71" s="78"/>
+      <c r="C71" s="70"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="13"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="65">
-        <f>SUMIFS(B:B,I:I,K71,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
+      <c r="G71" s="33"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="13"/>
+      <c r="L71" s="11"/>
       <c r="M71" s="65">
-        <f>SUMIFS(B:B,I:I,K71,C:C,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N71" s="65">
-        <f>SUMIFS(B:B,I:I,K71,C:C,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O71" s="65">
-        <f>SUMIFS(B:B,I:I,K71,C:C,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P71" s="65">
-        <f>SUMIFS(B:B,I:I,K71,C:C,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q71" s="65">
-        <f>SUMIFS(B:B,I:I,K71,C:C,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R71" s="65">
-        <f>SUMIFS(B:B,I:I,K71,C:C,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S71" s="65">
-        <f>SUMIFS(B:B,I:I,K71,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U71" s="26"/>
-      <c r="V71" s="2"/>
-    </row>
-    <row r="72" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A72" s="78"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="33"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="26"/>
+      <c r="W71" s="2"/>
+    </row>
+    <row r="72" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B72" s="78"/>
+      <c r="C72" s="70"/>
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="13"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="65">
-        <f>SUMIFS(B:B,I:I,K72,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
+      <c r="G72" s="33"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="13"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="65">
-        <f>SUMIFS(B:B,I:I,K72,C:C,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N72" s="65">
-        <f>SUMIFS(B:B,I:I,K72,C:C,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O72" s="65">
-        <f>SUMIFS(B:B,I:I,K72,C:C,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P72" s="65">
-        <f>SUMIFS(B:B,I:I,K72,C:C,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q72" s="65">
-        <f>SUMIFS(B:B,I:I,K72,C:C,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R72" s="65">
-        <f>SUMIFS(B:B,I:I,K72,C:C,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S72" s="65">
-        <f>SUMIFS(B:B,I:I,K72,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U72" s="26"/>
-      <c r="V72" s="2"/>
-    </row>
-    <row r="73" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A73" s="78"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="33"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="26"/>
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B73" s="78"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="13"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="65">
-        <f>SUMIFS(B:B,I:I,K73,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
+      <c r="G73" s="33"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="13"/>
+      <c r="L73" s="11"/>
       <c r="M73" s="65">
-        <f>SUMIFS(B:B,I:I,K73,C:C,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N73" s="65">
-        <f>SUMIFS(B:B,I:I,K73,C:C,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O73" s="65">
-        <f>SUMIFS(B:B,I:I,K73,C:C,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P73" s="65">
-        <f>SUMIFS(B:B,I:I,K73,C:C,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q73" s="65">
-        <f>SUMIFS(B:B,I:I,K73,C:C,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R73" s="65">
-        <f>SUMIFS(B:B,I:I,K73,C:C,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S73" s="65">
-        <f>SUMIFS(B:B,I:I,K73,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U73" s="26"/>
-      <c r="V73" s="2"/>
-    </row>
-    <row r="74" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A74" s="78"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="33"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="26"/>
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B74" s="78"/>
+      <c r="C74" s="70"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="13"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="65">
-        <f>SUMIFS(B:B,I:I,K74,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
+      <c r="G74" s="33"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="13"/>
+      <c r="L74" s="11"/>
       <c r="M74" s="65">
-        <f>SUMIFS(B:B,I:I,K74,C:C,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N74" s="65">
-        <f>SUMIFS(B:B,I:I,K74,C:C,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O74" s="65">
-        <f>SUMIFS(B:B,I:I,K74,C:C,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P74" s="65">
-        <f>SUMIFS(B:B,I:I,K74,C:C,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q74" s="65">
-        <f>SUMIFS(B:B,I:I,K74,C:C,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R74" s="65">
-        <f>SUMIFS(B:B,I:I,K74,C:C,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S74" s="65">
-        <f>SUMIFS(B:B,I:I,K74,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U74" s="26"/>
-      <c r="V74" s="2"/>
-    </row>
-    <row r="75" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A75" s="78"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="33"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="26"/>
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B75" s="78"/>
+      <c r="C75" s="70"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="13"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="65">
-        <f>SUMIFS(B:B,I:I,K75,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
+      <c r="G75" s="33"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="13"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="65">
-        <f>SUMIFS(B:B,I:I,K75,C:C,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N75" s="65">
-        <f>SUMIFS(B:B,I:I,K75,C:C,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O75" s="65">
-        <f>SUMIFS(B:B,I:I,K75,C:C,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P75" s="65">
-        <f>SUMIFS(B:B,I:I,K75,C:C,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q75" s="65">
-        <f>SUMIFS(B:B,I:I,K75,C:C,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R75" s="65">
-        <f>SUMIFS(B:B,I:I,K75,C:C,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S75" s="65">
-        <f>SUMIFS(B:B,I:I,K75,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U75" s="26"/>
-      <c r="V75" s="2"/>
-    </row>
-    <row r="76" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A76" s="78"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="33"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="26"/>
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B76" s="78"/>
+      <c r="C76" s="70"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33"/>
       <c r="F76" s="33"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="13"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="65">
-        <f>SUMIFS(B:B,I:I,K76,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
+      <c r="G76" s="33"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="13"/>
+      <c r="L76" s="11"/>
       <c r="M76" s="65">
-        <f>SUMIFS(B:B,I:I,K76,C:C,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N76" s="65">
-        <f>SUMIFS(B:B,I:I,K76,C:C,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O76" s="65">
-        <f>SUMIFS(B:B,I:I,K76,C:C,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P76" s="65">
-        <f>SUMIFS(B:B,I:I,K76,C:C,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q76" s="65">
-        <f>SUMIFS(B:B,I:I,K76,C:C,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R76" s="65">
-        <f>SUMIFS(B:B,I:I,K76,C:C,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S76" s="65">
-        <f>SUMIFS(B:B,I:I,K76,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U76" s="26"/>
-      <c r="V76" s="2"/>
-    </row>
-    <row r="77" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A77" s="78"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="33"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="26"/>
+      <c r="W76" s="2"/>
+    </row>
+    <row r="77" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B77" s="78"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33"/>
       <c r="F77" s="33"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="13"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="65">
-        <f>SUMIFS(B:B,I:I,K77,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
+      <c r="G77" s="33"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="13"/>
+      <c r="L77" s="11"/>
       <c r="M77" s="65">
-        <f>SUMIFS(B:B,I:I,K77,C:C,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N77" s="65">
-        <f>SUMIFS(B:B,I:I,K77,C:C,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O77" s="65">
-        <f>SUMIFS(B:B,I:I,K77,C:C,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P77" s="65">
-        <f>SUMIFS(B:B,I:I,K77,C:C,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q77" s="65">
-        <f>SUMIFS(B:B,I:I,K77,C:C,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R77" s="65">
-        <f>SUMIFS(B:B,I:I,K77,C:C,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S77" s="65">
-        <f>SUMIFS(B:B,I:I,K77,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U77" s="26"/>
-      <c r="V77" s="2"/>
-    </row>
-    <row r="78" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A78" s="78"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="33"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="26"/>
+      <c r="W77" s="2"/>
+    </row>
+    <row r="78" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B78" s="78"/>
+      <c r="C78" s="70"/>
       <c r="D78" s="33"/>
       <c r="E78" s="33"/>
       <c r="F78" s="33"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="13"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="65">
-        <f>SUMIFS(B:B,I:I,K78,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
+      <c r="G78" s="33"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="13"/>
+      <c r="L78" s="11"/>
       <c r="M78" s="65">
-        <f>SUMIFS(B:B,I:I,K78,C:C,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N78" s="65">
-        <f>SUMIFS(B:B,I:I,K78,C:C,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O78" s="65">
-        <f>SUMIFS(B:B,I:I,K78,C:C,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P78" s="65">
-        <f>SUMIFS(B:B,I:I,K78,C:C,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q78" s="65">
-        <f>SUMIFS(B:B,I:I,K78,C:C,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R78" s="65">
-        <f>SUMIFS(B:B,I:I,K78,C:C,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S78" s="65">
-        <f>SUMIFS(B:B,I:I,K78,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U78" s="26"/>
-      <c r="V78" s="2"/>
-    </row>
-    <row r="79" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A79" s="78"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="33"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="26"/>
+      <c r="W78" s="2"/>
+    </row>
+    <row r="79" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B79" s="78"/>
+      <c r="C79" s="70"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="13"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="65">
-        <f>SUMIFS(B:B,I:I,K79,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
+      <c r="G79" s="33"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="13"/>
+      <c r="L79" s="11"/>
       <c r="M79" s="65">
-        <f>SUMIFS(B:B,I:I,K79,C:C,$M$4)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N79" s="65">
-        <f>SUMIFS(B:B,I:I,K79,C:C,$N$4)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O79" s="65">
-        <f>SUMIFS(B:B,I:I,K79,C:C,$O$4)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P79" s="65">
-        <f>SUMIFS(B:B,I:I,K79,C:C,$P$4)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q79" s="65">
-        <f>SUMIFS(B:B,I:I,K79,C:C,$Q$4)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R79" s="65">
-        <f>SUMIFS(B:B,I:I,K79,C:C,$R$4)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S79" s="65">
-        <f>SUMIFS(B:B,I:I,K79,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U79" s="26"/>
-      <c r="V79" s="2"/>
-    </row>
-    <row r="80" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A80" s="78"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="33"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V79" s="26"/>
+      <c r="W79" s="2"/>
+    </row>
+    <row r="80" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B80" s="78"/>
+      <c r="C80" s="70"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33"/>
       <c r="F80" s="33"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="13"/>
-      <c r="K80" s="12" t="s">
+      <c r="G80" s="33"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="13"/>
+      <c r="L80" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="L80" s="58">
-        <f>SUM(L15:L79)</f>
-        <v>0</v>
-      </c>
       <c r="M80" s="58">
-        <f>SUM(M15:M79)</f>
+        <f t="shared" ref="M80:T80" si="28">SUM(M15:M79)</f>
         <v>0</v>
       </c>
       <c r="N80" s="58">
-        <f>SUM(N15:N79)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O80" s="58">
-        <f>SUM(O15:O79)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P80" s="58">
-        <f>SUM(P15:P79)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q80" s="58">
-        <f>SUM(Q15:Q79)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R80" s="58">
-        <f>SUM(R15:R79)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S80" s="58">
-        <f>SUM(S15:S79)</f>
-        <v>0</v>
-      </c>
-      <c r="U80" s="26"/>
-      <c r="V80" s="2"/>
-    </row>
-    <row r="81" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A81" s="78"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="33"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="58">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="26"/>
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B81" s="78"/>
+      <c r="C81" s="70"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="13"/>
-      <c r="L81" s="59"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="13"/>
       <c r="M81" s="59"/>
       <c r="N81" s="59"/>
       <c r="O81" s="59"/>
@@ -7106,261 +7102,261 @@
       <c r="Q81" s="59"/>
       <c r="R81" s="59"/>
       <c r="S81" s="59"/>
-      <c r="U81" s="26"/>
-      <c r="V81" s="2"/>
-    </row>
-    <row r="82" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A82" s="78"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="33"/>
+      <c r="T81" s="59"/>
+      <c r="V81" s="26"/>
+      <c r="W81" s="2"/>
+    </row>
+    <row r="82" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B82" s="78"/>
+      <c r="C82" s="70"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
       <c r="F82" s="33"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="13"/>
-      <c r="K82" s="11" t="s">
+      <c r="G82" s="33"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="13"/>
+      <c r="L82" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L82" s="57" t="str">
-        <f>L4</f>
+      <c r="M82" s="57" t="str">
+        <f t="shared" ref="M82:T82" si="29">M4</f>
         <v>دولار</v>
       </c>
-      <c r="M82" s="57">
-        <f>M4</f>
-        <v>0</v>
-      </c>
       <c r="N82" s="57">
-        <f>N4</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O82" s="57">
-        <f>O4</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P82" s="57">
-        <f>P4</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q82" s="57">
-        <f>Q4</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R82" s="57">
-        <f>R4</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S82" s="57">
-        <f>S4</f>
-        <v>0</v>
-      </c>
-      <c r="U82" s="26"/>
-      <c r="V82" s="2"/>
-    </row>
-    <row r="83" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A83" s="78"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="33"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="57">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="26"/>
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B83" s="78"/>
+      <c r="C83" s="70"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="13"/>
-      <c r="K83" s="23" t="s">
+      <c r="G83" s="33"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="13"/>
+      <c r="L83" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="65">
-        <f>SUMIFS(B:B,I:I,K83,C:C,$L$4)</f>
-        <v>0</v>
-      </c>
       <c r="M83" s="65">
-        <f>SUMIFS(B:B,I:I,K83,C:C,$M$4)</f>
+        <f>SUMIFS(C:C,J:J,L83,D:D,$M$4)</f>
         <v>0</v>
       </c>
       <c r="N83" s="65">
-        <f>SUMIFS(B:B,I:I,K83,C:C,$N$4)</f>
+        <f>SUMIFS(C:C,J:J,L83,D:D,$N$4)</f>
         <v>0</v>
       </c>
       <c r="O83" s="65">
-        <f>SUMIFS(B:B,I:I,K83,C:C,$O$4)</f>
+        <f>SUMIFS(C:C,J:J,L83,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P83" s="65">
-        <f>SUMIFS(B:B,I:I,K83,C:C,$P$4)</f>
+        <f>SUMIFS(C:C,J:J,L83,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q83" s="65">
-        <f>SUMIFS(B:B,I:I,K83,C:C,$Q$4)</f>
+        <f>SUMIFS(C:C,J:J,L83,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R83" s="65">
-        <f>SUMIFS(B:B,I:I,K83,C:C,$R$4)</f>
+        <f>SUMIFS(C:C,J:J,L83,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S83" s="65">
-        <f>SUMIFS(B:B,I:I,K83,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U83" s="26"/>
-      <c r="V83" s="2"/>
-    </row>
-    <row r="84" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A84" s="78"/>
-      <c r="B84" s="70"/>
-      <c r="C84" s="33"/>
+        <f>SUMIFS(C:C,J:J,L83,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T83" s="65">
+        <f>SUMIFS(C:C,J:J,L83,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V83" s="26"/>
+      <c r="W83" s="2"/>
+    </row>
+    <row r="84" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B84" s="78"/>
+      <c r="C84" s="70"/>
       <c r="D84" s="33"/>
       <c r="E84" s="33"/>
       <c r="F84" s="33"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="13"/>
-      <c r="K84" s="23" t="s">
+      <c r="G84" s="33"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="13"/>
+      <c r="L84" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L84" s="31">
-        <f>L13-L83</f>
-        <v>0</v>
-      </c>
       <c r="M84" s="31">
-        <f>SUMIFS(A:A,I:I,K84,C:C,$M$4)</f>
+        <f>M13-M83</f>
         <v>0</v>
       </c>
       <c r="N84" s="31">
-        <f>SUMIFS(A:A,I:I,K84,C:C,$N$4)</f>
-        <v>0</v>
-      </c>
-      <c r="O84" s="65">
-        <f>SUMIFS(B:B,I:I,K84,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L84,D:D,$N$4)</f>
+        <v>0</v>
+      </c>
+      <c r="O84" s="31">
+        <f>SUMIFS(B:B,J:J,L84,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P84" s="65">
-        <f>SUMIFS(B:B,I:I,K84,C:C,$P$4)</f>
+        <f>SUMIFS(C:C,J:J,L84,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q84" s="65">
-        <f>SUMIFS(B:B,I:I,K84,C:C,$Q$4)</f>
+        <f>SUMIFS(C:C,J:J,L84,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R84" s="65">
-        <f>SUMIFS(B:B,I:I,K84,C:C,$R$4)</f>
+        <f>SUMIFS(C:C,J:J,L84,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S84" s="65">
-        <f>SUMIFS(B:B,I:I,K84,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U84" s="26"/>
-      <c r="V84" s="2"/>
-    </row>
-    <row r="85" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A85" s="78"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="33"/>
+        <f>SUMIFS(C:C,J:J,L84,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T84" s="65">
+        <f>SUMIFS(C:C,J:J,L84,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V84" s="26"/>
+      <c r="W84" s="2"/>
+    </row>
+    <row r="85" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B85" s="78"/>
+      <c r="C85" s="70"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
       <c r="F85" s="33"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="13"/>
-      <c r="K85" s="23" t="s">
+      <c r="G85" s="33"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="13"/>
+      <c r="L85" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="L85" s="31">
-        <f>L80</f>
-        <v>0</v>
-      </c>
       <c r="M85" s="31">
-        <f>SUMIFS(A:A,I:I,K85,C:C,$M$4)</f>
+        <f>M80</f>
         <v>0</v>
       </c>
       <c r="N85" s="31">
-        <f>SUMIFS(A:A,I:I,K85,C:C,$N$4)</f>
-        <v>0</v>
-      </c>
-      <c r="O85" s="65">
-        <f>SUMIFS(B:B,I:I,K85,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L85,D:D,$N$4)</f>
+        <v>0</v>
+      </c>
+      <c r="O85" s="31">
+        <f>SUMIFS(B:B,J:J,L85,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P85" s="65">
-        <f>SUMIFS(B:B,I:I,K85,C:C,$P$4)</f>
+        <f>SUMIFS(C:C,J:J,L85,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q85" s="65">
-        <f>SUMIFS(B:B,I:I,K85,C:C,$Q$4)</f>
+        <f>SUMIFS(C:C,J:J,L85,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R85" s="65">
-        <f>SUMIFS(B:B,I:I,K85,C:C,$R$4)</f>
+        <f>SUMIFS(C:C,J:J,L85,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S85" s="65">
-        <f>SUMIFS(B:B,I:I,K85,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U85" s="26"/>
-      <c r="V85" s="2"/>
-    </row>
-    <row r="86" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A86" s="78"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="33"/>
+        <f>SUMIFS(C:C,J:J,L85,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T85" s="65">
+        <f>SUMIFS(C:C,J:J,L85,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V85" s="26"/>
+      <c r="W85" s="2"/>
+    </row>
+    <row r="86" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="B86" s="78"/>
+      <c r="C86" s="70"/>
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
       <c r="F86" s="33"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="23" t="s">
+      <c r="G86" s="33"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L86" s="31">
-        <f>SUM(L83+L84-L85)</f>
-        <v>0</v>
-      </c>
       <c r="M86" s="31">
-        <f>SUMIFS(A:A,I:I,K86,C:C,$M$4)</f>
+        <f>SUM(M83+M84-M85)</f>
         <v>0</v>
       </c>
       <c r="N86" s="31">
-        <f>SUMIFS(A:A,I:I,K86,C:C,$N$4)</f>
-        <v>0</v>
-      </c>
-      <c r="O86" s="65">
-        <f>SUMIFS(B:B,I:I,K86,C:C,$O$4)</f>
+        <f>SUMIFS(B:B,J:J,L86,D:D,$N$4)</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="31">
+        <f>SUMIFS(B:B,J:J,L86,D:D,$O$4)</f>
         <v>0</v>
       </c>
       <c r="P86" s="65">
-        <f>SUMIFS(B:B,I:I,K86,C:C,$P$4)</f>
+        <f>SUMIFS(C:C,J:J,L86,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q86" s="65">
-        <f>SUMIFS(B:B,I:I,K86,C:C,$Q$4)</f>
+        <f>SUMIFS(C:C,J:J,L86,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R86" s="65">
-        <f>SUMIFS(B:B,I:I,K86,C:C,$R$4)</f>
+        <f>SUMIFS(C:C,J:J,L86,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S86" s="65">
-        <f>SUMIFS(B:B,I:I,K86,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U86" s="26"/>
-      <c r="V86" s="2"/>
-    </row>
-    <row r="87" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A87" s="78"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="33"/>
+        <f>SUMIFS(C:C,J:J,L86,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T86" s="65">
+        <f>SUMIFS(C:C,J:J,L86,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V86" s="26"/>
+      <c r="W86" s="2"/>
+    </row>
+    <row r="87" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="B87" s="78"/>
+      <c r="C87" s="70"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
       <c r="F87" s="33"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="13"/>
-      <c r="L87" s="60"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="13"/>
       <c r="M87" s="60"/>
       <c r="N87" s="60"/>
       <c r="O87" s="60"/>
@@ -7368,20 +7364,20 @@
       <c r="Q87" s="60"/>
       <c r="R87" s="60"/>
       <c r="S87" s="60"/>
-      <c r="U87" s="26"/>
-      <c r="V87" s="2"/>
-    </row>
-    <row r="88" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A88" s="78"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="33"/>
+      <c r="T87" s="60"/>
+      <c r="V87" s="26"/>
+      <c r="W87" s="2"/>
+    </row>
+    <row r="88" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="B88" s="78"/>
+      <c r="C88" s="70"/>
       <c r="D88" s="33"/>
       <c r="E88" s="33"/>
       <c r="F88" s="33"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="13"/>
-      <c r="L88" s="60"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="13"/>
       <c r="M88" s="60"/>
       <c r="N88" s="60"/>
       <c r="O88" s="60"/>
@@ -7389,73 +7385,70 @@
       <c r="Q88" s="60"/>
       <c r="R88" s="60"/>
       <c r="S88" s="60"/>
-      <c r="U88" s="26"/>
-      <c r="V88" s="2"/>
-    </row>
-    <row r="89" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A89" s="78"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="33"/>
+      <c r="T88" s="60"/>
+      <c r="V88" s="26"/>
+      <c r="W88" s="2"/>
+    </row>
+    <row r="89" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="B89" s="78"/>
+      <c r="C89" s="70"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
       <c r="F89" s="33"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="13"/>
-      <c r="K89" s="68" t="s">
+      <c r="G89" s="33"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="13"/>
+      <c r="L89" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="L89" s="57" t="str">
-        <f>L4</f>
+      <c r="M89" s="57" t="str">
+        <f t="shared" ref="M89:T89" si="30">M4</f>
         <v>دولار</v>
       </c>
-      <c r="M89" s="57">
-        <f>M4</f>
-        <v>0</v>
-      </c>
       <c r="N89" s="57">
-        <f>N4</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O89" s="57">
-        <f>O4</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P89" s="57">
-        <f>P4</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q89" s="57">
-        <f>Q4</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R89" s="57">
-        <f>R4</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S89" s="57">
-        <f>S4</f>
-        <v>0</v>
-      </c>
-      <c r="U89" s="26"/>
-      <c r="V89" s="2"/>
-    </row>
-    <row r="90" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A90" s="77"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="33"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="57">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="26"/>
+      <c r="W89" s="2"/>
+    </row>
+    <row r="90" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="B90" s="77"/>
+      <c r="C90" s="70"/>
       <c r="D90" s="33"/>
       <c r="E90" s="33"/>
       <c r="F90" s="33"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="13"/>
-      <c r="K90" s="53" t="s">
+      <c r="G90" s="33"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="13"/>
+      <c r="L90" s="53" t="s">
         <v>138</v>
-      </c>
-      <c r="L90" s="61">
-        <f>SUM(L15:L59)</f>
-        <v>0</v>
       </c>
       <c r="M90" s="61">
         <f>SUM(M15:M59)</f>
@@ -7466,355 +7459,359 @@
         <v>0</v>
       </c>
       <c r="O90" s="61">
-        <f>SUMIFS(B:B,I:I,K90,C:C,$O$4)</f>
+        <f>SUM(O15:O59)</f>
         <v>0</v>
       </c>
       <c r="P90" s="61">
-        <f>SUMIFS(B:B,I:I,K90,C:C,$P$4)</f>
+        <f>SUMIFS(C:C,J:J,L90,D:D,$P$4)</f>
         <v>0</v>
       </c>
       <c r="Q90" s="61">
-        <f>SUMIFS(B:B,I:I,K90,C:C,$Q$4)</f>
+        <f>SUMIFS(C:C,J:J,L90,D:D,$Q$4)</f>
         <v>0</v>
       </c>
       <c r="R90" s="61">
-        <f>SUMIFS(B:B,I:I,K90,C:C,$R$4)</f>
+        <f>SUMIFS(C:C,J:J,L90,D:D,$R$4)</f>
         <v>0</v>
       </c>
       <c r="S90" s="61">
-        <f>SUMIFS(B:B,I:I,K90,C:C,$S$4)</f>
-        <v>0</v>
-      </c>
-      <c r="U90" s="26"/>
-      <c r="V90" s="2"/>
-    </row>
-    <row r="91" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A91" s="77"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="34"/>
+        <f>SUMIFS(C:C,J:J,L90,D:D,$S$4)</f>
+        <v>0</v>
+      </c>
+      <c r="T90" s="61">
+        <f>SUMIFS(C:C,J:J,L90,D:D,$T$4)</f>
+        <v>0</v>
+      </c>
+      <c r="V90" s="26"/>
+      <c r="W90" s="2"/>
+    </row>
+    <row r="91" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="B91" s="77"/>
+      <c r="C91" s="70"/>
       <c r="D91" s="34"/>
       <c r="E91" s="34"/>
       <c r="F91" s="34"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="13"/>
-      <c r="K91" s="54" t="s">
+      <c r="G91" s="34"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="13"/>
+      <c r="L91" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="L91" s="62">
-        <f>SUM(L62:L68)</f>
-        <v>0</v>
-      </c>
       <c r="M91" s="62">
-        <f>SUM(M62:M68)</f>
+        <f t="shared" ref="M91:T91" si="31">SUM(M62:M68)</f>
         <v>0</v>
       </c>
       <c r="N91" s="62">
-        <f>SUM(N62:N68)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O91" s="62">
-        <f>SUM(O62:O68)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P91" s="62">
-        <f>SUM(P62:P68)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q91" s="62">
-        <f>SUM(Q62:Q68)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R91" s="62">
-        <f>SUM(R62:R68)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S91" s="62">
-        <f>SUM(S62:S68)</f>
-        <v>0</v>
-      </c>
-      <c r="U91" s="26"/>
-      <c r="V91" s="2"/>
-    </row>
-    <row r="92" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A92" s="24"/>
-      <c r="B92" s="36"/>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T91" s="62">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V91" s="26"/>
+      <c r="W91" s="2"/>
+    </row>
+    <row r="92" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
+      <c r="B92" s="24"/>
       <c r="C92" s="36"/>
       <c r="D92" s="36"/>
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
-      <c r="G92" s="25" t="s">
+      <c r="G92" s="36"/>
+      <c r="H92" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="K92" s="55" t="s">
+      <c r="J92" s="25"/>
+      <c r="L92" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="L92" s="63">
-        <f>SUM(L70:L79)</f>
-        <v>0</v>
-      </c>
       <c r="M92" s="63">
-        <f t="shared" ref="M92:S92" si="2">SUM(M70:M79)</f>
+        <f>SUM(M70:M79)</f>
         <v>0</v>
       </c>
       <c r="N92" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N92:T92" si="32">SUM(N70:N79)</f>
         <v>0</v>
       </c>
       <c r="O92" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P92" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q92" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R92" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S92" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U92" s="26"/>
-      <c r="V92" s="2"/>
-    </row>
-    <row r="93" spans="1:22" ht="21.6" x14ac:dyDescent="0.65">
-      <c r="A93" s="7"/>
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="63">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="26"/>
+      <c r="W92" s="2"/>
+    </row>
+    <row r="93" spans="2:23" ht="21.6" x14ac:dyDescent="0.65">
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="K93" s="56" t="s">
+      <c r="G93" s="7"/>
+      <c r="L93" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="L93" s="64">
-        <f>SUM(L90:L92)</f>
-        <v>0</v>
-      </c>
       <c r="M93" s="64">
-        <f t="shared" ref="M93:S93" si="3">SUM(M90:M92)</f>
+        <f>SUM(M90:M92)</f>
         <v>0</v>
       </c>
       <c r="N93" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N93:T93" si="33">SUM(N90:N92)</f>
         <v>0</v>
       </c>
       <c r="O93" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P93" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q93" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R93" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S93" s="64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U93" s="26"/>
-      <c r="V93" s="2"/>
-    </row>
-    <row r="95" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="37"/>
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T93" s="64">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="26"/>
+      <c r="W93" s="2"/>
+    </row>
+    <row r="95" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
-      <c r="G95" s="38"/>
-    </row>
-    <row r="96" spans="1:22" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A96" s="82"/>
-      <c r="B96" s="83" t="s">
+      <c r="G95" s="37"/>
+      <c r="H95" s="38"/>
+    </row>
+    <row r="96" spans="2:23" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="B96" s="82"/>
+      <c r="C96" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C96" s="83" t="s">
+      <c r="D96" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="D96" s="84" t="s">
+      <c r="E96" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E96" s="37"/>
       <c r="F96" s="37"/>
-      <c r="G96" s="41"/>
-    </row>
-    <row r="97" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A97" s="85"/>
-      <c r="B97" s="81">
-        <f>SUMIF(C5:C91,A97,A5:A91)</f>
-        <v>0</v>
-      </c>
+      <c r="G96" s="37"/>
+      <c r="H96" s="41"/>
+    </row>
+    <row r="97" spans="2:8" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="B97" s="85"/>
       <c r="C97" s="81">
-        <f>SUMIF(C5:C91,A97,B5:B91)</f>
-        <v>0</v>
-      </c>
-      <c r="D97" s="86">
-        <f>B97-C97</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="37"/>
+        <f>SUMIF(D5:D91,B97,B5:B91)</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="81">
+        <f>SUMIF(D5:D91,B97,C5:C91)</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="86">
+        <f>C97-D97</f>
+        <v>0</v>
+      </c>
       <c r="F97" s="37"/>
-      <c r="G97" s="42"/>
-    </row>
-    <row r="98" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A98" s="85"/>
-      <c r="B98" s="81">
-        <f>SUMIF(C6:C92,A98,A6:A92)</f>
-        <v>0</v>
-      </c>
+      <c r="G97" s="37"/>
+      <c r="H97" s="42"/>
+    </row>
+    <row r="98" spans="2:8" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="B98" s="85"/>
       <c r="C98" s="81">
-        <f>SUMIF(C6:C92,A98,B6:B92)</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="86">
-        <f t="shared" ref="D98:D104" si="4">B98-C98</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="44"/>
+        <f>SUMIF(D6:D92,B98,B6:B92)</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="81">
+        <f>SUMIF(D6:D92,B98,C6:C92)</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="86">
+        <f t="shared" ref="E98:E104" si="34">C98-D98</f>
+        <v>0</v>
+      </c>
       <c r="F98" s="44"/>
-      <c r="G98" s="43"/>
-    </row>
-    <row r="99" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A99" s="85"/>
-      <c r="B99" s="81">
-        <f>SUMIF(C7:C93,A99,A7:A93)</f>
-        <v>0</v>
-      </c>
+      <c r="G98" s="44"/>
+      <c r="H98" s="43"/>
+    </row>
+    <row r="99" spans="2:8" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="B99" s="85"/>
       <c r="C99" s="81">
-        <f>SUMIF(C7:C93,A99,B7:B93)</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="40"/>
+        <f>SUMIF(D7:D93,B99,B7:B93)</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="81">
+        <f>SUMIF(D7:D93,B99,C7:C93)</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="86">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="F99" s="40"/>
-    </row>
-    <row r="100" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A100" s="85"/>
-      <c r="B100" s="81">
-        <f>SUMIF(C8:C94,A100,A8:A94)</f>
-        <v>0</v>
-      </c>
+      <c r="G99" s="40"/>
+    </row>
+    <row r="100" spans="2:8" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="B100" s="85"/>
       <c r="C100" s="81">
-        <f>SUMIF(C8:C94,A100,B8:B94)</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="39"/>
+        <f>SUMIF(D8:D94,B100,B8:B94)</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="81">
+        <f>SUMIF(D8:D94,B100,C8:C94)</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="86">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="F100" s="39"/>
-      <c r="G100" s="43"/>
-    </row>
-    <row r="101" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A101" s="85"/>
-      <c r="B101" s="81">
-        <f>SUMIF(C9:C95,A101,A9:A95)</f>
-        <v>0</v>
-      </c>
+      <c r="G100" s="39"/>
+      <c r="H100" s="43"/>
+    </row>
+    <row r="101" spans="2:8" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="B101" s="85"/>
       <c r="C101" s="81">
-        <f>SUMIF(C9:C95,A101,B9:B95)</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="39"/>
+        <f>SUMIF(D9:D95,B101,B9:B95)</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="81">
+        <f>SUMIF(D9:D95,B101,C9:C95)</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="86">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="F101" s="39"/>
-    </row>
-    <row r="102" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A102" s="85"/>
-      <c r="B102" s="81">
-        <f>SUMIF(C10:C96,A102,A10:A96)</f>
-        <v>0</v>
-      </c>
+      <c r="G101" s="39"/>
+    </row>
+    <row r="102" spans="2:8" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="B102" s="85"/>
       <c r="C102" s="81">
-        <f>SUMIF(C10:C96,A102,B10:B96)</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="21.6" x14ac:dyDescent="0.5">
-      <c r="A103" s="85"/>
-      <c r="B103" s="81">
-        <f>SUMIF(C11:C97,A103,A11:A97)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF(D10:D96,B102,B10:B96)</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="81">
+        <f>SUMIF(D10:D96,B102,C10:C96)</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="86">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="21.6" x14ac:dyDescent="0.5">
+      <c r="B103" s="85"/>
       <c r="C103" s="81">
-        <f>SUMIF(C11:C97,A103,B11:B97)</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="22.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="85"/>
-      <c r="B104" s="87">
-        <f>SUMIF(C12:C98,A104,A12:A98)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF(D11:D97,B103,B11:B97)</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="81">
+        <f>SUMIF(D11:D97,B103,C11:C97)</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="86">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="85"/>
       <c r="C104" s="87">
-        <f>SUMIF(C12:C98,A104,B12:B98)</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="88">
-        <f t="shared" si="4"/>
+        <f>SUMIF(D12:D98,B104,B12:B98)</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="87">
+        <f>SUMIF(D12:D98,B104,C12:C98)</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="88">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="L1:T1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I65528:I65552 JL65474:JL65498 TH65474:TH65498 ADD65474:ADD65498 AMZ65474:AMZ65498 AWV65474:AWV65498 BGR65474:BGR65498 BQN65474:BQN65498 CAJ65474:CAJ65498 CKF65474:CKF65498 CUB65474:CUB65498 DDX65474:DDX65498 DNT65474:DNT65498 DXP65474:DXP65498 EHL65474:EHL65498 ERH65474:ERH65498 FBD65474:FBD65498 FKZ65474:FKZ65498 FUV65474:FUV65498 GER65474:GER65498 GON65474:GON65498 GYJ65474:GYJ65498 HIF65474:HIF65498 HSB65474:HSB65498 IBX65474:IBX65498 ILT65474:ILT65498 IVP65474:IVP65498 JFL65474:JFL65498 JPH65474:JPH65498 JZD65474:JZD65498 KIZ65474:KIZ65498 KSV65474:KSV65498 LCR65474:LCR65498 LMN65474:LMN65498 LWJ65474:LWJ65498 MGF65474:MGF65498 MQB65474:MQB65498 MZX65474:MZX65498 NJT65474:NJT65498 NTP65474:NTP65498 ODL65474:ODL65498 ONH65474:ONH65498 OXD65474:OXD65498 PGZ65474:PGZ65498 PQV65474:PQV65498 QAR65474:QAR65498 QKN65474:QKN65498 QUJ65474:QUJ65498 REF65474:REF65498 ROB65474:ROB65498 RXX65474:RXX65498 SHT65474:SHT65498 SRP65474:SRP65498 TBL65474:TBL65498 TLH65474:TLH65498 TVD65474:TVD65498 UEZ65474:UEZ65498 UOV65474:UOV65498 UYR65474:UYR65498 VIN65474:VIN65498 VSJ65474:VSJ65498 WCF65474:WCF65498 WMB65474:WMB65498 WVX65474:WVX65498 I131064:I131088 JL131010:JL131034 TH131010:TH131034 ADD131010:ADD131034 AMZ131010:AMZ131034 AWV131010:AWV131034 BGR131010:BGR131034 BQN131010:BQN131034 CAJ131010:CAJ131034 CKF131010:CKF131034 CUB131010:CUB131034 DDX131010:DDX131034 DNT131010:DNT131034 DXP131010:DXP131034 EHL131010:EHL131034 ERH131010:ERH131034 FBD131010:FBD131034 FKZ131010:FKZ131034 FUV131010:FUV131034 GER131010:GER131034 GON131010:GON131034 GYJ131010:GYJ131034 HIF131010:HIF131034 HSB131010:HSB131034 IBX131010:IBX131034 ILT131010:ILT131034 IVP131010:IVP131034 JFL131010:JFL131034 JPH131010:JPH131034 JZD131010:JZD131034 KIZ131010:KIZ131034 KSV131010:KSV131034 LCR131010:LCR131034 LMN131010:LMN131034 LWJ131010:LWJ131034 MGF131010:MGF131034 MQB131010:MQB131034 MZX131010:MZX131034 NJT131010:NJT131034 NTP131010:NTP131034 ODL131010:ODL131034 ONH131010:ONH131034 OXD131010:OXD131034 PGZ131010:PGZ131034 PQV131010:PQV131034 QAR131010:QAR131034 QKN131010:QKN131034 QUJ131010:QUJ131034 REF131010:REF131034 ROB131010:ROB131034 RXX131010:RXX131034 SHT131010:SHT131034 SRP131010:SRP131034 TBL131010:TBL131034 TLH131010:TLH131034 TVD131010:TVD131034 UEZ131010:UEZ131034 UOV131010:UOV131034 UYR131010:UYR131034 VIN131010:VIN131034 VSJ131010:VSJ131034 WCF131010:WCF131034 WMB131010:WMB131034 WVX131010:WVX131034 I196600:I196624 JL196546:JL196570 TH196546:TH196570 ADD196546:ADD196570 AMZ196546:AMZ196570 AWV196546:AWV196570 BGR196546:BGR196570 BQN196546:BQN196570 CAJ196546:CAJ196570 CKF196546:CKF196570 CUB196546:CUB196570 DDX196546:DDX196570 DNT196546:DNT196570 DXP196546:DXP196570 EHL196546:EHL196570 ERH196546:ERH196570 FBD196546:FBD196570 FKZ196546:FKZ196570 FUV196546:FUV196570 GER196546:GER196570 GON196546:GON196570 GYJ196546:GYJ196570 HIF196546:HIF196570 HSB196546:HSB196570 IBX196546:IBX196570 ILT196546:ILT196570 IVP196546:IVP196570 JFL196546:JFL196570 JPH196546:JPH196570 JZD196546:JZD196570 KIZ196546:KIZ196570 KSV196546:KSV196570 LCR196546:LCR196570 LMN196546:LMN196570 LWJ196546:LWJ196570 MGF196546:MGF196570 MQB196546:MQB196570 MZX196546:MZX196570 NJT196546:NJT196570 NTP196546:NTP196570 ODL196546:ODL196570 ONH196546:ONH196570 OXD196546:OXD196570 PGZ196546:PGZ196570 PQV196546:PQV196570 QAR196546:QAR196570 QKN196546:QKN196570 QUJ196546:QUJ196570 REF196546:REF196570 ROB196546:ROB196570 RXX196546:RXX196570 SHT196546:SHT196570 SRP196546:SRP196570 TBL196546:TBL196570 TLH196546:TLH196570 TVD196546:TVD196570 UEZ196546:UEZ196570 UOV196546:UOV196570 UYR196546:UYR196570 VIN196546:VIN196570 VSJ196546:VSJ196570 WCF196546:WCF196570 WMB196546:WMB196570 WVX196546:WVX196570 I262136:I262160 JL262082:JL262106 TH262082:TH262106 ADD262082:ADD262106 AMZ262082:AMZ262106 AWV262082:AWV262106 BGR262082:BGR262106 BQN262082:BQN262106 CAJ262082:CAJ262106 CKF262082:CKF262106 CUB262082:CUB262106 DDX262082:DDX262106 DNT262082:DNT262106 DXP262082:DXP262106 EHL262082:EHL262106 ERH262082:ERH262106 FBD262082:FBD262106 FKZ262082:FKZ262106 FUV262082:FUV262106 GER262082:GER262106 GON262082:GON262106 GYJ262082:GYJ262106 HIF262082:HIF262106 HSB262082:HSB262106 IBX262082:IBX262106 ILT262082:ILT262106 IVP262082:IVP262106 JFL262082:JFL262106 JPH262082:JPH262106 JZD262082:JZD262106 KIZ262082:KIZ262106 KSV262082:KSV262106 LCR262082:LCR262106 LMN262082:LMN262106 LWJ262082:LWJ262106 MGF262082:MGF262106 MQB262082:MQB262106 MZX262082:MZX262106 NJT262082:NJT262106 NTP262082:NTP262106 ODL262082:ODL262106 ONH262082:ONH262106 OXD262082:OXD262106 PGZ262082:PGZ262106 PQV262082:PQV262106 QAR262082:QAR262106 QKN262082:QKN262106 QUJ262082:QUJ262106 REF262082:REF262106 ROB262082:ROB262106 RXX262082:RXX262106 SHT262082:SHT262106 SRP262082:SRP262106 TBL262082:TBL262106 TLH262082:TLH262106 TVD262082:TVD262106 UEZ262082:UEZ262106 UOV262082:UOV262106 UYR262082:UYR262106 VIN262082:VIN262106 VSJ262082:VSJ262106 WCF262082:WCF262106 WMB262082:WMB262106 WVX262082:WVX262106 I327672:I327696 JL327618:JL327642 TH327618:TH327642 ADD327618:ADD327642 AMZ327618:AMZ327642 AWV327618:AWV327642 BGR327618:BGR327642 BQN327618:BQN327642 CAJ327618:CAJ327642 CKF327618:CKF327642 CUB327618:CUB327642 DDX327618:DDX327642 DNT327618:DNT327642 DXP327618:DXP327642 EHL327618:EHL327642 ERH327618:ERH327642 FBD327618:FBD327642 FKZ327618:FKZ327642 FUV327618:FUV327642 GER327618:GER327642 GON327618:GON327642 GYJ327618:GYJ327642 HIF327618:HIF327642 HSB327618:HSB327642 IBX327618:IBX327642 ILT327618:ILT327642 IVP327618:IVP327642 JFL327618:JFL327642 JPH327618:JPH327642 JZD327618:JZD327642 KIZ327618:KIZ327642 KSV327618:KSV327642 LCR327618:LCR327642 LMN327618:LMN327642 LWJ327618:LWJ327642 MGF327618:MGF327642 MQB327618:MQB327642 MZX327618:MZX327642 NJT327618:NJT327642 NTP327618:NTP327642 ODL327618:ODL327642 ONH327618:ONH327642 OXD327618:OXD327642 PGZ327618:PGZ327642 PQV327618:PQV327642 QAR327618:QAR327642 QKN327618:QKN327642 QUJ327618:QUJ327642 REF327618:REF327642 ROB327618:ROB327642 RXX327618:RXX327642 SHT327618:SHT327642 SRP327618:SRP327642 TBL327618:TBL327642 TLH327618:TLH327642 TVD327618:TVD327642 UEZ327618:UEZ327642 UOV327618:UOV327642 UYR327618:UYR327642 VIN327618:VIN327642 VSJ327618:VSJ327642 WCF327618:WCF327642 WMB327618:WMB327642 WVX327618:WVX327642 I393208:I393232 JL393154:JL393178 TH393154:TH393178 ADD393154:ADD393178 AMZ393154:AMZ393178 AWV393154:AWV393178 BGR393154:BGR393178 BQN393154:BQN393178 CAJ393154:CAJ393178 CKF393154:CKF393178 CUB393154:CUB393178 DDX393154:DDX393178 DNT393154:DNT393178 DXP393154:DXP393178 EHL393154:EHL393178 ERH393154:ERH393178 FBD393154:FBD393178 FKZ393154:FKZ393178 FUV393154:FUV393178 GER393154:GER393178 GON393154:GON393178 GYJ393154:GYJ393178 HIF393154:HIF393178 HSB393154:HSB393178 IBX393154:IBX393178 ILT393154:ILT393178 IVP393154:IVP393178 JFL393154:JFL393178 JPH393154:JPH393178 JZD393154:JZD393178 KIZ393154:KIZ393178 KSV393154:KSV393178 LCR393154:LCR393178 LMN393154:LMN393178 LWJ393154:LWJ393178 MGF393154:MGF393178 MQB393154:MQB393178 MZX393154:MZX393178 NJT393154:NJT393178 NTP393154:NTP393178 ODL393154:ODL393178 ONH393154:ONH393178 OXD393154:OXD393178 PGZ393154:PGZ393178 PQV393154:PQV393178 QAR393154:QAR393178 QKN393154:QKN393178 QUJ393154:QUJ393178 REF393154:REF393178 ROB393154:ROB393178 RXX393154:RXX393178 SHT393154:SHT393178 SRP393154:SRP393178 TBL393154:TBL393178 TLH393154:TLH393178 TVD393154:TVD393178 UEZ393154:UEZ393178 UOV393154:UOV393178 UYR393154:UYR393178 VIN393154:VIN393178 VSJ393154:VSJ393178 WCF393154:WCF393178 WMB393154:WMB393178 WVX393154:WVX393178 I458744:I458768 JL458690:JL458714 TH458690:TH458714 ADD458690:ADD458714 AMZ458690:AMZ458714 AWV458690:AWV458714 BGR458690:BGR458714 BQN458690:BQN458714 CAJ458690:CAJ458714 CKF458690:CKF458714 CUB458690:CUB458714 DDX458690:DDX458714 DNT458690:DNT458714 DXP458690:DXP458714 EHL458690:EHL458714 ERH458690:ERH458714 FBD458690:FBD458714 FKZ458690:FKZ458714 FUV458690:FUV458714 GER458690:GER458714 GON458690:GON458714 GYJ458690:GYJ458714 HIF458690:HIF458714 HSB458690:HSB458714 IBX458690:IBX458714 ILT458690:ILT458714 IVP458690:IVP458714 JFL458690:JFL458714 JPH458690:JPH458714 JZD458690:JZD458714 KIZ458690:KIZ458714 KSV458690:KSV458714 LCR458690:LCR458714 LMN458690:LMN458714 LWJ458690:LWJ458714 MGF458690:MGF458714 MQB458690:MQB458714 MZX458690:MZX458714 NJT458690:NJT458714 NTP458690:NTP458714 ODL458690:ODL458714 ONH458690:ONH458714 OXD458690:OXD458714 PGZ458690:PGZ458714 PQV458690:PQV458714 QAR458690:QAR458714 QKN458690:QKN458714 QUJ458690:QUJ458714 REF458690:REF458714 ROB458690:ROB458714 RXX458690:RXX458714 SHT458690:SHT458714 SRP458690:SRP458714 TBL458690:TBL458714 TLH458690:TLH458714 TVD458690:TVD458714 UEZ458690:UEZ458714 UOV458690:UOV458714 UYR458690:UYR458714 VIN458690:VIN458714 VSJ458690:VSJ458714 WCF458690:WCF458714 WMB458690:WMB458714 WVX458690:WVX458714 I524280:I524304 JL524226:JL524250 TH524226:TH524250 ADD524226:ADD524250 AMZ524226:AMZ524250 AWV524226:AWV524250 BGR524226:BGR524250 BQN524226:BQN524250 CAJ524226:CAJ524250 CKF524226:CKF524250 CUB524226:CUB524250 DDX524226:DDX524250 DNT524226:DNT524250 DXP524226:DXP524250 EHL524226:EHL524250 ERH524226:ERH524250 FBD524226:FBD524250 FKZ524226:FKZ524250 FUV524226:FUV524250 GER524226:GER524250 GON524226:GON524250 GYJ524226:GYJ524250 HIF524226:HIF524250 HSB524226:HSB524250 IBX524226:IBX524250 ILT524226:ILT524250 IVP524226:IVP524250 JFL524226:JFL524250 JPH524226:JPH524250 JZD524226:JZD524250 KIZ524226:KIZ524250 KSV524226:KSV524250 LCR524226:LCR524250 LMN524226:LMN524250 LWJ524226:LWJ524250 MGF524226:MGF524250 MQB524226:MQB524250 MZX524226:MZX524250 NJT524226:NJT524250 NTP524226:NTP524250 ODL524226:ODL524250 ONH524226:ONH524250 OXD524226:OXD524250 PGZ524226:PGZ524250 PQV524226:PQV524250 QAR524226:QAR524250 QKN524226:QKN524250 QUJ524226:QUJ524250 REF524226:REF524250 ROB524226:ROB524250 RXX524226:RXX524250 SHT524226:SHT524250 SRP524226:SRP524250 TBL524226:TBL524250 TLH524226:TLH524250 TVD524226:TVD524250 UEZ524226:UEZ524250 UOV524226:UOV524250 UYR524226:UYR524250 VIN524226:VIN524250 VSJ524226:VSJ524250 WCF524226:WCF524250 WMB524226:WMB524250 WVX524226:WVX524250 I589816:I589840 JL589762:JL589786 TH589762:TH589786 ADD589762:ADD589786 AMZ589762:AMZ589786 AWV589762:AWV589786 BGR589762:BGR589786 BQN589762:BQN589786 CAJ589762:CAJ589786 CKF589762:CKF589786 CUB589762:CUB589786 DDX589762:DDX589786 DNT589762:DNT589786 DXP589762:DXP589786 EHL589762:EHL589786 ERH589762:ERH589786 FBD589762:FBD589786 FKZ589762:FKZ589786 FUV589762:FUV589786 GER589762:GER589786 GON589762:GON589786 GYJ589762:GYJ589786 HIF589762:HIF589786 HSB589762:HSB589786 IBX589762:IBX589786 ILT589762:ILT589786 IVP589762:IVP589786 JFL589762:JFL589786 JPH589762:JPH589786 JZD589762:JZD589786 KIZ589762:KIZ589786 KSV589762:KSV589786 LCR589762:LCR589786 LMN589762:LMN589786 LWJ589762:LWJ589786 MGF589762:MGF589786 MQB589762:MQB589786 MZX589762:MZX589786 NJT589762:NJT589786 NTP589762:NTP589786 ODL589762:ODL589786 ONH589762:ONH589786 OXD589762:OXD589786 PGZ589762:PGZ589786 PQV589762:PQV589786 QAR589762:QAR589786 QKN589762:QKN589786 QUJ589762:QUJ589786 REF589762:REF589786 ROB589762:ROB589786 RXX589762:RXX589786 SHT589762:SHT589786 SRP589762:SRP589786 TBL589762:TBL589786 TLH589762:TLH589786 TVD589762:TVD589786 UEZ589762:UEZ589786 UOV589762:UOV589786 UYR589762:UYR589786 VIN589762:VIN589786 VSJ589762:VSJ589786 WCF589762:WCF589786 WMB589762:WMB589786 WVX589762:WVX589786 I655352:I655376 JL655298:JL655322 TH655298:TH655322 ADD655298:ADD655322 AMZ655298:AMZ655322 AWV655298:AWV655322 BGR655298:BGR655322 BQN655298:BQN655322 CAJ655298:CAJ655322 CKF655298:CKF655322 CUB655298:CUB655322 DDX655298:DDX655322 DNT655298:DNT655322 DXP655298:DXP655322 EHL655298:EHL655322 ERH655298:ERH655322 FBD655298:FBD655322 FKZ655298:FKZ655322 FUV655298:FUV655322 GER655298:GER655322 GON655298:GON655322 GYJ655298:GYJ655322 HIF655298:HIF655322 HSB655298:HSB655322 IBX655298:IBX655322 ILT655298:ILT655322 IVP655298:IVP655322 JFL655298:JFL655322 JPH655298:JPH655322 JZD655298:JZD655322 KIZ655298:KIZ655322 KSV655298:KSV655322 LCR655298:LCR655322 LMN655298:LMN655322 LWJ655298:LWJ655322 MGF655298:MGF655322 MQB655298:MQB655322 MZX655298:MZX655322 NJT655298:NJT655322 NTP655298:NTP655322 ODL655298:ODL655322 ONH655298:ONH655322 OXD655298:OXD655322 PGZ655298:PGZ655322 PQV655298:PQV655322 QAR655298:QAR655322 QKN655298:QKN655322 QUJ655298:QUJ655322 REF655298:REF655322 ROB655298:ROB655322 RXX655298:RXX655322 SHT655298:SHT655322 SRP655298:SRP655322 TBL655298:TBL655322 TLH655298:TLH655322 TVD655298:TVD655322 UEZ655298:UEZ655322 UOV655298:UOV655322 UYR655298:UYR655322 VIN655298:VIN655322 VSJ655298:VSJ655322 WCF655298:WCF655322 WMB655298:WMB655322 WVX655298:WVX655322 I720888:I720912 JL720834:JL720858 TH720834:TH720858 ADD720834:ADD720858 AMZ720834:AMZ720858 AWV720834:AWV720858 BGR720834:BGR720858 BQN720834:BQN720858 CAJ720834:CAJ720858 CKF720834:CKF720858 CUB720834:CUB720858 DDX720834:DDX720858 DNT720834:DNT720858 DXP720834:DXP720858 EHL720834:EHL720858 ERH720834:ERH720858 FBD720834:FBD720858 FKZ720834:FKZ720858 FUV720834:FUV720858 GER720834:GER720858 GON720834:GON720858 GYJ720834:GYJ720858 HIF720834:HIF720858 HSB720834:HSB720858 IBX720834:IBX720858 ILT720834:ILT720858 IVP720834:IVP720858 JFL720834:JFL720858 JPH720834:JPH720858 JZD720834:JZD720858 KIZ720834:KIZ720858 KSV720834:KSV720858 LCR720834:LCR720858 LMN720834:LMN720858 LWJ720834:LWJ720858 MGF720834:MGF720858 MQB720834:MQB720858 MZX720834:MZX720858 NJT720834:NJT720858 NTP720834:NTP720858 ODL720834:ODL720858 ONH720834:ONH720858 OXD720834:OXD720858 PGZ720834:PGZ720858 PQV720834:PQV720858 QAR720834:QAR720858 QKN720834:QKN720858 QUJ720834:QUJ720858 REF720834:REF720858 ROB720834:ROB720858 RXX720834:RXX720858 SHT720834:SHT720858 SRP720834:SRP720858 TBL720834:TBL720858 TLH720834:TLH720858 TVD720834:TVD720858 UEZ720834:UEZ720858 UOV720834:UOV720858 UYR720834:UYR720858 VIN720834:VIN720858 VSJ720834:VSJ720858 WCF720834:WCF720858 WMB720834:WMB720858 WVX720834:WVX720858 I786424:I786448 JL786370:JL786394 TH786370:TH786394 ADD786370:ADD786394 AMZ786370:AMZ786394 AWV786370:AWV786394 BGR786370:BGR786394 BQN786370:BQN786394 CAJ786370:CAJ786394 CKF786370:CKF786394 CUB786370:CUB786394 DDX786370:DDX786394 DNT786370:DNT786394 DXP786370:DXP786394 EHL786370:EHL786394 ERH786370:ERH786394 FBD786370:FBD786394 FKZ786370:FKZ786394 FUV786370:FUV786394 GER786370:GER786394 GON786370:GON786394 GYJ786370:GYJ786394 HIF786370:HIF786394 HSB786370:HSB786394 IBX786370:IBX786394 ILT786370:ILT786394 IVP786370:IVP786394 JFL786370:JFL786394 JPH786370:JPH786394 JZD786370:JZD786394 KIZ786370:KIZ786394 KSV786370:KSV786394 LCR786370:LCR786394 LMN786370:LMN786394 LWJ786370:LWJ786394 MGF786370:MGF786394 MQB786370:MQB786394 MZX786370:MZX786394 NJT786370:NJT786394 NTP786370:NTP786394 ODL786370:ODL786394 ONH786370:ONH786394 OXD786370:OXD786394 PGZ786370:PGZ786394 PQV786370:PQV786394 QAR786370:QAR786394 QKN786370:QKN786394 QUJ786370:QUJ786394 REF786370:REF786394 ROB786370:ROB786394 RXX786370:RXX786394 SHT786370:SHT786394 SRP786370:SRP786394 TBL786370:TBL786394 TLH786370:TLH786394 TVD786370:TVD786394 UEZ786370:UEZ786394 UOV786370:UOV786394 UYR786370:UYR786394 VIN786370:VIN786394 VSJ786370:VSJ786394 WCF786370:WCF786394 WMB786370:WMB786394 WVX786370:WVX786394 I851960:I851984 JL851906:JL851930 TH851906:TH851930 ADD851906:ADD851930 AMZ851906:AMZ851930 AWV851906:AWV851930 BGR851906:BGR851930 BQN851906:BQN851930 CAJ851906:CAJ851930 CKF851906:CKF851930 CUB851906:CUB851930 DDX851906:DDX851930 DNT851906:DNT851930 DXP851906:DXP851930 EHL851906:EHL851930 ERH851906:ERH851930 FBD851906:FBD851930 FKZ851906:FKZ851930 FUV851906:FUV851930 GER851906:GER851930 GON851906:GON851930 GYJ851906:GYJ851930 HIF851906:HIF851930 HSB851906:HSB851930 IBX851906:IBX851930 ILT851906:ILT851930 IVP851906:IVP851930 JFL851906:JFL851930 JPH851906:JPH851930 JZD851906:JZD851930 KIZ851906:KIZ851930 KSV851906:KSV851930 LCR851906:LCR851930 LMN851906:LMN851930 LWJ851906:LWJ851930 MGF851906:MGF851930 MQB851906:MQB851930 MZX851906:MZX851930 NJT851906:NJT851930 NTP851906:NTP851930 ODL851906:ODL851930 ONH851906:ONH851930 OXD851906:OXD851930 PGZ851906:PGZ851930 PQV851906:PQV851930 QAR851906:QAR851930 QKN851906:QKN851930 QUJ851906:QUJ851930 REF851906:REF851930 ROB851906:ROB851930 RXX851906:RXX851930 SHT851906:SHT851930 SRP851906:SRP851930 TBL851906:TBL851930 TLH851906:TLH851930 TVD851906:TVD851930 UEZ851906:UEZ851930 UOV851906:UOV851930 UYR851906:UYR851930 VIN851906:VIN851930 VSJ851906:VSJ851930 WCF851906:WCF851930 WMB851906:WMB851930 WVX851906:WVX851930 I917496:I917520 JL917442:JL917466 TH917442:TH917466 ADD917442:ADD917466 AMZ917442:AMZ917466 AWV917442:AWV917466 BGR917442:BGR917466 BQN917442:BQN917466 CAJ917442:CAJ917466 CKF917442:CKF917466 CUB917442:CUB917466 DDX917442:DDX917466 DNT917442:DNT917466 DXP917442:DXP917466 EHL917442:EHL917466 ERH917442:ERH917466 FBD917442:FBD917466 FKZ917442:FKZ917466 FUV917442:FUV917466 GER917442:GER917466 GON917442:GON917466 GYJ917442:GYJ917466 HIF917442:HIF917466 HSB917442:HSB917466 IBX917442:IBX917466 ILT917442:ILT917466 IVP917442:IVP917466 JFL917442:JFL917466 JPH917442:JPH917466 JZD917442:JZD917466 KIZ917442:KIZ917466 KSV917442:KSV917466 LCR917442:LCR917466 LMN917442:LMN917466 LWJ917442:LWJ917466 MGF917442:MGF917466 MQB917442:MQB917466 MZX917442:MZX917466 NJT917442:NJT917466 NTP917442:NTP917466 ODL917442:ODL917466 ONH917442:ONH917466 OXD917442:OXD917466 PGZ917442:PGZ917466 PQV917442:PQV917466 QAR917442:QAR917466 QKN917442:QKN917466 QUJ917442:QUJ917466 REF917442:REF917466 ROB917442:ROB917466 RXX917442:RXX917466 SHT917442:SHT917466 SRP917442:SRP917466 TBL917442:TBL917466 TLH917442:TLH917466 TVD917442:TVD917466 UEZ917442:UEZ917466 UOV917442:UOV917466 UYR917442:UYR917466 VIN917442:VIN917466 VSJ917442:VSJ917466 WCF917442:WCF917466 WMB917442:WMB917466 WVX917442:WVX917466 I983032:I983056 JL982978:JL983002 TH982978:TH983002 ADD982978:ADD983002 AMZ982978:AMZ983002 AWV982978:AWV983002 BGR982978:BGR983002 BQN982978:BQN983002 CAJ982978:CAJ983002 CKF982978:CKF983002 CUB982978:CUB983002 DDX982978:DDX983002 DNT982978:DNT983002 DXP982978:DXP983002 EHL982978:EHL983002 ERH982978:ERH983002 FBD982978:FBD983002 FKZ982978:FKZ983002 FUV982978:FUV983002 GER982978:GER983002 GON982978:GON983002 GYJ982978:GYJ983002 HIF982978:HIF983002 HSB982978:HSB983002 IBX982978:IBX983002 ILT982978:ILT983002 IVP982978:IVP983002 JFL982978:JFL983002 JPH982978:JPH983002 JZD982978:JZD983002 KIZ982978:KIZ983002 KSV982978:KSV983002 LCR982978:LCR983002 LMN982978:LMN983002 LWJ982978:LWJ983002 MGF982978:MGF983002 MQB982978:MQB983002 MZX982978:MZX983002 NJT982978:NJT983002 NTP982978:NTP983002 ODL982978:ODL983002 ONH982978:ONH983002 OXD982978:OXD983002 PGZ982978:PGZ983002 PQV982978:PQV983002 QAR982978:QAR983002 QKN982978:QKN983002 QUJ982978:QUJ983002 REF982978:REF983002 ROB982978:ROB983002 RXX982978:RXX983002 SHT982978:SHT983002 SRP982978:SRP983002 TBL982978:TBL983002 TLH982978:TLH983002 TVD982978:TVD983002 UEZ982978:UEZ983002 UOV982978:UOV983002 UYR982978:UYR983002 VIN982978:VIN983002 VSJ982978:VSJ983002 WCF982978:WCF983002 WMB982978:WMB983002 WVX982978:WVX983002 WVX5:WVX25 JL5:JL25 TH5:TH25 ADD5:ADD25 AMZ5:AMZ25 AWV5:AWV25 BGR5:BGR25 BQN5:BQN25 CAJ5:CAJ25 CKF5:CKF25 CUB5:CUB25 DDX5:DDX25 DNT5:DNT25 DXP5:DXP25 EHL5:EHL25 ERH5:ERH25 FBD5:FBD25 FKZ5:FKZ25 FUV5:FUV25 GER5:GER25 GON5:GON25 GYJ5:GYJ25 HIF5:HIF25 HSB5:HSB25 IBX5:IBX25 ILT5:ILT25 IVP5:IVP25 JFL5:JFL25 JPH5:JPH25 JZD5:JZD25 KIZ5:KIZ25 KSV5:KSV25 LCR5:LCR25 LMN5:LMN25 LWJ5:LWJ25 MGF5:MGF25 MQB5:MQB25 MZX5:MZX25 NJT5:NJT25 NTP5:NTP25 ODL5:ODL25 ONH5:ONH25 OXD5:OXD25 PGZ5:PGZ25 PQV5:PQV25 QAR5:QAR25 QKN5:QKN25 QUJ5:QUJ25 REF5:REF25 ROB5:ROB25 RXX5:RXX25 SHT5:SHT25 SRP5:SRP25 TBL5:TBL25 TLH5:TLH25 TVD5:TVD25 UEZ5:UEZ25 UOV5:UOV25 UYR5:UYR25 VIN5:VIN25 VSJ5:VSJ25 WCF5:WCF25 WMB5:WMB25" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$K$5:$K$11</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J65528:J65552 WMC5:WMC25 WCG5:WCG25 VSK5:VSK25 VIO5:VIO25 UYS5:UYS25 UOW5:UOW25 UFA5:UFA25 TVE5:TVE25 TLI5:TLI25 TBM5:TBM25 SRQ5:SRQ25 SHU5:SHU25 RXY5:RXY25 ROC5:ROC25 REG5:REG25 QUK5:QUK25 QKO5:QKO25 QAS5:QAS25 PQW5:PQW25 PHA5:PHA25 OXE5:OXE25 ONI5:ONI25 ODM5:ODM25 NTQ5:NTQ25 NJU5:NJU25 MZY5:MZY25 MQC5:MQC25 MGG5:MGG25 LWK5:LWK25 LMO5:LMO25 LCS5:LCS25 KSW5:KSW25 KJA5:KJA25 JZE5:JZE25 JPI5:JPI25 JFM5:JFM25 IVQ5:IVQ25 ILU5:ILU25 IBY5:IBY25 HSC5:HSC25 HIG5:HIG25 GYK5:GYK25 GOO5:GOO25 GES5:GES25 FUW5:FUW25 FLA5:FLA25 FBE5:FBE25 ERI5:ERI25 EHM5:EHM25 DXQ5:DXQ25 DNU5:DNU25 DDY5:DDY25 CUC5:CUC25 CKG5:CKG25 CAK5:CAK25 BQO5:BQO25 BGS5:BGS25 AWW5:AWW25 ANA5:ANA25 ADE5:ADE25 TI5:TI25 JM5:JM25 WVY5:WVY25 WVY982978:WVY983002 WMC982978:WMC983002 WCG982978:WCG983002 VSK982978:VSK983002 VIO982978:VIO983002 UYS982978:UYS983002 UOW982978:UOW983002 UFA982978:UFA983002 TVE982978:TVE983002 TLI982978:TLI983002 TBM982978:TBM983002 SRQ982978:SRQ983002 SHU982978:SHU983002 RXY982978:RXY983002 ROC982978:ROC983002 REG982978:REG983002 QUK982978:QUK983002 QKO982978:QKO983002 QAS982978:QAS983002 PQW982978:PQW983002 PHA982978:PHA983002 OXE982978:OXE983002 ONI982978:ONI983002 ODM982978:ODM983002 NTQ982978:NTQ983002 NJU982978:NJU983002 MZY982978:MZY983002 MQC982978:MQC983002 MGG982978:MGG983002 LWK982978:LWK983002 LMO982978:LMO983002 LCS982978:LCS983002 KSW982978:KSW983002 KJA982978:KJA983002 JZE982978:JZE983002 JPI982978:JPI983002 JFM982978:JFM983002 IVQ982978:IVQ983002 ILU982978:ILU983002 IBY982978:IBY983002 HSC982978:HSC983002 HIG982978:HIG983002 GYK982978:GYK983002 GOO982978:GOO983002 GES982978:GES983002 FUW982978:FUW983002 FLA982978:FLA983002 FBE982978:FBE983002 ERI982978:ERI983002 EHM982978:EHM983002 DXQ982978:DXQ983002 DNU982978:DNU983002 DDY982978:DDY983002 CUC982978:CUC983002 CKG982978:CKG983002 CAK982978:CAK983002 BQO982978:BQO983002 BGS982978:BGS983002 AWW982978:AWW983002 ANA982978:ANA983002 ADE982978:ADE983002 TI982978:TI983002 JM982978:JM983002 J983032:J983056 WVY917442:WVY917466 WMC917442:WMC917466 WCG917442:WCG917466 VSK917442:VSK917466 VIO917442:VIO917466 UYS917442:UYS917466 UOW917442:UOW917466 UFA917442:UFA917466 TVE917442:TVE917466 TLI917442:TLI917466 TBM917442:TBM917466 SRQ917442:SRQ917466 SHU917442:SHU917466 RXY917442:RXY917466 ROC917442:ROC917466 REG917442:REG917466 QUK917442:QUK917466 QKO917442:QKO917466 QAS917442:QAS917466 PQW917442:PQW917466 PHA917442:PHA917466 OXE917442:OXE917466 ONI917442:ONI917466 ODM917442:ODM917466 NTQ917442:NTQ917466 NJU917442:NJU917466 MZY917442:MZY917466 MQC917442:MQC917466 MGG917442:MGG917466 LWK917442:LWK917466 LMO917442:LMO917466 LCS917442:LCS917466 KSW917442:KSW917466 KJA917442:KJA917466 JZE917442:JZE917466 JPI917442:JPI917466 JFM917442:JFM917466 IVQ917442:IVQ917466 ILU917442:ILU917466 IBY917442:IBY917466 HSC917442:HSC917466 HIG917442:HIG917466 GYK917442:GYK917466 GOO917442:GOO917466 GES917442:GES917466 FUW917442:FUW917466 FLA917442:FLA917466 FBE917442:FBE917466 ERI917442:ERI917466 EHM917442:EHM917466 DXQ917442:DXQ917466 DNU917442:DNU917466 DDY917442:DDY917466 CUC917442:CUC917466 CKG917442:CKG917466 CAK917442:CAK917466 BQO917442:BQO917466 BGS917442:BGS917466 AWW917442:AWW917466 ANA917442:ANA917466 ADE917442:ADE917466 TI917442:TI917466 JM917442:JM917466 J917496:J917520 WVY851906:WVY851930 WMC851906:WMC851930 WCG851906:WCG851930 VSK851906:VSK851930 VIO851906:VIO851930 UYS851906:UYS851930 UOW851906:UOW851930 UFA851906:UFA851930 TVE851906:TVE851930 TLI851906:TLI851930 TBM851906:TBM851930 SRQ851906:SRQ851930 SHU851906:SHU851930 RXY851906:RXY851930 ROC851906:ROC851930 REG851906:REG851930 QUK851906:QUK851930 QKO851906:QKO851930 QAS851906:QAS851930 PQW851906:PQW851930 PHA851906:PHA851930 OXE851906:OXE851930 ONI851906:ONI851930 ODM851906:ODM851930 NTQ851906:NTQ851930 NJU851906:NJU851930 MZY851906:MZY851930 MQC851906:MQC851930 MGG851906:MGG851930 LWK851906:LWK851930 LMO851906:LMO851930 LCS851906:LCS851930 KSW851906:KSW851930 KJA851906:KJA851930 JZE851906:JZE851930 JPI851906:JPI851930 JFM851906:JFM851930 IVQ851906:IVQ851930 ILU851906:ILU851930 IBY851906:IBY851930 HSC851906:HSC851930 HIG851906:HIG851930 GYK851906:GYK851930 GOO851906:GOO851930 GES851906:GES851930 FUW851906:FUW851930 FLA851906:FLA851930 FBE851906:FBE851930 ERI851906:ERI851930 EHM851906:EHM851930 DXQ851906:DXQ851930 DNU851906:DNU851930 DDY851906:DDY851930 CUC851906:CUC851930 CKG851906:CKG851930 CAK851906:CAK851930 BQO851906:BQO851930 BGS851906:BGS851930 AWW851906:AWW851930 ANA851906:ANA851930 ADE851906:ADE851930 TI851906:TI851930 JM851906:JM851930 J851960:J851984 WVY786370:WVY786394 WMC786370:WMC786394 WCG786370:WCG786394 VSK786370:VSK786394 VIO786370:VIO786394 UYS786370:UYS786394 UOW786370:UOW786394 UFA786370:UFA786394 TVE786370:TVE786394 TLI786370:TLI786394 TBM786370:TBM786394 SRQ786370:SRQ786394 SHU786370:SHU786394 RXY786370:RXY786394 ROC786370:ROC786394 REG786370:REG786394 QUK786370:QUK786394 QKO786370:QKO786394 QAS786370:QAS786394 PQW786370:PQW786394 PHA786370:PHA786394 OXE786370:OXE786394 ONI786370:ONI786394 ODM786370:ODM786394 NTQ786370:NTQ786394 NJU786370:NJU786394 MZY786370:MZY786394 MQC786370:MQC786394 MGG786370:MGG786394 LWK786370:LWK786394 LMO786370:LMO786394 LCS786370:LCS786394 KSW786370:KSW786394 KJA786370:KJA786394 JZE786370:JZE786394 JPI786370:JPI786394 JFM786370:JFM786394 IVQ786370:IVQ786394 ILU786370:ILU786394 IBY786370:IBY786394 HSC786370:HSC786394 HIG786370:HIG786394 GYK786370:GYK786394 GOO786370:GOO786394 GES786370:GES786394 FUW786370:FUW786394 FLA786370:FLA786394 FBE786370:FBE786394 ERI786370:ERI786394 EHM786370:EHM786394 DXQ786370:DXQ786394 DNU786370:DNU786394 DDY786370:DDY786394 CUC786370:CUC786394 CKG786370:CKG786394 CAK786370:CAK786394 BQO786370:BQO786394 BGS786370:BGS786394 AWW786370:AWW786394 ANA786370:ANA786394 ADE786370:ADE786394 TI786370:TI786394 JM786370:JM786394 J786424:J786448 WVY720834:WVY720858 WMC720834:WMC720858 WCG720834:WCG720858 VSK720834:VSK720858 VIO720834:VIO720858 UYS720834:UYS720858 UOW720834:UOW720858 UFA720834:UFA720858 TVE720834:TVE720858 TLI720834:TLI720858 TBM720834:TBM720858 SRQ720834:SRQ720858 SHU720834:SHU720858 RXY720834:RXY720858 ROC720834:ROC720858 REG720834:REG720858 QUK720834:QUK720858 QKO720834:QKO720858 QAS720834:QAS720858 PQW720834:PQW720858 PHA720834:PHA720858 OXE720834:OXE720858 ONI720834:ONI720858 ODM720834:ODM720858 NTQ720834:NTQ720858 NJU720834:NJU720858 MZY720834:MZY720858 MQC720834:MQC720858 MGG720834:MGG720858 LWK720834:LWK720858 LMO720834:LMO720858 LCS720834:LCS720858 KSW720834:KSW720858 KJA720834:KJA720858 JZE720834:JZE720858 JPI720834:JPI720858 JFM720834:JFM720858 IVQ720834:IVQ720858 ILU720834:ILU720858 IBY720834:IBY720858 HSC720834:HSC720858 HIG720834:HIG720858 GYK720834:GYK720858 GOO720834:GOO720858 GES720834:GES720858 FUW720834:FUW720858 FLA720834:FLA720858 FBE720834:FBE720858 ERI720834:ERI720858 EHM720834:EHM720858 DXQ720834:DXQ720858 DNU720834:DNU720858 DDY720834:DDY720858 CUC720834:CUC720858 CKG720834:CKG720858 CAK720834:CAK720858 BQO720834:BQO720858 BGS720834:BGS720858 AWW720834:AWW720858 ANA720834:ANA720858 ADE720834:ADE720858 TI720834:TI720858 JM720834:JM720858 J720888:J720912 WVY655298:WVY655322 WMC655298:WMC655322 WCG655298:WCG655322 VSK655298:VSK655322 VIO655298:VIO655322 UYS655298:UYS655322 UOW655298:UOW655322 UFA655298:UFA655322 TVE655298:TVE655322 TLI655298:TLI655322 TBM655298:TBM655322 SRQ655298:SRQ655322 SHU655298:SHU655322 RXY655298:RXY655322 ROC655298:ROC655322 REG655298:REG655322 QUK655298:QUK655322 QKO655298:QKO655322 QAS655298:QAS655322 PQW655298:PQW655322 PHA655298:PHA655322 OXE655298:OXE655322 ONI655298:ONI655322 ODM655298:ODM655322 NTQ655298:NTQ655322 NJU655298:NJU655322 MZY655298:MZY655322 MQC655298:MQC655322 MGG655298:MGG655322 LWK655298:LWK655322 LMO655298:LMO655322 LCS655298:LCS655322 KSW655298:KSW655322 KJA655298:KJA655322 JZE655298:JZE655322 JPI655298:JPI655322 JFM655298:JFM655322 IVQ655298:IVQ655322 ILU655298:ILU655322 IBY655298:IBY655322 HSC655298:HSC655322 HIG655298:HIG655322 GYK655298:GYK655322 GOO655298:GOO655322 GES655298:GES655322 FUW655298:FUW655322 FLA655298:FLA655322 FBE655298:FBE655322 ERI655298:ERI655322 EHM655298:EHM655322 DXQ655298:DXQ655322 DNU655298:DNU655322 DDY655298:DDY655322 CUC655298:CUC655322 CKG655298:CKG655322 CAK655298:CAK655322 BQO655298:BQO655322 BGS655298:BGS655322 AWW655298:AWW655322 ANA655298:ANA655322 ADE655298:ADE655322 TI655298:TI655322 JM655298:JM655322 J655352:J655376 WVY589762:WVY589786 WMC589762:WMC589786 WCG589762:WCG589786 VSK589762:VSK589786 VIO589762:VIO589786 UYS589762:UYS589786 UOW589762:UOW589786 UFA589762:UFA589786 TVE589762:TVE589786 TLI589762:TLI589786 TBM589762:TBM589786 SRQ589762:SRQ589786 SHU589762:SHU589786 RXY589762:RXY589786 ROC589762:ROC589786 REG589762:REG589786 QUK589762:QUK589786 QKO589762:QKO589786 QAS589762:QAS589786 PQW589762:PQW589786 PHA589762:PHA589786 OXE589762:OXE589786 ONI589762:ONI589786 ODM589762:ODM589786 NTQ589762:NTQ589786 NJU589762:NJU589786 MZY589762:MZY589786 MQC589762:MQC589786 MGG589762:MGG589786 LWK589762:LWK589786 LMO589762:LMO589786 LCS589762:LCS589786 KSW589762:KSW589786 KJA589762:KJA589786 JZE589762:JZE589786 JPI589762:JPI589786 JFM589762:JFM589786 IVQ589762:IVQ589786 ILU589762:ILU589786 IBY589762:IBY589786 HSC589762:HSC589786 HIG589762:HIG589786 GYK589762:GYK589786 GOO589762:GOO589786 GES589762:GES589786 FUW589762:FUW589786 FLA589762:FLA589786 FBE589762:FBE589786 ERI589762:ERI589786 EHM589762:EHM589786 DXQ589762:DXQ589786 DNU589762:DNU589786 DDY589762:DDY589786 CUC589762:CUC589786 CKG589762:CKG589786 CAK589762:CAK589786 BQO589762:BQO589786 BGS589762:BGS589786 AWW589762:AWW589786 ANA589762:ANA589786 ADE589762:ADE589786 TI589762:TI589786 JM589762:JM589786 J589816:J589840 WVY524226:WVY524250 WMC524226:WMC524250 WCG524226:WCG524250 VSK524226:VSK524250 VIO524226:VIO524250 UYS524226:UYS524250 UOW524226:UOW524250 UFA524226:UFA524250 TVE524226:TVE524250 TLI524226:TLI524250 TBM524226:TBM524250 SRQ524226:SRQ524250 SHU524226:SHU524250 RXY524226:RXY524250 ROC524226:ROC524250 REG524226:REG524250 QUK524226:QUK524250 QKO524226:QKO524250 QAS524226:QAS524250 PQW524226:PQW524250 PHA524226:PHA524250 OXE524226:OXE524250 ONI524226:ONI524250 ODM524226:ODM524250 NTQ524226:NTQ524250 NJU524226:NJU524250 MZY524226:MZY524250 MQC524226:MQC524250 MGG524226:MGG524250 LWK524226:LWK524250 LMO524226:LMO524250 LCS524226:LCS524250 KSW524226:KSW524250 KJA524226:KJA524250 JZE524226:JZE524250 JPI524226:JPI524250 JFM524226:JFM524250 IVQ524226:IVQ524250 ILU524226:ILU524250 IBY524226:IBY524250 HSC524226:HSC524250 HIG524226:HIG524250 GYK524226:GYK524250 GOO524226:GOO524250 GES524226:GES524250 FUW524226:FUW524250 FLA524226:FLA524250 FBE524226:FBE524250 ERI524226:ERI524250 EHM524226:EHM524250 DXQ524226:DXQ524250 DNU524226:DNU524250 DDY524226:DDY524250 CUC524226:CUC524250 CKG524226:CKG524250 CAK524226:CAK524250 BQO524226:BQO524250 BGS524226:BGS524250 AWW524226:AWW524250 ANA524226:ANA524250 ADE524226:ADE524250 TI524226:TI524250 JM524226:JM524250 J524280:J524304 WVY458690:WVY458714 WMC458690:WMC458714 WCG458690:WCG458714 VSK458690:VSK458714 VIO458690:VIO458714 UYS458690:UYS458714 UOW458690:UOW458714 UFA458690:UFA458714 TVE458690:TVE458714 TLI458690:TLI458714 TBM458690:TBM458714 SRQ458690:SRQ458714 SHU458690:SHU458714 RXY458690:RXY458714 ROC458690:ROC458714 REG458690:REG458714 QUK458690:QUK458714 QKO458690:QKO458714 QAS458690:QAS458714 PQW458690:PQW458714 PHA458690:PHA458714 OXE458690:OXE458714 ONI458690:ONI458714 ODM458690:ODM458714 NTQ458690:NTQ458714 NJU458690:NJU458714 MZY458690:MZY458714 MQC458690:MQC458714 MGG458690:MGG458714 LWK458690:LWK458714 LMO458690:LMO458714 LCS458690:LCS458714 KSW458690:KSW458714 KJA458690:KJA458714 JZE458690:JZE458714 JPI458690:JPI458714 JFM458690:JFM458714 IVQ458690:IVQ458714 ILU458690:ILU458714 IBY458690:IBY458714 HSC458690:HSC458714 HIG458690:HIG458714 GYK458690:GYK458714 GOO458690:GOO458714 GES458690:GES458714 FUW458690:FUW458714 FLA458690:FLA458714 FBE458690:FBE458714 ERI458690:ERI458714 EHM458690:EHM458714 DXQ458690:DXQ458714 DNU458690:DNU458714 DDY458690:DDY458714 CUC458690:CUC458714 CKG458690:CKG458714 CAK458690:CAK458714 BQO458690:BQO458714 BGS458690:BGS458714 AWW458690:AWW458714 ANA458690:ANA458714 ADE458690:ADE458714 TI458690:TI458714 JM458690:JM458714 J458744:J458768 WVY393154:WVY393178 WMC393154:WMC393178 WCG393154:WCG393178 VSK393154:VSK393178 VIO393154:VIO393178 UYS393154:UYS393178 UOW393154:UOW393178 UFA393154:UFA393178 TVE393154:TVE393178 TLI393154:TLI393178 TBM393154:TBM393178 SRQ393154:SRQ393178 SHU393154:SHU393178 RXY393154:RXY393178 ROC393154:ROC393178 REG393154:REG393178 QUK393154:QUK393178 QKO393154:QKO393178 QAS393154:QAS393178 PQW393154:PQW393178 PHA393154:PHA393178 OXE393154:OXE393178 ONI393154:ONI393178 ODM393154:ODM393178 NTQ393154:NTQ393178 NJU393154:NJU393178 MZY393154:MZY393178 MQC393154:MQC393178 MGG393154:MGG393178 LWK393154:LWK393178 LMO393154:LMO393178 LCS393154:LCS393178 KSW393154:KSW393178 KJA393154:KJA393178 JZE393154:JZE393178 JPI393154:JPI393178 JFM393154:JFM393178 IVQ393154:IVQ393178 ILU393154:ILU393178 IBY393154:IBY393178 HSC393154:HSC393178 HIG393154:HIG393178 GYK393154:GYK393178 GOO393154:GOO393178 GES393154:GES393178 FUW393154:FUW393178 FLA393154:FLA393178 FBE393154:FBE393178 ERI393154:ERI393178 EHM393154:EHM393178 DXQ393154:DXQ393178 DNU393154:DNU393178 DDY393154:DDY393178 CUC393154:CUC393178 CKG393154:CKG393178 CAK393154:CAK393178 BQO393154:BQO393178 BGS393154:BGS393178 AWW393154:AWW393178 ANA393154:ANA393178 ADE393154:ADE393178 TI393154:TI393178 JM393154:JM393178 J393208:J393232 WVY327618:WVY327642 WMC327618:WMC327642 WCG327618:WCG327642 VSK327618:VSK327642 VIO327618:VIO327642 UYS327618:UYS327642 UOW327618:UOW327642 UFA327618:UFA327642 TVE327618:TVE327642 TLI327618:TLI327642 TBM327618:TBM327642 SRQ327618:SRQ327642 SHU327618:SHU327642 RXY327618:RXY327642 ROC327618:ROC327642 REG327618:REG327642 QUK327618:QUK327642 QKO327618:QKO327642 QAS327618:QAS327642 PQW327618:PQW327642 PHA327618:PHA327642 OXE327618:OXE327642 ONI327618:ONI327642 ODM327618:ODM327642 NTQ327618:NTQ327642 NJU327618:NJU327642 MZY327618:MZY327642 MQC327618:MQC327642 MGG327618:MGG327642 LWK327618:LWK327642 LMO327618:LMO327642 LCS327618:LCS327642 KSW327618:KSW327642 KJA327618:KJA327642 JZE327618:JZE327642 JPI327618:JPI327642 JFM327618:JFM327642 IVQ327618:IVQ327642 ILU327618:ILU327642 IBY327618:IBY327642 HSC327618:HSC327642 HIG327618:HIG327642 GYK327618:GYK327642 GOO327618:GOO327642 GES327618:GES327642 FUW327618:FUW327642 FLA327618:FLA327642 FBE327618:FBE327642 ERI327618:ERI327642 EHM327618:EHM327642 DXQ327618:DXQ327642 DNU327618:DNU327642 DDY327618:DDY327642 CUC327618:CUC327642 CKG327618:CKG327642 CAK327618:CAK327642 BQO327618:BQO327642 BGS327618:BGS327642 AWW327618:AWW327642 ANA327618:ANA327642 ADE327618:ADE327642 TI327618:TI327642 JM327618:JM327642 J327672:J327696 WVY262082:WVY262106 WMC262082:WMC262106 WCG262082:WCG262106 VSK262082:VSK262106 VIO262082:VIO262106 UYS262082:UYS262106 UOW262082:UOW262106 UFA262082:UFA262106 TVE262082:TVE262106 TLI262082:TLI262106 TBM262082:TBM262106 SRQ262082:SRQ262106 SHU262082:SHU262106 RXY262082:RXY262106 ROC262082:ROC262106 REG262082:REG262106 QUK262082:QUK262106 QKO262082:QKO262106 QAS262082:QAS262106 PQW262082:PQW262106 PHA262082:PHA262106 OXE262082:OXE262106 ONI262082:ONI262106 ODM262082:ODM262106 NTQ262082:NTQ262106 NJU262082:NJU262106 MZY262082:MZY262106 MQC262082:MQC262106 MGG262082:MGG262106 LWK262082:LWK262106 LMO262082:LMO262106 LCS262082:LCS262106 KSW262082:KSW262106 KJA262082:KJA262106 JZE262082:JZE262106 JPI262082:JPI262106 JFM262082:JFM262106 IVQ262082:IVQ262106 ILU262082:ILU262106 IBY262082:IBY262106 HSC262082:HSC262106 HIG262082:HIG262106 GYK262082:GYK262106 GOO262082:GOO262106 GES262082:GES262106 FUW262082:FUW262106 FLA262082:FLA262106 FBE262082:FBE262106 ERI262082:ERI262106 EHM262082:EHM262106 DXQ262082:DXQ262106 DNU262082:DNU262106 DDY262082:DDY262106 CUC262082:CUC262106 CKG262082:CKG262106 CAK262082:CAK262106 BQO262082:BQO262106 BGS262082:BGS262106 AWW262082:AWW262106 ANA262082:ANA262106 ADE262082:ADE262106 TI262082:TI262106 JM262082:JM262106 J262136:J262160 WVY196546:WVY196570 WMC196546:WMC196570 WCG196546:WCG196570 VSK196546:VSK196570 VIO196546:VIO196570 UYS196546:UYS196570 UOW196546:UOW196570 UFA196546:UFA196570 TVE196546:TVE196570 TLI196546:TLI196570 TBM196546:TBM196570 SRQ196546:SRQ196570 SHU196546:SHU196570 RXY196546:RXY196570 ROC196546:ROC196570 REG196546:REG196570 QUK196546:QUK196570 QKO196546:QKO196570 QAS196546:QAS196570 PQW196546:PQW196570 PHA196546:PHA196570 OXE196546:OXE196570 ONI196546:ONI196570 ODM196546:ODM196570 NTQ196546:NTQ196570 NJU196546:NJU196570 MZY196546:MZY196570 MQC196546:MQC196570 MGG196546:MGG196570 LWK196546:LWK196570 LMO196546:LMO196570 LCS196546:LCS196570 KSW196546:KSW196570 KJA196546:KJA196570 JZE196546:JZE196570 JPI196546:JPI196570 JFM196546:JFM196570 IVQ196546:IVQ196570 ILU196546:ILU196570 IBY196546:IBY196570 HSC196546:HSC196570 HIG196546:HIG196570 GYK196546:GYK196570 GOO196546:GOO196570 GES196546:GES196570 FUW196546:FUW196570 FLA196546:FLA196570 FBE196546:FBE196570 ERI196546:ERI196570 EHM196546:EHM196570 DXQ196546:DXQ196570 DNU196546:DNU196570 DDY196546:DDY196570 CUC196546:CUC196570 CKG196546:CKG196570 CAK196546:CAK196570 BQO196546:BQO196570 BGS196546:BGS196570 AWW196546:AWW196570 ANA196546:ANA196570 ADE196546:ADE196570 TI196546:TI196570 JM196546:JM196570 J196600:J196624 WVY131010:WVY131034 WMC131010:WMC131034 WCG131010:WCG131034 VSK131010:VSK131034 VIO131010:VIO131034 UYS131010:UYS131034 UOW131010:UOW131034 UFA131010:UFA131034 TVE131010:TVE131034 TLI131010:TLI131034 TBM131010:TBM131034 SRQ131010:SRQ131034 SHU131010:SHU131034 RXY131010:RXY131034 ROC131010:ROC131034 REG131010:REG131034 QUK131010:QUK131034 QKO131010:QKO131034 QAS131010:QAS131034 PQW131010:PQW131034 PHA131010:PHA131034 OXE131010:OXE131034 ONI131010:ONI131034 ODM131010:ODM131034 NTQ131010:NTQ131034 NJU131010:NJU131034 MZY131010:MZY131034 MQC131010:MQC131034 MGG131010:MGG131034 LWK131010:LWK131034 LMO131010:LMO131034 LCS131010:LCS131034 KSW131010:KSW131034 KJA131010:KJA131034 JZE131010:JZE131034 JPI131010:JPI131034 JFM131010:JFM131034 IVQ131010:IVQ131034 ILU131010:ILU131034 IBY131010:IBY131034 HSC131010:HSC131034 HIG131010:HIG131034 GYK131010:GYK131034 GOO131010:GOO131034 GES131010:GES131034 FUW131010:FUW131034 FLA131010:FLA131034 FBE131010:FBE131034 ERI131010:ERI131034 EHM131010:EHM131034 DXQ131010:DXQ131034 DNU131010:DNU131034 DDY131010:DDY131034 CUC131010:CUC131034 CKG131010:CKG131034 CAK131010:CAK131034 BQO131010:BQO131034 BGS131010:BGS131034 AWW131010:AWW131034 ANA131010:ANA131034 ADE131010:ADE131034 TI131010:TI131034 JM131010:JM131034 J131064:J131088 WVY65474:WVY65498 WMC65474:WMC65498 WCG65474:WCG65498 VSK65474:VSK65498 VIO65474:VIO65498 UYS65474:UYS65498 UOW65474:UOW65498 UFA65474:UFA65498 TVE65474:TVE65498 TLI65474:TLI65498 TBM65474:TBM65498 SRQ65474:SRQ65498 SHU65474:SHU65498 RXY65474:RXY65498 ROC65474:ROC65498 REG65474:REG65498 QUK65474:QUK65498 QKO65474:QKO65498 QAS65474:QAS65498 PQW65474:PQW65498 PHA65474:PHA65498 OXE65474:OXE65498 ONI65474:ONI65498 ODM65474:ODM65498 NTQ65474:NTQ65498 NJU65474:NJU65498 MZY65474:MZY65498 MQC65474:MQC65498 MGG65474:MGG65498 LWK65474:LWK65498 LMO65474:LMO65498 LCS65474:LCS65498 KSW65474:KSW65498 KJA65474:KJA65498 JZE65474:JZE65498 JPI65474:JPI65498 JFM65474:JFM65498 IVQ65474:IVQ65498 ILU65474:ILU65498 IBY65474:IBY65498 HSC65474:HSC65498 HIG65474:HIG65498 GYK65474:GYK65498 GOO65474:GOO65498 GES65474:GES65498 FUW65474:FUW65498 FLA65474:FLA65498 FBE65474:FBE65498 ERI65474:ERI65498 EHM65474:EHM65498 DXQ65474:DXQ65498 DNU65474:DNU65498 DDY65474:DDY65498 CUC65474:CUC65498 CKG65474:CKG65498 CAK65474:CAK65498 BQO65474:BQO65498 BGS65474:BGS65498 AWW65474:AWW65498 ANA65474:ANA65498 ADE65474:ADE65498 TI65474:TI65498 JM65474:JM65498" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$L$5:$L$11</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVX983004:WVX983071 JL27:JL85 WMB983004:WMB983071 WCF983004:WCF983071 VSJ983004:VSJ983071 VIN983004:VIN983071 UYR983004:UYR983071 UOV983004:UOV983071 UEZ983004:UEZ983071 TVD983004:TVD983071 TLH983004:TLH983071 TBL983004:TBL983071 SRP983004:SRP983071 SHT983004:SHT983071 RXX983004:RXX983071 ROB983004:ROB983071 REF983004:REF983071 QUJ983004:QUJ983071 QKN983004:QKN983071 QAR983004:QAR983071 PQV983004:PQV983071 PGZ983004:PGZ983071 OXD983004:OXD983071 ONH983004:ONH983071 ODL983004:ODL983071 NTP983004:NTP983071 NJT983004:NJT983071 MZX983004:MZX983071 MQB983004:MQB983071 MGF983004:MGF983071 LWJ983004:LWJ983071 LMN983004:LMN983071 LCR983004:LCR983071 KSV983004:KSV983071 KIZ983004:KIZ983071 JZD983004:JZD983071 JPH983004:JPH983071 JFL983004:JFL983071 IVP983004:IVP983071 ILT983004:ILT983071 IBX983004:IBX983071 HSB983004:HSB983071 HIF983004:HIF983071 GYJ983004:GYJ983071 GON983004:GON983071 GER983004:GER983071 FUV983004:FUV983071 FKZ983004:FKZ983071 FBD983004:FBD983071 ERH983004:ERH983071 EHL983004:EHL983071 DXP983004:DXP983071 DNT983004:DNT983071 DDX983004:DDX983071 CUB983004:CUB983071 CKF983004:CKF983071 CAJ983004:CAJ983071 BQN983004:BQN983071 BGR983004:BGR983071 AWV983004:AWV983071 AMZ983004:AMZ983071 ADD983004:ADD983071 TH983004:TH983071 JL983004:JL983071 I983058:I983125 WVX917468:WVX917535 WMB917468:WMB917535 WCF917468:WCF917535 VSJ917468:VSJ917535 VIN917468:VIN917535 UYR917468:UYR917535 UOV917468:UOV917535 UEZ917468:UEZ917535 TVD917468:TVD917535 TLH917468:TLH917535 TBL917468:TBL917535 SRP917468:SRP917535 SHT917468:SHT917535 RXX917468:RXX917535 ROB917468:ROB917535 REF917468:REF917535 QUJ917468:QUJ917535 QKN917468:QKN917535 QAR917468:QAR917535 PQV917468:PQV917535 PGZ917468:PGZ917535 OXD917468:OXD917535 ONH917468:ONH917535 ODL917468:ODL917535 NTP917468:NTP917535 NJT917468:NJT917535 MZX917468:MZX917535 MQB917468:MQB917535 MGF917468:MGF917535 LWJ917468:LWJ917535 LMN917468:LMN917535 LCR917468:LCR917535 KSV917468:KSV917535 KIZ917468:KIZ917535 JZD917468:JZD917535 JPH917468:JPH917535 JFL917468:JFL917535 IVP917468:IVP917535 ILT917468:ILT917535 IBX917468:IBX917535 HSB917468:HSB917535 HIF917468:HIF917535 GYJ917468:GYJ917535 GON917468:GON917535 GER917468:GER917535 FUV917468:FUV917535 FKZ917468:FKZ917535 FBD917468:FBD917535 ERH917468:ERH917535 EHL917468:EHL917535 DXP917468:DXP917535 DNT917468:DNT917535 DDX917468:DDX917535 CUB917468:CUB917535 CKF917468:CKF917535 CAJ917468:CAJ917535 BQN917468:BQN917535 BGR917468:BGR917535 AWV917468:AWV917535 AMZ917468:AMZ917535 ADD917468:ADD917535 TH917468:TH917535 JL917468:JL917535 I917522:I917589 WVX851932:WVX851999 WMB851932:WMB851999 WCF851932:WCF851999 VSJ851932:VSJ851999 VIN851932:VIN851999 UYR851932:UYR851999 UOV851932:UOV851999 UEZ851932:UEZ851999 TVD851932:TVD851999 TLH851932:TLH851999 TBL851932:TBL851999 SRP851932:SRP851999 SHT851932:SHT851999 RXX851932:RXX851999 ROB851932:ROB851999 REF851932:REF851999 QUJ851932:QUJ851999 QKN851932:QKN851999 QAR851932:QAR851999 PQV851932:PQV851999 PGZ851932:PGZ851999 OXD851932:OXD851999 ONH851932:ONH851999 ODL851932:ODL851999 NTP851932:NTP851999 NJT851932:NJT851999 MZX851932:MZX851999 MQB851932:MQB851999 MGF851932:MGF851999 LWJ851932:LWJ851999 LMN851932:LMN851999 LCR851932:LCR851999 KSV851932:KSV851999 KIZ851932:KIZ851999 JZD851932:JZD851999 JPH851932:JPH851999 JFL851932:JFL851999 IVP851932:IVP851999 ILT851932:ILT851999 IBX851932:IBX851999 HSB851932:HSB851999 HIF851932:HIF851999 GYJ851932:GYJ851999 GON851932:GON851999 GER851932:GER851999 FUV851932:FUV851999 FKZ851932:FKZ851999 FBD851932:FBD851999 ERH851932:ERH851999 EHL851932:EHL851999 DXP851932:DXP851999 DNT851932:DNT851999 DDX851932:DDX851999 CUB851932:CUB851999 CKF851932:CKF851999 CAJ851932:CAJ851999 BQN851932:BQN851999 BGR851932:BGR851999 AWV851932:AWV851999 AMZ851932:AMZ851999 ADD851932:ADD851999 TH851932:TH851999 JL851932:JL851999 I851986:I852053 WVX786396:WVX786463 WMB786396:WMB786463 WCF786396:WCF786463 VSJ786396:VSJ786463 VIN786396:VIN786463 UYR786396:UYR786463 UOV786396:UOV786463 UEZ786396:UEZ786463 TVD786396:TVD786463 TLH786396:TLH786463 TBL786396:TBL786463 SRP786396:SRP786463 SHT786396:SHT786463 RXX786396:RXX786463 ROB786396:ROB786463 REF786396:REF786463 QUJ786396:QUJ786463 QKN786396:QKN786463 QAR786396:QAR786463 PQV786396:PQV786463 PGZ786396:PGZ786463 OXD786396:OXD786463 ONH786396:ONH786463 ODL786396:ODL786463 NTP786396:NTP786463 NJT786396:NJT786463 MZX786396:MZX786463 MQB786396:MQB786463 MGF786396:MGF786463 LWJ786396:LWJ786463 LMN786396:LMN786463 LCR786396:LCR786463 KSV786396:KSV786463 KIZ786396:KIZ786463 JZD786396:JZD786463 JPH786396:JPH786463 JFL786396:JFL786463 IVP786396:IVP786463 ILT786396:ILT786463 IBX786396:IBX786463 HSB786396:HSB786463 HIF786396:HIF786463 GYJ786396:GYJ786463 GON786396:GON786463 GER786396:GER786463 FUV786396:FUV786463 FKZ786396:FKZ786463 FBD786396:FBD786463 ERH786396:ERH786463 EHL786396:EHL786463 DXP786396:DXP786463 DNT786396:DNT786463 DDX786396:DDX786463 CUB786396:CUB786463 CKF786396:CKF786463 CAJ786396:CAJ786463 BQN786396:BQN786463 BGR786396:BGR786463 AWV786396:AWV786463 AMZ786396:AMZ786463 ADD786396:ADD786463 TH786396:TH786463 JL786396:JL786463 I786450:I786517 WVX720860:WVX720927 WMB720860:WMB720927 WCF720860:WCF720927 VSJ720860:VSJ720927 VIN720860:VIN720927 UYR720860:UYR720927 UOV720860:UOV720927 UEZ720860:UEZ720927 TVD720860:TVD720927 TLH720860:TLH720927 TBL720860:TBL720927 SRP720860:SRP720927 SHT720860:SHT720927 RXX720860:RXX720927 ROB720860:ROB720927 REF720860:REF720927 QUJ720860:QUJ720927 QKN720860:QKN720927 QAR720860:QAR720927 PQV720860:PQV720927 PGZ720860:PGZ720927 OXD720860:OXD720927 ONH720860:ONH720927 ODL720860:ODL720927 NTP720860:NTP720927 NJT720860:NJT720927 MZX720860:MZX720927 MQB720860:MQB720927 MGF720860:MGF720927 LWJ720860:LWJ720927 LMN720860:LMN720927 LCR720860:LCR720927 KSV720860:KSV720927 KIZ720860:KIZ720927 JZD720860:JZD720927 JPH720860:JPH720927 JFL720860:JFL720927 IVP720860:IVP720927 ILT720860:ILT720927 IBX720860:IBX720927 HSB720860:HSB720927 HIF720860:HIF720927 GYJ720860:GYJ720927 GON720860:GON720927 GER720860:GER720927 FUV720860:FUV720927 FKZ720860:FKZ720927 FBD720860:FBD720927 ERH720860:ERH720927 EHL720860:EHL720927 DXP720860:DXP720927 DNT720860:DNT720927 DDX720860:DDX720927 CUB720860:CUB720927 CKF720860:CKF720927 CAJ720860:CAJ720927 BQN720860:BQN720927 BGR720860:BGR720927 AWV720860:AWV720927 AMZ720860:AMZ720927 ADD720860:ADD720927 TH720860:TH720927 JL720860:JL720927 I720914:I720981 WVX655324:WVX655391 WMB655324:WMB655391 WCF655324:WCF655391 VSJ655324:VSJ655391 VIN655324:VIN655391 UYR655324:UYR655391 UOV655324:UOV655391 UEZ655324:UEZ655391 TVD655324:TVD655391 TLH655324:TLH655391 TBL655324:TBL655391 SRP655324:SRP655391 SHT655324:SHT655391 RXX655324:RXX655391 ROB655324:ROB655391 REF655324:REF655391 QUJ655324:QUJ655391 QKN655324:QKN655391 QAR655324:QAR655391 PQV655324:PQV655391 PGZ655324:PGZ655391 OXD655324:OXD655391 ONH655324:ONH655391 ODL655324:ODL655391 NTP655324:NTP655391 NJT655324:NJT655391 MZX655324:MZX655391 MQB655324:MQB655391 MGF655324:MGF655391 LWJ655324:LWJ655391 LMN655324:LMN655391 LCR655324:LCR655391 KSV655324:KSV655391 KIZ655324:KIZ655391 JZD655324:JZD655391 JPH655324:JPH655391 JFL655324:JFL655391 IVP655324:IVP655391 ILT655324:ILT655391 IBX655324:IBX655391 HSB655324:HSB655391 HIF655324:HIF655391 GYJ655324:GYJ655391 GON655324:GON655391 GER655324:GER655391 FUV655324:FUV655391 FKZ655324:FKZ655391 FBD655324:FBD655391 ERH655324:ERH655391 EHL655324:EHL655391 DXP655324:DXP655391 DNT655324:DNT655391 DDX655324:DDX655391 CUB655324:CUB655391 CKF655324:CKF655391 CAJ655324:CAJ655391 BQN655324:BQN655391 BGR655324:BGR655391 AWV655324:AWV655391 AMZ655324:AMZ655391 ADD655324:ADD655391 TH655324:TH655391 JL655324:JL655391 I655378:I655445 WVX589788:WVX589855 WMB589788:WMB589855 WCF589788:WCF589855 VSJ589788:VSJ589855 VIN589788:VIN589855 UYR589788:UYR589855 UOV589788:UOV589855 UEZ589788:UEZ589855 TVD589788:TVD589855 TLH589788:TLH589855 TBL589788:TBL589855 SRP589788:SRP589855 SHT589788:SHT589855 RXX589788:RXX589855 ROB589788:ROB589855 REF589788:REF589855 QUJ589788:QUJ589855 QKN589788:QKN589855 QAR589788:QAR589855 PQV589788:PQV589855 PGZ589788:PGZ589855 OXD589788:OXD589855 ONH589788:ONH589855 ODL589788:ODL589855 NTP589788:NTP589855 NJT589788:NJT589855 MZX589788:MZX589855 MQB589788:MQB589855 MGF589788:MGF589855 LWJ589788:LWJ589855 LMN589788:LMN589855 LCR589788:LCR589855 KSV589788:KSV589855 KIZ589788:KIZ589855 JZD589788:JZD589855 JPH589788:JPH589855 JFL589788:JFL589855 IVP589788:IVP589855 ILT589788:ILT589855 IBX589788:IBX589855 HSB589788:HSB589855 HIF589788:HIF589855 GYJ589788:GYJ589855 GON589788:GON589855 GER589788:GER589855 FUV589788:FUV589855 FKZ589788:FKZ589855 FBD589788:FBD589855 ERH589788:ERH589855 EHL589788:EHL589855 DXP589788:DXP589855 DNT589788:DNT589855 DDX589788:DDX589855 CUB589788:CUB589855 CKF589788:CKF589855 CAJ589788:CAJ589855 BQN589788:BQN589855 BGR589788:BGR589855 AWV589788:AWV589855 AMZ589788:AMZ589855 ADD589788:ADD589855 TH589788:TH589855 JL589788:JL589855 I589842:I589909 WVX524252:WVX524319 WMB524252:WMB524319 WCF524252:WCF524319 VSJ524252:VSJ524319 VIN524252:VIN524319 UYR524252:UYR524319 UOV524252:UOV524319 UEZ524252:UEZ524319 TVD524252:TVD524319 TLH524252:TLH524319 TBL524252:TBL524319 SRP524252:SRP524319 SHT524252:SHT524319 RXX524252:RXX524319 ROB524252:ROB524319 REF524252:REF524319 QUJ524252:QUJ524319 QKN524252:QKN524319 QAR524252:QAR524319 PQV524252:PQV524319 PGZ524252:PGZ524319 OXD524252:OXD524319 ONH524252:ONH524319 ODL524252:ODL524319 NTP524252:NTP524319 NJT524252:NJT524319 MZX524252:MZX524319 MQB524252:MQB524319 MGF524252:MGF524319 LWJ524252:LWJ524319 LMN524252:LMN524319 LCR524252:LCR524319 KSV524252:KSV524319 KIZ524252:KIZ524319 JZD524252:JZD524319 JPH524252:JPH524319 JFL524252:JFL524319 IVP524252:IVP524319 ILT524252:ILT524319 IBX524252:IBX524319 HSB524252:HSB524319 HIF524252:HIF524319 GYJ524252:GYJ524319 GON524252:GON524319 GER524252:GER524319 FUV524252:FUV524319 FKZ524252:FKZ524319 FBD524252:FBD524319 ERH524252:ERH524319 EHL524252:EHL524319 DXP524252:DXP524319 DNT524252:DNT524319 DDX524252:DDX524319 CUB524252:CUB524319 CKF524252:CKF524319 CAJ524252:CAJ524319 BQN524252:BQN524319 BGR524252:BGR524319 AWV524252:AWV524319 AMZ524252:AMZ524319 ADD524252:ADD524319 TH524252:TH524319 JL524252:JL524319 I524306:I524373 WVX458716:WVX458783 WMB458716:WMB458783 WCF458716:WCF458783 VSJ458716:VSJ458783 VIN458716:VIN458783 UYR458716:UYR458783 UOV458716:UOV458783 UEZ458716:UEZ458783 TVD458716:TVD458783 TLH458716:TLH458783 TBL458716:TBL458783 SRP458716:SRP458783 SHT458716:SHT458783 RXX458716:RXX458783 ROB458716:ROB458783 REF458716:REF458783 QUJ458716:QUJ458783 QKN458716:QKN458783 QAR458716:QAR458783 PQV458716:PQV458783 PGZ458716:PGZ458783 OXD458716:OXD458783 ONH458716:ONH458783 ODL458716:ODL458783 NTP458716:NTP458783 NJT458716:NJT458783 MZX458716:MZX458783 MQB458716:MQB458783 MGF458716:MGF458783 LWJ458716:LWJ458783 LMN458716:LMN458783 LCR458716:LCR458783 KSV458716:KSV458783 KIZ458716:KIZ458783 JZD458716:JZD458783 JPH458716:JPH458783 JFL458716:JFL458783 IVP458716:IVP458783 ILT458716:ILT458783 IBX458716:IBX458783 HSB458716:HSB458783 HIF458716:HIF458783 GYJ458716:GYJ458783 GON458716:GON458783 GER458716:GER458783 FUV458716:FUV458783 FKZ458716:FKZ458783 FBD458716:FBD458783 ERH458716:ERH458783 EHL458716:EHL458783 DXP458716:DXP458783 DNT458716:DNT458783 DDX458716:DDX458783 CUB458716:CUB458783 CKF458716:CKF458783 CAJ458716:CAJ458783 BQN458716:BQN458783 BGR458716:BGR458783 AWV458716:AWV458783 AMZ458716:AMZ458783 ADD458716:ADD458783 TH458716:TH458783 JL458716:JL458783 I458770:I458837 WVX393180:WVX393247 WMB393180:WMB393247 WCF393180:WCF393247 VSJ393180:VSJ393247 VIN393180:VIN393247 UYR393180:UYR393247 UOV393180:UOV393247 UEZ393180:UEZ393247 TVD393180:TVD393247 TLH393180:TLH393247 TBL393180:TBL393247 SRP393180:SRP393247 SHT393180:SHT393247 RXX393180:RXX393247 ROB393180:ROB393247 REF393180:REF393247 QUJ393180:QUJ393247 QKN393180:QKN393247 QAR393180:QAR393247 PQV393180:PQV393247 PGZ393180:PGZ393247 OXD393180:OXD393247 ONH393180:ONH393247 ODL393180:ODL393247 NTP393180:NTP393247 NJT393180:NJT393247 MZX393180:MZX393247 MQB393180:MQB393247 MGF393180:MGF393247 LWJ393180:LWJ393247 LMN393180:LMN393247 LCR393180:LCR393247 KSV393180:KSV393247 KIZ393180:KIZ393247 JZD393180:JZD393247 JPH393180:JPH393247 JFL393180:JFL393247 IVP393180:IVP393247 ILT393180:ILT393247 IBX393180:IBX393247 HSB393180:HSB393247 HIF393180:HIF393247 GYJ393180:GYJ393247 GON393180:GON393247 GER393180:GER393247 FUV393180:FUV393247 FKZ393180:FKZ393247 FBD393180:FBD393247 ERH393180:ERH393247 EHL393180:EHL393247 DXP393180:DXP393247 DNT393180:DNT393247 DDX393180:DDX393247 CUB393180:CUB393247 CKF393180:CKF393247 CAJ393180:CAJ393247 BQN393180:BQN393247 BGR393180:BGR393247 AWV393180:AWV393247 AMZ393180:AMZ393247 ADD393180:ADD393247 TH393180:TH393247 JL393180:JL393247 I393234:I393301 WVX327644:WVX327711 WMB327644:WMB327711 WCF327644:WCF327711 VSJ327644:VSJ327711 VIN327644:VIN327711 UYR327644:UYR327711 UOV327644:UOV327711 UEZ327644:UEZ327711 TVD327644:TVD327711 TLH327644:TLH327711 TBL327644:TBL327711 SRP327644:SRP327711 SHT327644:SHT327711 RXX327644:RXX327711 ROB327644:ROB327711 REF327644:REF327711 QUJ327644:QUJ327711 QKN327644:QKN327711 QAR327644:QAR327711 PQV327644:PQV327711 PGZ327644:PGZ327711 OXD327644:OXD327711 ONH327644:ONH327711 ODL327644:ODL327711 NTP327644:NTP327711 NJT327644:NJT327711 MZX327644:MZX327711 MQB327644:MQB327711 MGF327644:MGF327711 LWJ327644:LWJ327711 LMN327644:LMN327711 LCR327644:LCR327711 KSV327644:KSV327711 KIZ327644:KIZ327711 JZD327644:JZD327711 JPH327644:JPH327711 JFL327644:JFL327711 IVP327644:IVP327711 ILT327644:ILT327711 IBX327644:IBX327711 HSB327644:HSB327711 HIF327644:HIF327711 GYJ327644:GYJ327711 GON327644:GON327711 GER327644:GER327711 FUV327644:FUV327711 FKZ327644:FKZ327711 FBD327644:FBD327711 ERH327644:ERH327711 EHL327644:EHL327711 DXP327644:DXP327711 DNT327644:DNT327711 DDX327644:DDX327711 CUB327644:CUB327711 CKF327644:CKF327711 CAJ327644:CAJ327711 BQN327644:BQN327711 BGR327644:BGR327711 AWV327644:AWV327711 AMZ327644:AMZ327711 ADD327644:ADD327711 TH327644:TH327711 JL327644:JL327711 I327698:I327765 WVX262108:WVX262175 WMB262108:WMB262175 WCF262108:WCF262175 VSJ262108:VSJ262175 VIN262108:VIN262175 UYR262108:UYR262175 UOV262108:UOV262175 UEZ262108:UEZ262175 TVD262108:TVD262175 TLH262108:TLH262175 TBL262108:TBL262175 SRP262108:SRP262175 SHT262108:SHT262175 RXX262108:RXX262175 ROB262108:ROB262175 REF262108:REF262175 QUJ262108:QUJ262175 QKN262108:QKN262175 QAR262108:QAR262175 PQV262108:PQV262175 PGZ262108:PGZ262175 OXD262108:OXD262175 ONH262108:ONH262175 ODL262108:ODL262175 NTP262108:NTP262175 NJT262108:NJT262175 MZX262108:MZX262175 MQB262108:MQB262175 MGF262108:MGF262175 LWJ262108:LWJ262175 LMN262108:LMN262175 LCR262108:LCR262175 KSV262108:KSV262175 KIZ262108:KIZ262175 JZD262108:JZD262175 JPH262108:JPH262175 JFL262108:JFL262175 IVP262108:IVP262175 ILT262108:ILT262175 IBX262108:IBX262175 HSB262108:HSB262175 HIF262108:HIF262175 GYJ262108:GYJ262175 GON262108:GON262175 GER262108:GER262175 FUV262108:FUV262175 FKZ262108:FKZ262175 FBD262108:FBD262175 ERH262108:ERH262175 EHL262108:EHL262175 DXP262108:DXP262175 DNT262108:DNT262175 DDX262108:DDX262175 CUB262108:CUB262175 CKF262108:CKF262175 CAJ262108:CAJ262175 BQN262108:BQN262175 BGR262108:BGR262175 AWV262108:AWV262175 AMZ262108:AMZ262175 ADD262108:ADD262175 TH262108:TH262175 JL262108:JL262175 I262162:I262229 WVX196572:WVX196639 WMB196572:WMB196639 WCF196572:WCF196639 VSJ196572:VSJ196639 VIN196572:VIN196639 UYR196572:UYR196639 UOV196572:UOV196639 UEZ196572:UEZ196639 TVD196572:TVD196639 TLH196572:TLH196639 TBL196572:TBL196639 SRP196572:SRP196639 SHT196572:SHT196639 RXX196572:RXX196639 ROB196572:ROB196639 REF196572:REF196639 QUJ196572:QUJ196639 QKN196572:QKN196639 QAR196572:QAR196639 PQV196572:PQV196639 PGZ196572:PGZ196639 OXD196572:OXD196639 ONH196572:ONH196639 ODL196572:ODL196639 NTP196572:NTP196639 NJT196572:NJT196639 MZX196572:MZX196639 MQB196572:MQB196639 MGF196572:MGF196639 LWJ196572:LWJ196639 LMN196572:LMN196639 LCR196572:LCR196639 KSV196572:KSV196639 KIZ196572:KIZ196639 JZD196572:JZD196639 JPH196572:JPH196639 JFL196572:JFL196639 IVP196572:IVP196639 ILT196572:ILT196639 IBX196572:IBX196639 HSB196572:HSB196639 HIF196572:HIF196639 GYJ196572:GYJ196639 GON196572:GON196639 GER196572:GER196639 FUV196572:FUV196639 FKZ196572:FKZ196639 FBD196572:FBD196639 ERH196572:ERH196639 EHL196572:EHL196639 DXP196572:DXP196639 DNT196572:DNT196639 DDX196572:DDX196639 CUB196572:CUB196639 CKF196572:CKF196639 CAJ196572:CAJ196639 BQN196572:BQN196639 BGR196572:BGR196639 AWV196572:AWV196639 AMZ196572:AMZ196639 ADD196572:ADD196639 TH196572:TH196639 JL196572:JL196639 I196626:I196693 WVX131036:WVX131103 WMB131036:WMB131103 WCF131036:WCF131103 VSJ131036:VSJ131103 VIN131036:VIN131103 UYR131036:UYR131103 UOV131036:UOV131103 UEZ131036:UEZ131103 TVD131036:TVD131103 TLH131036:TLH131103 TBL131036:TBL131103 SRP131036:SRP131103 SHT131036:SHT131103 RXX131036:RXX131103 ROB131036:ROB131103 REF131036:REF131103 QUJ131036:QUJ131103 QKN131036:QKN131103 QAR131036:QAR131103 PQV131036:PQV131103 PGZ131036:PGZ131103 OXD131036:OXD131103 ONH131036:ONH131103 ODL131036:ODL131103 NTP131036:NTP131103 NJT131036:NJT131103 MZX131036:MZX131103 MQB131036:MQB131103 MGF131036:MGF131103 LWJ131036:LWJ131103 LMN131036:LMN131103 LCR131036:LCR131103 KSV131036:KSV131103 KIZ131036:KIZ131103 JZD131036:JZD131103 JPH131036:JPH131103 JFL131036:JFL131103 IVP131036:IVP131103 ILT131036:ILT131103 IBX131036:IBX131103 HSB131036:HSB131103 HIF131036:HIF131103 GYJ131036:GYJ131103 GON131036:GON131103 GER131036:GER131103 FUV131036:FUV131103 FKZ131036:FKZ131103 FBD131036:FBD131103 ERH131036:ERH131103 EHL131036:EHL131103 DXP131036:DXP131103 DNT131036:DNT131103 DDX131036:DDX131103 CUB131036:CUB131103 CKF131036:CKF131103 CAJ131036:CAJ131103 BQN131036:BQN131103 BGR131036:BGR131103 AWV131036:AWV131103 AMZ131036:AMZ131103 ADD131036:ADD131103 TH131036:TH131103 JL131036:JL131103 I131090:I131157 WVX65500:WVX65567 WMB65500:WMB65567 WCF65500:WCF65567 VSJ65500:VSJ65567 VIN65500:VIN65567 UYR65500:UYR65567 UOV65500:UOV65567 UEZ65500:UEZ65567 TVD65500:TVD65567 TLH65500:TLH65567 TBL65500:TBL65567 SRP65500:SRP65567 SHT65500:SHT65567 RXX65500:RXX65567 ROB65500:ROB65567 REF65500:REF65567 QUJ65500:QUJ65567 QKN65500:QKN65567 QAR65500:QAR65567 PQV65500:PQV65567 PGZ65500:PGZ65567 OXD65500:OXD65567 ONH65500:ONH65567 ODL65500:ODL65567 NTP65500:NTP65567 NJT65500:NJT65567 MZX65500:MZX65567 MQB65500:MQB65567 MGF65500:MGF65567 LWJ65500:LWJ65567 LMN65500:LMN65567 LCR65500:LCR65567 KSV65500:KSV65567 KIZ65500:KIZ65567 JZD65500:JZD65567 JPH65500:JPH65567 JFL65500:JFL65567 IVP65500:IVP65567 ILT65500:ILT65567 IBX65500:IBX65567 HSB65500:HSB65567 HIF65500:HIF65567 GYJ65500:GYJ65567 GON65500:GON65567 GER65500:GER65567 FUV65500:FUV65567 FKZ65500:FKZ65567 FBD65500:FBD65567 ERH65500:ERH65567 EHL65500:EHL65567 DXP65500:DXP65567 DNT65500:DNT65567 DDX65500:DDX65567 CUB65500:CUB65567 CKF65500:CKF65567 CAJ65500:CAJ65567 BQN65500:BQN65567 BGR65500:BGR65567 AWV65500:AWV65567 AMZ65500:AMZ65567 ADD65500:ADD65567 TH65500:TH65567 JL65500:JL65567 I65554:I65621 WVX27:WVX85 WMB27:WMB85 WCF27:WCF85 VSJ27:VSJ85 VIN27:VIN85 UYR27:UYR85 UOV27:UOV85 UEZ27:UEZ85 TVD27:TVD85 TLH27:TLH85 TBL27:TBL85 SRP27:SRP85 SHT27:SHT85 RXX27:RXX85 ROB27:ROB85 REF27:REF85 QUJ27:QUJ85 QKN27:QKN85 QAR27:QAR85 PQV27:PQV85 PGZ27:PGZ85 OXD27:OXD85 ONH27:ONH85 ODL27:ODL85 NTP27:NTP85 NJT27:NJT85 MZX27:MZX85 MQB27:MQB85 MGF27:MGF85 LWJ27:LWJ85 LMN27:LMN85 LCR27:LCR85 KSV27:KSV85 KIZ27:KIZ85 JZD27:JZD85 JPH27:JPH85 JFL27:JFL85 IVP27:IVP85 ILT27:ILT85 IBX27:IBX85 HSB27:HSB85 HIF27:HIF85 GYJ27:GYJ85 GON27:GON85 GER27:GER85 FUV27:FUV85 FKZ27:FKZ85 FBD27:FBD85 ERH27:ERH85 EHL27:EHL85 DXP27:DXP85 DNT27:DNT85 DDX27:DDX85 CUB27:CUB85 CKF27:CKF85 CAJ27:CAJ85 BQN27:BQN85 BGR27:BGR85 AWV27:AWV85 AMZ27:AMZ85 ADD27:ADD85 TH27:TH85" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$K$16:$K$59</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="ادخل المصروفات من الجدول" error="الرجاء ادخال المصروفات من النطاقات المحددة" sqref="WVY983004:WVY983071 TI27:TI85 ADE27:ADE85 ANA27:ANA85 AWW27:AWW85 BGS27:BGS85 BQO27:BQO85 CAK27:CAK85 CKG27:CKG85 CUC27:CUC85 DDY27:DDY85 DNU27:DNU85 DXQ27:DXQ85 EHM27:EHM85 ERI27:ERI85 FBE27:FBE85 FLA27:FLA85 FUW27:FUW85 GES27:GES85 GOO27:GOO85 GYK27:GYK85 HIG27:HIG85 HSC27:HSC85 IBY27:IBY85 ILU27:ILU85 IVQ27:IVQ85 JFM27:JFM85 JPI27:JPI85 JZE27:JZE85 KJA27:KJA85 KSW27:KSW85 LCS27:LCS85 LMO27:LMO85 LWK27:LWK85 MGG27:MGG85 MQC27:MQC85 MZY27:MZY85 NJU27:NJU85 NTQ27:NTQ85 ODM27:ODM85 ONI27:ONI85 OXE27:OXE85 PHA27:PHA85 PQW27:PQW85 QAS27:QAS85 QKO27:QKO85 QUK27:QUK85 REG27:REG85 ROC27:ROC85 RXY27:RXY85 SHU27:SHU85 SRQ27:SRQ85 TBM27:TBM85 TLI27:TLI85 TVE27:TVE85 UFA27:UFA85 UOW27:UOW85 UYS27:UYS85 VIO27:VIO85 VSK27:VSK85 WCG27:WCG85 WMC27:WMC85 WVY27:WVY85 J65554:J65621 JM65500:JM65567 TI65500:TI65567 ADE65500:ADE65567 ANA65500:ANA65567 AWW65500:AWW65567 BGS65500:BGS65567 BQO65500:BQO65567 CAK65500:CAK65567 CKG65500:CKG65567 CUC65500:CUC65567 DDY65500:DDY65567 DNU65500:DNU65567 DXQ65500:DXQ65567 EHM65500:EHM65567 ERI65500:ERI65567 FBE65500:FBE65567 FLA65500:FLA65567 FUW65500:FUW65567 GES65500:GES65567 GOO65500:GOO65567 GYK65500:GYK65567 HIG65500:HIG65567 HSC65500:HSC65567 IBY65500:IBY65567 ILU65500:ILU65567 IVQ65500:IVQ65567 JFM65500:JFM65567 JPI65500:JPI65567 JZE65500:JZE65567 KJA65500:KJA65567 KSW65500:KSW65567 LCS65500:LCS65567 LMO65500:LMO65567 LWK65500:LWK65567 MGG65500:MGG65567 MQC65500:MQC65567 MZY65500:MZY65567 NJU65500:NJU65567 NTQ65500:NTQ65567 ODM65500:ODM65567 ONI65500:ONI65567 OXE65500:OXE65567 PHA65500:PHA65567 PQW65500:PQW65567 QAS65500:QAS65567 QKO65500:QKO65567 QUK65500:QUK65567 REG65500:REG65567 ROC65500:ROC65567 RXY65500:RXY65567 SHU65500:SHU65567 SRQ65500:SRQ65567 TBM65500:TBM65567 TLI65500:TLI65567 TVE65500:TVE65567 UFA65500:UFA65567 UOW65500:UOW65567 UYS65500:UYS65567 VIO65500:VIO65567 VSK65500:VSK65567 WCG65500:WCG65567 WMC65500:WMC65567 WVY65500:WVY65567 J131090:J131157 JM131036:JM131103 TI131036:TI131103 ADE131036:ADE131103 ANA131036:ANA131103 AWW131036:AWW131103 BGS131036:BGS131103 BQO131036:BQO131103 CAK131036:CAK131103 CKG131036:CKG131103 CUC131036:CUC131103 DDY131036:DDY131103 DNU131036:DNU131103 DXQ131036:DXQ131103 EHM131036:EHM131103 ERI131036:ERI131103 FBE131036:FBE131103 FLA131036:FLA131103 FUW131036:FUW131103 GES131036:GES131103 GOO131036:GOO131103 GYK131036:GYK131103 HIG131036:HIG131103 HSC131036:HSC131103 IBY131036:IBY131103 ILU131036:ILU131103 IVQ131036:IVQ131103 JFM131036:JFM131103 JPI131036:JPI131103 JZE131036:JZE131103 KJA131036:KJA131103 KSW131036:KSW131103 LCS131036:LCS131103 LMO131036:LMO131103 LWK131036:LWK131103 MGG131036:MGG131103 MQC131036:MQC131103 MZY131036:MZY131103 NJU131036:NJU131103 NTQ131036:NTQ131103 ODM131036:ODM131103 ONI131036:ONI131103 OXE131036:OXE131103 PHA131036:PHA131103 PQW131036:PQW131103 QAS131036:QAS131103 QKO131036:QKO131103 QUK131036:QUK131103 REG131036:REG131103 ROC131036:ROC131103 RXY131036:RXY131103 SHU131036:SHU131103 SRQ131036:SRQ131103 TBM131036:TBM131103 TLI131036:TLI131103 TVE131036:TVE131103 UFA131036:UFA131103 UOW131036:UOW131103 UYS131036:UYS131103 VIO131036:VIO131103 VSK131036:VSK131103 WCG131036:WCG131103 WMC131036:WMC131103 WVY131036:WVY131103 J196626:J196693 JM196572:JM196639 TI196572:TI196639 ADE196572:ADE196639 ANA196572:ANA196639 AWW196572:AWW196639 BGS196572:BGS196639 BQO196572:BQO196639 CAK196572:CAK196639 CKG196572:CKG196639 CUC196572:CUC196639 DDY196572:DDY196639 DNU196572:DNU196639 DXQ196572:DXQ196639 EHM196572:EHM196639 ERI196572:ERI196639 FBE196572:FBE196639 FLA196572:FLA196639 FUW196572:FUW196639 GES196572:GES196639 GOO196572:GOO196639 GYK196572:GYK196639 HIG196572:HIG196639 HSC196572:HSC196639 IBY196572:IBY196639 ILU196572:ILU196639 IVQ196572:IVQ196639 JFM196572:JFM196639 JPI196572:JPI196639 JZE196572:JZE196639 KJA196572:KJA196639 KSW196572:KSW196639 LCS196572:LCS196639 LMO196572:LMO196639 LWK196572:LWK196639 MGG196572:MGG196639 MQC196572:MQC196639 MZY196572:MZY196639 NJU196572:NJU196639 NTQ196572:NTQ196639 ODM196572:ODM196639 ONI196572:ONI196639 OXE196572:OXE196639 PHA196572:PHA196639 PQW196572:PQW196639 QAS196572:QAS196639 QKO196572:QKO196639 QUK196572:QUK196639 REG196572:REG196639 ROC196572:ROC196639 RXY196572:RXY196639 SHU196572:SHU196639 SRQ196572:SRQ196639 TBM196572:TBM196639 TLI196572:TLI196639 TVE196572:TVE196639 UFA196572:UFA196639 UOW196572:UOW196639 UYS196572:UYS196639 VIO196572:VIO196639 VSK196572:VSK196639 WCG196572:WCG196639 WMC196572:WMC196639 WVY196572:WVY196639 J262162:J262229 JM262108:JM262175 TI262108:TI262175 ADE262108:ADE262175 ANA262108:ANA262175 AWW262108:AWW262175 BGS262108:BGS262175 BQO262108:BQO262175 CAK262108:CAK262175 CKG262108:CKG262175 CUC262108:CUC262175 DDY262108:DDY262175 DNU262108:DNU262175 DXQ262108:DXQ262175 EHM262108:EHM262175 ERI262108:ERI262175 FBE262108:FBE262175 FLA262108:FLA262175 FUW262108:FUW262175 GES262108:GES262175 GOO262108:GOO262175 GYK262108:GYK262175 HIG262108:HIG262175 HSC262108:HSC262175 IBY262108:IBY262175 ILU262108:ILU262175 IVQ262108:IVQ262175 JFM262108:JFM262175 JPI262108:JPI262175 JZE262108:JZE262175 KJA262108:KJA262175 KSW262108:KSW262175 LCS262108:LCS262175 LMO262108:LMO262175 LWK262108:LWK262175 MGG262108:MGG262175 MQC262108:MQC262175 MZY262108:MZY262175 NJU262108:NJU262175 NTQ262108:NTQ262175 ODM262108:ODM262175 ONI262108:ONI262175 OXE262108:OXE262175 PHA262108:PHA262175 PQW262108:PQW262175 QAS262108:QAS262175 QKO262108:QKO262175 QUK262108:QUK262175 REG262108:REG262175 ROC262108:ROC262175 RXY262108:RXY262175 SHU262108:SHU262175 SRQ262108:SRQ262175 TBM262108:TBM262175 TLI262108:TLI262175 TVE262108:TVE262175 UFA262108:UFA262175 UOW262108:UOW262175 UYS262108:UYS262175 VIO262108:VIO262175 VSK262108:VSK262175 WCG262108:WCG262175 WMC262108:WMC262175 WVY262108:WVY262175 J327698:J327765 JM327644:JM327711 TI327644:TI327711 ADE327644:ADE327711 ANA327644:ANA327711 AWW327644:AWW327711 BGS327644:BGS327711 BQO327644:BQO327711 CAK327644:CAK327711 CKG327644:CKG327711 CUC327644:CUC327711 DDY327644:DDY327711 DNU327644:DNU327711 DXQ327644:DXQ327711 EHM327644:EHM327711 ERI327644:ERI327711 FBE327644:FBE327711 FLA327644:FLA327711 FUW327644:FUW327711 GES327644:GES327711 GOO327644:GOO327711 GYK327644:GYK327711 HIG327644:HIG327711 HSC327644:HSC327711 IBY327644:IBY327711 ILU327644:ILU327711 IVQ327644:IVQ327711 JFM327644:JFM327711 JPI327644:JPI327711 JZE327644:JZE327711 KJA327644:KJA327711 KSW327644:KSW327711 LCS327644:LCS327711 LMO327644:LMO327711 LWK327644:LWK327711 MGG327644:MGG327711 MQC327644:MQC327711 MZY327644:MZY327711 NJU327644:NJU327711 NTQ327644:NTQ327711 ODM327644:ODM327711 ONI327644:ONI327711 OXE327644:OXE327711 PHA327644:PHA327711 PQW327644:PQW327711 QAS327644:QAS327711 QKO327644:QKO327711 QUK327644:QUK327711 REG327644:REG327711 ROC327644:ROC327711 RXY327644:RXY327711 SHU327644:SHU327711 SRQ327644:SRQ327711 TBM327644:TBM327711 TLI327644:TLI327711 TVE327644:TVE327711 UFA327644:UFA327711 UOW327644:UOW327711 UYS327644:UYS327711 VIO327644:VIO327711 VSK327644:VSK327711 WCG327644:WCG327711 WMC327644:WMC327711 WVY327644:WVY327711 J393234:J393301 JM393180:JM393247 TI393180:TI393247 ADE393180:ADE393247 ANA393180:ANA393247 AWW393180:AWW393247 BGS393180:BGS393247 BQO393180:BQO393247 CAK393180:CAK393247 CKG393180:CKG393247 CUC393180:CUC393247 DDY393180:DDY393247 DNU393180:DNU393247 DXQ393180:DXQ393247 EHM393180:EHM393247 ERI393180:ERI393247 FBE393180:FBE393247 FLA393180:FLA393247 FUW393180:FUW393247 GES393180:GES393247 GOO393180:GOO393247 GYK393180:GYK393247 HIG393180:HIG393247 HSC393180:HSC393247 IBY393180:IBY393247 ILU393180:ILU393247 IVQ393180:IVQ393247 JFM393180:JFM393247 JPI393180:JPI393247 JZE393180:JZE393247 KJA393180:KJA393247 KSW393180:KSW393247 LCS393180:LCS393247 LMO393180:LMO393247 LWK393180:LWK393247 MGG393180:MGG393247 MQC393180:MQC393247 MZY393180:MZY393247 NJU393180:NJU393247 NTQ393180:NTQ393247 ODM393180:ODM393247 ONI393180:ONI393247 OXE393180:OXE393247 PHA393180:PHA393247 PQW393180:PQW393247 QAS393180:QAS393247 QKO393180:QKO393247 QUK393180:QUK393247 REG393180:REG393247 ROC393180:ROC393247 RXY393180:RXY393247 SHU393180:SHU393247 SRQ393180:SRQ393247 TBM393180:TBM393247 TLI393180:TLI393247 TVE393180:TVE393247 UFA393180:UFA393247 UOW393180:UOW393247 UYS393180:UYS393247 VIO393180:VIO393247 VSK393180:VSK393247 WCG393180:WCG393247 WMC393180:WMC393247 WVY393180:WVY393247 J458770:J458837 JM458716:JM458783 TI458716:TI458783 ADE458716:ADE458783 ANA458716:ANA458783 AWW458716:AWW458783 BGS458716:BGS458783 BQO458716:BQO458783 CAK458716:CAK458783 CKG458716:CKG458783 CUC458716:CUC458783 DDY458716:DDY458783 DNU458716:DNU458783 DXQ458716:DXQ458783 EHM458716:EHM458783 ERI458716:ERI458783 FBE458716:FBE458783 FLA458716:FLA458783 FUW458716:FUW458783 GES458716:GES458783 GOO458716:GOO458783 GYK458716:GYK458783 HIG458716:HIG458783 HSC458716:HSC458783 IBY458716:IBY458783 ILU458716:ILU458783 IVQ458716:IVQ458783 JFM458716:JFM458783 JPI458716:JPI458783 JZE458716:JZE458783 KJA458716:KJA458783 KSW458716:KSW458783 LCS458716:LCS458783 LMO458716:LMO458783 LWK458716:LWK458783 MGG458716:MGG458783 MQC458716:MQC458783 MZY458716:MZY458783 NJU458716:NJU458783 NTQ458716:NTQ458783 ODM458716:ODM458783 ONI458716:ONI458783 OXE458716:OXE458783 PHA458716:PHA458783 PQW458716:PQW458783 QAS458716:QAS458783 QKO458716:QKO458783 QUK458716:QUK458783 REG458716:REG458783 ROC458716:ROC458783 RXY458716:RXY458783 SHU458716:SHU458783 SRQ458716:SRQ458783 TBM458716:TBM458783 TLI458716:TLI458783 TVE458716:TVE458783 UFA458716:UFA458783 UOW458716:UOW458783 UYS458716:UYS458783 VIO458716:VIO458783 VSK458716:VSK458783 WCG458716:WCG458783 WMC458716:WMC458783 WVY458716:WVY458783 J524306:J524373 JM524252:JM524319 TI524252:TI524319 ADE524252:ADE524319 ANA524252:ANA524319 AWW524252:AWW524319 BGS524252:BGS524319 BQO524252:BQO524319 CAK524252:CAK524319 CKG524252:CKG524319 CUC524252:CUC524319 DDY524252:DDY524319 DNU524252:DNU524319 DXQ524252:DXQ524319 EHM524252:EHM524319 ERI524252:ERI524319 FBE524252:FBE524319 FLA524252:FLA524319 FUW524252:FUW524319 GES524252:GES524319 GOO524252:GOO524319 GYK524252:GYK524319 HIG524252:HIG524319 HSC524252:HSC524319 IBY524252:IBY524319 ILU524252:ILU524319 IVQ524252:IVQ524319 JFM524252:JFM524319 JPI524252:JPI524319 JZE524252:JZE524319 KJA524252:KJA524319 KSW524252:KSW524319 LCS524252:LCS524319 LMO524252:LMO524319 LWK524252:LWK524319 MGG524252:MGG524319 MQC524252:MQC524319 MZY524252:MZY524319 NJU524252:NJU524319 NTQ524252:NTQ524319 ODM524252:ODM524319 ONI524252:ONI524319 OXE524252:OXE524319 PHA524252:PHA524319 PQW524252:PQW524319 QAS524252:QAS524319 QKO524252:QKO524319 QUK524252:QUK524319 REG524252:REG524319 ROC524252:ROC524319 RXY524252:RXY524319 SHU524252:SHU524319 SRQ524252:SRQ524319 TBM524252:TBM524319 TLI524252:TLI524319 TVE524252:TVE524319 UFA524252:UFA524319 UOW524252:UOW524319 UYS524252:UYS524319 VIO524252:VIO524319 VSK524252:VSK524319 WCG524252:WCG524319 WMC524252:WMC524319 WVY524252:WVY524319 J589842:J589909 JM589788:JM589855 TI589788:TI589855 ADE589788:ADE589855 ANA589788:ANA589855 AWW589788:AWW589855 BGS589788:BGS589855 BQO589788:BQO589855 CAK589788:CAK589855 CKG589788:CKG589855 CUC589788:CUC589855 DDY589788:DDY589855 DNU589788:DNU589855 DXQ589788:DXQ589855 EHM589788:EHM589855 ERI589788:ERI589855 FBE589788:FBE589855 FLA589788:FLA589855 FUW589788:FUW589855 GES589788:GES589855 GOO589788:GOO589855 GYK589788:GYK589855 HIG589788:HIG589855 HSC589788:HSC589855 IBY589788:IBY589855 ILU589788:ILU589855 IVQ589788:IVQ589855 JFM589788:JFM589855 JPI589788:JPI589855 JZE589788:JZE589855 KJA589788:KJA589855 KSW589788:KSW589855 LCS589788:LCS589855 LMO589788:LMO589855 LWK589788:LWK589855 MGG589788:MGG589855 MQC589788:MQC589855 MZY589788:MZY589855 NJU589788:NJU589855 NTQ589788:NTQ589855 ODM589788:ODM589855 ONI589788:ONI589855 OXE589788:OXE589855 PHA589788:PHA589855 PQW589788:PQW589855 QAS589788:QAS589855 QKO589788:QKO589855 QUK589788:QUK589855 REG589788:REG589855 ROC589788:ROC589855 RXY589788:RXY589855 SHU589788:SHU589855 SRQ589788:SRQ589855 TBM589788:TBM589855 TLI589788:TLI589855 TVE589788:TVE589855 UFA589788:UFA589855 UOW589788:UOW589855 UYS589788:UYS589855 VIO589788:VIO589855 VSK589788:VSK589855 WCG589788:WCG589855 WMC589788:WMC589855 WVY589788:WVY589855 J655378:J655445 JM655324:JM655391 TI655324:TI655391 ADE655324:ADE655391 ANA655324:ANA655391 AWW655324:AWW655391 BGS655324:BGS655391 BQO655324:BQO655391 CAK655324:CAK655391 CKG655324:CKG655391 CUC655324:CUC655391 DDY655324:DDY655391 DNU655324:DNU655391 DXQ655324:DXQ655391 EHM655324:EHM655391 ERI655324:ERI655391 FBE655324:FBE655391 FLA655324:FLA655391 FUW655324:FUW655391 GES655324:GES655391 GOO655324:GOO655391 GYK655324:GYK655391 HIG655324:HIG655391 HSC655324:HSC655391 IBY655324:IBY655391 ILU655324:ILU655391 IVQ655324:IVQ655391 JFM655324:JFM655391 JPI655324:JPI655391 JZE655324:JZE655391 KJA655324:KJA655391 KSW655324:KSW655391 LCS655324:LCS655391 LMO655324:LMO655391 LWK655324:LWK655391 MGG655324:MGG655391 MQC655324:MQC655391 MZY655324:MZY655391 NJU655324:NJU655391 NTQ655324:NTQ655391 ODM655324:ODM655391 ONI655324:ONI655391 OXE655324:OXE655391 PHA655324:PHA655391 PQW655324:PQW655391 QAS655324:QAS655391 QKO655324:QKO655391 QUK655324:QUK655391 REG655324:REG655391 ROC655324:ROC655391 RXY655324:RXY655391 SHU655324:SHU655391 SRQ655324:SRQ655391 TBM655324:TBM655391 TLI655324:TLI655391 TVE655324:TVE655391 UFA655324:UFA655391 UOW655324:UOW655391 UYS655324:UYS655391 VIO655324:VIO655391 VSK655324:VSK655391 WCG655324:WCG655391 WMC655324:WMC655391 WVY655324:WVY655391 J720914:J720981 JM720860:JM720927 TI720860:TI720927 ADE720860:ADE720927 ANA720860:ANA720927 AWW720860:AWW720927 BGS720860:BGS720927 BQO720860:BQO720927 CAK720860:CAK720927 CKG720860:CKG720927 CUC720860:CUC720927 DDY720860:DDY720927 DNU720860:DNU720927 DXQ720860:DXQ720927 EHM720860:EHM720927 ERI720860:ERI720927 FBE720860:FBE720927 FLA720860:FLA720927 FUW720860:FUW720927 GES720860:GES720927 GOO720860:GOO720927 GYK720860:GYK720927 HIG720860:HIG720927 HSC720860:HSC720927 IBY720860:IBY720927 ILU720860:ILU720927 IVQ720860:IVQ720927 JFM720860:JFM720927 JPI720860:JPI720927 JZE720860:JZE720927 KJA720860:KJA720927 KSW720860:KSW720927 LCS720860:LCS720927 LMO720860:LMO720927 LWK720860:LWK720927 MGG720860:MGG720927 MQC720860:MQC720927 MZY720860:MZY720927 NJU720860:NJU720927 NTQ720860:NTQ720927 ODM720860:ODM720927 ONI720860:ONI720927 OXE720860:OXE720927 PHA720860:PHA720927 PQW720860:PQW720927 QAS720860:QAS720927 QKO720860:QKO720927 QUK720860:QUK720927 REG720860:REG720927 ROC720860:ROC720927 RXY720860:RXY720927 SHU720860:SHU720927 SRQ720860:SRQ720927 TBM720860:TBM720927 TLI720860:TLI720927 TVE720860:TVE720927 UFA720860:UFA720927 UOW720860:UOW720927 UYS720860:UYS720927 VIO720860:VIO720927 VSK720860:VSK720927 WCG720860:WCG720927 WMC720860:WMC720927 WVY720860:WVY720927 J786450:J786517 JM786396:JM786463 TI786396:TI786463 ADE786396:ADE786463 ANA786396:ANA786463 AWW786396:AWW786463 BGS786396:BGS786463 BQO786396:BQO786463 CAK786396:CAK786463 CKG786396:CKG786463 CUC786396:CUC786463 DDY786396:DDY786463 DNU786396:DNU786463 DXQ786396:DXQ786463 EHM786396:EHM786463 ERI786396:ERI786463 FBE786396:FBE786463 FLA786396:FLA786463 FUW786396:FUW786463 GES786396:GES786463 GOO786396:GOO786463 GYK786396:GYK786463 HIG786396:HIG786463 HSC786396:HSC786463 IBY786396:IBY786463 ILU786396:ILU786463 IVQ786396:IVQ786463 JFM786396:JFM786463 JPI786396:JPI786463 JZE786396:JZE786463 KJA786396:KJA786463 KSW786396:KSW786463 LCS786396:LCS786463 LMO786396:LMO786463 LWK786396:LWK786463 MGG786396:MGG786463 MQC786396:MQC786463 MZY786396:MZY786463 NJU786396:NJU786463 NTQ786396:NTQ786463 ODM786396:ODM786463 ONI786396:ONI786463 OXE786396:OXE786463 PHA786396:PHA786463 PQW786396:PQW786463 QAS786396:QAS786463 QKO786396:QKO786463 QUK786396:QUK786463 REG786396:REG786463 ROC786396:ROC786463 RXY786396:RXY786463 SHU786396:SHU786463 SRQ786396:SRQ786463 TBM786396:TBM786463 TLI786396:TLI786463 TVE786396:TVE786463 UFA786396:UFA786463 UOW786396:UOW786463 UYS786396:UYS786463 VIO786396:VIO786463 VSK786396:VSK786463 WCG786396:WCG786463 WMC786396:WMC786463 WVY786396:WVY786463 J851986:J852053 JM851932:JM851999 TI851932:TI851999 ADE851932:ADE851999 ANA851932:ANA851999 AWW851932:AWW851999 BGS851932:BGS851999 BQO851932:BQO851999 CAK851932:CAK851999 CKG851932:CKG851999 CUC851932:CUC851999 DDY851932:DDY851999 DNU851932:DNU851999 DXQ851932:DXQ851999 EHM851932:EHM851999 ERI851932:ERI851999 FBE851932:FBE851999 FLA851932:FLA851999 FUW851932:FUW851999 GES851932:GES851999 GOO851932:GOO851999 GYK851932:GYK851999 HIG851932:HIG851999 HSC851932:HSC851999 IBY851932:IBY851999 ILU851932:ILU851999 IVQ851932:IVQ851999 JFM851932:JFM851999 JPI851932:JPI851999 JZE851932:JZE851999 KJA851932:KJA851999 KSW851932:KSW851999 LCS851932:LCS851999 LMO851932:LMO851999 LWK851932:LWK851999 MGG851932:MGG851999 MQC851932:MQC851999 MZY851932:MZY851999 NJU851932:NJU851999 NTQ851932:NTQ851999 ODM851932:ODM851999 ONI851932:ONI851999 OXE851932:OXE851999 PHA851932:PHA851999 PQW851932:PQW851999 QAS851932:QAS851999 QKO851932:QKO851999 QUK851932:QUK851999 REG851932:REG851999 ROC851932:ROC851999 RXY851932:RXY851999 SHU851932:SHU851999 SRQ851932:SRQ851999 TBM851932:TBM851999 TLI851932:TLI851999 TVE851932:TVE851999 UFA851932:UFA851999 UOW851932:UOW851999 UYS851932:UYS851999 VIO851932:VIO851999 VSK851932:VSK851999 WCG851932:WCG851999 WMC851932:WMC851999 WVY851932:WVY851999 J917522:J917589 JM917468:JM917535 TI917468:TI917535 ADE917468:ADE917535 ANA917468:ANA917535 AWW917468:AWW917535 BGS917468:BGS917535 BQO917468:BQO917535 CAK917468:CAK917535 CKG917468:CKG917535 CUC917468:CUC917535 DDY917468:DDY917535 DNU917468:DNU917535 DXQ917468:DXQ917535 EHM917468:EHM917535 ERI917468:ERI917535 FBE917468:FBE917535 FLA917468:FLA917535 FUW917468:FUW917535 GES917468:GES917535 GOO917468:GOO917535 GYK917468:GYK917535 HIG917468:HIG917535 HSC917468:HSC917535 IBY917468:IBY917535 ILU917468:ILU917535 IVQ917468:IVQ917535 JFM917468:JFM917535 JPI917468:JPI917535 JZE917468:JZE917535 KJA917468:KJA917535 KSW917468:KSW917535 LCS917468:LCS917535 LMO917468:LMO917535 LWK917468:LWK917535 MGG917468:MGG917535 MQC917468:MQC917535 MZY917468:MZY917535 NJU917468:NJU917535 NTQ917468:NTQ917535 ODM917468:ODM917535 ONI917468:ONI917535 OXE917468:OXE917535 PHA917468:PHA917535 PQW917468:PQW917535 QAS917468:QAS917535 QKO917468:QKO917535 QUK917468:QUK917535 REG917468:REG917535 ROC917468:ROC917535 RXY917468:RXY917535 SHU917468:SHU917535 SRQ917468:SRQ917535 TBM917468:TBM917535 TLI917468:TLI917535 TVE917468:TVE917535 UFA917468:UFA917535 UOW917468:UOW917535 UYS917468:UYS917535 VIO917468:VIO917535 VSK917468:VSK917535 WCG917468:WCG917535 WMC917468:WMC917535 WVY917468:WVY917535 J983058:J983125 JM983004:JM983071 TI983004:TI983071 ADE983004:ADE983071 ANA983004:ANA983071 AWW983004:AWW983071 BGS983004:BGS983071 BQO983004:BQO983071 CAK983004:CAK983071 CKG983004:CKG983071 CUC983004:CUC983071 DDY983004:DDY983071 DNU983004:DNU983071 DXQ983004:DXQ983071 EHM983004:EHM983071 ERI983004:ERI983071 FBE983004:FBE983071 FLA983004:FLA983071 FUW983004:FUW983071 GES983004:GES983071 GOO983004:GOO983071 GYK983004:GYK983071 HIG983004:HIG983071 HSC983004:HSC983071 IBY983004:IBY983071 ILU983004:ILU983071 IVQ983004:IVQ983071 JFM983004:JFM983071 JPI983004:JPI983071 JZE983004:JZE983071 KJA983004:KJA983071 KSW983004:KSW983071 LCS983004:LCS983071 LMO983004:LMO983071 LWK983004:LWK983071 MGG983004:MGG983071 MQC983004:MQC983071 MZY983004:MZY983071 NJU983004:NJU983071 NTQ983004:NTQ983071 ODM983004:ODM983071 ONI983004:ONI983071 OXE983004:OXE983071 PHA983004:PHA983071 PQW983004:PQW983071 QAS983004:QAS983071 QKO983004:QKO983071 QUK983004:QUK983071 REG983004:REG983071 ROC983004:ROC983071 RXY983004:RXY983071 SHU983004:SHU983071 SRQ983004:SRQ983071 TBM983004:TBM983071 TLI983004:TLI983071 TVE983004:TVE983071 UFA983004:UFA983071 UOW983004:UOW983071 UYS983004:UYS983071 VIO983004:VIO983071 VSK983004:VSK983071 WCG983004:WCG983071 WMC983004:WMC983071 JM27:JM85" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$L$16:$L$59</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E91" xr:uid="{37DDCD74-110F-4B6E-8D64-C89F89A18D6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F91" xr:uid="{37DDCD74-110F-4B6E-8D64-C89F89A18D6D}">
       <formula1>"صادرات مباشرة,صادرات معلقة"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D91" xr:uid="{3A07029E-7D66-4D2D-ABBB-964AEFBF5720}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E91" xr:uid="{3A07029E-7D66-4D2D-ABBB-964AEFBF5720}">
       <formula1>"من المستوى الأعلى,أخرى"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.39" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L61:S61 L69:N69" formula="1"/>
+    <ignoredError sqref="M61:T61 M69:O69" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -7823,13 +7820,13 @@
           <x14:formula1>
             <xm:f>OFFSET(Lists!$C$3,0,0,COUNTA(Lists!$C:$C)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I91</xm:sqref>
+          <xm:sqref>J5:J91</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6225FA5A-FA66-44B5-83C2-DCD736E4BF2E}">
           <x14:formula1>
             <xm:f>OFFSET(Lists!$I$3,0,0,COUNTA(Lists!$I:$I)-1,1)</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C91</xm:sqref>
+          <xm:sqref>D5:D91</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
